--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE299E0-1CDD-47F2-B25B-67DC34BE6E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDB5345-A6F7-4740-B810-C28B11E17488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15465" yWindow="2040" windowWidth="14400" windowHeight="8190" xr2:uid="{FEB7ECC9-4349-46C9-B8A1-A64E3E3BC192}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{FEB7ECC9-4349-46C9-B8A1-A64E3E3BC192}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="713">
   <si>
     <t>targets</t>
   </si>
@@ -2174,6 +2174,18 @@
   </si>
   <si>
     <t>Spp</t>
+  </si>
+  <si>
+    <t>cw_chemical_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>cw_nutrient_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>cw_pathogen_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>cw_trash_trend_pat2021.csv</t>
   </si>
 </sst>
 </file>
@@ -2678,11 +2690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A96B91-1BA0-473F-B494-CECB7A8042E5}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3906,6 +3918,110 @@
       </c>
       <c r="Z21" t="s">
         <v>652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" t="s">
+        <v>709</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>212</v>
+      </c>
+      <c r="P22" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" t="s">
+        <v>710</v>
+      </c>
+      <c r="D23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>212</v>
+      </c>
+      <c r="P23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" t="s">
+        <v>711</v>
+      </c>
+      <c r="D24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="P24" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" t="s">
+        <v>712</v>
+      </c>
+      <c r="D25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>212</v>
+      </c>
+      <c r="P25" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -3919,8 +4035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4781FF28-7C0D-4798-9B38-662D2B0AD3BC}">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:B71"/>
+    <sheetView topLeftCell="D35" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDB5345-A6F7-4740-B810-C28B11E17488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2BBC70-70D7-47F5-9D06-B6A7F38647BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{FEB7ECC9-4349-46C9-B8A1-A64E3E3BC192}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="729">
   <si>
     <t>targets</t>
   </si>
@@ -2185,7 +2185,55 @@
     <t>cw_pathogen_trend_pat2021.csv</t>
   </si>
   <si>
-    <t>cw_trash_trend_pat2021.csv</t>
+    <t>cw_coastalpopn_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>cw_coastalpopn_trend</t>
+  </si>
+  <si>
+    <t>po_nutrients_3nm_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW </t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/cw_coastalpopn_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/cw_nutrient_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/po_nutrients_3nm_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/cw_pathogen_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/cw_chemical_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>po_pathogen</t>
+  </si>
+  <si>
+    <t>po_pathogen_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/po_pathogen_pat2021.csv</t>
+  </si>
+  <si>
+    <t>po_chemical_pat2021.csv</t>
+  </si>
+  <si>
+    <t>po_chemical</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/po_chemical_pat2021.csv</t>
+  </si>
+  <si>
+    <t>po_trash_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/po_trash_pat2021.csv</t>
   </si>
 </sst>
 </file>
@@ -2690,11 +2738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A96B91-1BA0-473F-B494-CECB7A8042E5}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3925,10 +3973,10 @@
         <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>274</v>
+        <v>713</v>
       </c>
       <c r="C22" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D22" t="s">
         <v>212</v>
@@ -3936,6 +3984,12 @@
       <c r="E22" t="s">
         <v>212</v>
       </c>
+      <c r="I22" t="s">
+        <v>716</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
       <c r="M22" t="s">
         <v>32</v>
       </c>
@@ -3944,6 +3998,27 @@
       </c>
       <c r="P22" t="s">
         <v>651</v>
+      </c>
+      <c r="Q22">
+        <v>2021</v>
+      </c>
+      <c r="R22">
+        <v>2021</v>
+      </c>
+      <c r="S22" s="4">
+        <v>-4.3498839999999997E-2</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y22">
+        <v>36</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.45">
@@ -3962,14 +4037,56 @@
       <c r="E23" t="s">
         <v>212</v>
       </c>
+      <c r="I23" t="s">
+        <v>717</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
       <c r="M23" t="s">
         <v>32</v>
       </c>
       <c r="N23" t="s">
         <v>212</v>
       </c>
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
       <c r="P23" t="s">
         <v>651</v>
+      </c>
+      <c r="Q23">
+        <v>2021</v>
+      </c>
+      <c r="R23">
+        <v>2021</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0.418007505</v>
+      </c>
+      <c r="U23" t="s">
+        <v>652</v>
+      </c>
+      <c r="V23" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y23">
+        <v>36</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.45">
@@ -3988,6 +4105,12 @@
       <c r="E24" t="s">
         <v>212</v>
       </c>
+      <c r="I24" t="s">
+        <v>719</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
       <c r="M24" t="s">
         <v>32</v>
       </c>
@@ -3996,6 +4119,27 @@
       </c>
       <c r="P24" t="s">
         <v>651</v>
+      </c>
+      <c r="Q24">
+        <v>2021</v>
+      </c>
+      <c r="R24">
+        <v>2021</v>
+      </c>
+      <c r="S24" s="4">
+        <v>-1.194088E-16</v>
+      </c>
+      <c r="T24" s="4">
+        <v>3.821081E-15</v>
+      </c>
+      <c r="U24" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y24">
+        <v>36</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.45">
@@ -4003,10 +4147,10 @@
         <v>273</v>
       </c>
       <c r="B25" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C25" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D25" t="s">
         <v>212</v>
@@ -4014,6 +4158,12 @@
       <c r="E25" t="s">
         <v>212</v>
       </c>
+      <c r="I25" t="s">
+        <v>720</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
       <c r="M25" t="s">
         <v>32</v>
       </c>
@@ -4022,6 +4172,254 @@
       </c>
       <c r="P25" t="s">
         <v>651</v>
+      </c>
+      <c r="Q25">
+        <v>2021</v>
+      </c>
+      <c r="R25">
+        <v>2021</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y25">
+        <v>36</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>715</v>
+      </c>
+      <c r="B26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" t="s">
+        <v>714</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s">
+        <v>718</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q26">
+        <v>2021</v>
+      </c>
+      <c r="R26">
+        <v>2021</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26" t="s">
+        <v>652</v>
+      </c>
+      <c r="V26" t="s">
+        <v>30</v>
+      </c>
+      <c r="W26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y26">
+        <v>36</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>715</v>
+      </c>
+      <c r="B27" t="s">
+        <v>721</v>
+      </c>
+      <c r="C27" t="s">
+        <v>722</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>726</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q27">
+        <v>2021</v>
+      </c>
+      <c r="R27">
+        <v>2021</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y27">
+        <v>36</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>715</v>
+      </c>
+      <c r="B28" t="s">
+        <v>725</v>
+      </c>
+      <c r="C28" t="s">
+        <v>724</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>723</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q28">
+        <v>2021</v>
+      </c>
+      <c r="R28">
+        <v>2021</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y28">
+        <v>36</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>715</v>
+      </c>
+      <c r="B29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" t="s">
+        <v>727</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>728</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q29">
+        <v>2021</v>
+      </c>
+      <c r="R29">
+        <v>2021</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0.90909090910000001</v>
+      </c>
+      <c r="U29" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y29">
+        <v>36</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -4035,8 +4433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4781FF28-7C0D-4798-9B38-662D2B0AD3BC}">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="D35" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2BBC70-70D7-47F5-9D06-B6A7F38647BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B065B3-3B9F-4D7D-AAA5-FE05B4AFB0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{FEB7ECC9-4349-46C9-B8A1-A64E3E3BC192}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="729">
   <si>
     <t>targets</t>
   </si>
@@ -2158,21 +2158,9 @@
     <t>fis_b_bmsy_pat2021.csv</t>
   </si>
   <si>
-    <t>fis_meancatch_pat2021.csv</t>
-  </si>
-  <si>
-    <t>Meanlandings</t>
-  </si>
-  <si>
     <t>~/github/pat/comunas/layers/fis_b_bmsy_pat2021.csv</t>
   </si>
   <si>
-    <t>~/github/pat/comunas/layers/fis_meancatch_pat2021.csv</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Spp</t>
   </si>
   <si>
@@ -2234,6 +2222,18 @@
   </si>
   <si>
     <t>~/github/pat/comunas/layers/po_trash_pat2021.csv</t>
+  </si>
+  <si>
+    <t>fis_landings</t>
+  </si>
+  <si>
+    <t>fis_landings_pat2021.csv</t>
+  </si>
+  <si>
+    <t>SumLandings</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/fis_landings_pat2021.csv</t>
   </si>
 </sst>
 </file>
@@ -2740,9 +2740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A96B91-1BA0-473F-B494-CECB7A8042E5}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3870,16 +3870,16 @@
         <v>363</v>
       </c>
       <c r="I20" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J20" t="s">
         <v>29</v>
       </c>
       <c r="L20" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M20" t="s">
-        <v>707</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
         <v>365</v>
@@ -3914,34 +3914,31 @@
         <v>362</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>725</v>
       </c>
       <c r="C21" t="s">
-        <v>703</v>
+        <v>726</v>
       </c>
       <c r="D21" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="E21" t="s">
         <v>374</v>
       </c>
-      <c r="H21" t="s">
-        <v>371</v>
-      </c>
       <c r="I21" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="J21" t="s">
         <v>29</v>
       </c>
       <c r="L21" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M21" t="s">
-        <v>707</v>
+        <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="P21" t="s">
         <v>651</v>
@@ -3956,7 +3953,7 @@
         <v>1E-3</v>
       </c>
       <c r="T21">
-        <v>27272.174999999999</v>
+        <v>14031.718000000001</v>
       </c>
       <c r="U21" t="s">
         <v>652</v>
@@ -3973,10 +3970,10 @@
         <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C22" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D22" t="s">
         <v>212</v>
@@ -3985,7 +3982,7 @@
         <v>212</v>
       </c>
       <c r="I22" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="J22" t="s">
         <v>29</v>
@@ -4029,7 +4026,7 @@
         <v>279</v>
       </c>
       <c r="C23" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D23" t="s">
         <v>212</v>
@@ -4038,7 +4035,7 @@
         <v>212</v>
       </c>
       <c r="I23" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="J23" t="s">
         <v>29</v>
@@ -4097,7 +4094,7 @@
         <v>284</v>
       </c>
       <c r="C24" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D24" t="s">
         <v>212</v>
@@ -4106,7 +4103,7 @@
         <v>212</v>
       </c>
       <c r="I24" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="J24" t="s">
         <v>29</v>
@@ -4150,7 +4147,7 @@
         <v>274</v>
       </c>
       <c r="C25" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D25" t="s">
         <v>212</v>
@@ -4159,7 +4156,7 @@
         <v>212</v>
       </c>
       <c r="I25" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J25" t="s">
         <v>29</v>
@@ -4197,13 +4194,13 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B26" t="s">
         <v>295</v>
       </c>
       <c r="C26" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D26" t="s">
         <v>64</v>
@@ -4212,7 +4209,7 @@
         <v>52</v>
       </c>
       <c r="I26" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="J26" t="s">
         <v>29</v>
@@ -4265,13 +4262,13 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B27" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C27" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D27" t="s">
         <v>64</v>
@@ -4280,7 +4277,7 @@
         <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="J27" t="s">
         <v>29</v>
@@ -4318,13 +4315,13 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B28" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C28" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D28" t="s">
         <v>64</v>
@@ -4333,7 +4330,7 @@
         <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="J28" t="s">
         <v>29</v>
@@ -4371,13 +4368,13 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B29" t="s">
         <v>307</v>
       </c>
       <c r="C29" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D29" t="s">
         <v>64</v>
@@ -4386,7 +4383,7 @@
         <v>52</v>
       </c>
       <c r="I29" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="J29" t="s">
         <v>29</v>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B065B3-3B9F-4D7D-AAA5-FE05B4AFB0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29AC6F1-C627-4428-9ADC-BD1AB09A4632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{FEB7ECC9-4349-46C9-B8A1-A64E3E3BC192}"/>
+    <workbookView xWindow="-28920" yWindow="-2085" windowWidth="29040" windowHeight="15720" xr2:uid="{FEB7ECC9-4349-46C9-B8A1-A64E3E3BC192}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="735">
   <si>
     <t>targets</t>
   </si>
@@ -2234,6 +2234,24 @@
   </si>
   <si>
     <t>~/github/pat/comunas/layers/fis_landings_pat2021.csv</t>
+  </si>
+  <si>
+    <t>mar_harvest_tonnes_pat2021.csv</t>
+  </si>
+  <si>
+    <t>mar_sustainability_pat2021.csv</t>
+  </si>
+  <si>
+    <t>mar_sustainability</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/mar_harvest_tonnes_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/mar_sustainability_pat2021.csv</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
 </sst>
 </file>
@@ -2738,11 +2756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A96B91-1BA0-473F-B494-CECB7A8042E5}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4416,6 +4434,112 @@
         <v>36</v>
       </c>
       <c r="Z29" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>499</v>
+      </c>
+      <c r="B30" t="s">
+        <v>506</v>
+      </c>
+      <c r="C30" t="s">
+        <v>729</v>
+      </c>
+      <c r="D30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E30" t="s">
+        <v>374</v>
+      </c>
+      <c r="I30" t="s">
+        <v>732</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>734</v>
+      </c>
+      <c r="M30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s">
+        <v>374</v>
+      </c>
+      <c r="P30" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q30">
+        <v>2014</v>
+      </c>
+      <c r="R30">
+        <v>2021</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>252752.49</v>
+      </c>
+      <c r="U30" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y30">
+        <v>36</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>499</v>
+      </c>
+      <c r="B31" t="s">
+        <v>731</v>
+      </c>
+      <c r="C31" t="s">
+        <v>730</v>
+      </c>
+      <c r="D31" t="s">
+        <v>514</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" t="s">
+        <v>733</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" t="s">
+        <v>734</v>
+      </c>
+      <c r="M31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" t="s">
+        <v>514</v>
+      </c>
+      <c r="P31" t="s">
+        <v>651</v>
+      </c>
+      <c r="S31">
+        <v>0.38485710000000001</v>
+      </c>
+      <c r="T31">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="U31" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y31">
+        <v>36</v>
+      </c>
+      <c r="Z31" t="s">
         <v>652</v>
       </c>
     </row>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="747">
   <si>
     <t xml:space="preserve">targets</t>
   </si>
@@ -534,6 +534,45 @@
   </si>
   <si>
     <t xml:space="preserve">AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ao_coef_gini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ao_coef_gini_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gini_inv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/ao_coef_gini_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ao_coef_sust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ao_coef_sust_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustcoef_norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/ao_coef_sust_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ao_rpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ao_rpa_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normperct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/ao_rpa_pat2021.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ao_access</t>
@@ -2456,12 +2495,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3866,7 +3905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>145</v>
       </c>
@@ -3919,7 +3958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>145</v>
       </c>
@@ -3972,7 +4011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>145</v>
       </c>
@@ -4025,7 +4064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>145</v>
       </c>
@@ -4078,7 +4117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>160</v>
       </c>
@@ -4134,7 +4173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>160</v>
       </c>
@@ -4168,6 +4207,12 @@
       <c r="P31" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="Q31" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>2021</v>
+      </c>
       <c r="S31" s="0" t="n">
         <v>0.3848571</v>
       </c>
@@ -4181,6 +4226,165 @@
         <v>36</v>
       </c>
       <c r="Z31" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>1997</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>0.002649007</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z32" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>1997</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z33" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z34" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4202,7 +4406,7 @@
   </sheetPr>
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -4321,28 +4525,28 @@
         <v>169</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>31</v>
@@ -4351,7 +4555,7 @@
         <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -4386,28 +4590,28 @@
         <v>169</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>31</v>
@@ -4416,7 +4620,7 @@
         <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P3" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -4448,13 +4652,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>148</v>
@@ -4463,16 +4667,16 @@
         <v>149</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>31</v>
@@ -4513,13 +4717,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>148</v>
@@ -4528,16 +4732,16 @@
         <v>149</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>31</v>
@@ -4578,13 +4782,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>148</v>
@@ -4593,16 +4797,16 @@
         <v>149</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>31</v>
@@ -4643,37 +4847,37 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -4699,13 +4903,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>78</v>
@@ -4714,16 +4918,16 @@
         <v>149</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>31</v>
@@ -4764,13 +4968,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>148</v>
@@ -4779,16 +4983,16 @@
         <v>149</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>31</v>
@@ -4829,13 +5033,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>148</v>
@@ -4844,16 +5048,16 @@
         <v>149</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>31</v>
@@ -4894,13 +5098,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>148</v>
@@ -4909,16 +5113,16 @@
         <v>149</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>31</v>
@@ -4959,13 +5163,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>148</v>
@@ -4974,16 +5178,16 @@
         <v>149</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>31</v>
@@ -5024,31 +5228,31 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>31</v>
@@ -5057,7 +5261,7 @@
         <v>57</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5089,31 +5293,31 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>31</v>
@@ -5122,7 +5326,7 @@
         <v>57</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5154,37 +5358,37 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5210,31 +5414,31 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>31</v>
@@ -5243,7 +5447,7 @@
         <v>57</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5275,37 +5479,37 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>248</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5331,37 +5535,37 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P18" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5387,31 +5591,31 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>31</v>
@@ -5420,7 +5624,7 @@
         <v>57</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5452,13 +5656,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>78</v>
@@ -5467,16 +5671,16 @@
         <v>149</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>31</v>
@@ -5508,43 +5712,43 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5576,43 +5780,43 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5644,13 +5848,13 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>148</v>
@@ -5659,16 +5863,16 @@
         <v>149</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>31</v>
@@ -5709,13 +5913,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>148</v>
@@ -5724,16 +5928,16 @@
         <v>149</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>31</v>
@@ -5774,13 +5978,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>148</v>
@@ -5789,16 +5993,16 @@
         <v>149</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>31</v>
@@ -5839,13 +6043,13 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>148</v>
@@ -5854,16 +6058,16 @@
         <v>149</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>31</v>
@@ -5904,37 +6108,37 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P27" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5960,43 +6164,43 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="P28" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6028,13 +6232,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>134</v>
@@ -6043,22 +6247,22 @@
         <v>134</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>57</v>
@@ -6096,43 +6300,43 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6164,13 +6368,13 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>134</v>
@@ -6179,22 +6383,22 @@
         <v>134</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>57</v>
@@ -6232,43 +6436,43 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="P32" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6300,43 +6504,43 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="P33" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6368,43 +6572,43 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="P34" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6436,43 +6640,43 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="P35" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6504,13 +6708,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>134</v>
@@ -6519,22 +6723,22 @@
         <v>134</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>57</v>
@@ -6572,43 +6776,43 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M37" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="P37" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6640,13 +6844,13 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>134</v>
@@ -6655,22 +6859,22 @@
         <v>134</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>57</v>
@@ -6708,43 +6912,43 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="P39" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6776,13 +6980,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>134</v>
@@ -6791,22 +6995,22 @@
         <v>134</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>57</v>
@@ -6850,7 +7054,7 @@
         <v>142</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>134</v>
@@ -6859,16 +7063,16 @@
         <v>134</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>142</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>31</v>
@@ -6915,7 +7119,7 @@
         <v>136</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>134</v>
@@ -6924,16 +7128,16 @@
         <v>134</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>136</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>31</v>
@@ -6980,7 +7184,7 @@
         <v>139</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>134</v>
@@ -6989,16 +7193,16 @@
         <v>134</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>139</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>31</v>
@@ -7042,10 +7246,10 @@
         <v>131</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>134</v>
@@ -7054,16 +7258,16 @@
         <v>134</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>31</v>
@@ -7104,13 +7308,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>146</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>148</v>
@@ -7119,16 +7323,16 @@
         <v>149</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>146</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>31</v>
@@ -7169,13 +7373,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>148</v>
@@ -7184,16 +7388,16 @@
         <v>149</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>31</v>
@@ -7234,13 +7438,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>157</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>148</v>
@@ -7249,16 +7453,16 @@
         <v>149</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>157</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>31</v>
@@ -7299,13 +7503,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>148</v>
@@ -7314,16 +7518,16 @@
         <v>149</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>31</v>
@@ -7364,31 +7568,31 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>119</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>117</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>31</v>
@@ -7429,13 +7633,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>148</v>
@@ -7444,16 +7648,16 @@
         <v>149</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>31</v>
@@ -7494,13 +7698,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>148</v>
@@ -7509,16 +7713,16 @@
         <v>149</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>31</v>
@@ -7559,13 +7763,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>148</v>
@@ -7574,16 +7778,16 @@
         <v>149</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>31</v>
@@ -7624,13 +7828,13 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>148</v>
@@ -7639,16 +7843,16 @@
         <v>149</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>31</v>
@@ -7689,31 +7893,31 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>31</v>
@@ -7722,7 +7926,7 @@
         <v>57</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="P54" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7754,31 +7958,31 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>31</v>
@@ -7787,7 +7991,7 @@
         <v>104</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="P55" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7819,31 +8023,31 @@
         <v>122</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>124</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>122</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>57</v>
@@ -7884,40 +8088,40 @@
         <v>121</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="P57" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7949,13 +8153,13 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>78</v>
@@ -7964,16 +8168,16 @@
         <v>149</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>31</v>
@@ -8005,37 +8209,37 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P59" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8061,31 +8265,31 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>31</v>
@@ -8094,7 +8298,7 @@
         <v>57</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P60" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8126,31 +8330,31 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>31</v>
@@ -8159,7 +8363,7 @@
         <v>57</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P61" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8191,31 +8395,31 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>31</v>
@@ -8224,7 +8428,7 @@
         <v>57</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="P62" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8256,43 +8460,43 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="P63" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8324,13 +8528,13 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>134</v>
@@ -8339,22 +8543,22 @@
         <v>134</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>57</v>
@@ -8392,37 +8596,37 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P65" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8448,37 +8652,37 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P66" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8507,28 +8711,28 @@
         <v>37</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>31</v>
@@ -8557,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="X67" s="0" t="n">
         <v>952</v>
@@ -8568,13 +8772,13 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>148</v>
@@ -8583,16 +8787,16 @@
         <v>149</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>31</v>
@@ -8633,31 +8837,31 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>31</v>
@@ -8666,7 +8870,7 @@
         <v>57</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="P69" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8704,25 +8908,25 @@
         <v>99</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>99</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>31</v>
@@ -8734,7 +8938,7 @@
         <v>57</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P70" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -8757,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="X70" s="3" t="n">
         <v>144</v>
@@ -8775,28 +8979,28 @@
         <v>98</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>31</v>
@@ -8805,7 +9009,7 @@
         <v>57</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="P71" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -8843,7 +9047,7 @@
         <v>110</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>112</v>
@@ -8852,16 +9056,16 @@
         <v>72</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>110</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>31</v>
@@ -8908,25 +9112,25 @@
         <v>105</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>108</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>105</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>31</v>
@@ -8938,7 +9142,7 @@
         <v>57</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P73" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -8961,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="X73" s="3" t="n">
         <v>120</v>
@@ -8982,7 +9186,7 @@
         <v>114</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>101</v>
@@ -8991,16 +9195,16 @@
         <v>102</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>114</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>31</v>
@@ -9041,37 +9245,37 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P75" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9103,25 +9307,25 @@
         <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>54</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>31</v>
@@ -9130,7 +9334,7 @@
         <v>57</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="P76" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9168,25 +9372,25 @@
         <v>58</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>58</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>31</v>
@@ -9195,7 +9399,7 @@
         <v>57</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="P77" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9233,31 +9437,31 @@
         <v>62</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="P78" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9289,31 +9493,31 @@
         <v>65</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="P79" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9342,28 +9546,28 @@
         <v>160</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>31</v>
@@ -9372,7 +9576,7 @@
         <v>57</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="P80" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9410,7 +9614,7 @@
         <v>161</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>84</v>
@@ -9419,22 +9623,22 @@
         <v>84</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>161</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>57</v>
@@ -9475,10 +9679,10 @@
         <v>160</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>167</v>
@@ -9487,22 +9691,22 @@
         <v>78</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="J82" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>57</v>
@@ -9540,37 +9744,37 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P83" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9599,40 +9803,40 @@
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="P84" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9667,10 +9871,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>78</v>
@@ -9679,16 +9883,16 @@
         <v>78</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>31</v>
@@ -9732,10 +9936,10 @@
         <v>81</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>78</v>
@@ -9744,16 +9948,16 @@
         <v>78</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>31</v>
@@ -9800,37 +10004,37 @@
         <v>90</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>90</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="P87" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9868,7 +10072,7 @@
         <v>82</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>84</v>
@@ -9877,22 +10081,22 @@
         <v>84</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>82</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>57</v>
@@ -9936,37 +10140,37 @@
         <v>87</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="P89" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10004,25 +10208,25 @@
         <v>27</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>31</v>
@@ -10057,37 +10261,37 @@
         <v>26</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="J91" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="P91" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10116,34 +10320,34 @@
         <v>26</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>31</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P92" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10162,37 +10366,37 @@
         <v>26</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="J93" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P93" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10208,31 +10412,31 @@
     </row>
     <row r="94" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>31</v>
@@ -10264,13 +10468,13 @@
     </row>
     <row r="95" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>78</v>
@@ -10279,16 +10483,16 @@
         <v>49</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>31</v>
@@ -10326,7 +10530,7 @@
         <v>69</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>71</v>
@@ -10335,16 +10539,16 @@
         <v>72</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>69</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>31</v>
@@ -10391,7 +10595,7 @@
         <v>75</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>77</v>
@@ -10400,16 +10604,16 @@
         <v>78</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>31</v>
@@ -10453,28 +10657,28 @@
         <v>68</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>31</v>
@@ -10483,7 +10687,7 @@
         <v>57</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="P98" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10515,40 +10719,40 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="J99" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="P99" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10568,40 +10772,40 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="P100" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10621,40 +10825,40 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="P101" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10674,40 +10878,40 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="P102" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10739,34 +10943,34 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P103" s="0" t="n">
         <f aca="false">TRUE()</f>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="751">
   <si>
     <t xml:space="preserve">targets</t>
   </si>
@@ -572,6 +572,21 @@
     <t xml:space="preserve">normperct</t>
   </si>
   <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/cs_seaweed_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs_seaweed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs_seaweed_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
     <t xml:space="preserve">~/github/pat/comunas/layers/ao_rpa_pat2021.csv</t>
   </si>
   <si>
@@ -579,9 +594,6 @@
   </si>
   <si>
     <t xml:space="preserve">ao_access_demo2017.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">Artisanal fisheries opportunity</t>
@@ -2271,9 +2283,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -2359,7 +2372,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2369,6 +2382,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2495,12 +2512,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="Y32" activeCellId="0" sqref="Y32:Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4385,6 +4402,59 @@
         <v>36</v>
       </c>
       <c r="Z34" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="P35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>0.00266224</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>6.37235107</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z35" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4407,7 +4477,7 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+      <selection pane="topLeft" activeCell="B41" activeCellId="1" sqref="Y32:Z35 B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4525,28 +4595,28 @@
         <v>169</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>31</v>
@@ -4555,7 +4625,7 @@
         <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -4590,28 +4660,28 @@
         <v>169</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>31</v>
@@ -4620,7 +4690,7 @@
         <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P3" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -4652,13 +4722,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>148</v>
@@ -4667,16 +4737,16 @@
         <v>149</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>31</v>
@@ -4717,13 +4787,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>148</v>
@@ -4732,16 +4802,16 @@
         <v>149</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>31</v>
@@ -4782,13 +4852,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>148</v>
@@ -4797,16 +4867,16 @@
         <v>149</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>31</v>
@@ -4847,37 +4917,37 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>211</v>
-      </c>
       <c r="I7" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -4903,13 +4973,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>78</v>
@@ -4918,16 +4988,16 @@
         <v>149</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>31</v>
@@ -4968,13 +5038,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>148</v>
@@ -4983,16 +5053,16 @@
         <v>149</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>31</v>
@@ -5033,13 +5103,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>148</v>
@@ -5048,16 +5118,16 @@
         <v>149</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>31</v>
@@ -5098,13 +5168,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>148</v>
@@ -5113,16 +5183,16 @@
         <v>149</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>31</v>
@@ -5163,13 +5233,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>148</v>
@@ -5178,16 +5248,16 @@
         <v>149</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>31</v>
@@ -5228,31 +5298,31 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G13" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>247</v>
-      </c>
       <c r="I13" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>31</v>
@@ -5261,7 +5331,7 @@
         <v>57</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5293,31 +5363,31 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>253</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>249</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>31</v>
@@ -5326,7 +5396,7 @@
         <v>57</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5358,37 +5428,37 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G15" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>259</v>
-      </c>
       <c r="I15" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5414,31 +5484,31 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>31</v>
@@ -5447,7 +5517,7 @@
         <v>57</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5479,37 +5549,37 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5535,37 +5605,37 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P18" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5591,31 +5661,31 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>31</v>
@@ -5624,7 +5694,7 @@
         <v>57</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5656,13 +5726,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>78</v>
@@ -5671,16 +5741,16 @@
         <v>149</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>31</v>
@@ -5712,43 +5782,43 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G21" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>293</v>
-      </c>
       <c r="I21" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5780,43 +5850,43 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G22" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>299</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5848,13 +5918,13 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>148</v>
@@ -5863,16 +5933,16 @@
         <v>149</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>31</v>
@@ -5913,13 +5983,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>148</v>
@@ -5928,16 +5998,16 @@
         <v>149</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>31</v>
@@ -5978,13 +6048,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>148</v>
@@ -5993,16 +6063,16 @@
         <v>149</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>31</v>
@@ -6043,13 +6113,13 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>148</v>
@@ -6058,16 +6128,16 @@
         <v>149</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>31</v>
@@ -6108,37 +6178,37 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P27" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6164,43 +6234,43 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G28" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>335</v>
-      </c>
       <c r="I28" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P28" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6232,13 +6302,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>134</v>
@@ -6247,22 +6317,22 @@
         <v>134</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>57</v>
@@ -6300,43 +6370,43 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6368,13 +6438,13 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>134</v>
@@ -6383,22 +6453,22 @@
         <v>134</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>57</v>
@@ -6436,43 +6506,43 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P32" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6504,43 +6574,43 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P33" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6572,43 +6642,43 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P34" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6640,43 +6710,43 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P35" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6708,13 +6778,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>134</v>
@@ -6723,22 +6793,22 @@
         <v>134</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>57</v>
@@ -6776,43 +6846,43 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M37" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P37" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6844,13 +6914,13 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>134</v>
@@ -6859,22 +6929,22 @@
         <v>134</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>57</v>
@@ -6912,43 +6982,43 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P39" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6980,13 +7050,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>134</v>
@@ -6995,22 +7065,22 @@
         <v>134</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>57</v>
@@ -7054,7 +7124,7 @@
         <v>142</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>134</v>
@@ -7063,16 +7133,16 @@
         <v>134</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>142</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>31</v>
@@ -7119,7 +7189,7 @@
         <v>136</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>134</v>
@@ -7128,16 +7198,16 @@
         <v>134</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>136</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>31</v>
@@ -7184,7 +7254,7 @@
         <v>139</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>134</v>
@@ -7193,16 +7263,16 @@
         <v>134</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>139</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>31</v>
@@ -7246,10 +7316,10 @@
         <v>131</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>134</v>
@@ -7258,16 +7328,16 @@
         <v>134</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>31</v>
@@ -7308,13 +7378,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>146</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>148</v>
@@ -7323,16 +7393,16 @@
         <v>149</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>146</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>31</v>
@@ -7373,13 +7443,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>148</v>
@@ -7388,16 +7458,16 @@
         <v>149</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>31</v>
@@ -7438,13 +7508,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>157</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>148</v>
@@ -7453,16 +7523,16 @@
         <v>149</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>157</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>31</v>
@@ -7503,13 +7573,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>148</v>
@@ -7518,16 +7588,16 @@
         <v>149</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>31</v>
@@ -7568,31 +7638,31 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>119</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>117</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>31</v>
@@ -7633,13 +7703,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>148</v>
@@ -7648,16 +7718,16 @@
         <v>149</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>31</v>
@@ -7698,13 +7768,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>148</v>
@@ -7713,16 +7783,16 @@
         <v>149</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>31</v>
@@ -7763,13 +7833,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>148</v>
@@ -7778,16 +7848,16 @@
         <v>149</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>31</v>
@@ -7828,13 +7898,13 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>148</v>
@@ -7843,16 +7913,16 @@
         <v>149</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>31</v>
@@ -7893,31 +7963,31 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G54" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="H54" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="H54" s="0" t="s">
-        <v>473</v>
-      </c>
       <c r="I54" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>31</v>
@@ -7926,7 +7996,7 @@
         <v>57</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P54" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7958,31 +8028,31 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G55" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="H55" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>480</v>
-      </c>
       <c r="I55" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>31</v>
@@ -7991,7 +8061,7 @@
         <v>104</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="P55" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8023,31 +8093,31 @@
         <v>122</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>124</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>122</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>57</v>
@@ -8088,40 +8158,40 @@
         <v>121</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G57" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="H57" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="H57" s="0" t="s">
-        <v>492</v>
-      </c>
       <c r="I57" s="0" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="P57" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8153,13 +8223,13 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>78</v>
@@ -8168,16 +8238,16 @@
         <v>149</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>31</v>
@@ -8209,37 +8279,37 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P59" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8265,31 +8335,31 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>31</v>
@@ -8298,7 +8368,7 @@
         <v>57</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P60" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8330,31 +8400,31 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="G61" s="0" t="s">
-        <v>514</v>
-      </c>
       <c r="H61" s="0" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>31</v>
@@ -8363,7 +8433,7 @@
         <v>57</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P61" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8395,31 +8465,31 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G62" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="H62" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>521</v>
-      </c>
       <c r="I62" s="0" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>31</v>
@@ -8428,7 +8498,7 @@
         <v>57</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="P62" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8460,43 +8530,43 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P63" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8528,13 +8598,13 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>134</v>
@@ -8543,22 +8613,22 @@
         <v>134</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>57</v>
@@ -8596,37 +8666,37 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P65" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8652,37 +8722,37 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P66" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8711,28 +8781,28 @@
         <v>37</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G67" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="H67" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>549</v>
-      </c>
       <c r="I67" s="0" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>31</v>
@@ -8761,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="X67" s="0" t="n">
         <v>952</v>
@@ -8772,13 +8842,13 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>148</v>
@@ -8787,16 +8857,16 @@
         <v>149</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>31</v>
@@ -8837,31 +8907,31 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G69" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="H69" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="H69" s="0" t="s">
-        <v>562</v>
-      </c>
       <c r="I69" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>31</v>
@@ -8870,7 +8940,7 @@
         <v>57</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P69" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8900,382 +8970,382 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+    <row r="70" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="C70" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="H70" s="3" t="s">
+      <c r="F70" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L70" s="3" t="s">
+      <c r="I70" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="M70" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="P70" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q70" s="3" t="n">
+      <c r="N70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P70" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q70" s="4" t="n">
         <v>1999</v>
       </c>
-      <c r="R70" s="3" t="n">
+      <c r="R70" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="S70" s="3" t="n">
+      <c r="S70" s="4" t="n">
         <v>8.695</v>
       </c>
-      <c r="T70" s="3" t="n">
+      <c r="T70" s="4" t="n">
         <v>332943.422695</v>
       </c>
-      <c r="U70" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="V70" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="X70" s="3" t="n">
+      <c r="U70" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="X70" s="4" t="n">
         <v>144</v>
       </c>
-      <c r="Y70" s="3" t="n">
+      <c r="Y70" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="Z70" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="Z70" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="B71" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="P71" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q71" s="4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="R71" s="4" t="n">
+        <v>2012</v>
+      </c>
+      <c r="S71" s="4" t="n">
+        <v>17909009</v>
+      </c>
+      <c r="T71" s="4" t="n">
+        <v>34880491</v>
+      </c>
+      <c r="U71" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z71" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="P72" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q72" s="4" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R72" s="4" t="n">
+        <v>2010</v>
+      </c>
+      <c r="S72" s="4" t="n">
+        <v>6.00533832000001</v>
+      </c>
+      <c r="T72" s="4" t="n">
+        <v>8.25970273</v>
+      </c>
+      <c r="U72" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P73" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4" t="n">
+        <v>1997</v>
+      </c>
+      <c r="R73" s="4" t="n">
+        <v>2008</v>
+      </c>
+      <c r="S73" s="4" t="n">
+        <v>15095.1508524751</v>
+      </c>
+      <c r="T73" s="4" t="n">
+        <v>79921.5119190706</v>
+      </c>
+      <c r="U73" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="V73" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M71" s="3" t="s">
+      <c r="X73" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y73" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z73" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N71" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="P71" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q71" s="3" t="n">
-        <v>1960</v>
-      </c>
-      <c r="R71" s="3" t="n">
+      <c r="N74" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P74" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q74" s="4" t="n">
+        <v>1990</v>
+      </c>
+      <c r="R74" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="S71" s="3" t="n">
-        <v>17909009</v>
-      </c>
-      <c r="T71" s="3" t="n">
-        <v>34880491</v>
-      </c>
-      <c r="U71" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y71" s="3" t="n">
+      <c r="S74" s="4" t="n">
+        <v>14720069.8601399</v>
+      </c>
+      <c r="T74" s="4" t="n">
+        <v>19341079.2423086</v>
+      </c>
+      <c r="U74" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="Z71" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P72" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q72" s="3" t="n">
-        <v>1999</v>
-      </c>
-      <c r="R72" s="3" t="n">
-        <v>2010</v>
-      </c>
-      <c r="S72" s="3" t="n">
-        <v>6.00533832000001</v>
-      </c>
-      <c r="T72" s="3" t="n">
-        <v>8.25970273</v>
-      </c>
-      <c r="U72" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y72" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z72" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="P73" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q73" s="3" t="n">
-        <v>1997</v>
-      </c>
-      <c r="R73" s="3" t="n">
-        <v>2008</v>
-      </c>
-      <c r="S73" s="3" t="n">
-        <v>15095.1508524751</v>
-      </c>
-      <c r="T73" s="3" t="n">
-        <v>79921.5119190706</v>
-      </c>
-      <c r="U73" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="V73" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="X73" s="3" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y73" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z73" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P74" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q74" s="3" t="n">
-        <v>1990</v>
-      </c>
-      <c r="R74" s="3" t="n">
-        <v>2012</v>
-      </c>
-      <c r="S74" s="3" t="n">
-        <v>14720069.8601399</v>
-      </c>
-      <c r="T74" s="3" t="n">
-        <v>19341079.2423086</v>
-      </c>
-      <c r="U74" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z74" s="3" t="n">
+      <c r="Z74" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P75" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9307,25 +9377,25 @@
         <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>54</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>31</v>
@@ -9334,7 +9404,7 @@
         <v>57</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="P76" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9372,25 +9442,25 @@
         <v>58</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>58</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>31</v>
@@ -9399,7 +9469,7 @@
         <v>57</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="P77" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9437,31 +9507,31 @@
         <v>62</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="P78" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9493,31 +9563,31 @@
         <v>65</v>
       </c>
       <c r="C79" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="D79" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>609</v>
-      </c>
       <c r="E79" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="P79" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9546,28 +9616,28 @@
         <v>160</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G80" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="H80" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="H80" s="0" t="s">
-        <v>617</v>
-      </c>
       <c r="I80" s="0" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>31</v>
@@ -9576,7 +9646,7 @@
         <v>57</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="P80" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9614,7 +9684,7 @@
         <v>161</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>84</v>
@@ -9623,22 +9693,22 @@
         <v>84</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>161</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>57</v>
@@ -9679,10 +9749,10 @@
         <v>160</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>167</v>
@@ -9691,22 +9761,22 @@
         <v>78</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="G82" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="0" t="s">
         <v>631</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L82" s="0" t="s">
-        <v>627</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>57</v>
@@ -9744,37 +9814,37 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P83" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9798,404 +9868,404 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
+    <row r="84" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="I84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L84" s="4" t="s">
+      <c r="C84" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="M84" s="4" t="s">
+      <c r="E84" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="M84" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N84" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="P84" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q84" s="4" t="n">
+      <c r="N84" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="P84" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q84" s="5" t="n">
         <v>2012</v>
       </c>
-      <c r="R84" s="4" t="n">
+      <c r="R84" s="5" t="n">
         <v>2012</v>
       </c>
-      <c r="S84" s="4" t="n">
+      <c r="S84" s="5" t="n">
         <v>4860.51</v>
       </c>
-      <c r="T84" s="4" t="n">
+      <c r="T84" s="5" t="n">
         <v>4860.51</v>
       </c>
-      <c r="U84" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y84" s="4" t="n">
+      <c r="U84" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y84" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z84" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
+      <c r="Z84" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="B85" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="I85" s="4" t="s">
+      <c r="F85" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H85" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M85" s="4" t="s">
+      <c r="I85" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N85" s="4" t="s">
+      <c r="N85" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P85" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q85" s="4" t="n">
+      <c r="P85" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q85" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="R85" s="4" t="n">
+      <c r="R85" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="S85" s="4" t="n">
+      <c r="S85" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="T85" s="4" t="n">
+      <c r="T85" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="U85" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y85" s="4" t="n">
+      <c r="U85" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y85" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z85" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
+      <c r="Z85" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="B86" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="I86" s="4" t="s">
+      <c r="F86" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H86" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="J86" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M86" s="4" t="s">
+      <c r="I86" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N86" s="4" t="s">
+      <c r="N86" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P86" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q86" s="4" t="n">
+      <c r="P86" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q86" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="R86" s="4" t="n">
+      <c r="R86" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="S86" s="4" t="n">
+      <c r="S86" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="T86" s="4" t="n">
+      <c r="T86" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="U86" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y86" s="4" t="n">
+      <c r="U86" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y86" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z86" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
+      <c r="Z86" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E87" s="4" t="s">
+      <c r="C87" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="H87" s="4" t="s">
+      <c r="F87" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="H87" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I87" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L87" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="M87" s="4" t="s">
+      <c r="I87" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="M87" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N87" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="P87" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q87" s="4" t="n">
+      <c r="N87" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="P87" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q87" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="R87" s="4" t="n">
+      <c r="R87" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="S87" s="4" t="n">
+      <c r="S87" s="5" t="n">
         <v>0.002424907</v>
       </c>
-      <c r="T87" s="4" t="n">
+      <c r="T87" s="5" t="n">
         <v>0.733693814</v>
       </c>
-      <c r="U87" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y87" s="4" t="n">
+      <c r="U87" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y87" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z87" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
+      <c r="Z87" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="C88" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="H88" s="4" t="s">
+      <c r="F88" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="H88" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="M88" s="4" t="s">
+      <c r="M88" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="N88" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="P88" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q88" s="4" t="n">
+      <c r="P88" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q88" s="5" t="n">
         <v>1976</v>
       </c>
-      <c r="R88" s="4" t="n">
+      <c r="R88" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="S88" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T88" s="4" t="n">
+      <c r="S88" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" s="5" t="n">
         <v>13063.5</v>
       </c>
-      <c r="U88" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="4" t="n">
+      <c r="U88" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z88" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
+      <c r="Z88" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="E89" s="4" t="s">
+      <c r="C89" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="H89" s="4" t="s">
+      <c r="F89" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="H89" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I89" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="M89" s="4" t="s">
+      <c r="I89" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="M89" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N89" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="P89" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q89" s="4" t="n">
+      <c r="N89" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="P89" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q89" s="5" t="n">
         <v>1976</v>
       </c>
-      <c r="R89" s="4" t="n">
+      <c r="R89" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="S89" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T89" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U89" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y89" s="4" t="n">
+      <c r="S89" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y89" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z89" s="4" t="n">
+      <c r="Z89" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10208,25 +10278,25 @@
         <v>27</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>31</v>
@@ -10261,37 +10331,37 @@
         <v>26</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F91" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="H91" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="G91" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>672</v>
-      </c>
       <c r="I91" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="N91" s="0" t="s">
         <v>678</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L91" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="N91" s="0" t="s">
-        <v>674</v>
       </c>
       <c r="P91" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10320,34 +10390,34 @@
         <v>26</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="G92" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="H92" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>680</v>
-      </c>
       <c r="I92" s="0" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>31</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="P92" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10366,37 +10436,37 @@
         <v>26</v>
       </c>
       <c r="B93" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="D93" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>682</v>
-      </c>
       <c r="E93" s="0" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H93" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="O93" s="0" t="s">
         <v>686</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="J93" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L93" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="O93" s="0" t="s">
-        <v>682</v>
       </c>
       <c r="P93" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10410,114 +10480,114 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="D94" s="5" t="s">
+    <row r="94" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="F94" s="5" t="s">
+      <c r="E94" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P94" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S94" s="6" t="n">
+        <v>0.877814168556973</v>
+      </c>
+      <c r="T94" s="6" t="n">
+        <v>0.877814168556973</v>
+      </c>
+      <c r="U94" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y94" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="B95" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="P94" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="S94" s="5" t="n">
-        <v>0.877814168556973</v>
-      </c>
-      <c r="T94" s="5" t="n">
-        <v>0.877814168556973</v>
-      </c>
-      <c r="U94" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y94" s="5" t="n">
+      <c r="E95" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P95" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S95" s="6" t="n">
+        <v>-0.121428107812458</v>
+      </c>
+      <c r="T95" s="6" t="n">
+        <v>-0.121428107812458</v>
+      </c>
+      <c r="U95" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y95" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="Z94" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N95" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P95" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="S95" s="5" t="n">
-        <v>-0.121428107812458</v>
-      </c>
-      <c r="T95" s="5" t="n">
-        <v>-0.121428107812458</v>
-      </c>
-      <c r="U95" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y95" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z95" s="5" t="n">
+      <c r="Z95" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10530,7 +10600,7 @@
         <v>69</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>71</v>
@@ -10539,16 +10609,16 @@
         <v>72</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>69</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>31</v>
@@ -10595,7 +10665,7 @@
         <v>75</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>77</v>
@@ -10604,16 +10674,16 @@
         <v>78</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>31</v>
@@ -10657,28 +10727,28 @@
         <v>68</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="G98" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="H98" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="H98" s="0" t="s">
-        <v>711</v>
-      </c>
       <c r="I98" s="0" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>31</v>
@@ -10687,7 +10757,7 @@
         <v>57</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="P98" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10719,40 +10789,40 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F99" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="H99" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="G99" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="H99" s="0" t="s">
-        <v>718</v>
-      </c>
       <c r="I99" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="N99" s="0" t="s">
         <v>724</v>
-      </c>
-      <c r="J99" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L99" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="N99" s="0" t="s">
-        <v>720</v>
       </c>
       <c r="P99" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10772,40 +10842,40 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="G100" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="H100" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="H100" s="0" t="s">
-        <v>725</v>
-      </c>
       <c r="I100" s="0" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="P100" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10825,40 +10895,40 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="G101" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="H101" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="H101" s="0" t="s">
-        <v>731</v>
-      </c>
       <c r="I101" s="0" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="P101" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10878,40 +10948,40 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P102" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10943,34 +11013,34 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P103" s="0" t="n">
         <f aca="false">TRUE()</f>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="773">
   <si>
     <t xml:space="preserve">targets</t>
   </si>
@@ -572,22 +572,97 @@
     <t xml:space="preserve">normperct</t>
   </si>
   <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/ao_rpa_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs_seaweed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs_seaweed_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
     <t xml:space="preserve">~/github/pat/comunas/layers/cs_seaweed_pat2021.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cs_seaweed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cs_seaweed_pat2021.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~/github/pat/comunas/layers/ao_rpa_pat2021.csv</t>
+    <t xml:space="preserve">pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc_acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc_acid_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/cc_acid_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc_slr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc_slr_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/cc_sst_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc_sst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc_sst_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/cc_slr_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fp_unstt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fp_unstt_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/fp_unstt_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_density_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/in_density_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hd_marine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hd_marine_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/hd_marine_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_pathogens_fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_pathogens_fan_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/po_pathogens_fan_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hd_coastal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hd_coastal_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/hd_coastal_pat2021.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ao_access</t>
@@ -956,9 +1031,6 @@
     <t xml:space="preserve">CP pressureCS pressureECO pressureHAB pressureICO pressureNP pressureSPP pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">cc_acid</t>
-  </si>
-  <si>
     <t xml:space="preserve">cc_acid_gl2017.csv</t>
   </si>
   <si>
@@ -971,9 +1043,6 @@
     <t xml:space="preserve">~/github/ohi-global/eez/layers/cc_acid.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">cc_sst</t>
-  </si>
-  <si>
     <t xml:space="preserve">cc_sst_gl2017.csv</t>
   </si>
   <si>
@@ -987,9 +1056,6 @@
   </si>
   <si>
     <t xml:space="preserve">CP pressureCS pressureECO pressureHAB pressureLIV pressureLSP pressureMAR pressureNP pressureTR pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc_slr</t>
   </si>
   <si>
     <t xml:space="preserve">cc_slr_gl2017.csv</t>
@@ -2283,10 +2349,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -2372,7 +2437,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2382,10 +2447,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2512,12 +2573,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="Y32" activeCellId="0" sqref="Y32:Z35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="Z38" activeCellId="0" sqref="Z38:Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4433,8 +4494,8 @@
       <c r="N35" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="P35" s="3" t="b">
-        <v>1</v>
+      <c r="P35" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>2017</v>
@@ -4458,6 +4519,376 @@
         <v>36</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z36" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>8.834542E-005</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z37" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>0.03628995</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z38" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>0.05756912</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z39" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z40" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z41" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>0.004802619</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z42" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>0.0001061578</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z43" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4477,7 +4908,7 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="1" sqref="Y32:Z35 B41"/>
+      <selection pane="topLeft" activeCell="B41" activeCellId="1" sqref="Z38:Z43 B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4595,10 +5026,10 @@
         <v>169</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>186</v>
@@ -4607,16 +5038,16 @@
         <v>149</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>31</v>
@@ -4660,10 +5091,10 @@
         <v>169</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>186</v>
@@ -4672,16 +5103,16 @@
         <v>149</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>31</v>
@@ -4722,13 +5153,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>148</v>
@@ -4737,16 +5168,16 @@
         <v>149</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>31</v>
@@ -4787,13 +5218,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>148</v>
@@ -4802,16 +5233,16 @@
         <v>149</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>31</v>
@@ -4852,13 +5283,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>148</v>
@@ -4867,16 +5298,16 @@
         <v>149</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>31</v>
@@ -4917,37 +5348,37 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -4973,13 +5404,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>78</v>
@@ -4988,16 +5419,16 @@
         <v>149</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>31</v>
@@ -5038,13 +5469,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>148</v>
@@ -5053,16 +5484,16 @@
         <v>149</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>31</v>
@@ -5103,13 +5534,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>148</v>
@@ -5118,16 +5549,16 @@
         <v>149</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>31</v>
@@ -5168,13 +5599,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>148</v>
@@ -5183,16 +5614,16 @@
         <v>149</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>31</v>
@@ -5233,13 +5664,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>148</v>
@@ -5248,16 +5679,16 @@
         <v>149</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>31</v>
@@ -5298,31 +5729,31 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>31</v>
@@ -5331,7 +5762,7 @@
         <v>57</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5363,31 +5794,31 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>31</v>
@@ -5396,7 +5827,7 @@
         <v>57</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5428,37 +5859,37 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5484,31 +5915,31 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>31</v>
@@ -5517,7 +5948,7 @@
         <v>57</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5549,37 +5980,37 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5605,13 +6036,13 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>186</v>
@@ -5620,16 +6051,16 @@
         <v>149</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>31</v>
@@ -5661,31 +6092,31 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>31</v>
@@ -5694,7 +6125,7 @@
         <v>57</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5726,13 +6157,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>78</v>
@@ -5741,16 +6172,16 @@
         <v>149</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>31</v>
@@ -5782,43 +6213,43 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5850,43 +6281,43 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5918,13 +6349,13 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>310</v>
+        <v>189</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>148</v>
@@ -5933,16 +6364,16 @@
         <v>149</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>310</v>
+        <v>189</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>31</v>
@@ -5983,13 +6414,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>148</v>
@@ -5998,16 +6429,16 @@
         <v>149</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>31</v>
@@ -6048,13 +6479,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>321</v>
+        <v>192</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>148</v>
@@ -6063,16 +6494,16 @@
         <v>149</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>321</v>
+        <v>192</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>31</v>
@@ -6113,13 +6544,13 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>148</v>
@@ -6128,16 +6559,16 @@
         <v>149</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>31</v>
@@ -6178,37 +6609,37 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P27" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6234,43 +6665,43 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="P28" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6302,13 +6733,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>134</v>
@@ -6317,22 +6748,22 @@
         <v>134</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>57</v>
@@ -6370,43 +6801,43 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6438,13 +6869,13 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>134</v>
@@ -6453,22 +6884,22 @@
         <v>134</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>57</v>
@@ -6506,43 +6937,43 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="P32" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6574,43 +7005,43 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="P33" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6642,43 +7073,43 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="P34" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6710,43 +7141,43 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="P35" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6778,13 +7209,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>134</v>
@@ -6793,22 +7224,22 @@
         <v>134</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>57</v>
@@ -6846,43 +7277,43 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M37" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="P37" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6914,13 +7345,13 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>134</v>
@@ -6929,22 +7360,22 @@
         <v>134</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>57</v>
@@ -6982,43 +7413,43 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="P39" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7050,13 +7481,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>134</v>
@@ -7065,22 +7496,22 @@
         <v>134</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>57</v>
@@ -7124,7 +7555,7 @@
         <v>142</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>134</v>
@@ -7133,16 +7564,16 @@
         <v>134</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>142</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>31</v>
@@ -7189,7 +7620,7 @@
         <v>136</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>134</v>
@@ -7198,16 +7629,16 @@
         <v>134</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>136</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>31</v>
@@ -7254,7 +7685,7 @@
         <v>139</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>134</v>
@@ -7263,16 +7694,16 @@
         <v>134</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>139</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>31</v>
@@ -7316,10 +7747,10 @@
         <v>131</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>134</v>
@@ -7328,16 +7759,16 @@
         <v>134</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>31</v>
@@ -7378,13 +7809,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>146</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>148</v>
@@ -7393,16 +7824,16 @@
         <v>149</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>146</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>31</v>
@@ -7443,13 +7874,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>148</v>
@@ -7458,16 +7889,16 @@
         <v>149</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>31</v>
@@ -7508,13 +7939,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>157</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>148</v>
@@ -7523,16 +7954,16 @@
         <v>149</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>157</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>31</v>
@@ -7573,13 +8004,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>148</v>
@@ -7588,16 +8019,16 @@
         <v>149</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>31</v>
@@ -7638,31 +8069,31 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>119</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>117</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>31</v>
@@ -7703,13 +8134,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>148</v>
@@ -7718,16 +8149,16 @@
         <v>149</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>31</v>
@@ -7768,13 +8199,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>148</v>
@@ -7783,16 +8214,16 @@
         <v>149</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>31</v>
@@ -7833,13 +8264,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>148</v>
@@ -7848,16 +8279,16 @@
         <v>149</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>31</v>
@@ -7898,13 +8329,13 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>148</v>
@@ -7913,16 +8344,16 @@
         <v>149</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>31</v>
@@ -7963,31 +8394,31 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>31</v>
@@ -7996,7 +8427,7 @@
         <v>57</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="P54" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8028,31 +8459,31 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>31</v>
@@ -8061,7 +8492,7 @@
         <v>104</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="P55" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8093,31 +8524,31 @@
         <v>122</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>124</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>122</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>57</v>
@@ -8158,40 +8589,40 @@
         <v>121</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="P57" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8223,13 +8654,13 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>78</v>
@@ -8238,16 +8669,16 @@
         <v>149</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>31</v>
@@ -8279,13 +8710,13 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>186</v>
@@ -8294,16 +8725,16 @@
         <v>149</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>31</v>
@@ -8335,31 +8766,31 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>31</v>
@@ -8368,7 +8799,7 @@
         <v>57</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P60" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8400,31 +8831,31 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>31</v>
@@ -8433,7 +8864,7 @@
         <v>57</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P61" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8465,31 +8896,31 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>31</v>
@@ -8498,7 +8929,7 @@
         <v>57</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="P62" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8530,43 +8961,43 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="P63" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8598,13 +9029,13 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>134</v>
@@ -8613,22 +9044,22 @@
         <v>134</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>57</v>
@@ -8666,37 +9097,37 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P65" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8722,37 +9153,37 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P66" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8781,28 +9212,28 @@
         <v>37</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>31</v>
@@ -8831,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="X67" s="0" t="n">
         <v>952</v>
@@ -8842,13 +9273,13 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>148</v>
@@ -8857,16 +9288,16 @@
         <v>149</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>31</v>
@@ -8907,31 +9338,31 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>31</v>
@@ -8940,7 +9371,7 @@
         <v>57</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="P69" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8970,382 +9401,382 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+    <row r="70" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="C70" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="H70" s="4" t="s">
+      <c r="F70" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L70" s="4" t="s">
+      <c r="I70" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="M70" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="N70" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="P70" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q70" s="4" t="n">
+      <c r="P70" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q70" s="3" t="n">
         <v>1999</v>
       </c>
-      <c r="R70" s="4" t="n">
+      <c r="R70" s="3" t="n">
         <v>2010</v>
       </c>
-      <c r="S70" s="4" t="n">
+      <c r="S70" s="3" t="n">
         <v>8.695</v>
       </c>
-      <c r="T70" s="4" t="n">
+      <c r="T70" s="3" t="n">
         <v>332943.422695</v>
       </c>
-      <c r="U70" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="V70" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="X70" s="4" t="n">
+      <c r="U70" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="X70" s="3" t="n">
         <v>144</v>
       </c>
-      <c r="Y70" s="4" t="n">
+      <c r="Y70" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="Z70" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+      <c r="Z70" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M71" s="4" t="s">
+      <c r="B71" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N71" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="P71" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q71" s="4" t="n">
+      <c r="N71" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="P71" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q71" s="3" t="n">
         <v>1960</v>
       </c>
-      <c r="R71" s="4" t="n">
+      <c r="R71" s="3" t="n">
         <v>2012</v>
       </c>
-      <c r="S71" s="4" t="n">
+      <c r="S71" s="3" t="n">
         <v>17909009</v>
       </c>
-      <c r="T71" s="4" t="n">
+      <c r="T71" s="3" t="n">
         <v>34880491</v>
       </c>
-      <c r="U71" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y71" s="4" t="n">
+      <c r="U71" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="Z71" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
+      <c r="Z71" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="H72" s="4" t="s">
+      <c r="F72" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I72" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M72" s="4" t="s">
+      <c r="I72" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="N72" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P72" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q72" s="4" t="n">
+      <c r="P72" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q72" s="3" t="n">
         <v>1999</v>
       </c>
-      <c r="R72" s="4" t="n">
+      <c r="R72" s="3" t="n">
         <v>2010</v>
       </c>
-      <c r="S72" s="4" t="n">
+      <c r="S72" s="3" t="n">
         <v>6.00533832000001</v>
       </c>
-      <c r="T72" s="4" t="n">
+      <c r="T72" s="3" t="n">
         <v>8.25970273</v>
       </c>
-      <c r="U72" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y72" s="4" t="n">
+      <c r="U72" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="Z72" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
+      <c r="Z72" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="H73" s="4" t="s">
+      <c r="F73" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L73" s="4" t="s">
+      <c r="I73" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="M73" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="N73" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="P73" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q73" s="4" t="n">
+      <c r="P73" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q73" s="3" t="n">
         <v>1997</v>
       </c>
-      <c r="R73" s="4" t="n">
+      <c r="R73" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="S73" s="4" t="n">
+      <c r="S73" s="3" t="n">
         <v>15095.1508524751</v>
       </c>
-      <c r="T73" s="4" t="n">
+      <c r="T73" s="3" t="n">
         <v>79921.5119190706</v>
       </c>
-      <c r="U73" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="V73" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="X73" s="4" t="n">
+      <c r="U73" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="X73" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="Y73" s="4" t="n">
+      <c r="Y73" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="Z73" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+      <c r="Z73" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="C74" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="H74" s="4" t="s">
+      <c r="F74" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M74" s="4" t="s">
+      <c r="I74" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="N74" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P74" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q74" s="4" t="n">
+      <c r="P74" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q74" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="R74" s="4" t="n">
+      <c r="R74" s="3" t="n">
         <v>2012</v>
       </c>
-      <c r="S74" s="4" t="n">
+      <c r="S74" s="3" t="n">
         <v>14720069.8601399</v>
       </c>
-      <c r="T74" s="4" t="n">
+      <c r="T74" s="3" t="n">
         <v>19341079.2423086</v>
       </c>
-      <c r="U74" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="4" t="n">
+      <c r="U74" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="Z74" s="4" t="n">
+      <c r="Z74" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P75" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9377,25 +9808,25 @@
         <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>54</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>31</v>
@@ -9404,7 +9835,7 @@
         <v>57</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="P76" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9442,25 +9873,25 @@
         <v>58</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>58</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>31</v>
@@ -9469,7 +9900,7 @@
         <v>57</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="P77" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9507,31 +9938,31 @@
         <v>62</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
       <c r="P78" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9563,31 +9994,31 @@
         <v>65</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
       <c r="P79" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9616,28 +10047,28 @@
         <v>160</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>31</v>
@@ -9646,7 +10077,7 @@
         <v>57</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="P80" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9684,7 +10115,7 @@
         <v>161</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>84</v>
@@ -9693,22 +10124,22 @@
         <v>84</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>161</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>57</v>
@@ -9749,10 +10180,10 @@
         <v>160</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>167</v>
@@ -9761,22 +10192,22 @@
         <v>78</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="J82" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>57</v>
@@ -9814,37 +10245,37 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P83" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9868,404 +10299,404 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="s">
+    <row r="84" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L84" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="M84" s="5" t="s">
+      <c r="B84" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M84" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N84" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="P84" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q84" s="5" t="n">
+      <c r="N84" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="P84" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q84" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="R84" s="5" t="n">
+      <c r="R84" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="S84" s="5" t="n">
+      <c r="S84" s="4" t="n">
         <v>4860.51</v>
       </c>
-      <c r="T84" s="5" t="n">
+      <c r="T84" s="4" t="n">
         <v>4860.51</v>
       </c>
-      <c r="U84" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y84" s="5" t="n">
+      <c r="U84" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y84" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="Z84" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
+      <c r="Z84" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="B85" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M85" s="5" t="s">
+      <c r="F85" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P85" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q85" s="5" t="n">
+      <c r="P85" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q85" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="R85" s="5" t="n">
+      <c r="R85" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="S85" s="5" t="n">
+      <c r="S85" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="T85" s="5" t="n">
+      <c r="T85" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="U85" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y85" s="5" t="n">
+      <c r="U85" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y85" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="Z85" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
+      <c r="Z85" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="B86" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="F86" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P86" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q86" s="5" t="n">
+      <c r="P86" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q86" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="R86" s="5" t="n">
+      <c r="R86" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="S86" s="5" t="n">
+      <c r="S86" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="T86" s="5" t="n">
+      <c r="T86" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="U86" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y86" s="5" t="n">
+      <c r="U86" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y86" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="Z86" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
+      <c r="Z86" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E87" s="5" t="s">
+      <c r="C87" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="H87" s="5" t="s">
+      <c r="F87" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I87" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L87" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="M87" s="5" t="s">
+      <c r="I87" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="M87" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N87" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="P87" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q87" s="5" t="n">
+      <c r="N87" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="P87" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q87" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="R87" s="5" t="n">
+      <c r="R87" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="S87" s="5" t="n">
+      <c r="S87" s="4" t="n">
         <v>0.002424907</v>
       </c>
-      <c r="T87" s="5" t="n">
+      <c r="T87" s="4" t="n">
         <v>0.733693814</v>
       </c>
-      <c r="U87" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y87" s="5" t="n">
+      <c r="U87" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y87" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="Z87" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="s">
+      <c r="Z87" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="C88" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="H88" s="5" t="s">
+      <c r="F88" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I88" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L88" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="I88" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="M88" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P88" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q88" s="5" t="n">
+      <c r="P88" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q88" s="4" t="n">
         <v>1976</v>
       </c>
-      <c r="R88" s="5" t="n">
+      <c r="R88" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="S88" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T88" s="5" t="n">
+      <c r="S88" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" s="4" t="n">
         <v>13063.5</v>
       </c>
-      <c r="U88" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="5" t="n">
+      <c r="U88" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="Z88" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
+      <c r="Z88" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="E89" s="5" t="s">
+      <c r="C89" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="H89" s="5" t="s">
+      <c r="F89" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I89" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L89" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="M89" s="5" t="s">
+      <c r="I89" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="M89" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N89" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="P89" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q89" s="5" t="n">
+      <c r="N89" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="P89" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q89" s="4" t="n">
         <v>1976</v>
       </c>
-      <c r="R89" s="5" t="n">
+      <c r="R89" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="S89" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T89" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U89" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y89" s="5" t="n">
+      <c r="S89" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y89" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="Z89" s="5" t="n">
+      <c r="Z89" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10278,25 +10709,25 @@
         <v>27</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>31</v>
@@ -10331,37 +10762,37 @@
         <v>26</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="J91" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="P91" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10390,34 +10821,34 @@
         <v>26</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>31</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="P92" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10436,37 +10867,37 @@
         <v>26</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="J93" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="P93" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10480,114 +10911,114 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="D94" s="6" t="s">
+    <row r="94" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" s="6" t="s">
+      <c r="E94" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N94" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P94" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="S94" s="6" t="n">
+      <c r="P94" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S94" s="5" t="n">
         <v>0.877814168556973</v>
       </c>
-      <c r="T94" s="6" t="n">
+      <c r="T94" s="5" t="n">
         <v>0.877814168556973</v>
       </c>
-      <c r="U94" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y94" s="6" t="n">
+      <c r="U94" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y94" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z94" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="D95" s="6" t="s">
+      <c r="Z94" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F95" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N95" s="6" t="s">
+      <c r="F95" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P95" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="S95" s="6" t="n">
+      <c r="P95" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S95" s="5" t="n">
         <v>-0.121428107812458</v>
       </c>
-      <c r="T95" s="6" t="n">
+      <c r="T95" s="5" t="n">
         <v>-0.121428107812458</v>
       </c>
-      <c r="U95" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y95" s="6" t="n">
+      <c r="U95" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y95" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z95" s="6" t="n">
+      <c r="Z95" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10600,7 +11031,7 @@
         <v>69</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>71</v>
@@ -10609,16 +11040,16 @@
         <v>72</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>69</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>31</v>
@@ -10665,7 +11096,7 @@
         <v>75</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>77</v>
@@ -10674,16 +11105,16 @@
         <v>78</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>31</v>
@@ -10727,28 +11158,28 @@
         <v>68</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>31</v>
@@ -10757,7 +11188,7 @@
         <v>57</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="P98" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10789,40 +11220,40 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="J99" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="P99" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10842,40 +11273,40 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="P100" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10895,40 +11326,40 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="P101" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10948,40 +11379,40 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="P102" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11013,34 +11444,34 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P103" s="0" t="n">
         <f aca="false">TRUE()</f>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="775">
   <si>
     <t xml:space="preserve">targets</t>
   </si>
@@ -665,6 +665,15 @@
     <t xml:space="preserve">~/github/pat/comunas/layers/hd_coastal_pat2021.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">ss_wgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ss_wgi_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/ss_wgi_pat2021.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">ao_access</t>
   </si>
   <si>
@@ -711,9 +720,6 @@
   </si>
   <si>
     <t xml:space="preserve">~/github/ohi-global/eez/layers/ss_spi.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ss_wgi</t>
   </si>
   <si>
     <t xml:space="preserve">ss_wgi_gl2017.csv</t>
@@ -2573,17 +2579,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="Z38" activeCellId="0" sqref="Z38:Z43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="1" style="0" width="11.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="11.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,7 +4888,50 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>0.08922247</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0.89639031</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z44" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4908,7 +4959,7 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="1" sqref="Z38:Z43 B41"/>
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5026,10 +5077,10 @@
         <v>169</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>186</v>
@@ -5038,16 +5089,16 @@
         <v>149</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>213</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>31</v>
@@ -5091,10 +5142,10 @@
         <v>169</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>186</v>
@@ -5103,16 +5154,16 @@
         <v>149</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>31</v>
@@ -5153,13 +5204,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>148</v>
@@ -5168,16 +5219,16 @@
         <v>149</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>224</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>31</v>
@@ -5218,13 +5269,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>148</v>
@@ -5233,16 +5284,16 @@
         <v>149</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>31</v>
@@ -5283,13 +5334,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>148</v>
@@ -5298,16 +5349,16 @@
         <v>149</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>235</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>31</v>
@@ -5348,37 +5399,37 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>242</v>
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5404,13 +5455,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>78</v>
@@ -5419,16 +5470,16 @@
         <v>149</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>247</v>
-      </c>
       <c r="I8" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>31</v>
@@ -5469,13 +5520,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>148</v>
@@ -5484,16 +5535,16 @@
         <v>149</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>253</v>
-      </c>
       <c r="I9" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>31</v>
@@ -5534,13 +5585,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>148</v>
@@ -5549,16 +5600,16 @@
         <v>149</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>259</v>
-      </c>
       <c r="I10" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>31</v>
@@ -5599,13 +5650,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>148</v>
@@ -5614,16 +5665,16 @@
         <v>149</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>265</v>
-      </c>
       <c r="I11" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>31</v>
@@ -5664,13 +5715,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>148</v>
@@ -5679,16 +5730,16 @@
         <v>149</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>270</v>
-      </c>
       <c r="I12" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>31</v>
@@ -5729,31 +5780,31 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>31</v>
@@ -5762,7 +5813,7 @@
         <v>57</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5794,31 +5845,31 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>282</v>
-      </c>
       <c r="I14" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>31</v>
@@ -5827,7 +5878,7 @@
         <v>57</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5859,37 +5910,37 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5915,31 +5966,31 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>294</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F16" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>296</v>
-      </c>
       <c r="I16" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>31</v>
@@ -5948,7 +5999,7 @@
         <v>57</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5980,37 +6031,37 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>302</v>
-      </c>
       <c r="I17" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6036,13 +6087,13 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>186</v>
@@ -6051,16 +6102,16 @@
         <v>149</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>306</v>
-      </c>
       <c r="I18" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>31</v>
@@ -6092,31 +6143,31 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F19" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>312</v>
-      </c>
       <c r="I19" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>31</v>
@@ -6125,7 +6176,7 @@
         <v>57</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6157,13 +6208,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>78</v>
@@ -6172,16 +6223,16 @@
         <v>149</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="I20" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>31</v>
@@ -6213,43 +6264,43 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>322</v>
-      </c>
       <c r="I21" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6281,43 +6332,43 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>328</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6349,13 +6400,13 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>189</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>148</v>
@@ -6364,16 +6415,16 @@
         <v>149</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>189</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>31</v>
@@ -6414,13 +6465,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>195</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>148</v>
@@ -6429,16 +6480,16 @@
         <v>149</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>195</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>31</v>
@@ -6479,13 +6530,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>192</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>148</v>
@@ -6494,16 +6545,16 @@
         <v>149</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>192</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>31</v>
@@ -6544,13 +6595,13 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>148</v>
@@ -6559,16 +6610,16 @@
         <v>149</v>
       </c>
       <c r="F26" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>349</v>
-      </c>
       <c r="I26" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>31</v>
@@ -6609,37 +6660,37 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F27" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>355</v>
-      </c>
       <c r="I27" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P27" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6665,43 +6716,43 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P28" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6733,13 +6784,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>134</v>
@@ -6748,22 +6799,22 @@
         <v>134</v>
       </c>
       <c r="F29" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="H29" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>367</v>
-      </c>
       <c r="I29" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>57</v>
@@ -6801,43 +6852,43 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>372</v>
-      </c>
       <c r="I30" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6869,13 +6920,13 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>134</v>
@@ -6884,22 +6935,22 @@
         <v>134</v>
       </c>
       <c r="F31" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="H31" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>377</v>
-      </c>
       <c r="I31" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>57</v>
@@ -6937,43 +6988,43 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>383</v>
-      </c>
       <c r="I32" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P32" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7005,43 +7056,43 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F33" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>388</v>
-      </c>
       <c r="I33" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P33" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7073,43 +7124,43 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H34" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>393</v>
-      </c>
       <c r="I34" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P34" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7141,43 +7192,43 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F35" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>399</v>
-      </c>
       <c r="I35" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P35" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7209,13 +7260,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>134</v>
@@ -7224,22 +7275,22 @@
         <v>134</v>
       </c>
       <c r="F36" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>404</v>
-      </c>
       <c r="I36" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>57</v>
@@ -7277,43 +7328,43 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="H37" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>409</v>
-      </c>
       <c r="I37" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M37" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P37" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7345,13 +7396,13 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>134</v>
@@ -7360,22 +7411,22 @@
         <v>134</v>
       </c>
       <c r="F38" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="H38" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>414</v>
-      </c>
       <c r="I38" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>57</v>
@@ -7413,43 +7464,43 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="H39" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>419</v>
-      </c>
       <c r="I39" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P39" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7481,13 +7532,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>134</v>
@@ -7496,22 +7547,22 @@
         <v>134</v>
       </c>
       <c r="F40" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H40" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>424</v>
-      </c>
       <c r="I40" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>57</v>
@@ -7555,7 +7606,7 @@
         <v>142</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>134</v>
@@ -7564,16 +7615,16 @@
         <v>134</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>142</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>31</v>
@@ -7620,7 +7671,7 @@
         <v>136</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>134</v>
@@ -7629,16 +7680,16 @@
         <v>134</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>136</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>31</v>
@@ -7685,7 +7736,7 @@
         <v>139</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>134</v>
@@ -7694,16 +7745,16 @@
         <v>134</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>139</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>31</v>
@@ -7747,10 +7798,10 @@
         <v>131</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>134</v>
@@ -7759,16 +7810,16 @@
         <v>134</v>
       </c>
       <c r="F44" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="H44" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>441</v>
-      </c>
       <c r="I44" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>31</v>
@@ -7809,13 +7860,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>146</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>148</v>
@@ -7824,16 +7875,16 @@
         <v>149</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>146</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>31</v>
@@ -7874,13 +7925,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>148</v>
@@ -7889,16 +7940,16 @@
         <v>149</v>
       </c>
       <c r="F46" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="H46" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="G46" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>452</v>
-      </c>
       <c r="I46" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>31</v>
@@ -7939,13 +7990,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>157</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>148</v>
@@ -7954,16 +8005,16 @@
         <v>149</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>157</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>31</v>
@@ -8004,13 +8055,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>148</v>
@@ -8019,16 +8070,16 @@
         <v>149</v>
       </c>
       <c r="F48" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="H48" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>463</v>
-      </c>
       <c r="I48" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>31</v>
@@ -8069,31 +8120,31 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>119</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>117</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>31</v>
@@ -8134,13 +8185,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>148</v>
@@ -8149,16 +8200,16 @@
         <v>149</v>
       </c>
       <c r="F50" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="H50" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="G50" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>475</v>
-      </c>
       <c r="I50" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>31</v>
@@ -8199,13 +8250,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>148</v>
@@ -8214,16 +8265,16 @@
         <v>149</v>
       </c>
       <c r="F51" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="H51" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>481</v>
-      </c>
       <c r="I51" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>31</v>
@@ -8264,13 +8315,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>148</v>
@@ -8279,16 +8330,16 @@
         <v>149</v>
       </c>
       <c r="F52" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="H52" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="G52" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>487</v>
-      </c>
       <c r="I52" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>31</v>
@@ -8329,13 +8380,13 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>148</v>
@@ -8344,16 +8395,16 @@
         <v>149</v>
       </c>
       <c r="F53" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="H53" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>493</v>
-      </c>
       <c r="I53" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>31</v>
@@ -8394,31 +8445,31 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E54" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="H54" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="F54" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>499</v>
-      </c>
       <c r="I54" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>31</v>
@@ -8427,7 +8478,7 @@
         <v>57</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P54" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8459,31 +8510,31 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>31</v>
@@ -8492,7 +8543,7 @@
         <v>104</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P55" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8524,31 +8575,31 @@
         <v>122</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>124</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>122</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>57</v>
@@ -8589,40 +8640,40 @@
         <v>121</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="P57" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8654,13 +8705,13 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>78</v>
@@ -8669,16 +8720,16 @@
         <v>149</v>
       </c>
       <c r="F58" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="H58" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="G58" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="I58" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>31</v>
@@ -8710,13 +8761,13 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>186</v>
@@ -8725,16 +8776,16 @@
         <v>149</v>
       </c>
       <c r="F59" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="H59" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="G59" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>532</v>
-      </c>
       <c r="I59" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>31</v>
@@ -8766,31 +8817,31 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F60" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="H60" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="G60" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>537</v>
-      </c>
       <c r="I60" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>31</v>
@@ -8799,7 +8850,7 @@
         <v>57</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P60" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8831,31 +8882,31 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="H61" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="G61" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>542</v>
-      </c>
       <c r="I61" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>31</v>
@@ -8864,7 +8915,7 @@
         <v>57</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P61" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8896,31 +8947,31 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>31</v>
@@ -8929,7 +8980,7 @@
         <v>57</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="P62" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8961,43 +9012,43 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="H63" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="G63" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>554</v>
-      </c>
       <c r="I63" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P63" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9029,13 +9080,13 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>134</v>
@@ -9044,22 +9095,22 @@
         <v>134</v>
       </c>
       <c r="F64" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="H64" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="G64" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>559</v>
-      </c>
       <c r="I64" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>57</v>
@@ -9097,37 +9148,37 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F65" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="H65" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="G65" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>565</v>
-      </c>
       <c r="I65" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P65" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9153,37 +9204,37 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F66" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="H66" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="G66" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>571</v>
-      </c>
       <c r="I66" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P66" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9212,28 +9263,28 @@
         <v>37</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="H67" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="F67" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>575</v>
-      </c>
       <c r="I67" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>31</v>
@@ -9262,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="X67" s="0" t="n">
         <v>952</v>
@@ -9273,13 +9324,13 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>148</v>
@@ -9288,16 +9339,16 @@
         <v>149</v>
       </c>
       <c r="F68" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="H68" s="0" t="s">
         <v>585</v>
       </c>
-      <c r="G68" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>583</v>
-      </c>
       <c r="I68" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>31</v>
@@ -9338,31 +9389,31 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E69" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="H69" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="F69" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>588</v>
-      </c>
       <c r="I69" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>31</v>
@@ -9371,7 +9422,7 @@
         <v>57</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P69" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9409,7 +9460,7 @@
         <v>99</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>186</v>
@@ -9418,16 +9469,16 @@
         <v>102</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>99</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>31</v>
@@ -9462,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="X70" s="3" t="n">
         <v>144</v>
@@ -9480,28 +9531,28 @@
         <v>98</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>599</v>
-      </c>
       <c r="I71" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>31</v>
@@ -9510,7 +9561,7 @@
         <v>57</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="P71" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -9548,7 +9599,7 @@
         <v>110</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>112</v>
@@ -9557,16 +9608,16 @@
         <v>72</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>110</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>31</v>
@@ -9613,7 +9664,7 @@
         <v>105</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>186</v>
@@ -9622,16 +9673,16 @@
         <v>108</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>105</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>31</v>
@@ -9666,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="X73" s="3" t="n">
         <v>120</v>
@@ -9687,7 +9738,7 @@
         <v>114</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>101</v>
@@ -9696,16 +9747,16 @@
         <v>102</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>114</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>31</v>
@@ -9746,37 +9797,37 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F75" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="H75" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="G75" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>619</v>
-      </c>
       <c r="I75" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P75" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9808,25 +9859,25 @@
         <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>54</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>31</v>
@@ -9835,7 +9886,7 @@
         <v>57</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="P76" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9873,25 +9924,25 @@
         <v>58</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>58</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>31</v>
@@ -9900,7 +9951,7 @@
         <v>57</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="P77" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9938,31 +9989,31 @@
         <v>62</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="P78" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9994,31 +10045,31 @@
         <v>65</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="P79" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10047,28 +10098,28 @@
         <v>160</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D80" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="H80" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>643</v>
-      </c>
       <c r="I80" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>31</v>
@@ -10077,7 +10128,7 @@
         <v>57</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="P80" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10115,7 +10166,7 @@
         <v>161</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>84</v>
@@ -10124,22 +10175,22 @@
         <v>84</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>161</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>57</v>
@@ -10180,10 +10231,10 @@
         <v>160</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>167</v>
@@ -10192,22 +10243,22 @@
         <v>78</v>
       </c>
       <c r="F82" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="H82" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="G82" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>654</v>
-      </c>
       <c r="I82" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J82" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>57</v>
@@ -10245,37 +10296,37 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F83" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="H83" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="G83" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>660</v>
-      </c>
       <c r="I83" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P83" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10304,40 +10355,40 @@
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F84" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>665</v>
-      </c>
       <c r="I84" s="4" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P84" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10372,10 +10423,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>78</v>
@@ -10384,16 +10435,16 @@
         <v>78</v>
       </c>
       <c r="F85" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="H85" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>670</v>
-      </c>
       <c r="I85" s="4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>31</v>
@@ -10437,10 +10488,10 @@
         <v>81</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>78</v>
@@ -10449,16 +10500,16 @@
         <v>78</v>
       </c>
       <c r="F86" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="H86" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>675</v>
-      </c>
       <c r="I86" s="4" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>31</v>
@@ -10505,37 +10556,37 @@
         <v>90</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>90</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P87" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10573,7 +10624,7 @@
         <v>82</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>84</v>
@@ -10582,22 +10633,22 @@
         <v>84</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>82</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>57</v>
@@ -10641,37 +10692,37 @@
         <v>87</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="P89" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10709,25 +10760,25 @@
         <v>27</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>31</v>
@@ -10762,37 +10813,37 @@
         <v>26</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D91" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="H91" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="F91" s="0" t="s">
+      <c r="I91" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="N91" s="0" t="s">
         <v>702</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L91" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="N91" s="0" t="s">
-        <v>700</v>
       </c>
       <c r="P91" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10821,34 +10872,34 @@
         <v>26</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D92" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="H92" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="G92" s="0" t="s">
+      <c r="I92" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O92" s="0" t="s">
         <v>710</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="J92" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O92" s="0" t="s">
-        <v>708</v>
       </c>
       <c r="P92" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10867,37 +10918,37 @@
         <v>26</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F93" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="H93" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="G93" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>712</v>
-      </c>
       <c r="I93" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="J93" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="P93" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10913,31 +10964,31 @@
     </row>
     <row r="94" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E94" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>719</v>
-      </c>
       <c r="I94" s="5" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>31</v>
@@ -10969,13 +11020,13 @@
     </row>
     <row r="95" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>78</v>
@@ -10984,16 +11035,16 @@
         <v>49</v>
       </c>
       <c r="F95" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="G95" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>725</v>
-      </c>
       <c r="I95" s="5" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>31</v>
@@ -11031,7 +11082,7 @@
         <v>69</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>71</v>
@@ -11040,16 +11091,16 @@
         <v>72</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>69</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>31</v>
@@ -11096,7 +11147,7 @@
         <v>75</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>77</v>
@@ -11105,16 +11156,16 @@
         <v>78</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>31</v>
@@ -11158,28 +11209,28 @@
         <v>68</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>31</v>
@@ -11188,7 +11239,7 @@
         <v>57</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="P98" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11220,40 +11271,40 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D99" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="H99" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="F99" s="0" t="s">
+      <c r="I99" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="N99" s="0" t="s">
         <v>748</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="H99" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="J99" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L99" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="N99" s="0" t="s">
-        <v>746</v>
       </c>
       <c r="P99" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11273,40 +11324,40 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E100" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="H100" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="F100" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>751</v>
-      </c>
       <c r="I100" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="P100" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11326,40 +11377,40 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D101" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="H101" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="G101" s="0" t="s">
+      <c r="I101" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="N101" s="0" t="s">
         <v>761</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="J101" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="N101" s="0" t="s">
-        <v>759</v>
       </c>
       <c r="P101" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11379,40 +11430,40 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F102" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="H102" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="G102" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="H102" s="0" t="s">
-        <v>763</v>
-      </c>
       <c r="I102" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P102" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11444,34 +11495,34 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F103" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="H103" s="0" t="s">
         <v>770</v>
       </c>
-      <c r="G103" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="H103" s="0" t="s">
-        <v>768</v>
-      </c>
       <c r="I103" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P103" s="0" t="n">
         <f aca="false">TRUE()</f>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="779">
   <si>
     <t xml:space="preserve">targets</t>
   </si>
@@ -269,6 +269,21 @@
     <t xml:space="preserve">s_score</t>
   </si>
   <si>
+    <t xml:space="preserve">tr_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_factor_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scaled 0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/tr_factor_pat2021.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
@@ -471,9 +486,6 @@
   </si>
   <si>
     <t xml:space="preserve">pressure_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scaled 0-1</t>
   </si>
   <si>
     <t xml:space="preserve">~/github/pat/comunas/layers/po_nutrients_3nm_pat2021.csv</t>
@@ -2579,12 +2591,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3036,7 +3048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>68</v>
       </c>
@@ -3092,7 +3104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>68</v>
       </c>
@@ -3148,68 +3160,50 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="I11" s="0" t="s">
         <v>85</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="M11" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>36384</v>
-      </c>
       <c r="U11" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Y11" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z11" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>87</v>
@@ -3218,28 +3212,28 @@
         <v>88</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>87</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>35</v>
@@ -3254,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>74.0740741</v>
+        <v>36384</v>
       </c>
       <c r="U12" s="0" t="s">
         <v>36</v>
@@ -3266,39 +3260,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>72</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>35</v>
@@ -3313,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>1</v>
+        <v>74.0740741</v>
       </c>
       <c r="U13" s="0" t="s">
         <v>36</v>
@@ -3327,40 +3321,52 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="I14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="Q14" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>2021</v>
+      </c>
       <c r="S14" s="0" t="n">
-        <v>0.4406782</v>
+        <v>0</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0.9473169</v>
+        <v>1</v>
       </c>
       <c r="U14" s="0" t="s">
         <v>36</v>
@@ -3374,7 +3380,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>99</v>
@@ -3386,22 +3392,16 @@
         <v>101</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="J15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>101</v>
@@ -3409,23 +3409,14 @@
       <c r="P15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>2021</v>
-      </c>
       <c r="S15" s="0" t="n">
-        <v>0</v>
+        <v>0.4406782</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>39207</v>
+        <v>0.9473169</v>
       </c>
       <c r="U15" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>144</v>
       </c>
       <c r="Y15" s="0" t="n">
         <v>36</v>
@@ -3436,37 +3427,37 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="H16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="J16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>35</v>
@@ -3481,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>63160042.2</v>
+        <v>39207</v>
       </c>
       <c r="U16" s="0" t="s">
         <v>36</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="Y16" s="0" t="n">
         <v>36</v>
@@ -3498,7 +3489,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>110</v>
@@ -3510,16 +3501,19 @@
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>110</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>31</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>57</v>
@@ -3537,13 +3531,16 @@
         <v>2021</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>3.409091</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>7.966667</v>
+        <v>63160042.2</v>
       </c>
       <c r="U17" s="0" t="s">
         <v>36</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>36</v>
@@ -3554,25 +3551,25 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="I18" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>31</v>
@@ -3581,7 +3578,7 @@
         <v>57</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="P18" s="0" t="s">
         <v>35</v>
@@ -3593,10 +3590,10 @@
         <v>2021</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>107.7733</v>
+        <v>3.409091</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>141984</v>
+        <v>7.966667</v>
       </c>
       <c r="U18" s="0" t="s">
         <v>36</v>
@@ -3610,25 +3607,25 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="I19" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>31</v>
@@ -3637,7 +3634,7 @@
         <v>57</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>35</v>
@@ -3649,10 +3646,10 @@
         <v>2021</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1" t="n">
-        <v>8375075000</v>
+        <v>107.7733</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>141984</v>
       </c>
       <c r="U19" s="0" t="s">
         <v>36</v>
@@ -3666,7 +3663,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>122</v>
@@ -3678,7 +3675,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>122</v>
@@ -3689,9 +3686,6 @@
       <c r="J20" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="0" t="s">
-        <v>126</v>
-      </c>
       <c r="M20" s="0" t="s">
         <v>57</v>
       </c>
@@ -3708,10 +3702,10 @@
         <v>2021</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>0.3608726</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>8375075000</v>
       </c>
       <c r="U20" s="0" t="s">
         <v>36</v>
@@ -3725,7 +3719,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>127</v>
@@ -3737,7 +3731,10 @@
         <v>129</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>130</v>
@@ -3746,7 +3743,7 @@
         <v>31</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>57</v>
@@ -3764,10 +3761,10 @@
         <v>2021</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>0.001</v>
+        <v>0.3608726</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>14031.718</v>
+        <v>1</v>
       </c>
       <c r="U21" s="0" t="s">
         <v>36</v>
@@ -3781,7 +3778,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>132</v>
@@ -3793,7 +3790,7 @@
         <v>134</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>135</v>
@@ -3801,6 +3798,9 @@
       <c r="J22" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="L22" s="0" t="s">
+        <v>131</v>
+      </c>
       <c r="M22" s="0" t="s">
         <v>57</v>
       </c>
@@ -3811,16 +3811,16 @@
         <v>35</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="S22" s="1" t="n">
-        <v>-0.04349884</v>
+      <c r="S22" s="0" t="n">
+        <v>0.001</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>1</v>
+        <v>14031.718</v>
       </c>
       <c r="U22" s="0" t="s">
         <v>36</v>
@@ -3834,22 +3834,22 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>31</v>
@@ -3858,7 +3858,7 @@
         <v>57</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P23" s="0" t="s">
         <v>35</v>
@@ -3869,11 +3869,11 @@
       <c r="R23" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="S23" s="0" t="n">
-        <v>0</v>
+      <c r="S23" s="1" t="n">
+        <v>-0.04349884</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>0.418007505</v>
+        <v>1</v>
       </c>
       <c r="U23" s="0" t="s">
         <v>36</v>
@@ -3887,22 +3887,22 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>31</v>
@@ -3911,7 +3911,7 @@
         <v>57</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P24" s="0" t="s">
         <v>35</v>
@@ -3922,11 +3922,11 @@
       <c r="R24" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="S24" s="1" t="n">
-        <v>-1.194088E-016</v>
-      </c>
-      <c r="T24" s="1" t="n">
-        <v>3.821081E-015</v>
+      <c r="S24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>0.418007505</v>
       </c>
       <c r="U24" s="0" t="s">
         <v>36</v>
@@ -3940,22 +3940,22 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>31</v>
@@ -3964,7 +3964,7 @@
         <v>57</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P25" s="0" t="s">
         <v>35</v>
@@ -3975,11 +3975,11 @@
       <c r="R25" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="S25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="0" t="n">
-        <v>0</v>
+      <c r="S25" s="1" t="n">
+        <v>-1.194088E-016</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>3.821081E-015</v>
       </c>
       <c r="U25" s="0" t="s">
         <v>36</v>
@@ -3991,24 +3991,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>150</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>31</v>
@@ -4017,7 +4017,7 @@
         <v>57</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="P26" s="0" t="s">
         <v>35</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="0" t="s">
         <v>36</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>151</v>
@@ -4055,13 +4055,13 @@
         <v>152</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>31</v>
@@ -4070,7 +4070,7 @@
         <v>57</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P27" s="0" t="s">
         <v>35</v>
@@ -4099,22 +4099,22 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>31</v>
@@ -4123,7 +4123,7 @@
         <v>57</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P28" s="0" t="s">
         <v>35</v>
@@ -4152,22 +4152,22 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>31</v>
@@ -4176,7 +4176,7 @@
         <v>57</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P29" s="0" t="s">
         <v>35</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>0.9090909091</v>
+        <v>1</v>
       </c>
       <c r="U29" s="0" t="s">
         <v>36</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>161</v>
@@ -4214,7 +4214,7 @@
         <v>162</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>84</v>
@@ -4225,20 +4225,17 @@
       <c r="J30" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="0" t="s">
-        <v>164</v>
-      </c>
       <c r="M30" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="P30" s="0" t="s">
         <v>35</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>2021</v>
@@ -4247,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="0" t="n">
-        <v>252752.49</v>
+        <v>0.9090909091</v>
       </c>
       <c r="U30" s="0" t="s">
         <v>36</v>
@@ -4261,7 +4258,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>165</v>
@@ -4270,25 +4267,25 @@
         <v>166</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="J31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="P31" s="0" t="s">
         <v>35</v>
@@ -4300,10 +4297,10 @@
         <v>2021</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>0.3848571</v>
+        <v>0</v>
       </c>
       <c r="T31" s="0" t="n">
-        <v>0.668</v>
+        <v>252752.49</v>
       </c>
       <c r="U31" s="0" t="s">
         <v>36</v>
@@ -4317,46 +4314,49 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="E32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="J32" s="0" t="s">
         <v>31</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>168</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P32" s="0" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>1997</v>
+        <v>2014</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>0.002649007</v>
+        <v>0.3848571</v>
       </c>
       <c r="T32" s="0" t="n">
-        <v>1</v>
+        <v>0.668</v>
       </c>
       <c r="U32" s="0" t="s">
         <v>36</v>
@@ -4370,19 +4370,19 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>178</v>
@@ -4393,8 +4393,8 @@
       <c r="M33" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>177</v>
+      <c r="N33" s="0" t="s">
+        <v>176</v>
       </c>
       <c r="P33" s="0" t="s">
         <v>35</v>
@@ -4406,7 +4406,7 @@
         <v>2021</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>0</v>
+        <v>0.002649007</v>
       </c>
       <c r="T33" s="0" t="n">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>179</v>
@@ -4435,7 +4435,7 @@
         <v>181</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>182</v>
@@ -4453,7 +4453,7 @@
         <v>35</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>2021</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="E35" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>187</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>31</v>
@@ -4499,23 +4499,23 @@
       <c r="M35" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N35" s="0" t="s">
-        <v>186</v>
+      <c r="N35" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="P35" s="0" t="s">
         <v>35</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>2017</v>
+        <v>1992</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>0.00266224</v>
+        <v>0</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>6.37235107</v>
+        <v>1</v>
       </c>
       <c r="U35" s="0" t="s">
         <v>36</v>
@@ -4529,19 +4529,19 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="E36" s="0" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>191</v>
@@ -4553,16 +4553,22 @@
         <v>57</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="P36" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="Q36" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>2021</v>
+      </c>
       <c r="S36" s="0" t="n">
-        <v>0</v>
+        <v>0.00266224</v>
       </c>
       <c r="T36" s="0" t="n">
-        <v>1</v>
+        <v>6.37235107</v>
       </c>
       <c r="U36" s="0" t="s">
         <v>36</v>
@@ -4576,22 +4582,22 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>31</v>
@@ -4600,13 +4606,13 @@
         <v>57</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P37" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="S37" s="1" t="n">
-        <v>8.834542E-005</v>
+      <c r="S37" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>1</v>
@@ -4623,22 +4629,22 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>196</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>31</v>
@@ -4647,13 +4653,13 @@
         <v>57</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P38" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="S38" s="0" t="n">
-        <v>0.03628995</v>
+      <c r="S38" s="1" t="n">
+        <v>8.834542E-005</v>
       </c>
       <c r="T38" s="0" t="n">
         <v>1</v>
@@ -4670,34 +4676,37 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="M39" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="N39" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P39" s="0" t="s">
         <v>35</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>0.05756912</v>
+        <v>0.03628995</v>
       </c>
       <c r="T39" s="0" t="n">
         <v>1</v>
@@ -4714,34 +4723,34 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P40" s="0" t="s">
         <v>35</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>0</v>
+        <v>0.05756912</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>1</v>
@@ -4758,28 +4767,28 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P41" s="0" t="s">
         <v>35</v>
@@ -4802,34 +4811,34 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P42" s="0" t="s">
         <v>35</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>0.004802619</v>
+        <v>0</v>
       </c>
       <c r="T42" s="0" t="n">
         <v>1</v>
@@ -4838,7 +4847,7 @@
         <v>36</v>
       </c>
       <c r="Y42" s="0" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="Z42" s="0" t="s">
         <v>36</v>
@@ -4846,34 +4855,34 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P43" s="0" t="s">
         <v>35</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>0.0001061578</v>
+        <v>0.004802619</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>1</v>
@@ -4882,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="Y43" s="0" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="Z43" s="0" t="s">
         <v>36</v>
@@ -4890,49 +4899,92 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P44" s="0" t="s">
         <v>35</v>
       </c>
       <c r="S44" s="0" t="n">
+        <v>0.0001061578</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z44" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S45" s="0" t="n">
         <v>0.08922247</v>
       </c>
-      <c r="T44" s="0" t="n">
+      <c r="T45" s="0" t="n">
         <v>0.89639031</v>
       </c>
-      <c r="U44" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y44" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z44" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="U45" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y45" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z45" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4940,6 +4992,7 @@
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5074,31 +5127,31 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>31</v>
@@ -5107,7 +5160,7 @@
         <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5139,31 +5192,31 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>31</v>
@@ -5172,7 +5225,7 @@
         <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P3" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5204,31 +5257,31 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>31</v>
@@ -5237,7 +5290,7 @@
         <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5269,31 +5322,31 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>31</v>
@@ -5302,7 +5355,7 @@
         <v>57</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P5" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5334,31 +5387,31 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>31</v>
@@ -5367,7 +5420,7 @@
         <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P6" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5399,37 +5452,37 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>242</v>
-      </c>
       <c r="I7" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5455,31 +5508,31 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>31</v>
@@ -5520,31 +5573,31 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>31</v>
@@ -5553,7 +5606,7 @@
         <v>57</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P9" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5585,31 +5638,31 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>31</v>
@@ -5618,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P10" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5650,31 +5703,31 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>31</v>
@@ -5683,7 +5736,7 @@
         <v>57</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P11" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5715,31 +5768,31 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>31</v>
@@ -5748,7 +5801,7 @@
         <v>57</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5780,31 +5833,31 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G13" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>278</v>
-      </c>
       <c r="I13" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>31</v>
@@ -5813,7 +5866,7 @@
         <v>57</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5845,31 +5898,31 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>280</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>31</v>
@@ -5878,7 +5931,7 @@
         <v>57</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5910,37 +5963,37 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G15" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>290</v>
-      </c>
       <c r="I15" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5966,31 +6019,31 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>31</v>
@@ -5999,7 +6052,7 @@
         <v>57</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6031,37 +6084,37 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6087,37 +6140,37 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P18" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6143,31 +6196,31 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>31</v>
@@ -6176,7 +6229,7 @@
         <v>57</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6208,31 +6261,31 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>78</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>31</v>
@@ -6264,43 +6317,43 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G21" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>324</v>
-      </c>
       <c r="I21" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6332,43 +6385,43 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G22" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>330</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6400,31 +6453,31 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>31</v>
@@ -6433,7 +6486,7 @@
         <v>57</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P23" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6465,31 +6518,31 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>31</v>
@@ -6498,7 +6551,7 @@
         <v>57</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P24" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6530,31 +6583,31 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>31</v>
@@ -6563,7 +6616,7 @@
         <v>57</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P25" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6595,31 +6648,31 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>31</v>
@@ -6628,7 +6681,7 @@
         <v>57</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P26" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6660,37 +6713,37 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P27" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6716,43 +6769,43 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G28" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="I28" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P28" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6784,43 +6837,43 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P29" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6852,43 +6905,43 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6920,43 +6973,43 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P31" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6988,43 +7041,43 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P32" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7056,43 +7109,43 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P33" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7124,43 +7177,43 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P34" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7192,43 +7245,43 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P35" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7260,43 +7313,43 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P36" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7328,43 +7381,43 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M37" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P37" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7396,43 +7449,43 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P38" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7464,43 +7517,43 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P39" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7532,43 +7585,43 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P40" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7600,31 +7653,31 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>31</v>
@@ -7633,7 +7686,7 @@
         <v>57</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P41" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7665,31 +7718,31 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>31</v>
@@ -7698,7 +7751,7 @@
         <v>57</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P42" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7730,31 +7783,31 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="E43" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>31</v>
@@ -7763,7 +7816,7 @@
         <v>57</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P43" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7795,31 +7848,31 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>31</v>
@@ -7828,7 +7881,7 @@
         <v>57</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P44" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7860,31 +7913,31 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>31</v>
@@ -7893,7 +7946,7 @@
         <v>57</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P45" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7925,31 +7978,31 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>31</v>
@@ -7958,7 +8011,7 @@
         <v>57</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P46" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7990,31 +8043,31 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>31</v>
@@ -8023,7 +8076,7 @@
         <v>57</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P47" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8055,31 +8108,31 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>31</v>
@@ -8088,7 +8141,7 @@
         <v>57</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P48" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8120,31 +8173,31 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>31</v>
@@ -8153,7 +8206,7 @@
         <v>57</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P49" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8185,31 +8238,31 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>31</v>
@@ -8218,7 +8271,7 @@
         <v>57</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P50" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8250,31 +8303,31 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>31</v>
@@ -8283,7 +8336,7 @@
         <v>57</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P51" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8315,31 +8368,31 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>31</v>
@@ -8348,7 +8401,7 @@
         <v>57</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P52" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8380,31 +8433,31 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>31</v>
@@ -8413,7 +8466,7 @@
         <v>57</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P53" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8445,31 +8498,31 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G54" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="H54" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="H54" s="0" t="s">
-        <v>501</v>
-      </c>
       <c r="I54" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>31</v>
@@ -8478,7 +8531,7 @@
         <v>57</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P54" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8510,40 +8563,40 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G55" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="H55" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>508</v>
-      </c>
       <c r="I55" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P55" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8569,43 +8622,43 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P56" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8637,43 +8690,43 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G57" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="H57" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="H57" s="0" t="s">
-        <v>520</v>
-      </c>
       <c r="I57" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P57" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8705,31 +8758,31 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>78</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>31</v>
@@ -8761,37 +8814,37 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P59" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8817,31 +8870,31 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>31</v>
@@ -8850,7 +8903,7 @@
         <v>57</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P60" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8882,31 +8935,31 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="G61" s="0" t="s">
-        <v>542</v>
-      </c>
       <c r="H61" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>31</v>
@@ -8915,7 +8968,7 @@
         <v>57</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P61" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8947,31 +9000,31 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G62" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="H62" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>549</v>
-      </c>
       <c r="I62" s="0" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>31</v>
@@ -8980,7 +9033,7 @@
         <v>57</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="P62" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9012,43 +9065,43 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P63" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9080,43 +9133,43 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P64" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9148,37 +9201,37 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P65" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9204,37 +9257,37 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P66" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9263,28 +9316,28 @@
         <v>37</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G67" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="H67" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>577</v>
-      </c>
       <c r="I67" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>31</v>
@@ -9313,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="X67" s="0" t="n">
         <v>952</v>
@@ -9324,31 +9377,31 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>31</v>
@@ -9357,7 +9410,7 @@
         <v>57</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P68" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9389,31 +9442,31 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G69" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="H69" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="H69" s="0" t="s">
-        <v>590</v>
-      </c>
       <c r="I69" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>31</v>
@@ -9422,7 +9475,7 @@
         <v>57</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P69" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9454,43 +9507,43 @@
     </row>
     <row r="70" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P70" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -9513,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="X70" s="3" t="n">
         <v>144</v>
@@ -9528,31 +9581,31 @@
     </row>
     <row r="71" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F71" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>601</v>
-      </c>
       <c r="I71" s="3" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>31</v>
@@ -9561,7 +9614,7 @@
         <v>57</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="P71" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -9593,31 +9646,31 @@
     </row>
     <row r="72" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>31</v>
@@ -9626,7 +9679,7 @@
         <v>57</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P72" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -9658,43 +9711,43 @@
     </row>
     <row r="73" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P73" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -9717,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="X73" s="3" t="n">
         <v>120</v>
@@ -9732,31 +9785,31 @@
     </row>
     <row r="74" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>31</v>
@@ -9765,7 +9818,7 @@
         <v>57</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P74" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -9797,37 +9850,37 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P75" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9859,25 +9912,25 @@
         <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>54</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>31</v>
@@ -9886,7 +9939,7 @@
         <v>57</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="P76" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9924,25 +9977,25 @@
         <v>58</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>58</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>31</v>
@@ -9951,7 +10004,7 @@
         <v>57</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="P77" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9989,31 +10042,31 @@
         <v>62</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="P78" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10045,31 +10098,31 @@
         <v>65</v>
       </c>
       <c r="C79" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="D79" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>637</v>
-      </c>
       <c r="E79" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="P79" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10095,31 +10148,31 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="G80" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="H80" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="H80" s="0" t="s">
-        <v>645</v>
-      </c>
       <c r="I80" s="0" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>31</v>
@@ -10128,7 +10181,7 @@
         <v>57</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="P80" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10160,43 +10213,43 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P81" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10228,43 +10281,43 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="G82" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="0" t="s">
         <v>659</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L82" s="0" t="s">
-        <v>655</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P82" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10296,37 +10349,37 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P83" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10352,43 +10405,43 @@
     </row>
     <row r="84" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P84" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10420,13 +10473,13 @@
     </row>
     <row r="85" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>78</v>
@@ -10435,16 +10488,16 @@
         <v>78</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>31</v>
@@ -10485,13 +10538,13 @@
     </row>
     <row r="86" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>78</v>
@@ -10500,16 +10553,16 @@
         <v>78</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>31</v>
@@ -10550,43 +10603,43 @@
     </row>
     <row r="87" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P87" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10618,43 +10671,43 @@
     </row>
     <row r="88" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I88" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>686</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P88" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10686,43 +10739,43 @@
     </row>
     <row r="89" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="P89" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10760,25 +10813,25 @@
         <v>27</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>31</v>
@@ -10813,37 +10866,37 @@
         <v>26</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="F91" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="H91" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="G91" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>700</v>
-      </c>
       <c r="I91" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="N91" s="0" t="s">
         <v>706</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L91" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="N91" s="0" t="s">
-        <v>702</v>
       </c>
       <c r="P91" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10872,34 +10925,34 @@
         <v>26</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="G92" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="H92" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>708</v>
-      </c>
       <c r="I92" s="0" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>31</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="P92" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10918,37 +10971,37 @@
         <v>26</v>
       </c>
       <c r="B93" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="D93" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>710</v>
-      </c>
       <c r="E93" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H93" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="O93" s="0" t="s">
         <v>714</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="J93" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L93" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="O93" s="0" t="s">
-        <v>710</v>
       </c>
       <c r="P93" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10964,31 +11017,31 @@
     </row>
     <row r="94" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="G94" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="H94" s="5" t="s">
-        <v>721</v>
-      </c>
       <c r="I94" s="5" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>31</v>
@@ -11020,13 +11073,13 @@
     </row>
     <row r="95" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>78</v>
@@ -11035,16 +11088,16 @@
         <v>49</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>31</v>
@@ -11082,7 +11135,7 @@
         <v>69</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>71</v>
@@ -11091,16 +11144,16 @@
         <v>72</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>69</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>31</v>
@@ -11147,7 +11200,7 @@
         <v>75</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>77</v>
@@ -11156,16 +11209,16 @@
         <v>78</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>31</v>
@@ -11209,28 +11262,28 @@
         <v>68</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G98" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="H98" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="H98" s="0" t="s">
-        <v>739</v>
-      </c>
       <c r="I98" s="0" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>31</v>
@@ -11239,7 +11292,7 @@
         <v>57</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="P98" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11271,40 +11324,40 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F99" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="H99" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="G99" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="H99" s="0" t="s">
-        <v>746</v>
-      </c>
       <c r="I99" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="N99" s="0" t="s">
         <v>752</v>
-      </c>
-      <c r="J99" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L99" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="N99" s="0" t="s">
-        <v>748</v>
       </c>
       <c r="P99" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11324,40 +11377,40 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="G100" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="H100" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="H100" s="0" t="s">
-        <v>753</v>
-      </c>
       <c r="I100" s="0" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="P100" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11377,40 +11430,40 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="G101" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="H101" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="H101" s="0" t="s">
-        <v>759</v>
-      </c>
       <c r="I101" s="0" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="P101" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11430,40 +11483,40 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P102" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11495,34 +11548,34 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P103" s="0" t="n">
         <f aca="false">TRUE()</f>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="781">
   <si>
     <t xml:space="preserve">targets</t>
   </si>
@@ -641,13 +641,13 @@
     <t xml:space="preserve">~/github/pat/comunas/layers/fp_unstt_pat2021.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">in_density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_density_pat2021.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~/github/pat/comunas/layers/in_density_pat2021.csv</t>
+    <t xml:space="preserve">hd_infa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hd_infa_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/hd_infa_pat2021.csv</t>
   </si>
   <si>
     <t xml:space="preserve">hd_marine</t>
@@ -686,6 +686,21 @@
     <t xml:space="preserve">~/github/pat/comunas/layers/ss_wgi_pat2021.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fp_wildcaught_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fp_wildcaught_weight_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w_fis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/github/pat/comunas/layers/fp_wildcaught_weight_pat2021.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">ao_access</t>
   </si>
   <si>
@@ -1682,16 +1697,7 @@
     <t xml:space="preserve">~/github/ohi-global/eez/layers/hd_mpa_eez.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fp_wildcaught_weight</t>
-  </si>
-  <si>
     <t xml:space="preserve">fp_wildcaught_weight_gl2017.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w_fis</t>
   </si>
   <si>
     <t xml:space="preserve">Food provision weights</t>
@@ -2371,7 +2377,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2393,6 +2399,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2455,7 +2468,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2465,6 +2478,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2591,12 +2608,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3832,7 +3849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>136</v>
       </c>
@@ -3885,7 +3902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>136</v>
       </c>
@@ -3938,7 +3955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>136</v>
       </c>
@@ -3991,7 +4008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>136</v>
       </c>
@@ -4765,14 +4782,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>192</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D41" s="0" t="s">
@@ -4985,7 +5002,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>0.001007532</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y46" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z46" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5130,10 +5196,10 @@
         <v>173</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>190</v>
@@ -5142,16 +5208,16 @@
         <v>84</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>31</v>
@@ -5195,10 +5261,10 @@
         <v>173</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>190</v>
@@ -5207,16 +5273,16 @@
         <v>84</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>31</v>
@@ -5257,13 +5323,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>153</v>
@@ -5272,16 +5338,16 @@
         <v>84</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>31</v>
@@ -5322,13 +5388,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>217</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>153</v>
@@ -5337,16 +5403,16 @@
         <v>84</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>217</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>31</v>
@@ -5387,13 +5453,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>153</v>
@@ -5402,16 +5468,16 @@
         <v>84</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>31</v>
@@ -5452,37 +5518,37 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5508,13 +5574,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>78</v>
@@ -5523,16 +5589,16 @@
         <v>84</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>31</v>
@@ -5573,13 +5639,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>153</v>
@@ -5588,16 +5654,16 @@
         <v>84</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>31</v>
@@ -5638,13 +5704,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>153</v>
@@ -5653,16 +5719,16 @@
         <v>84</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>31</v>
@@ -5703,13 +5769,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>153</v>
@@ -5718,16 +5784,16 @@
         <v>84</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>31</v>
@@ -5768,13 +5834,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>153</v>
@@ -5783,16 +5849,16 @@
         <v>84</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>31</v>
@@ -5833,31 +5899,31 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>31</v>
@@ -5866,7 +5932,7 @@
         <v>57</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5898,31 +5964,31 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>284</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>31</v>
@@ -5931,7 +5997,7 @@
         <v>57</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5963,37 +6029,37 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6019,31 +6085,31 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>31</v>
@@ -6052,7 +6118,7 @@
         <v>57</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6084,37 +6150,37 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6140,13 +6206,13 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>190</v>
@@ -6155,16 +6221,16 @@
         <v>84</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>31</v>
@@ -6196,31 +6262,31 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>31</v>
@@ -6229,7 +6295,7 @@
         <v>57</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6261,13 +6327,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>78</v>
@@ -6276,16 +6342,16 @@
         <v>84</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>31</v>
@@ -6317,43 +6383,43 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6385,43 +6451,43 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>330</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I22" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6453,13 +6519,13 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>193</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>153</v>
@@ -6468,16 +6534,16 @@
         <v>84</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>193</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>31</v>
@@ -6518,13 +6584,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>199</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>153</v>
@@ -6533,16 +6599,16 @@
         <v>84</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>199</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>31</v>
@@ -6583,13 +6649,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>196</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>153</v>
@@ -6598,16 +6664,16 @@
         <v>84</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>196</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>31</v>
@@ -6648,13 +6714,13 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>153</v>
@@ -6663,16 +6729,16 @@
         <v>84</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>31</v>
@@ -6713,37 +6779,37 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P27" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6769,43 +6835,43 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P28" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6837,13 +6903,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>139</v>
@@ -6852,22 +6918,22 @@
         <v>139</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>57</v>
@@ -6905,43 +6971,43 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6973,13 +7039,13 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>139</v>
@@ -6988,22 +7054,22 @@
         <v>139</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>57</v>
@@ -7041,43 +7107,43 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P32" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7109,43 +7175,43 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P33" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7177,43 +7243,43 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P34" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7245,43 +7311,43 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P35" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7313,13 +7379,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>139</v>
@@ -7328,22 +7394,22 @@
         <v>139</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>57</v>
@@ -7381,43 +7447,43 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M37" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P37" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7449,13 +7515,13 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>139</v>
@@ -7464,22 +7530,22 @@
         <v>139</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>57</v>
@@ -7517,43 +7583,43 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P39" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7585,13 +7651,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>139</v>
@@ -7600,22 +7666,22 @@
         <v>139</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>57</v>
@@ -7659,7 +7725,7 @@
         <v>147</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>139</v>
@@ -7668,16 +7734,16 @@
         <v>139</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>147</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>31</v>
@@ -7724,7 +7790,7 @@
         <v>141</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>139</v>
@@ -7733,16 +7799,16 @@
         <v>139</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>141</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>31</v>
@@ -7789,7 +7855,7 @@
         <v>144</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>139</v>
@@ -7798,16 +7864,16 @@
         <v>139</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>144</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>31</v>
@@ -7851,10 +7917,10 @@
         <v>136</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>139</v>
@@ -7863,16 +7929,16 @@
         <v>139</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>31</v>
@@ -7913,13 +7979,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>151</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>153</v>
@@ -7928,16 +7994,16 @@
         <v>84</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>151</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>31</v>
@@ -7978,13 +8044,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>153</v>
@@ -7993,16 +8059,16 @@
         <v>84</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>31</v>
@@ -8043,13 +8109,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>161</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>153</v>
@@ -8058,16 +8124,16 @@
         <v>84</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>161</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>31</v>
@@ -8108,13 +8174,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>153</v>
@@ -8123,16 +8189,16 @@
         <v>84</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>31</v>
@@ -8173,31 +8239,31 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>122</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>124</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>122</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>31</v>
@@ -8238,13 +8304,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>153</v>
@@ -8253,16 +8319,16 @@
         <v>84</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>31</v>
@@ -8303,13 +8369,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>153</v>
@@ -8318,16 +8384,16 @@
         <v>84</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>31</v>
@@ -8368,13 +8434,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>153</v>
@@ -8383,16 +8449,16 @@
         <v>84</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>31</v>
@@ -8433,13 +8499,13 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>153</v>
@@ -8448,16 +8514,16 @@
         <v>84</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>31</v>
@@ -8498,31 +8564,31 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>31</v>
@@ -8531,7 +8597,7 @@
         <v>57</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P54" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8563,31 +8629,31 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>190</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>31</v>
@@ -8596,7 +8662,7 @@
         <v>109</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="P55" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8628,31 +8694,31 @@
         <v>127</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>129</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>127</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>57</v>
@@ -8693,40 +8759,40 @@
         <v>126</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>89</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="P57" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8758,13 +8824,13 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>78</v>
@@ -8773,16 +8839,16 @@
         <v>84</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>31</v>
@@ -8814,13 +8880,13 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>190</v>
@@ -8829,16 +8895,16 @@
         <v>84</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>31</v>
@@ -8870,31 +8936,31 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>31</v>
@@ -8903,7 +8969,7 @@
         <v>57</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P60" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8935,31 +9001,31 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>31</v>
@@ -8968,7 +9034,7 @@
         <v>57</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P61" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9000,31 +9066,31 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>552</v>
+        <v>220</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>553</v>
+        <v>221</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>555</v>
+        <v>223</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>553</v>
+        <v>221</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>31</v>
@@ -9033,7 +9099,7 @@
         <v>57</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>555</v>
+        <v>223</v>
       </c>
       <c r="P62" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9065,43 +9131,43 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="H63" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="G63" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>560</v>
-      </c>
       <c r="I63" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P63" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9133,13 +9199,13 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>139</v>
@@ -9148,22 +9214,22 @@
         <v>139</v>
       </c>
       <c r="F64" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="H64" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="G64" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>565</v>
-      </c>
       <c r="I64" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>57</v>
@@ -9201,37 +9267,37 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F65" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="H65" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="G65" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>571</v>
-      </c>
       <c r="I65" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P65" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9257,37 +9323,37 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F66" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="H66" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="G66" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>577</v>
-      </c>
       <c r="I66" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P66" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9316,28 +9382,28 @@
         <v>37</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="H67" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="F67" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>581</v>
-      </c>
       <c r="I67" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>31</v>
@@ -9366,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="X67" s="0" t="n">
         <v>952</v>
@@ -9377,13 +9443,13 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>153</v>
@@ -9392,16 +9458,16 @@
         <v>84</v>
       </c>
       <c r="F68" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="H68" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="G68" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>589</v>
-      </c>
       <c r="I68" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>31</v>
@@ -9442,31 +9508,31 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E69" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="H69" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="F69" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>594</v>
-      </c>
       <c r="I69" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>31</v>
@@ -9475,7 +9541,7 @@
         <v>57</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P69" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9505,382 +9571,382 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+    <row r="70" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="C70" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="H70" s="3" t="s">
+      <c r="F70" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L70" s="3" t="s">
+      <c r="I70" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="M70" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N70" s="3" t="s">
+      <c r="N70" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="P70" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q70" s="3" t="n">
+      <c r="P70" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q70" s="4" t="n">
         <v>1999</v>
       </c>
-      <c r="R70" s="3" t="n">
+      <c r="R70" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="S70" s="3" t="n">
+      <c r="S70" s="4" t="n">
         <v>8.695</v>
       </c>
-      <c r="T70" s="3" t="n">
+      <c r="T70" s="4" t="n">
         <v>332943.422695</v>
       </c>
-      <c r="U70" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="V70" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="X70" s="3" t="n">
+      <c r="U70" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="X70" s="4" t="n">
         <v>144</v>
       </c>
-      <c r="Y70" s="3" t="n">
+      <c r="Y70" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="Z70" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="Z70" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="P71" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q71" s="4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="R71" s="4" t="n">
+        <v>2012</v>
+      </c>
+      <c r="S71" s="4" t="n">
+        <v>17909009</v>
+      </c>
+      <c r="T71" s="4" t="n">
+        <v>34880491</v>
+      </c>
+      <c r="U71" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z71" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P72" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q72" s="4" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R72" s="4" t="n">
+        <v>2010</v>
+      </c>
+      <c r="S72" s="4" t="n">
+        <v>6.00533832000001</v>
+      </c>
+      <c r="T72" s="4" t="n">
+        <v>8.25970273</v>
+      </c>
+      <c r="U72" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P73" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4" t="n">
+        <v>1997</v>
+      </c>
+      <c r="R73" s="4" t="n">
+        <v>2008</v>
+      </c>
+      <c r="S73" s="4" t="n">
+        <v>15095.1508524751</v>
+      </c>
+      <c r="T73" s="4" t="n">
+        <v>79921.5119190706</v>
+      </c>
+      <c r="U73" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="V73" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M71" s="3" t="s">
+      <c r="X73" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y73" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z73" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N71" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="P71" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q71" s="3" t="n">
-        <v>1960</v>
-      </c>
-      <c r="R71" s="3" t="n">
+      <c r="N74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P74" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q74" s="4" t="n">
+        <v>1990</v>
+      </c>
+      <c r="R74" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="S71" s="3" t="n">
-        <v>17909009</v>
-      </c>
-      <c r="T71" s="3" t="n">
-        <v>34880491</v>
-      </c>
-      <c r="U71" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y71" s="3" t="n">
+      <c r="S74" s="4" t="n">
+        <v>14720069.8601399</v>
+      </c>
+      <c r="T74" s="4" t="n">
+        <v>19341079.2423086</v>
+      </c>
+      <c r="U74" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="Z71" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P72" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q72" s="3" t="n">
-        <v>1999</v>
-      </c>
-      <c r="R72" s="3" t="n">
-        <v>2010</v>
-      </c>
-      <c r="S72" s="3" t="n">
-        <v>6.00533832000001</v>
-      </c>
-      <c r="T72" s="3" t="n">
-        <v>8.25970273</v>
-      </c>
-      <c r="U72" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y72" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z72" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="P73" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q73" s="3" t="n">
-        <v>1997</v>
-      </c>
-      <c r="R73" s="3" t="n">
-        <v>2008</v>
-      </c>
-      <c r="S73" s="3" t="n">
-        <v>15095.1508524751</v>
-      </c>
-      <c r="T73" s="3" t="n">
-        <v>79921.5119190706</v>
-      </c>
-      <c r="U73" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="V73" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="X73" s="3" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y73" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z73" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P74" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q74" s="3" t="n">
-        <v>1990</v>
-      </c>
-      <c r="R74" s="3" t="n">
-        <v>2012</v>
-      </c>
-      <c r="S74" s="3" t="n">
-        <v>14720069.8601399</v>
-      </c>
-      <c r="T74" s="3" t="n">
-        <v>19341079.2423086</v>
-      </c>
-      <c r="U74" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z74" s="3" t="n">
+      <c r="Z74" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F75" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="H75" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="G75" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>625</v>
-      </c>
       <c r="I75" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P75" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9912,25 +9978,25 @@
         <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>54</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>31</v>
@@ -9939,7 +10005,7 @@
         <v>57</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="P76" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9977,25 +10043,25 @@
         <v>58</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>58</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>31</v>
@@ -10004,7 +10070,7 @@
         <v>57</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="P77" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10042,31 +10108,31 @@
         <v>62</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="P78" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10098,31 +10164,31 @@
         <v>65</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="P79" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10151,28 +10217,28 @@
         <v>164</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D80" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="H80" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>649</v>
-      </c>
       <c r="I80" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>31</v>
@@ -10181,7 +10247,7 @@
         <v>57</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="P80" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10219,7 +10285,7 @@
         <v>165</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>89</v>
@@ -10228,22 +10294,22 @@
         <v>89</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>165</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>57</v>
@@ -10284,10 +10350,10 @@
         <v>164</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>171</v>
@@ -10296,22 +10362,22 @@
         <v>78</v>
       </c>
       <c r="F82" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="H82" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="G82" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>660</v>
-      </c>
       <c r="I82" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="J82" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>57</v>
@@ -10349,37 +10415,37 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F83" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="H83" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="G83" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>666</v>
-      </c>
       <c r="I83" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P83" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10403,404 +10469,404 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
+    <row r="84" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="C84" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="I84" s="4" t="s">
+      <c r="D84" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="M84" s="4" t="s">
+      <c r="G84" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="M84" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N84" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="P84" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q84" s="4" t="n">
+      <c r="N84" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="P84" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q84" s="5" t="n">
         <v>2012</v>
       </c>
-      <c r="R84" s="4" t="n">
+      <c r="R84" s="5" t="n">
         <v>2012</v>
       </c>
-      <c r="S84" s="4" t="n">
+      <c r="S84" s="5" t="n">
         <v>4860.51</v>
       </c>
-      <c r="T84" s="4" t="n">
+      <c r="T84" s="5" t="n">
         <v>4860.51</v>
       </c>
-      <c r="U84" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y84" s="4" t="n">
+      <c r="U84" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y84" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z84" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
+      <c r="Z84" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="B85" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="H85" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M85" s="4" t="s">
+      <c r="I85" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N85" s="4" t="s">
+      <c r="N85" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P85" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q85" s="4" t="n">
+      <c r="P85" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q85" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="R85" s="4" t="n">
+      <c r="R85" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="S85" s="4" t="n">
+      <c r="S85" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="T85" s="4" t="n">
+      <c r="T85" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="U85" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y85" s="4" t="n">
+      <c r="U85" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y85" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z85" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
+      <c r="Z85" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="B86" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="H86" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M86" s="4" t="s">
+      <c r="I86" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N86" s="4" t="s">
+      <c r="N86" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P86" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q86" s="4" t="n">
+      <c r="P86" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q86" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="R86" s="4" t="n">
+      <c r="R86" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="S86" s="4" t="n">
+      <c r="S86" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="T86" s="4" t="n">
+      <c r="T86" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="U86" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y86" s="4" t="n">
+      <c r="U86" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y86" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z86" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
+      <c r="Z86" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E87" s="4" t="s">
+      <c r="C87" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="H87" s="4" t="s">
+      <c r="F87" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="H87" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I87" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L87" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="M87" s="4" t="s">
+      <c r="I87" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="M87" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N87" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="P87" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q87" s="4" t="n">
+      <c r="N87" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="P87" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q87" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="R87" s="4" t="n">
+      <c r="R87" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="S87" s="4" t="n">
+      <c r="S87" s="5" t="n">
         <v>0.002424907</v>
       </c>
-      <c r="T87" s="4" t="n">
+      <c r="T87" s="5" t="n">
         <v>0.733693814</v>
       </c>
-      <c r="U87" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y87" s="4" t="n">
+      <c r="U87" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y87" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z87" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
+      <c r="Z87" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="C88" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="M88" s="4" t="s">
+      <c r="M88" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="N88" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P88" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q88" s="4" t="n">
+      <c r="P88" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q88" s="5" t="n">
         <v>1976</v>
       </c>
-      <c r="R88" s="4" t="n">
+      <c r="R88" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="S88" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T88" s="4" t="n">
+      <c r="S88" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" s="5" t="n">
         <v>13063.5</v>
       </c>
-      <c r="U88" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="4" t="n">
+      <c r="U88" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z88" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
+      <c r="Z88" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="E89" s="4" t="s">
+      <c r="C89" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="G89" s="4" t="s">
+      <c r="F89" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N89" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N89" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="P89" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q89" s="4" t="n">
+      <c r="P89" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q89" s="5" t="n">
         <v>1976</v>
       </c>
-      <c r="R89" s="4" t="n">
+      <c r="R89" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="S89" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T89" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U89" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y89" s="4" t="n">
+      <c r="S89" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y89" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="Z89" s="4" t="n">
+      <c r="Z89" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10813,25 +10879,25 @@
         <v>27</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>31</v>
@@ -10866,37 +10932,37 @@
         <v>26</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D91" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="H91" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="F91" s="0" t="s">
+      <c r="I91" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="N91" s="0" t="s">
         <v>708</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L91" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="N91" s="0" t="s">
-        <v>706</v>
       </c>
       <c r="P91" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10925,34 +10991,34 @@
         <v>26</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D92" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="H92" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="G92" s="0" t="s">
+      <c r="I92" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O92" s="0" t="s">
         <v>716</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="J92" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O92" s="0" t="s">
-        <v>714</v>
       </c>
       <c r="P92" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10971,37 +11037,37 @@
         <v>26</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F93" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="H93" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="G93" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>718</v>
-      </c>
       <c r="I93" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="J93" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="P93" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11015,114 +11081,114 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="C94" s="5" t="s">
+    <row r="94" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="B94" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="H94" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="I94" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N94" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="P94" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="S94" s="5" t="n">
+      <c r="P94" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S94" s="6" t="n">
         <v>0.877814168556973</v>
       </c>
-      <c r="T94" s="5" t="n">
+      <c r="T94" s="6" t="n">
         <v>0.877814168556973</v>
       </c>
-      <c r="U94" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y94" s="5" t="n">
+      <c r="U94" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y94" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="Z94" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="Z94" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="G95" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N95" s="5" t="s">
+      <c r="I95" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="P95" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="S95" s="5" t="n">
+      <c r="P95" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S95" s="6" t="n">
         <v>-0.121428107812458</v>
       </c>
-      <c r="T95" s="5" t="n">
+      <c r="T95" s="6" t="n">
         <v>-0.121428107812458</v>
       </c>
-      <c r="U95" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y95" s="5" t="n">
+      <c r="U95" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y95" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="Z95" s="5" t="n">
+      <c r="Z95" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11135,7 +11201,7 @@
         <v>69</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>71</v>
@@ -11144,16 +11210,16 @@
         <v>72</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>69</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>31</v>
@@ -11200,7 +11266,7 @@
         <v>75</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>77</v>
@@ -11209,16 +11275,16 @@
         <v>78</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>31</v>
@@ -11262,28 +11328,28 @@
         <v>68</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>31</v>
@@ -11292,7 +11358,7 @@
         <v>57</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="P98" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11324,40 +11390,40 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D99" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="H99" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>753</v>
-      </c>
-      <c r="F99" s="0" t="s">
+      <c r="I99" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="N99" s="0" t="s">
         <v>754</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="H99" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="J99" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L99" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="N99" s="0" t="s">
-        <v>752</v>
       </c>
       <c r="P99" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11377,40 +11443,40 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E100" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="H100" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="F100" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>757</v>
-      </c>
       <c r="I100" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P100" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11430,40 +11496,40 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D101" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="H101" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="G101" s="0" t="s">
+      <c r="I101" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="N101" s="0" t="s">
         <v>767</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="J101" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="N101" s="0" t="s">
-        <v>765</v>
       </c>
       <c r="P101" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11483,40 +11549,40 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F102" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="H102" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="G102" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="H102" s="0" t="s">
-        <v>769</v>
-      </c>
       <c r="I102" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P102" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11548,34 +11614,34 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F103" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="H103" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="G103" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="H103" s="0" t="s">
-        <v>774</v>
-      </c>
       <c r="I103" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P103" s="0" t="n">
         <f aca="false">TRUE()</f>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="782">
   <si>
     <t xml:space="preserve">targets</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t xml:space="preserve">cc_sst_pat2021.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proporción de la 1mn de cada comuna que puede ser inundada por el cambio en la cota por el cambio climatico</t>
   </si>
   <si>
     <t xml:space="preserve">~/github/pat/comunas/layers/cc_slr_pat2021.csv</t>
@@ -2613,7 +2616,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4629,7 +4632,7 @@
         <v>35</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>0</v>
+        <v>0.1758945</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>1</v>
@@ -4707,8 +4710,11 @@
       <c r="E39" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="G39" s="0" t="s">
+        <v>201</v>
+      </c>
       <c r="I39" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>31</v>
@@ -4743,10 +4749,10 @@
         <v>192</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>153</v>
@@ -4755,7 +4761,7 @@
         <v>84</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>31</v>
@@ -4787,10 +4793,10 @@
         <v>192</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>153</v>
@@ -4799,7 +4805,7 @@
         <v>84</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>31</v>
@@ -4831,10 +4837,10 @@
         <v>192</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>153</v>
@@ -4843,7 +4849,7 @@
         <v>84</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>31</v>
@@ -4875,10 +4881,10 @@
         <v>192</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>153</v>
@@ -4887,7 +4893,7 @@
         <v>84</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>31</v>
@@ -4919,10 +4925,10 @@
         <v>192</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>153</v>
@@ -4931,7 +4937,7 @@
         <v>84</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>31</v>
@@ -4963,10 +4969,10 @@
         <v>192</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>153</v>
@@ -4975,7 +4981,7 @@
         <v>84</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>31</v>
@@ -5004,28 +5010,28 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>72</v>
       </c>
       <c r="I46" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="P46" s="0" t="s">
         <v>35</v>
@@ -5196,10 +5202,10 @@
         <v>173</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>190</v>
@@ -5208,16 +5214,16 @@
         <v>84</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>31</v>
@@ -5261,10 +5267,10 @@
         <v>173</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>190</v>
@@ -5273,16 +5279,16 @@
         <v>84</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>31</v>
@@ -5323,13 +5329,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>153</v>
@@ -5338,16 +5344,16 @@
         <v>84</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>31</v>
@@ -5388,13 +5394,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>153</v>
@@ -5403,16 +5409,16 @@
         <v>84</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>31</v>
@@ -5453,13 +5459,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>153</v>
@@ -5468,16 +5474,16 @@
         <v>84</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>31</v>
@@ -5518,37 +5524,37 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>253</v>
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5574,13 +5580,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>78</v>
@@ -5589,16 +5595,16 @@
         <v>84</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>31</v>
@@ -5639,13 +5645,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>153</v>
@@ -5654,16 +5660,16 @@
         <v>84</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>31</v>
@@ -5704,13 +5710,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>153</v>
@@ -5719,16 +5725,16 @@
         <v>84</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>31</v>
@@ -5769,13 +5775,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>153</v>
@@ -5784,16 +5790,16 @@
         <v>84</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>31</v>
@@ -5834,13 +5840,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>153</v>
@@ -5849,16 +5855,16 @@
         <v>84</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>31</v>
@@ -5899,31 +5905,31 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>31</v>
@@ -5932,7 +5938,7 @@
         <v>57</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5964,31 +5970,31 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>31</v>
@@ -5997,7 +6003,7 @@
         <v>57</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6029,37 +6035,37 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6085,31 +6091,31 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>305</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>31</v>
@@ -6118,7 +6124,7 @@
         <v>57</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6150,37 +6156,37 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6206,13 +6212,13 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>190</v>
@@ -6221,16 +6227,16 @@
         <v>84</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>31</v>
@@ -6262,31 +6268,31 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>31</v>
@@ -6295,7 +6301,7 @@
         <v>57</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6327,13 +6333,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>78</v>
@@ -6342,16 +6348,16 @@
         <v>84</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>31</v>
@@ -6383,43 +6389,43 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>333</v>
-      </c>
       <c r="I21" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6451,43 +6457,43 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="0" t="s">
         <v>340</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>339</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6519,13 +6525,13 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>193</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>153</v>
@@ -6534,16 +6540,16 @@
         <v>84</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>193</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>31</v>
@@ -6584,13 +6590,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>199</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>153</v>
@@ -6599,16 +6605,16 @@
         <v>84</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>199</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>31</v>
@@ -6649,13 +6655,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>196</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>153</v>
@@ -6664,16 +6670,16 @@
         <v>84</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>196</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>31</v>
@@ -6714,13 +6720,13 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>153</v>
@@ -6729,16 +6735,16 @@
         <v>84</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>31</v>
@@ -6779,37 +6785,37 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P27" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6835,43 +6841,43 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P28" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6903,13 +6909,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>139</v>
@@ -6918,22 +6924,22 @@
         <v>139</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>57</v>
@@ -6971,43 +6977,43 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7039,13 +7045,13 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>139</v>
@@ -7054,22 +7060,22 @@
         <v>139</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>57</v>
@@ -7107,43 +7113,43 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>394</v>
-      </c>
       <c r="I32" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P32" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7175,43 +7181,43 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>399</v>
-      </c>
       <c r="I33" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P33" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7243,43 +7249,43 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="H34" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>404</v>
-      </c>
       <c r="I34" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P34" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7311,43 +7317,43 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P35" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7379,13 +7385,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>139</v>
@@ -7394,22 +7400,22 @@
         <v>139</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>57</v>
@@ -7447,43 +7453,43 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M37" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P37" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7515,13 +7521,13 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>139</v>
@@ -7530,22 +7536,22 @@
         <v>139</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>57</v>
@@ -7583,43 +7589,43 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P39" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7651,13 +7657,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>139</v>
@@ -7666,22 +7672,22 @@
         <v>139</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>57</v>
@@ -7725,7 +7731,7 @@
         <v>147</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>139</v>
@@ -7734,16 +7740,16 @@
         <v>139</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>147</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>31</v>
@@ -7790,7 +7796,7 @@
         <v>141</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>139</v>
@@ -7799,16 +7805,16 @@
         <v>139</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>141</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>31</v>
@@ -7855,7 +7861,7 @@
         <v>144</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>139</v>
@@ -7864,16 +7870,16 @@
         <v>139</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>144</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>31</v>
@@ -7917,10 +7923,10 @@
         <v>136</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>139</v>
@@ -7929,16 +7935,16 @@
         <v>139</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>31</v>
@@ -7979,13 +7985,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>151</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>153</v>
@@ -7994,16 +8000,16 @@
         <v>84</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>151</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>31</v>
@@ -8044,13 +8050,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>153</v>
@@ -8059,16 +8065,16 @@
         <v>84</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>31</v>
@@ -8109,13 +8115,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>161</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>153</v>
@@ -8124,16 +8130,16 @@
         <v>84</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>161</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>31</v>
@@ -8174,13 +8180,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>153</v>
@@ -8189,16 +8195,16 @@
         <v>84</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>31</v>
@@ -8239,31 +8245,31 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>122</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>124</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>122</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>31</v>
@@ -8304,13 +8310,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>153</v>
@@ -8319,16 +8325,16 @@
         <v>84</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>31</v>
@@ -8369,13 +8375,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>153</v>
@@ -8384,16 +8390,16 @@
         <v>84</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>31</v>
@@ -8434,13 +8440,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>153</v>
@@ -8449,16 +8455,16 @@
         <v>84</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>31</v>
@@ -8499,13 +8505,13 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>153</v>
@@ -8514,16 +8520,16 @@
         <v>84</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>31</v>
@@ -8564,31 +8570,31 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C54" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H54" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>510</v>
-      </c>
       <c r="I54" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>31</v>
@@ -8597,7 +8603,7 @@
         <v>57</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P54" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8629,31 +8635,31 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>190</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>31</v>
@@ -8662,7 +8668,7 @@
         <v>109</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P55" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8694,31 +8700,31 @@
         <v>127</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>129</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>127</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>57</v>
@@ -8759,40 +8765,40 @@
         <v>126</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>89</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P57" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8824,13 +8830,13 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>78</v>
@@ -8839,16 +8845,16 @@
         <v>84</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>31</v>
@@ -8880,13 +8886,13 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>190</v>
@@ -8895,16 +8901,16 @@
         <v>84</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>31</v>
@@ -8936,31 +8942,31 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>31</v>
@@ -8969,7 +8975,7 @@
         <v>57</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P60" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9001,31 +9007,31 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>31</v>
@@ -9034,7 +9040,7 @@
         <v>57</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P61" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9066,31 +9072,31 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>31</v>
@@ -9099,7 +9105,7 @@
         <v>57</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P62" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9131,43 +9137,43 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P63" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9199,13 +9205,13 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>139</v>
@@ -9214,22 +9220,22 @@
         <v>139</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>57</v>
@@ -9267,37 +9273,37 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P65" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9323,37 +9329,37 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P66" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9382,28 +9388,28 @@
         <v>37</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>31</v>
@@ -9432,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X67" s="0" t="n">
         <v>952</v>
@@ -9443,13 +9449,13 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>153</v>
@@ -9458,16 +9464,16 @@
         <v>84</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>31</v>
@@ -9508,31 +9514,31 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C69" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="H69" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>596</v>
-      </c>
       <c r="I69" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>31</v>
@@ -9541,7 +9547,7 @@
         <v>57</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P69" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9579,7 +9585,7 @@
         <v>104</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>190</v>
@@ -9588,16 +9594,16 @@
         <v>107</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>104</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>31</v>
@@ -9632,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="X70" s="4" t="n">
         <v>144</v>
@@ -9650,28 +9656,28 @@
         <v>103</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>607</v>
-      </c>
       <c r="I71" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>31</v>
@@ -9680,7 +9686,7 @@
         <v>57</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P71" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9718,7 +9724,7 @@
         <v>115</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>117</v>
@@ -9727,16 +9733,16 @@
         <v>72</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>115</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>31</v>
@@ -9783,7 +9789,7 @@
         <v>110</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>190</v>
@@ -9792,16 +9798,16 @@
         <v>113</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>110</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>31</v>
@@ -9836,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="V73" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="X73" s="4" t="n">
         <v>120</v>
@@ -9857,7 +9863,7 @@
         <v>119</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>106</v>
@@ -9866,16 +9872,16 @@
         <v>107</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>119</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>31</v>
@@ -9916,37 +9922,37 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C75" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="H75" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>627</v>
-      </c>
       <c r="I75" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P75" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -9978,25 +9984,25 @@
         <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>54</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>31</v>
@@ -10005,7 +10011,7 @@
         <v>57</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P76" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10043,25 +10049,25 @@
         <v>58</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>58</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>31</v>
@@ -10070,7 +10076,7 @@
         <v>57</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P77" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10108,31 +10114,31 @@
         <v>62</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="P78" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10164,31 +10170,31 @@
         <v>65</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="P79" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10217,28 +10223,28 @@
         <v>164</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C80" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="H80" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>651</v>
-      </c>
       <c r="I80" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>31</v>
@@ -10247,7 +10253,7 @@
         <v>57</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P80" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10285,7 +10291,7 @@
         <v>165</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>89</v>
@@ -10294,22 +10300,22 @@
         <v>89</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>165</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>57</v>
@@ -10350,10 +10356,10 @@
         <v>164</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>171</v>
@@ -10362,22 +10368,22 @@
         <v>78</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H82" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="0" t="s">
         <v>662</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L82" s="0" t="s">
-        <v>661</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>57</v>
@@ -10415,37 +10421,37 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P83" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10474,40 +10480,40 @@
         <v>86</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>673</v>
-      </c>
       <c r="I84" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M84" s="5" t="s">
         <v>57</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P84" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -10542,10 +10548,10 @@
         <v>86</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>78</v>
@@ -10554,16 +10560,16 @@
         <v>78</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>31</v>
@@ -10607,10 +10613,10 @@
         <v>86</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>78</v>
@@ -10619,16 +10625,16 @@
         <v>78</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>31</v>
@@ -10675,37 +10681,37 @@
         <v>95</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>95</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M87" s="5" t="s">
         <v>57</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P87" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -10743,7 +10749,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>89</v>
@@ -10752,22 +10758,22 @@
         <v>89</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M88" s="5" t="s">
         <v>57</v>
@@ -10811,37 +10817,37 @@
         <v>92</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>92</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M89" s="5" t="s">
         <v>57</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="P89" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -10879,25 +10885,25 @@
         <v>27</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>31</v>
@@ -10932,37 +10938,37 @@
         <v>26</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C91" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="H91" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="E91" s="0" t="s">
+      <c r="I91" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="N91" s="0" t="s">
         <v>709</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L91" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="N91" s="0" t="s">
-        <v>708</v>
       </c>
       <c r="P91" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -10991,34 +10997,34 @@
         <v>26</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C92" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="H92" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="D92" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="F92" s="0" t="s">
+      <c r="I92" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O92" s="0" t="s">
         <v>717</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="J92" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O92" s="0" t="s">
-        <v>716</v>
       </c>
       <c r="P92" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11037,37 +11043,37 @@
         <v>26</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C93" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="H93" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>720</v>
-      </c>
       <c r="I93" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J93" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="P93" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11083,31 +11089,31 @@
     </row>
     <row r="94" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>31</v>
@@ -11139,13 +11145,13 @@
     </row>
     <row r="95" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>78</v>
@@ -11154,16 +11160,16 @@
         <v>49</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>31</v>
@@ -11201,7 +11207,7 @@
         <v>69</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>71</v>
@@ -11210,16 +11216,16 @@
         <v>72</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>69</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>31</v>
@@ -11266,7 +11272,7 @@
         <v>75</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>77</v>
@@ -11275,16 +11281,16 @@
         <v>78</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>31</v>
@@ -11328,28 +11334,28 @@
         <v>68</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>31</v>
@@ -11358,7 +11364,7 @@
         <v>57</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="P98" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11390,40 +11396,40 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C99" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="H99" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="D99" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="E99" s="0" t="s">
+      <c r="I99" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="N99" s="0" t="s">
         <v>755</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="H99" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="J99" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L99" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="N99" s="0" t="s">
-        <v>754</v>
       </c>
       <c r="P99" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11443,40 +11449,40 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C100" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="H100" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>759</v>
-      </c>
       <c r="I100" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P100" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11496,40 +11502,40 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C101" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H101" s="0" t="s">
         <v>766</v>
       </c>
-      <c r="D101" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="F101" s="0" t="s">
+      <c r="I101" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="N101" s="0" t="s">
         <v>768</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="J101" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="N101" s="0" t="s">
-        <v>767</v>
       </c>
       <c r="P101" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11549,40 +11555,40 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C102" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="H102" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="H102" s="0" t="s">
-        <v>771</v>
-      </c>
       <c r="I102" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P102" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11614,34 +11620,34 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>84</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P103" s="0" t="n">
         <f aca="false">TRUE()</f>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064069C-FD7A-46E3-814F-B744BECB5D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BDF673-9AFF-4D51-89BA-627BE913C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="813">
   <si>
     <t>targets</t>
   </si>
@@ -195,27 +195,15 @@
     <t>lsp_prot_area_inland1km</t>
   </si>
   <si>
-    <t>lsp_prot_area_inland1km_pat2021.csv</t>
-  </si>
-  <si>
-    <t>~/github/pat/comunas/layers/lsp_prot_area_inland1km_pat2021.csv</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
     <t>lsp_prot_area_offshore3nm</t>
   </si>
   <si>
-    <t>lsp_prot_area_offshore3nm_pat2021.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">	lsp_prot_area_offshore3nm</t>
   </si>
   <si>
-    <t>~/github/pat/comunas/layers/lsp_prot_area_offshore3nm_pat2021.csv</t>
-  </si>
-  <si>
     <t>rgn_area_inland1km</t>
   </si>
   <si>
@@ -2446,13 +2434,58 @@
   </si>
   <si>
     <t xml:space="preserve">Proporcion relativa de extracción de pesquerias en relación a la extracción en maricultura a nivel comunal </t>
+  </si>
+  <si>
+    <t>lsp_prot_area_inland1mn</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_offshore3mn</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_inland1mn_pat2021.csv</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_offshore3mn_pat2021.csv</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_inland1nm</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/lsp_prot_area_inland1mn_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/lsp_prot_area_offshore3mn_pat2021.csv</t>
+  </si>
+  <si>
+    <t>hab_all</t>
+  </si>
+  <si>
+    <t>hab_sup</t>
+  </si>
+  <si>
+    <t>hab_all_pat2021.csv</t>
+  </si>
+  <si>
+    <t>hab_sup_pat2021.csv</t>
+  </si>
+  <si>
+    <t>total_km2</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/hab_all_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/hab_sup_pat2021.csv</t>
+  </si>
+  <si>
+    <t>variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2464,6 +2497,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2930,11 +2969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3173,10 +3212,10 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>798</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>800</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -3185,16 +3224,16 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>802</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>803</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
         <v>29</v>
@@ -3229,10 +3268,10 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>799</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>801</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -3241,16 +3280,16 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>804</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -3285,10 +3324,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -3297,10 +3336,10 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
         <v>33</v>
@@ -3332,10 +3371,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -3344,10 +3383,10 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
         <v>33</v>
@@ -3376,34 +3415,34 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
       </c>
       <c r="J9" t="s">
         <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s">
         <v>35</v>
@@ -3432,34 +3471,34 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
       </c>
       <c r="J10" t="s">
         <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s">
         <v>35</v>
@@ -3488,31 +3527,31 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" t="s">
-        <v>81</v>
       </c>
       <c r="J11" t="s">
         <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s">
         <v>35</v>
@@ -3529,43 +3568,43 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>778</v>
+      </c>
+      <c r="G12" t="s">
+        <v>782</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
         <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" t="s">
-        <v>782</v>
-      </c>
-      <c r="G12" t="s">
-        <v>786</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" t="s">
-        <v>86</v>
       </c>
       <c r="J12" t="s">
         <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
         <v>35</v>
@@ -3594,43 +3633,43 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P13" t="s">
         <v>35</v>
@@ -3659,43 +3698,43 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G14" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P14" t="s">
         <v>35</v>
@@ -3724,37 +3763,37 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G15" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
         <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P15" t="s">
         <v>35</v>
@@ -3777,43 +3816,43 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
         <v>99</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
+        <v>785</v>
+      </c>
+      <c r="G16" t="s">
+        <v>794</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" t="s">
         <v>100</v>
       </c>
-      <c r="C16" t="s">
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
         <v>101</v>
       </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" t="s">
-        <v>789</v>
-      </c>
-      <c r="G16" t="s">
-        <v>798</v>
-      </c>
-      <c r="H16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" t="s">
-        <v>105</v>
-      </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P16" t="s">
         <v>35</v>
@@ -3845,43 +3884,43 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>787</v>
+      </c>
+      <c r="F17" t="s">
+        <v>786</v>
+      </c>
+      <c r="G17" t="s">
+        <v>795</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
         <v>106</v>
       </c>
-      <c r="C17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" t="s">
-        <v>791</v>
-      </c>
-      <c r="F17" t="s">
-        <v>790</v>
-      </c>
-      <c r="G17" t="s">
-        <v>799</v>
-      </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" t="s">
-        <v>110</v>
-      </c>
       <c r="J17" t="s">
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P17" t="s">
         <v>35</v>
@@ -3913,40 +3952,40 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G18" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P18" t="s">
         <v>35</v>
@@ -3975,40 +4014,40 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
         <v>99</v>
       </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
       <c r="F19" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G19" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P19" t="s">
         <v>35</v>
@@ -4037,40 +4076,40 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G20" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P20" t="s">
         <v>35</v>
@@ -4099,37 +4138,37 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" t="s">
         <v>122</v>
       </c>
-      <c r="B21" t="s">
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
         <v>123</v>
       </c>
-      <c r="C21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" t="s">
-        <v>127</v>
-      </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P21" t="s">
         <v>35</v>
@@ -4158,34 +4197,34 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P22" t="s">
         <v>35</v>
@@ -4214,31 +4253,31 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" t="s">
         <v>132</v>
       </c>
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" t="s">
-        <v>136</v>
-      </c>
       <c r="J23" t="s">
         <v>31</v>
       </c>
       <c r="M23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P23" t="s">
         <v>35</v>
@@ -4267,31 +4306,31 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" t="s">
         <v>135</v>
       </c>
-      <c r="E24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" t="s">
-        <v>139</v>
-      </c>
       <c r="J24" t="s">
         <v>31</v>
       </c>
       <c r="M24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P24" t="s">
         <v>35</v>
@@ -4320,31 +4359,31 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P25" t="s">
         <v>35</v>
@@ -4373,31 +4412,31 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s">
         <v>31</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P26" t="s">
         <v>35</v>
@@ -4426,31 +4465,31 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s">
         <v>146</v>
       </c>
-      <c r="B27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" t="s">
-        <v>150</v>
-      </c>
       <c r="J27" t="s">
         <v>31</v>
       </c>
       <c r="M27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
@@ -4479,31 +4518,31 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s">
         <v>149</v>
       </c>
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" t="s">
-        <v>153</v>
-      </c>
       <c r="J28" t="s">
         <v>31</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P28" t="s">
         <v>35</v>
@@ -4532,31 +4571,31 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J29" t="s">
         <v>31</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P29" t="s">
         <v>35</v>
@@ -4585,31 +4624,31 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J30" t="s">
         <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P30" t="s">
         <v>35</v>
@@ -4638,34 +4677,34 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" t="s">
         <v>160</v>
       </c>
-      <c r="B31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" t="s">
-        <v>163</v>
-      </c>
-      <c r="J31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" t="s">
-        <v>164</v>
-      </c>
       <c r="M31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P31" t="s">
         <v>35</v>
@@ -4694,34 +4733,34 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" t="s">
         <v>160</v>
       </c>
-      <c r="B32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s">
-        <v>168</v>
-      </c>
-      <c r="J32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" t="s">
-        <v>164</v>
-      </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P32" t="s">
         <v>35</v>
@@ -4750,31 +4789,31 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
         <v>169</v>
       </c>
-      <c r="B33" t="s">
+      <c r="I33" t="s">
         <v>170</v>
       </c>
-      <c r="C33" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" t="s">
-        <v>173</v>
-      </c>
-      <c r="I33" t="s">
-        <v>174</v>
-      </c>
       <c r="J33" t="s">
         <v>31</v>
       </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P33" t="s">
         <v>35</v>
@@ -4803,31 +4842,31 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" t="s">
         <v>169</v>
       </c>
-      <c r="B34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="I34" t="s">
+        <v>174</v>
+      </c>
+      <c r="J34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" t="s">
         <v>173</v>
-      </c>
-      <c r="I34" t="s">
-        <v>178</v>
-      </c>
-      <c r="J34" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N34" t="s">
-        <v>177</v>
       </c>
       <c r="P34" t="s">
         <v>35</v>
@@ -4856,31 +4895,31 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" t="s">
         <v>169</v>
       </c>
-      <c r="B35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" t="s">
-        <v>173</v>
-      </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J35" t="s">
         <v>31</v>
       </c>
       <c r="M35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P35" t="s">
         <v>35</v>
@@ -4909,31 +4948,31 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s">
         <v>183</v>
       </c>
-      <c r="B36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36" t="s">
-        <v>187</v>
-      </c>
       <c r="J36" t="s">
         <v>31</v>
       </c>
       <c r="M36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N36" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P36" t="s">
         <v>35</v>
@@ -4962,31 +5001,31 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J37" t="s">
         <v>31</v>
       </c>
       <c r="M37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P37" t="s">
         <v>35</v>
@@ -5009,31 +5048,31 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s">
         <v>188</v>
       </c>
-      <c r="B38" t="s">
-        <v>192</v>
-      </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
       </c>
       <c r="M38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P38" t="s">
         <v>35</v>
@@ -5056,34 +5095,34 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I39" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J39" t="s">
         <v>31</v>
       </c>
       <c r="M39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N39" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P39" t="s">
         <v>35</v>
@@ -5106,28 +5145,28 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J40" t="s">
         <v>31</v>
       </c>
       <c r="N40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P40" t="s">
         <v>35</v>
@@ -5150,28 +5189,28 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J41" t="s">
         <v>31</v>
       </c>
       <c r="N41" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P41" t="s">
         <v>35</v>
@@ -5194,28 +5233,28 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J42" t="s">
         <v>31</v>
       </c>
       <c r="N42" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P42" t="s">
         <v>35</v>
@@ -5238,28 +5277,28 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J43" t="s">
         <v>31</v>
       </c>
       <c r="N43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P43" t="s">
         <v>35</v>
@@ -5282,28 +5321,28 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J44" t="s">
         <v>31</v>
       </c>
       <c r="N44" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P44" t="s">
         <v>35</v>
@@ -5326,28 +5365,28 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J45" t="s">
         <v>31</v>
       </c>
       <c r="N45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P45" t="s">
         <v>35</v>
@@ -5370,34 +5409,34 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>796</v>
+      </c>
+      <c r="G46" t="s">
+        <v>797</v>
+      </c>
+      <c r="I46" t="s">
         <v>217</v>
       </c>
-      <c r="B46" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46" t="s">
-        <v>220</v>
-      </c>
-      <c r="E46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" t="s">
-        <v>800</v>
-      </c>
-      <c r="G46" t="s">
-        <v>801</v>
-      </c>
-      <c r="I46" t="s">
-        <v>221</v>
-      </c>
       <c r="J46" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P46" t="s">
         <v>35</v>
@@ -5426,28 +5465,28 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B47" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C47" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="I47" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="J47" t="s">
         <v>31</v>
       </c>
       <c r="N47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P47" t="s">
         <v>35</v>
@@ -5474,9 +5513,113 @@
         <v>36</v>
       </c>
     </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>554</v>
+      </c>
+      <c r="B48" t="s">
+        <v>805</v>
+      </c>
+      <c r="C48" t="s">
+        <v>807</v>
+      </c>
+      <c r="D48" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" t="s">
+        <v>810</v>
+      </c>
+      <c r="J48" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" t="s">
+        <v>812</v>
+      </c>
+      <c r="N48" t="s">
+        <v>182</v>
+      </c>
+      <c r="P48" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48">
+        <v>2021</v>
+      </c>
+      <c r="R48">
+        <v>2021</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>20011</v>
+      </c>
+      <c r="U48" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y48">
+        <v>36</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>554</v>
+      </c>
+      <c r="B49" t="s">
+        <v>806</v>
+      </c>
+      <c r="C49" t="s">
+        <v>808</v>
+      </c>
+      <c r="D49" t="s">
+        <v>809</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" t="s">
+        <v>811</v>
+      </c>
+      <c r="J49" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" t="s">
+        <v>809</v>
+      </c>
+      <c r="P49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49">
+        <v>2021</v>
+      </c>
+      <c r="R49">
+        <v>2021</v>
+      </c>
+      <c r="S49">
+        <v>8.3150080000000006</v>
+      </c>
+      <c r="T49">
+        <v>32645.916850000001</v>
+      </c>
+      <c r="U49" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y49">
+        <v>36</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5600,40 +5743,40 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" t="s">
         <v>222</v>
       </c>
-      <c r="C2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I2" t="s">
-        <v>226</v>
-      </c>
       <c r="J2" t="s">
         <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P2" t="b">
         <f>TRUE()</f>
@@ -5665,40 +5808,40 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" t="s">
         <v>227</v>
       </c>
-      <c r="C3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I3" t="s">
-        <v>231</v>
-      </c>
       <c r="J3" t="s">
         <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P3" t="b">
         <f>TRUE()</f>
@@ -5730,40 +5873,40 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" t="s">
         <v>232</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" t="s">
         <v>233</v>
       </c>
-      <c r="C4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I4" t="s">
-        <v>237</v>
-      </c>
       <c r="J4" t="s">
         <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P4" t="b">
         <f>TRUE()</f>
@@ -5795,40 +5938,40 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P5" t="b">
         <f>TRUE()</f>
@@ -5860,40 +6003,40 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" t="s">
         <v>242</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" t="s">
         <v>243</v>
       </c>
-      <c r="C6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I6" t="s">
-        <v>247</v>
-      </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P6" t="b">
         <f>TRUE()</f>
@@ -5925,37 +6068,37 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" t="s">
         <v>248</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" t="s">
         <v>249</v>
       </c>
-      <c r="D7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I7" t="s">
-        <v>253</v>
-      </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P7" t="b">
         <f>TRUE()</f>
@@ -5981,40 +6124,40 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" t="s">
         <v>254</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I8" t="s">
         <v>255</v>
       </c>
-      <c r="C8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H8" t="s">
-        <v>255</v>
-      </c>
-      <c r="I8" t="s">
-        <v>259</v>
-      </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P8" t="b">
         <f>TRUE()</f>
@@ -6046,40 +6189,40 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" t="s">
         <v>260</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
+        <v>257</v>
+      </c>
+      <c r="I9" t="s">
         <v>261</v>
       </c>
-      <c r="C9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" t="s">
-        <v>263</v>
-      </c>
-      <c r="G9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H9" t="s">
-        <v>261</v>
-      </c>
-      <c r="I9" t="s">
-        <v>265</v>
-      </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P9" t="b">
         <f>TRUE()</f>
@@ -6111,40 +6254,40 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" t="s">
         <v>266</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H10" t="s">
+        <v>263</v>
+      </c>
+      <c r="I10" t="s">
         <v>267</v>
       </c>
-      <c r="C10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>269</v>
-      </c>
-      <c r="G10" t="s">
-        <v>270</v>
-      </c>
-      <c r="H10" t="s">
-        <v>267</v>
-      </c>
-      <c r="I10" t="s">
-        <v>271</v>
-      </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P10" t="b">
         <f>TRUE()</f>
@@ -6176,40 +6319,40 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" t="s">
         <v>272</v>
       </c>
-      <c r="B11" t="s">
+      <c r="H11" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" t="s">
         <v>273</v>
       </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" t="s">
-        <v>276</v>
-      </c>
-      <c r="H11" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" t="s">
-        <v>277</v>
-      </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P11" t="b">
         <f>TRUE()</f>
@@ -6241,40 +6384,40 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" t="s">
+        <v>274</v>
+      </c>
+      <c r="I12" t="s">
         <v>278</v>
       </c>
-      <c r="C12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" t="s">
-        <v>280</v>
-      </c>
-      <c r="G12" t="s">
-        <v>281</v>
-      </c>
-      <c r="H12" t="s">
-        <v>278</v>
-      </c>
-      <c r="I12" t="s">
-        <v>282</v>
-      </c>
       <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P12" t="b">
         <f>TRUE()</f>
@@ -6306,40 +6449,40 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
         <v>283</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G13" t="s">
         <v>284</v>
       </c>
-      <c r="C13" t="s">
+      <c r="H13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I13" t="s">
         <v>285</v>
       </c>
-      <c r="D13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" t="s">
-        <v>288</v>
-      </c>
-      <c r="H13" t="s">
-        <v>284</v>
-      </c>
-      <c r="I13" t="s">
-        <v>289</v>
-      </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P13" t="b">
         <f>TRUE()</f>
@@ -6371,40 +6514,40 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I14" t="s">
         <v>290</v>
       </c>
-      <c r="C14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" t="s">
-        <v>286</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" t="s">
-        <v>292</v>
-      </c>
-      <c r="G14" t="s">
-        <v>293</v>
-      </c>
-      <c r="H14" t="s">
-        <v>290</v>
-      </c>
-      <c r="I14" t="s">
-        <v>294</v>
-      </c>
       <c r="J14" t="s">
         <v>31</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P14" t="b">
         <f>TRUE()</f>
@@ -6436,37 +6579,37 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
         <v>295</v>
       </c>
-      <c r="B15" t="s">
+      <c r="G15" t="s">
         <v>296</v>
       </c>
-      <c r="C15" t="s">
+      <c r="H15" t="s">
+        <v>292</v>
+      </c>
+      <c r="I15" t="s">
         <v>297</v>
       </c>
-      <c r="D15" t="s">
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" t="s">
         <v>298</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" t="s">
-        <v>300</v>
-      </c>
-      <c r="H15" t="s">
-        <v>296</v>
-      </c>
-      <c r="I15" t="s">
-        <v>301</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" t="s">
-        <v>302</v>
       </c>
       <c r="P15" t="b">
         <f>TRUE()</f>
@@ -6492,40 +6635,40 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" t="s">
         <v>303</v>
       </c>
-      <c r="B16" t="s">
+      <c r="H16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I16" t="s">
         <v>304</v>
       </c>
-      <c r="C16" t="s">
-        <v>305</v>
-      </c>
-      <c r="D16" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" t="s">
-        <v>306</v>
-      </c>
-      <c r="G16" t="s">
-        <v>307</v>
-      </c>
-      <c r="H16" t="s">
-        <v>304</v>
-      </c>
-      <c r="I16" t="s">
-        <v>308</v>
-      </c>
       <c r="J16" t="s">
         <v>31</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P16" t="b">
         <f>TRUE()</f>
@@ -6557,37 +6700,37 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" t="s">
+        <v>306</v>
+      </c>
+      <c r="I17" t="s">
         <v>309</v>
       </c>
-      <c r="B17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" t="s">
         <v>298</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>312</v>
-      </c>
-      <c r="G17" t="s">
-        <v>300</v>
-      </c>
-      <c r="H17" t="s">
-        <v>310</v>
-      </c>
-      <c r="I17" t="s">
-        <v>313</v>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" t="s">
-        <v>302</v>
       </c>
       <c r="P17" t="b">
         <f>TRUE()</f>
@@ -6613,37 +6756,37 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" t="s">
+        <v>313</v>
+      </c>
+      <c r="H18" t="s">
+        <v>310</v>
+      </c>
+      <c r="I18" t="s">
         <v>314</v>
       </c>
-      <c r="C18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>316</v>
-      </c>
-      <c r="G18" t="s">
-        <v>317</v>
-      </c>
-      <c r="H18" t="s">
-        <v>314</v>
-      </c>
-      <c r="I18" t="s">
-        <v>318</v>
-      </c>
       <c r="J18" t="s">
         <v>31</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P18" t="b">
         <f>TRUE()</f>
@@ -6669,40 +6812,40 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>318</v>
+      </c>
+      <c r="G19" t="s">
+        <v>303</v>
+      </c>
+      <c r="H19" t="s">
+        <v>316</v>
+      </c>
+      <c r="I19" t="s">
         <v>319</v>
       </c>
-      <c r="B19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D19" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>322</v>
-      </c>
-      <c r="G19" t="s">
-        <v>307</v>
-      </c>
-      <c r="H19" t="s">
-        <v>320</v>
-      </c>
-      <c r="I19" t="s">
-        <v>323</v>
-      </c>
       <c r="J19" t="s">
         <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P19" t="b">
         <f>TRUE()</f>
@@ -6734,37 +6877,37 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" t="s">
+        <v>323</v>
+      </c>
+      <c r="H20" t="s">
+        <v>320</v>
+      </c>
+      <c r="I20" t="s">
         <v>324</v>
       </c>
-      <c r="C20" t="s">
-        <v>325</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" t="s">
-        <v>326</v>
-      </c>
-      <c r="G20" t="s">
-        <v>327</v>
-      </c>
-      <c r="H20" t="s">
-        <v>324</v>
-      </c>
-      <c r="I20" t="s">
-        <v>328</v>
-      </c>
       <c r="J20" t="s">
         <v>31</v>
       </c>
       <c r="N20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P20" t="b">
         <f>TRUE()</f>
@@ -6790,43 +6933,43 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" t="s">
         <v>329</v>
       </c>
-      <c r="B21" t="s">
+      <c r="G21" t="s">
         <v>330</v>
       </c>
-      <c r="C21" t="s">
+      <c r="H21" t="s">
+        <v>326</v>
+      </c>
+      <c r="I21" t="s">
         <v>331</v>
       </c>
-      <c r="D21" t="s">
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
         <v>332</v>
       </c>
-      <c r="E21" t="s">
-        <v>332</v>
-      </c>
-      <c r="F21" t="s">
-        <v>333</v>
-      </c>
-      <c r="G21" t="s">
-        <v>334</v>
-      </c>
-      <c r="H21" t="s">
-        <v>330</v>
-      </c>
-      <c r="I21" t="s">
-        <v>335</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" t="s">
-        <v>336</v>
-      </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P21" t="b">
         <f>TRUE()</f>
@@ -6858,43 +7001,43 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E22" t="s">
+        <v>328</v>
+      </c>
+      <c r="F22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22" t="s">
+        <v>336</v>
+      </c>
+      <c r="H22" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" t="s">
         <v>337</v>
       </c>
-      <c r="C22" t="s">
-        <v>338</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" t="s">
         <v>332</v>
       </c>
-      <c r="E22" t="s">
-        <v>332</v>
-      </c>
-      <c r="F22" t="s">
-        <v>339</v>
-      </c>
-      <c r="G22" t="s">
-        <v>340</v>
-      </c>
-      <c r="H22" t="s">
-        <v>337</v>
-      </c>
-      <c r="I22" t="s">
-        <v>341</v>
-      </c>
-      <c r="J22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" t="s">
-        <v>336</v>
-      </c>
       <c r="M22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P22" t="b">
         <f>TRUE()</f>
@@ -6926,40 +7069,40 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>338</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G23" t="s">
+        <v>341</v>
+      </c>
+      <c r="H23" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" t="s">
         <v>342</v>
       </c>
-      <c r="B23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" t="s">
-        <v>343</v>
-      </c>
-      <c r="D23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>344</v>
-      </c>
-      <c r="G23" t="s">
-        <v>345</v>
-      </c>
-      <c r="H23" t="s">
-        <v>189</v>
-      </c>
-      <c r="I23" t="s">
-        <v>346</v>
-      </c>
       <c r="J23" t="s">
         <v>31</v>
       </c>
       <c r="M23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P23" t="b">
         <f>TRUE()</f>
@@ -6991,40 +7134,40 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G24" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I24" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
       </c>
       <c r="M24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P24" t="b">
         <f>TRUE()</f>
@@ -7056,40 +7199,40 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>349</v>
+      </c>
+      <c r="G25" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" t="s">
+        <v>188</v>
+      </c>
+      <c r="I25" t="s">
         <v>351</v>
       </c>
-      <c r="B25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" t="s">
-        <v>352</v>
-      </c>
-      <c r="D25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" t="s">
-        <v>353</v>
-      </c>
-      <c r="G25" t="s">
-        <v>354</v>
-      </c>
-      <c r="H25" t="s">
-        <v>192</v>
-      </c>
-      <c r="I25" t="s">
-        <v>355</v>
-      </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P25" t="b">
         <f>TRUE()</f>
@@ -7121,40 +7264,40 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" t="s">
+        <v>353</v>
+      </c>
+      <c r="C26" t="s">
+        <v>354</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G26" t="s">
         <v>356</v>
       </c>
-      <c r="B26" t="s">
+      <c r="H26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I26" t="s">
         <v>357</v>
       </c>
-      <c r="C26" t="s">
-        <v>358</v>
-      </c>
-      <c r="D26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" t="s">
-        <v>359</v>
-      </c>
-      <c r="G26" t="s">
-        <v>360</v>
-      </c>
-      <c r="H26" t="s">
-        <v>357</v>
-      </c>
-      <c r="I26" t="s">
-        <v>361</v>
-      </c>
       <c r="J26" t="s">
         <v>31</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P26" t="b">
         <f>TRUE()</f>
@@ -7186,37 +7329,37 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" t="s">
+        <v>360</v>
+      </c>
+      <c r="D27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>361</v>
+      </c>
+      <c r="G27" t="s">
         <v>362</v>
       </c>
-      <c r="B27" t="s">
+      <c r="H27" t="s">
+        <v>359</v>
+      </c>
+      <c r="I27" t="s">
         <v>363</v>
       </c>
-      <c r="C27" t="s">
-        <v>364</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" t="s">
         <v>298</v>
-      </c>
-      <c r="E27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" t="s">
-        <v>365</v>
-      </c>
-      <c r="G27" t="s">
-        <v>366</v>
-      </c>
-      <c r="H27" t="s">
-        <v>363</v>
-      </c>
-      <c r="I27" t="s">
-        <v>367</v>
-      </c>
-      <c r="J27" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" t="s">
-        <v>302</v>
       </c>
       <c r="P27" t="b">
         <f>TRUE()</f>
@@ -7242,43 +7385,43 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" t="s">
+        <v>366</v>
+      </c>
+      <c r="D28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
         <v>368</v>
       </c>
-      <c r="B28" t="s">
+      <c r="G28" t="s">
         <v>369</v>
       </c>
-      <c r="C28" t="s">
+      <c r="H28" t="s">
+        <v>365</v>
+      </c>
+      <c r="I28" t="s">
         <v>370</v>
       </c>
-      <c r="D28" t="s">
-        <v>371</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" t="s">
-        <v>372</v>
-      </c>
-      <c r="G28" t="s">
-        <v>373</v>
-      </c>
-      <c r="H28" t="s">
-        <v>369</v>
-      </c>
-      <c r="I28" t="s">
-        <v>374</v>
-      </c>
       <c r="J28" t="s">
         <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P28" t="b">
         <f>TRUE()</f>
@@ -7310,43 +7453,43 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" t="s">
+        <v>373</v>
+      </c>
+      <c r="G29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H29" t="s">
+        <v>371</v>
+      </c>
+      <c r="I29" t="s">
         <v>375</v>
       </c>
-      <c r="C29" t="s">
-        <v>376</v>
-      </c>
-      <c r="D29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" t="s">
-        <v>377</v>
-      </c>
-      <c r="G29" t="s">
-        <v>378</v>
-      </c>
-      <c r="H29" t="s">
-        <v>375</v>
-      </c>
-      <c r="I29" t="s">
-        <v>379</v>
-      </c>
       <c r="J29" t="s">
         <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P29" t="b">
         <f>TRUE()</f>
@@ -7378,43 +7521,43 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B30" t="s">
+        <v>376</v>
+      </c>
+      <c r="C30" t="s">
+        <v>377</v>
+      </c>
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>378</v>
+      </c>
+      <c r="G30" t="s">
+        <v>379</v>
+      </c>
+      <c r="H30" t="s">
+        <v>376</v>
+      </c>
+      <c r="I30" t="s">
         <v>380</v>
       </c>
-      <c r="C30" t="s">
-        <v>381</v>
-      </c>
-      <c r="D30" t="s">
-        <v>371</v>
-      </c>
-      <c r="E30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" t="s">
-        <v>382</v>
-      </c>
-      <c r="G30" t="s">
-        <v>383</v>
-      </c>
-      <c r="H30" t="s">
-        <v>380</v>
-      </c>
-      <c r="I30" t="s">
-        <v>384</v>
-      </c>
       <c r="J30" t="s">
         <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N30" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P30" t="b">
         <f>TRUE()</f>
@@ -7446,43 +7589,43 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B31" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" t="s">
+        <v>382</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G31" t="s">
+        <v>384</v>
+      </c>
+      <c r="H31" t="s">
+        <v>381</v>
+      </c>
+      <c r="I31" t="s">
         <v>385</v>
       </c>
-      <c r="C31" t="s">
-        <v>386</v>
-      </c>
-      <c r="D31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" t="s">
-        <v>387</v>
-      </c>
-      <c r="G31" t="s">
-        <v>388</v>
-      </c>
-      <c r="H31" t="s">
-        <v>385</v>
-      </c>
-      <c r="I31" t="s">
-        <v>389</v>
-      </c>
       <c r="J31" t="s">
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N31" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P31" t="b">
         <f>TRUE()</f>
@@ -7514,43 +7657,43 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C32" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" t="s">
+        <v>328</v>
+      </c>
+      <c r="E32" t="s">
+        <v>328</v>
+      </c>
+      <c r="F32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G32" t="s">
         <v>390</v>
       </c>
-      <c r="B32" t="s">
+      <c r="H32" t="s">
+        <v>387</v>
+      </c>
+      <c r="I32" t="s">
         <v>391</v>
       </c>
-      <c r="C32" t="s">
-        <v>392</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="J32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" t="s">
         <v>332</v>
       </c>
-      <c r="E32" t="s">
-        <v>332</v>
-      </c>
-      <c r="F32" t="s">
-        <v>393</v>
-      </c>
-      <c r="G32" t="s">
-        <v>394</v>
-      </c>
-      <c r="H32" t="s">
-        <v>391</v>
-      </c>
-      <c r="I32" t="s">
-        <v>395</v>
-      </c>
-      <c r="J32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" t="s">
-        <v>336</v>
-      </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N32" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P32" t="b">
         <f>TRUE()</f>
@@ -7582,43 +7725,43 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C33" t="s">
+        <v>393</v>
+      </c>
+      <c r="D33" t="s">
+        <v>328</v>
+      </c>
+      <c r="E33" t="s">
+        <v>328</v>
+      </c>
+      <c r="F33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G33" t="s">
+        <v>395</v>
+      </c>
+      <c r="H33" t="s">
+        <v>392</v>
+      </c>
+      <c r="I33" t="s">
         <v>396</v>
       </c>
-      <c r="C33" t="s">
-        <v>397</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="J33" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" t="s">
         <v>332</v>
       </c>
-      <c r="E33" t="s">
-        <v>332</v>
-      </c>
-      <c r="F33" t="s">
-        <v>398</v>
-      </c>
-      <c r="G33" t="s">
-        <v>399</v>
-      </c>
-      <c r="H33" t="s">
-        <v>396</v>
-      </c>
-      <c r="I33" t="s">
-        <v>400</v>
-      </c>
-      <c r="J33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" t="s">
-        <v>336</v>
-      </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P33" t="b">
         <f>TRUE()</f>
@@ -7650,43 +7793,43 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C34" t="s">
+        <v>398</v>
+      </c>
+      <c r="D34" t="s">
+        <v>328</v>
+      </c>
+      <c r="E34" t="s">
+        <v>328</v>
+      </c>
+      <c r="F34" t="s">
+        <v>399</v>
+      </c>
+      <c r="G34" t="s">
+        <v>400</v>
+      </c>
+      <c r="H34" t="s">
+        <v>397</v>
+      </c>
+      <c r="I34" t="s">
         <v>401</v>
       </c>
-      <c r="C34" t="s">
-        <v>402</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="J34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" t="s">
         <v>332</v>
       </c>
-      <c r="E34" t="s">
-        <v>332</v>
-      </c>
-      <c r="F34" t="s">
-        <v>403</v>
-      </c>
-      <c r="G34" t="s">
-        <v>404</v>
-      </c>
-      <c r="H34" t="s">
-        <v>401</v>
-      </c>
-      <c r="I34" t="s">
-        <v>405</v>
-      </c>
-      <c r="J34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" t="s">
-        <v>336</v>
-      </c>
       <c r="M34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N34" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P34" t="b">
         <f>TRUE()</f>
@@ -7718,43 +7861,43 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>402</v>
+      </c>
+      <c r="B35" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" t="s">
+        <v>404</v>
+      </c>
+      <c r="D35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>405</v>
+      </c>
+      <c r="G35" t="s">
         <v>406</v>
       </c>
-      <c r="B35" t="s">
+      <c r="H35" t="s">
+        <v>403</v>
+      </c>
+      <c r="I35" t="s">
         <v>407</v>
       </c>
-      <c r="C35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D35" t="s">
-        <v>371</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>409</v>
-      </c>
-      <c r="G35" t="s">
-        <v>410</v>
-      </c>
-      <c r="H35" t="s">
-        <v>407</v>
-      </c>
-      <c r="I35" t="s">
-        <v>411</v>
-      </c>
       <c r="J35" t="s">
         <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N35" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P35" t="b">
         <f>TRUE()</f>
@@ -7786,43 +7929,43 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C36" t="s">
+        <v>409</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" t="s">
+        <v>410</v>
+      </c>
+      <c r="G36" t="s">
+        <v>411</v>
+      </c>
+      <c r="H36" t="s">
+        <v>408</v>
+      </c>
+      <c r="I36" t="s">
         <v>412</v>
       </c>
-      <c r="C36" t="s">
-        <v>413</v>
-      </c>
-      <c r="D36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" t="s">
-        <v>414</v>
-      </c>
-      <c r="G36" t="s">
-        <v>415</v>
-      </c>
-      <c r="H36" t="s">
-        <v>412</v>
-      </c>
-      <c r="I36" t="s">
-        <v>416</v>
-      </c>
       <c r="J36" t="s">
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N36" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P36" t="b">
         <f>TRUE()</f>
@@ -7854,43 +7997,43 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B37" t="s">
+        <v>413</v>
+      </c>
+      <c r="C37" t="s">
+        <v>414</v>
+      </c>
+      <c r="D37" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
+        <v>415</v>
+      </c>
+      <c r="G37" t="s">
+        <v>416</v>
+      </c>
+      <c r="H37" t="s">
+        <v>413</v>
+      </c>
+      <c r="I37" t="s">
         <v>417</v>
       </c>
-      <c r="C37" t="s">
-        <v>418</v>
-      </c>
-      <c r="D37" t="s">
-        <v>371</v>
-      </c>
-      <c r="E37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" t="s">
-        <v>419</v>
-      </c>
-      <c r="G37" t="s">
-        <v>420</v>
-      </c>
-      <c r="H37" t="s">
-        <v>417</v>
-      </c>
-      <c r="I37" t="s">
-        <v>421</v>
-      </c>
       <c r="J37" t="s">
         <v>31</v>
       </c>
       <c r="L37" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N37" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P37" t="b">
         <f>TRUE()</f>
@@ -7922,43 +8065,43 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C38" t="s">
+        <v>419</v>
+      </c>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" t="s">
+        <v>420</v>
+      </c>
+      <c r="G38" t="s">
+        <v>421</v>
+      </c>
+      <c r="H38" t="s">
+        <v>418</v>
+      </c>
+      <c r="I38" t="s">
         <v>422</v>
       </c>
-      <c r="C38" t="s">
-        <v>423</v>
-      </c>
-      <c r="D38" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" t="s">
-        <v>424</v>
-      </c>
-      <c r="G38" t="s">
-        <v>425</v>
-      </c>
-      <c r="H38" t="s">
-        <v>422</v>
-      </c>
-      <c r="I38" t="s">
-        <v>426</v>
-      </c>
       <c r="J38" t="s">
         <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N38" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P38" t="b">
         <f>TRUE()</f>
@@ -7990,43 +8133,43 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B39" t="s">
+        <v>423</v>
+      </c>
+      <c r="C39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D39" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>425</v>
+      </c>
+      <c r="G39" t="s">
+        <v>426</v>
+      </c>
+      <c r="H39" t="s">
+        <v>423</v>
+      </c>
+      <c r="I39" t="s">
         <v>427</v>
       </c>
-      <c r="C39" t="s">
-        <v>428</v>
-      </c>
-      <c r="D39" t="s">
-        <v>371</v>
-      </c>
-      <c r="E39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" t="s">
-        <v>429</v>
-      </c>
-      <c r="G39" t="s">
-        <v>430</v>
-      </c>
-      <c r="H39" t="s">
-        <v>427</v>
-      </c>
-      <c r="I39" t="s">
-        <v>431</v>
-      </c>
       <c r="J39" t="s">
         <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N39" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P39" t="b">
         <f>TRUE()</f>
@@ -8058,43 +8201,43 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C40" t="s">
+        <v>429</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>430</v>
+      </c>
+      <c r="G40" t="s">
+        <v>431</v>
+      </c>
+      <c r="H40" t="s">
+        <v>428</v>
+      </c>
+      <c r="I40" t="s">
         <v>432</v>
       </c>
-      <c r="C40" t="s">
-        <v>433</v>
-      </c>
-      <c r="D40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" t="s">
-        <v>434</v>
-      </c>
-      <c r="G40" t="s">
-        <v>435</v>
-      </c>
-      <c r="H40" t="s">
-        <v>432</v>
-      </c>
-      <c r="I40" t="s">
-        <v>436</v>
-      </c>
       <c r="J40" t="s">
         <v>31</v>
       </c>
       <c r="L40" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P40" t="b">
         <f>TRUE()</f>
@@ -8126,40 +8269,40 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G41" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I41" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J41" t="s">
         <v>31</v>
       </c>
       <c r="M41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P41" t="b">
         <f>TRUE()</f>
@@ -8191,40 +8334,40 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G42" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J42" t="s">
         <v>31</v>
       </c>
       <c r="M42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P42" t="b">
         <f>TRUE()</f>
@@ -8256,40 +8399,40 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G43" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I43" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J43" t="s">
         <v>31</v>
       </c>
       <c r="M43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P43" t="b">
         <f>TRUE()</f>
@@ -8321,40 +8464,40 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
+        <v>445</v>
+      </c>
+      <c r="C44" t="s">
+        <v>446</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" t="s">
+        <v>447</v>
+      </c>
+      <c r="G44" t="s">
+        <v>448</v>
+      </c>
+      <c r="H44" t="s">
+        <v>445</v>
+      </c>
+      <c r="I44" t="s">
         <v>449</v>
       </c>
-      <c r="C44" t="s">
-        <v>450</v>
-      </c>
-      <c r="D44" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" t="s">
-        <v>451</v>
-      </c>
-      <c r="G44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H44" t="s">
-        <v>449</v>
-      </c>
-      <c r="I44" t="s">
-        <v>453</v>
-      </c>
       <c r="J44" t="s">
         <v>31</v>
       </c>
       <c r="M44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P44" t="b">
         <f>TRUE()</f>
@@ -8386,40 +8529,40 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>450</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" t="s">
+        <v>451</v>
+      </c>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" t="s">
+        <v>452</v>
+      </c>
+      <c r="G45" t="s">
+        <v>453</v>
+      </c>
+      <c r="H45" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" t="s">
         <v>454</v>
       </c>
-      <c r="B45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" t="s">
-        <v>455</v>
-      </c>
-      <c r="D45" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" t="s">
-        <v>456</v>
-      </c>
-      <c r="G45" t="s">
-        <v>457</v>
-      </c>
-      <c r="H45" t="s">
-        <v>147</v>
-      </c>
-      <c r="I45" t="s">
-        <v>458</v>
-      </c>
       <c r="J45" t="s">
         <v>31</v>
       </c>
       <c r="M45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P45" t="b">
         <f>TRUE()</f>
@@ -8451,40 +8594,40 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>455</v>
+      </c>
+      <c r="B46" t="s">
+        <v>456</v>
+      </c>
+      <c r="C46" t="s">
+        <v>457</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" t="s">
+        <v>458</v>
+      </c>
+      <c r="G46" t="s">
         <v>459</v>
       </c>
-      <c r="B46" t="s">
+      <c r="H46" t="s">
+        <v>456</v>
+      </c>
+      <c r="I46" t="s">
         <v>460</v>
       </c>
-      <c r="C46" t="s">
-        <v>461</v>
-      </c>
-      <c r="D46" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" t="s">
-        <v>462</v>
-      </c>
-      <c r="G46" t="s">
-        <v>463</v>
-      </c>
-      <c r="H46" t="s">
-        <v>460</v>
-      </c>
-      <c r="I46" t="s">
-        <v>464</v>
-      </c>
       <c r="J46" t="s">
         <v>31</v>
       </c>
       <c r="M46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P46" t="b">
         <f>TRUE()</f>
@@ -8516,40 +8659,40 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>461</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>462</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" t="s">
+        <v>463</v>
+      </c>
+      <c r="G47" t="s">
+        <v>464</v>
+      </c>
+      <c r="H47" t="s">
+        <v>153</v>
+      </c>
+      <c r="I47" t="s">
         <v>465</v>
       </c>
-      <c r="B47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" t="s">
-        <v>466</v>
-      </c>
-      <c r="D47" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" t="s">
-        <v>467</v>
-      </c>
-      <c r="G47" t="s">
-        <v>468</v>
-      </c>
-      <c r="H47" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" t="s">
-        <v>469</v>
-      </c>
       <c r="J47" t="s">
         <v>31</v>
       </c>
       <c r="M47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P47" t="b">
         <f>TRUE()</f>
@@ -8581,40 +8724,40 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>466</v>
+      </c>
+      <c r="B48" t="s">
+        <v>467</v>
+      </c>
+      <c r="C48" t="s">
+        <v>468</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" t="s">
+        <v>469</v>
+      </c>
+      <c r="G48" t="s">
         <v>470</v>
       </c>
-      <c r="B48" t="s">
+      <c r="H48" t="s">
+        <v>467</v>
+      </c>
+      <c r="I48" t="s">
         <v>471</v>
       </c>
-      <c r="C48" t="s">
-        <v>472</v>
-      </c>
-      <c r="D48" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" t="s">
-        <v>473</v>
-      </c>
-      <c r="G48" t="s">
-        <v>474</v>
-      </c>
-      <c r="H48" t="s">
-        <v>471</v>
-      </c>
-      <c r="I48" t="s">
-        <v>475</v>
-      </c>
       <c r="J48" t="s">
         <v>31</v>
       </c>
       <c r="M48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P48" t="b">
         <f>TRUE()</f>
@@ -8646,40 +8789,40 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>472</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>473</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" t="s">
+        <v>474</v>
+      </c>
+      <c r="F49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G49" t="s">
         <v>476</v>
       </c>
-      <c r="B49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="H49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" t="s">
         <v>477</v>
       </c>
-      <c r="D49" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" t="s">
-        <v>478</v>
-      </c>
-      <c r="F49" t="s">
-        <v>479</v>
-      </c>
-      <c r="G49" t="s">
-        <v>480</v>
-      </c>
-      <c r="H49" t="s">
-        <v>118</v>
-      </c>
-      <c r="I49" t="s">
-        <v>481</v>
-      </c>
       <c r="J49" t="s">
         <v>31</v>
       </c>
       <c r="M49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N49" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P49" t="b">
         <f>TRUE()</f>
@@ -8711,40 +8854,40 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>478</v>
+      </c>
+      <c r="B50" t="s">
+        <v>479</v>
+      </c>
+      <c r="C50" t="s">
+        <v>480</v>
+      </c>
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" t="s">
+        <v>481</v>
+      </c>
+      <c r="G50" t="s">
         <v>482</v>
       </c>
-      <c r="B50" t="s">
+      <c r="H50" t="s">
+        <v>479</v>
+      </c>
+      <c r="I50" t="s">
         <v>483</v>
       </c>
-      <c r="C50" t="s">
-        <v>484</v>
-      </c>
-      <c r="D50" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" t="s">
-        <v>485</v>
-      </c>
-      <c r="G50" t="s">
-        <v>486</v>
-      </c>
-      <c r="H50" t="s">
-        <v>483</v>
-      </c>
-      <c r="I50" t="s">
-        <v>487</v>
-      </c>
       <c r="J50" t="s">
         <v>31</v>
       </c>
       <c r="M50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N50" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P50" t="b">
         <f>TRUE()</f>
@@ -8776,40 +8919,40 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>484</v>
+      </c>
+      <c r="B51" t="s">
+        <v>485</v>
+      </c>
+      <c r="C51" t="s">
+        <v>486</v>
+      </c>
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" t="s">
+        <v>487</v>
+      </c>
+      <c r="G51" t="s">
         <v>488</v>
       </c>
-      <c r="B51" t="s">
+      <c r="H51" t="s">
+        <v>485</v>
+      </c>
+      <c r="I51" t="s">
         <v>489</v>
       </c>
-      <c r="C51" t="s">
-        <v>490</v>
-      </c>
-      <c r="D51" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" t="s">
-        <v>491</v>
-      </c>
-      <c r="G51" t="s">
-        <v>492</v>
-      </c>
-      <c r="H51" t="s">
-        <v>489</v>
-      </c>
-      <c r="I51" t="s">
-        <v>493</v>
-      </c>
       <c r="J51" t="s">
         <v>31</v>
       </c>
       <c r="M51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N51" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P51" t="b">
         <f>TRUE()</f>
@@ -8841,40 +8984,40 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>490</v>
+      </c>
+      <c r="B52" t="s">
+        <v>491</v>
+      </c>
+      <c r="C52" t="s">
+        <v>492</v>
+      </c>
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" t="s">
+        <v>493</v>
+      </c>
+      <c r="G52" t="s">
         <v>494</v>
       </c>
-      <c r="B52" t="s">
+      <c r="H52" t="s">
+        <v>491</v>
+      </c>
+      <c r="I52" t="s">
         <v>495</v>
       </c>
-      <c r="C52" t="s">
-        <v>496</v>
-      </c>
-      <c r="D52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" t="s">
-        <v>497</v>
-      </c>
-      <c r="G52" t="s">
-        <v>498</v>
-      </c>
-      <c r="H52" t="s">
-        <v>495</v>
-      </c>
-      <c r="I52" t="s">
-        <v>499</v>
-      </c>
       <c r="J52" t="s">
         <v>31</v>
       </c>
       <c r="M52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N52" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P52" t="b">
         <f>TRUE()</f>
@@ -8906,40 +9049,40 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>496</v>
+      </c>
+      <c r="B53" t="s">
+        <v>497</v>
+      </c>
+      <c r="C53" t="s">
+        <v>498</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" t="s">
+        <v>499</v>
+      </c>
+      <c r="G53" t="s">
         <v>500</v>
       </c>
-      <c r="B53" t="s">
+      <c r="H53" t="s">
+        <v>497</v>
+      </c>
+      <c r="I53" t="s">
         <v>501</v>
       </c>
-      <c r="C53" t="s">
-        <v>502</v>
-      </c>
-      <c r="D53" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" t="s">
-        <v>503</v>
-      </c>
-      <c r="G53" t="s">
-        <v>504</v>
-      </c>
-      <c r="H53" t="s">
-        <v>501</v>
-      </c>
-      <c r="I53" t="s">
-        <v>505</v>
-      </c>
       <c r="J53" t="s">
         <v>31</v>
       </c>
       <c r="M53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P53" t="b">
         <f>TRUE()</f>
@@ -8971,40 +9114,40 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>502</v>
+      </c>
+      <c r="B54" t="s">
+        <v>503</v>
+      </c>
+      <c r="C54" t="s">
+        <v>504</v>
+      </c>
+      <c r="D54" t="s">
+        <v>282</v>
+      </c>
+      <c r="E54" t="s">
+        <v>505</v>
+      </c>
+      <c r="F54" t="s">
         <v>506</v>
       </c>
-      <c r="B54" t="s">
+      <c r="G54" t="s">
         <v>507</v>
       </c>
-      <c r="C54" t="s">
+      <c r="H54" t="s">
+        <v>503</v>
+      </c>
+      <c r="I54" t="s">
         <v>508</v>
       </c>
-      <c r="D54" t="s">
-        <v>286</v>
-      </c>
-      <c r="E54" t="s">
-        <v>509</v>
-      </c>
-      <c r="F54" t="s">
-        <v>510</v>
-      </c>
-      <c r="G54" t="s">
-        <v>511</v>
-      </c>
-      <c r="H54" t="s">
-        <v>507</v>
-      </c>
-      <c r="I54" t="s">
-        <v>512</v>
-      </c>
       <c r="J54" t="s">
         <v>31</v>
       </c>
       <c r="M54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N54" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P54" t="b">
         <f>TRUE()</f>
@@ -9036,40 +9179,40 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>509</v>
+      </c>
+      <c r="B55" t="s">
+        <v>510</v>
+      </c>
+      <c r="C55" t="s">
+        <v>511</v>
+      </c>
+      <c r="D55" t="s">
+        <v>512</v>
+      </c>
+      <c r="E55" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" t="s">
         <v>513</v>
       </c>
-      <c r="B55" t="s">
+      <c r="G55" t="s">
         <v>514</v>
       </c>
-      <c r="C55" t="s">
+      <c r="H55" t="s">
+        <v>510</v>
+      </c>
+      <c r="I55" t="s">
         <v>515</v>
       </c>
-      <c r="D55" t="s">
-        <v>516</v>
-      </c>
-      <c r="E55" t="s">
-        <v>186</v>
-      </c>
-      <c r="F55" t="s">
-        <v>517</v>
-      </c>
-      <c r="G55" t="s">
-        <v>518</v>
-      </c>
-      <c r="H55" t="s">
-        <v>514</v>
-      </c>
-      <c r="I55" t="s">
-        <v>519</v>
-      </c>
       <c r="J55" t="s">
         <v>31</v>
       </c>
       <c r="L55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N55" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P55" t="b">
         <f>TRUE()</f>
@@ -9095,43 +9238,43 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
+        <v>516</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" t="s">
+        <v>517</v>
+      </c>
+      <c r="F56" t="s">
+        <v>518</v>
+      </c>
+      <c r="G56" t="s">
+        <v>519</v>
+      </c>
+      <c r="H56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56" t="s">
         <v>520</v>
       </c>
-      <c r="D56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="J56" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" t="s">
         <v>521</v>
       </c>
-      <c r="F56" t="s">
-        <v>522</v>
-      </c>
-      <c r="G56" t="s">
-        <v>523</v>
-      </c>
-      <c r="H56" t="s">
-        <v>123</v>
-      </c>
-      <c r="I56" t="s">
-        <v>524</v>
-      </c>
-      <c r="J56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L56" t="s">
-        <v>525</v>
-      </c>
       <c r="M56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N56" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P56" t="b">
         <f>TRUE()</f>
@@ -9163,43 +9306,43 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
+        <v>522</v>
+      </c>
+      <c r="C57" t="s">
+        <v>523</v>
+      </c>
+      <c r="D57" t="s">
+        <v>524</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="s">
+        <v>525</v>
+      </c>
+      <c r="G57" t="s">
         <v>526</v>
       </c>
-      <c r="C57" t="s">
+      <c r="H57" t="s">
+        <v>522</v>
+      </c>
+      <c r="I57" t="s">
         <v>527</v>
       </c>
-      <c r="D57" t="s">
+      <c r="J57" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" t="s">
         <v>528</v>
       </c>
-      <c r="E57" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" t="s">
-        <v>529</v>
-      </c>
-      <c r="G57" t="s">
-        <v>530</v>
-      </c>
-      <c r="H57" t="s">
-        <v>526</v>
-      </c>
-      <c r="I57" t="s">
-        <v>531</v>
-      </c>
-      <c r="J57" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" t="s">
-        <v>532</v>
-      </c>
       <c r="M57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N57" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="P57" t="b">
         <f>TRUE()</f>
@@ -9231,37 +9374,37 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>529</v>
+      </c>
+      <c r="B58" t="s">
+        <v>530</v>
+      </c>
+      <c r="C58" t="s">
+        <v>531</v>
+      </c>
+      <c r="D58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" t="s">
+        <v>532</v>
+      </c>
+      <c r="G58" t="s">
         <v>533</v>
       </c>
-      <c r="B58" t="s">
+      <c r="H58" t="s">
+        <v>530</v>
+      </c>
+      <c r="I58" t="s">
         <v>534</v>
       </c>
-      <c r="C58" t="s">
-        <v>535</v>
-      </c>
-      <c r="D58" t="s">
-        <v>74</v>
-      </c>
-      <c r="E58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" t="s">
-        <v>536</v>
-      </c>
-      <c r="G58" t="s">
-        <v>537</v>
-      </c>
-      <c r="H58" t="s">
-        <v>534</v>
-      </c>
-      <c r="I58" t="s">
-        <v>538</v>
-      </c>
       <c r="J58" t="s">
         <v>31</v>
       </c>
       <c r="N58" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P58" t="b">
         <f>TRUE()</f>
@@ -9287,37 +9430,37 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>535</v>
+      </c>
+      <c r="B59" t="s">
+        <v>536</v>
+      </c>
+      <c r="C59" t="s">
+        <v>537</v>
+      </c>
+      <c r="D59" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" t="s">
+        <v>538</v>
+      </c>
+      <c r="G59" t="s">
         <v>539</v>
       </c>
-      <c r="B59" t="s">
+      <c r="H59" t="s">
+        <v>536</v>
+      </c>
+      <c r="I59" t="s">
         <v>540</v>
       </c>
-      <c r="C59" t="s">
-        <v>541</v>
-      </c>
-      <c r="D59" t="s">
-        <v>186</v>
-      </c>
-      <c r="E59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" t="s">
-        <v>542</v>
-      </c>
-      <c r="G59" t="s">
-        <v>543</v>
-      </c>
-      <c r="H59" t="s">
-        <v>540</v>
-      </c>
-      <c r="I59" t="s">
-        <v>544</v>
-      </c>
       <c r="J59" t="s">
         <v>31</v>
       </c>
       <c r="N59" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P59" t="b">
         <f>TRUE()</f>
@@ -9343,40 +9486,40 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B60" t="s">
+        <v>541</v>
+      </c>
+      <c r="C60" t="s">
+        <v>542</v>
+      </c>
+      <c r="D60" t="s">
+        <v>298</v>
+      </c>
+      <c r="E60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" t="s">
+        <v>543</v>
+      </c>
+      <c r="G60" t="s">
+        <v>544</v>
+      </c>
+      <c r="H60" t="s">
+        <v>541</v>
+      </c>
+      <c r="I60" t="s">
         <v>545</v>
       </c>
-      <c r="C60" t="s">
-        <v>546</v>
-      </c>
-      <c r="D60" t="s">
-        <v>302</v>
-      </c>
-      <c r="E60" t="s">
-        <v>80</v>
-      </c>
-      <c r="F60" t="s">
-        <v>547</v>
-      </c>
-      <c r="G60" t="s">
-        <v>548</v>
-      </c>
-      <c r="H60" t="s">
-        <v>545</v>
-      </c>
-      <c r="I60" t="s">
-        <v>549</v>
-      </c>
       <c r="J60" t="s">
         <v>31</v>
       </c>
       <c r="M60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N60" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P60" t="b">
         <f>TRUE()</f>
@@ -9408,40 +9551,40 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B61" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C61" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D61" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E61" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G61" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H61" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I61" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="J61" t="s">
         <v>31</v>
       </c>
       <c r="M61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N61" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P61" t="b">
         <f>TRUE()</f>
@@ -9473,40 +9616,40 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C62" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D62" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G62" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H62" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I62" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="J62" t="s">
         <v>31</v>
       </c>
       <c r="M62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N62" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P62" t="b">
         <f>TRUE()</f>
@@ -9538,43 +9681,43 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>554</v>
+      </c>
+      <c r="B63" t="s">
+        <v>555</v>
+      </c>
+      <c r="C63" t="s">
+        <v>556</v>
+      </c>
+      <c r="D63" t="s">
+        <v>367</v>
+      </c>
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" t="s">
+        <v>557</v>
+      </c>
+      <c r="G63" t="s">
         <v>558</v>
       </c>
-      <c r="B63" t="s">
+      <c r="H63" t="s">
+        <v>555</v>
+      </c>
+      <c r="I63" t="s">
         <v>559</v>
       </c>
-      <c r="C63" t="s">
-        <v>560</v>
-      </c>
-      <c r="D63" t="s">
-        <v>371</v>
-      </c>
-      <c r="E63" t="s">
-        <v>68</v>
-      </c>
-      <c r="F63" t="s">
-        <v>561</v>
-      </c>
-      <c r="G63" t="s">
-        <v>562</v>
-      </c>
-      <c r="H63" t="s">
-        <v>559</v>
-      </c>
-      <c r="I63" t="s">
-        <v>563</v>
-      </c>
       <c r="J63" t="s">
         <v>31</v>
       </c>
       <c r="L63" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N63" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P63" t="b">
         <f>TRUE()</f>
@@ -9606,43 +9749,43 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B64" t="s">
+        <v>560</v>
+      </c>
+      <c r="C64" t="s">
+        <v>561</v>
+      </c>
+      <c r="D64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" t="s">
+        <v>562</v>
+      </c>
+      <c r="G64" t="s">
+        <v>563</v>
+      </c>
+      <c r="H64" t="s">
+        <v>560</v>
+      </c>
+      <c r="I64" t="s">
         <v>564</v>
       </c>
-      <c r="C64" t="s">
-        <v>565</v>
-      </c>
-      <c r="D64" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64" t="s">
-        <v>566</v>
-      </c>
-      <c r="G64" t="s">
-        <v>567</v>
-      </c>
-      <c r="H64" t="s">
-        <v>564</v>
-      </c>
-      <c r="I64" t="s">
-        <v>568</v>
-      </c>
       <c r="J64" t="s">
         <v>31</v>
       </c>
       <c r="L64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N64" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P64" t="b">
         <f>TRUE()</f>
@@ -9674,37 +9817,37 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>565</v>
+      </c>
+      <c r="B65" t="s">
+        <v>566</v>
+      </c>
+      <c r="C65" t="s">
+        <v>567</v>
+      </c>
+      <c r="D65" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" t="s">
+        <v>568</v>
+      </c>
+      <c r="G65" t="s">
         <v>569</v>
       </c>
-      <c r="B65" t="s">
+      <c r="H65" t="s">
+        <v>566</v>
+      </c>
+      <c r="I65" t="s">
         <v>570</v>
       </c>
-      <c r="C65" t="s">
-        <v>571</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="J65" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" t="s">
         <v>298</v>
-      </c>
-      <c r="E65" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" t="s">
-        <v>572</v>
-      </c>
-      <c r="G65" t="s">
-        <v>573</v>
-      </c>
-      <c r="H65" t="s">
-        <v>570</v>
-      </c>
-      <c r="I65" t="s">
-        <v>574</v>
-      </c>
-      <c r="J65" t="s">
-        <v>31</v>
-      </c>
-      <c r="N65" t="s">
-        <v>302</v>
       </c>
       <c r="P65" t="b">
         <f>TRUE()</f>
@@ -9730,37 +9873,37 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>571</v>
+      </c>
+      <c r="B66" t="s">
+        <v>572</v>
+      </c>
+      <c r="C66" t="s">
+        <v>573</v>
+      </c>
+      <c r="D66" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" t="s">
+        <v>574</v>
+      </c>
+      <c r="G66" t="s">
+        <v>362</v>
+      </c>
+      <c r="H66" t="s">
+        <v>572</v>
+      </c>
+      <c r="I66" t="s">
         <v>575</v>
       </c>
-      <c r="B66" t="s">
-        <v>576</v>
-      </c>
-      <c r="C66" t="s">
-        <v>577</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="J66" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" t="s">
         <v>298</v>
-      </c>
-      <c r="E66" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" t="s">
-        <v>578</v>
-      </c>
-      <c r="G66" t="s">
-        <v>366</v>
-      </c>
-      <c r="H66" t="s">
-        <v>576</v>
-      </c>
-      <c r="I66" t="s">
-        <v>579</v>
-      </c>
-      <c r="J66" t="s">
-        <v>31</v>
-      </c>
-      <c r="N66" t="s">
-        <v>302</v>
       </c>
       <c r="P66" t="b">
         <f>TRUE()</f>
@@ -9789,28 +9932,28 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C67" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D67" t="s">
         <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F67" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G67" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H67" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I67" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J67" t="s">
         <v>31</v>
@@ -9819,7 +9962,7 @@
         <v>42</v>
       </c>
       <c r="M67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O67" t="s">
         <v>43</v>
@@ -9839,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="X67">
         <v>952</v>
@@ -9850,40 +9993,40 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>583</v>
+      </c>
+      <c r="B68" t="s">
+        <v>584</v>
+      </c>
+      <c r="C68" t="s">
+        <v>585</v>
+      </c>
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" t="s">
+        <v>586</v>
+      </c>
+      <c r="G68" t="s">
+        <v>586</v>
+      </c>
+      <c r="H68" t="s">
+        <v>584</v>
+      </c>
+      <c r="I68" t="s">
         <v>587</v>
       </c>
-      <c r="B68" t="s">
-        <v>588</v>
-      </c>
-      <c r="C68" t="s">
-        <v>589</v>
-      </c>
-      <c r="D68" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" t="s">
-        <v>590</v>
-      </c>
-      <c r="G68" t="s">
-        <v>590</v>
-      </c>
-      <c r="H68" t="s">
-        <v>588</v>
-      </c>
-      <c r="I68" t="s">
-        <v>591</v>
-      </c>
       <c r="J68" t="s">
         <v>31</v>
       </c>
       <c r="M68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N68" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P68" t="b">
         <f>TRUE()</f>
@@ -9915,40 +10058,40 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>588</v>
+      </c>
+      <c r="B69" t="s">
+        <v>589</v>
+      </c>
+      <c r="C69" t="s">
+        <v>590</v>
+      </c>
+      <c r="D69" t="s">
+        <v>282</v>
+      </c>
+      <c r="E69" t="s">
+        <v>591</v>
+      </c>
+      <c r="F69" t="s">
         <v>592</v>
       </c>
-      <c r="B69" t="s">
+      <c r="G69" t="s">
         <v>593</v>
       </c>
-      <c r="C69" t="s">
+      <c r="H69" t="s">
+        <v>589</v>
+      </c>
+      <c r="I69" t="s">
         <v>594</v>
       </c>
-      <c r="D69" t="s">
-        <v>286</v>
-      </c>
-      <c r="E69" t="s">
-        <v>595</v>
-      </c>
-      <c r="F69" t="s">
-        <v>596</v>
-      </c>
-      <c r="G69" t="s">
-        <v>597</v>
-      </c>
-      <c r="H69" t="s">
-        <v>593</v>
-      </c>
-      <c r="I69" t="s">
-        <v>598</v>
-      </c>
       <c r="J69" t="s">
         <v>31</v>
       </c>
       <c r="M69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N69" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P69" t="b">
         <f>TRUE()</f>
@@ -9980,43 +10123,43 @@
     </row>
     <row r="70" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="F70" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P70" s="3" t="b">
         <f>TRUE()</f>
@@ -10039,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="X70" s="3">
         <v>144</v>
@@ -10054,40 +10197,40 @@
     </row>
     <row r="71" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="H71" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>610</v>
-      </c>
       <c r="J71" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="P71" s="3" t="b">
         <f>TRUE()</f>
@@ -10119,40 +10262,40 @@
     </row>
     <row r="72" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P72" s="3" t="b">
         <f>TRUE()</f>
@@ -10184,43 +10327,43 @@
     </row>
     <row r="73" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P73" s="3" t="b">
         <f>TRUE()</f>
@@ -10243,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="X73" s="3">
         <v>120</v>
@@ -10258,40 +10401,40 @@
     </row>
     <row r="74" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="F74" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P74" s="3" t="b">
         <f>TRUE()</f>
@@ -10323,37 +10466,37 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>619</v>
+      </c>
+      <c r="B75" t="s">
+        <v>620</v>
+      </c>
+      <c r="C75" t="s">
+        <v>621</v>
+      </c>
+      <c r="D75" t="s">
+        <v>294</v>
+      </c>
+      <c r="E75" t="s">
+        <v>505</v>
+      </c>
+      <c r="F75" t="s">
+        <v>622</v>
+      </c>
+      <c r="G75" t="s">
         <v>623</v>
       </c>
-      <c r="B75" t="s">
+      <c r="H75" t="s">
+        <v>620</v>
+      </c>
+      <c r="I75" t="s">
         <v>624</v>
       </c>
-      <c r="C75" t="s">
-        <v>625</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="J75" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" t="s">
         <v>298</v>
-      </c>
-      <c r="E75" t="s">
-        <v>509</v>
-      </c>
-      <c r="F75" t="s">
-        <v>626</v>
-      </c>
-      <c r="G75" t="s">
-        <v>627</v>
-      </c>
-      <c r="H75" t="s">
-        <v>624</v>
-      </c>
-      <c r="I75" t="s">
-        <v>628</v>
-      </c>
-      <c r="J75" t="s">
-        <v>31</v>
-      </c>
-      <c r="N75" t="s">
-        <v>302</v>
       </c>
       <c r="P75" t="b">
         <f>TRUE()</f>
@@ -10385,34 +10528,34 @@
         <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D76" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E76" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F76" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G76" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H76" t="s">
         <v>50</v>
       </c>
       <c r="I76" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J76" t="s">
         <v>31</v>
       </c>
       <c r="M76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N76" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="P76" t="b">
         <f>TRUE()</f>
@@ -10447,37 +10590,37 @@
         <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
+        <v>630</v>
+      </c>
+      <c r="D77" t="s">
+        <v>631</v>
+      </c>
+      <c r="E77" t="s">
+        <v>328</v>
+      </c>
+      <c r="F77" t="s">
+        <v>632</v>
+      </c>
+      <c r="G77" t="s">
+        <v>633</v>
+      </c>
+      <c r="H77" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" t="s">
         <v>634</v>
       </c>
-      <c r="D77" t="s">
-        <v>635</v>
-      </c>
-      <c r="E77" t="s">
-        <v>332</v>
-      </c>
-      <c r="F77" t="s">
-        <v>636</v>
-      </c>
-      <c r="G77" t="s">
-        <v>637</v>
-      </c>
-      <c r="H77" t="s">
-        <v>54</v>
-      </c>
-      <c r="I77" t="s">
-        <v>638</v>
-      </c>
       <c r="J77" t="s">
         <v>31</v>
       </c>
       <c r="M77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N77" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="P77" t="b">
         <f>TRUE()</f>
@@ -10512,34 +10655,34 @@
         <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
+        <v>635</v>
+      </c>
+      <c r="D78" t="s">
+        <v>636</v>
+      </c>
+      <c r="E78" t="s">
+        <v>328</v>
+      </c>
+      <c r="F78" t="s">
+        <v>637</v>
+      </c>
+      <c r="G78" t="s">
+        <v>638</v>
+      </c>
+      <c r="H78" t="s">
+        <v>54</v>
+      </c>
+      <c r="I78" t="s">
         <v>639</v>
       </c>
-      <c r="D78" t="s">
-        <v>640</v>
-      </c>
-      <c r="E78" t="s">
-        <v>332</v>
-      </c>
-      <c r="F78" t="s">
-        <v>641</v>
-      </c>
-      <c r="G78" t="s">
-        <v>642</v>
-      </c>
-      <c r="H78" t="s">
-        <v>58</v>
-      </c>
-      <c r="I78" t="s">
-        <v>643</v>
-      </c>
       <c r="J78" t="s">
         <v>31</v>
       </c>
       <c r="N78" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="P78" t="b">
         <f>TRUE()</f>
@@ -10568,34 +10711,34 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D79" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E79" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F79" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G79" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H79" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I79" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J79" t="s">
         <v>31</v>
       </c>
       <c r="N79" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="P79" t="b">
         <f>TRUE()</f>
@@ -10621,40 +10764,40 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
+        <v>644</v>
+      </c>
+      <c r="C80" t="s">
+        <v>645</v>
+      </c>
+      <c r="D80" t="s">
+        <v>646</v>
+      </c>
+      <c r="E80" t="s">
+        <v>603</v>
+      </c>
+      <c r="F80" t="s">
+        <v>647</v>
+      </c>
+      <c r="G80" t="s">
         <v>648</v>
       </c>
-      <c r="C80" t="s">
+      <c r="H80" t="s">
+        <v>644</v>
+      </c>
+      <c r="I80" t="s">
         <v>649</v>
       </c>
-      <c r="D80" t="s">
-        <v>650</v>
-      </c>
-      <c r="E80" t="s">
-        <v>607</v>
-      </c>
-      <c r="F80" t="s">
-        <v>651</v>
-      </c>
-      <c r="G80" t="s">
-        <v>652</v>
-      </c>
-      <c r="H80" t="s">
-        <v>648</v>
-      </c>
-      <c r="I80" t="s">
-        <v>653</v>
-      </c>
       <c r="J80" t="s">
         <v>31</v>
       </c>
       <c r="M80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N80" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="P80" t="b">
         <f>TRUE()</f>
@@ -10686,43 +10829,43 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
+        <v>650</v>
+      </c>
+      <c r="D81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" t="s">
+        <v>651</v>
+      </c>
+      <c r="G81" t="s">
+        <v>652</v>
+      </c>
+      <c r="H81" t="s">
+        <v>157</v>
+      </c>
+      <c r="I81" t="s">
+        <v>653</v>
+      </c>
+      <c r="J81" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" t="s">
         <v>654</v>
       </c>
-      <c r="D81" t="s">
-        <v>85</v>
-      </c>
-      <c r="E81" t="s">
-        <v>85</v>
-      </c>
-      <c r="F81" t="s">
-        <v>655</v>
-      </c>
-      <c r="G81" t="s">
-        <v>656</v>
-      </c>
-      <c r="H81" t="s">
-        <v>161</v>
-      </c>
-      <c r="I81" t="s">
-        <v>657</v>
-      </c>
-      <c r="J81" t="s">
-        <v>31</v>
-      </c>
-      <c r="L81" t="s">
-        <v>658</v>
-      </c>
       <c r="M81" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N81" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P81" t="b">
         <f>TRUE()</f>
@@ -10754,43 +10897,43 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B82" t="s">
+        <v>655</v>
+      </c>
+      <c r="C82" t="s">
+        <v>656</v>
+      </c>
+      <c r="D82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" t="s">
+        <v>70</v>
+      </c>
+      <c r="F82" t="s">
+        <v>657</v>
+      </c>
+      <c r="G82" t="s">
+        <v>658</v>
+      </c>
+      <c r="H82" t="s">
+        <v>655</v>
+      </c>
+      <c r="I82" t="s">
         <v>659</v>
       </c>
-      <c r="C82" t="s">
-        <v>660</v>
-      </c>
-      <c r="D82" t="s">
-        <v>167</v>
-      </c>
-      <c r="E82" t="s">
-        <v>74</v>
-      </c>
-      <c r="F82" t="s">
-        <v>661</v>
-      </c>
-      <c r="G82" t="s">
-        <v>662</v>
-      </c>
-      <c r="H82" t="s">
-        <v>659</v>
-      </c>
-      <c r="I82" t="s">
-        <v>663</v>
-      </c>
       <c r="J82" t="s">
         <v>31</v>
       </c>
       <c r="L82" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N82" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P82" t="b">
         <f>TRUE()</f>
@@ -10822,37 +10965,37 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>660</v>
+      </c>
+      <c r="B83" t="s">
+        <v>661</v>
+      </c>
+      <c r="C83" t="s">
+        <v>662</v>
+      </c>
+      <c r="D83" t="s">
+        <v>294</v>
+      </c>
+      <c r="E83" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" t="s">
+        <v>663</v>
+      </c>
+      <c r="G83" t="s">
         <v>664</v>
       </c>
-      <c r="B83" t="s">
+      <c r="H83" t="s">
+        <v>661</v>
+      </c>
+      <c r="I83" t="s">
         <v>665</v>
       </c>
-      <c r="C83" t="s">
-        <v>666</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="J83" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" t="s">
         <v>298</v>
-      </c>
-      <c r="E83" t="s">
-        <v>80</v>
-      </c>
-      <c r="F83" t="s">
-        <v>667</v>
-      </c>
-      <c r="G83" t="s">
-        <v>668</v>
-      </c>
-      <c r="H83" t="s">
-        <v>665</v>
-      </c>
-      <c r="I83" t="s">
-        <v>669</v>
-      </c>
-      <c r="J83" t="s">
-        <v>31</v>
-      </c>
-      <c r="N83" t="s">
-        <v>302</v>
       </c>
       <c r="P83" t="b">
         <f>TRUE()</f>
@@ -10878,43 +11021,43 @@
     </row>
     <row r="84" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="J84" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="M84" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P84" s="4" t="b">
         <f>TRUE()</f>
@@ -10946,40 +11089,40 @@
     </row>
     <row r="85" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>679</v>
-      </c>
       <c r="J85" s="4" t="s">
         <v>31</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P85" s="4" t="b">
         <f>TRUE()</f>
@@ -11011,40 +11154,40 @@
     </row>
     <row r="86" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>684</v>
-      </c>
       <c r="J86" s="4" t="s">
         <v>31</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P86" s="4" t="b">
         <f>TRUE()</f>
@@ -11076,43 +11219,43 @@
     </row>
     <row r="87" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L87" s="4" t="s">
-        <v>689</v>
-      </c>
       <c r="M87" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P87" s="4" t="b">
         <f>TRUE()</f>
@@ -11144,43 +11287,43 @@
     </row>
     <row r="88" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P88" s="4" t="b">
         <f>TRUE()</f>
@@ -11212,43 +11355,43 @@
     </row>
     <row r="89" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>698</v>
-      </c>
       <c r="J89" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="P89" s="4" t="b">
         <f>TRUE()</f>
@@ -11286,25 +11429,25 @@
         <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D90" t="s">
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F90" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G90" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
       </c>
       <c r="I90" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="J90" t="s">
         <v>31</v>
@@ -11339,37 +11482,37 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
+        <v>699</v>
+      </c>
+      <c r="C91" t="s">
+        <v>700</v>
+      </c>
+      <c r="D91" t="s">
+        <v>701</v>
+      </c>
+      <c r="E91" t="s">
+        <v>702</v>
+      </c>
+      <c r="F91" t="s">
         <v>703</v>
       </c>
-      <c r="C91" t="s">
+      <c r="G91" t="s">
         <v>704</v>
       </c>
-      <c r="D91" t="s">
+      <c r="H91" t="s">
+        <v>699</v>
+      </c>
+      <c r="I91" t="s">
         <v>705</v>
       </c>
-      <c r="E91" t="s">
+      <c r="J91" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" t="s">
         <v>706</v>
       </c>
-      <c r="F91" t="s">
-        <v>707</v>
-      </c>
-      <c r="G91" t="s">
-        <v>708</v>
-      </c>
-      <c r="H91" t="s">
-        <v>703</v>
-      </c>
-      <c r="I91" t="s">
-        <v>709</v>
-      </c>
-      <c r="J91" t="s">
-        <v>31</v>
-      </c>
-      <c r="L91" t="s">
-        <v>710</v>
-      </c>
       <c r="N91" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="P91" t="b">
         <f>TRUE()</f>
@@ -11398,34 +11541,34 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
+        <v>707</v>
+      </c>
+      <c r="C92" t="s">
+        <v>708</v>
+      </c>
+      <c r="D92" t="s">
+        <v>709</v>
+      </c>
+      <c r="E92" t="s">
+        <v>709</v>
+      </c>
+      <c r="F92" t="s">
+        <v>710</v>
+      </c>
+      <c r="G92" t="s">
         <v>711</v>
       </c>
-      <c r="C92" t="s">
+      <c r="H92" t="s">
+        <v>707</v>
+      </c>
+      <c r="I92" t="s">
         <v>712</v>
       </c>
-      <c r="D92" t="s">
-        <v>713</v>
-      </c>
-      <c r="E92" t="s">
-        <v>713</v>
-      </c>
-      <c r="F92" t="s">
-        <v>714</v>
-      </c>
-      <c r="G92" t="s">
-        <v>715</v>
-      </c>
-      <c r="H92" t="s">
-        <v>711</v>
-      </c>
-      <c r="I92" t="s">
-        <v>716</v>
-      </c>
       <c r="J92" t="s">
         <v>31</v>
       </c>
       <c r="O92" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="P92" t="b">
         <f>TRUE()</f>
@@ -11444,37 +11587,37 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
+        <v>713</v>
+      </c>
+      <c r="C93" t="s">
+        <v>714</v>
+      </c>
+      <c r="D93" t="s">
+        <v>709</v>
+      </c>
+      <c r="E93" t="s">
+        <v>709</v>
+      </c>
+      <c r="F93" t="s">
+        <v>715</v>
+      </c>
+      <c r="G93" t="s">
+        <v>716</v>
+      </c>
+      <c r="H93" t="s">
+        <v>713</v>
+      </c>
+      <c r="I93" t="s">
         <v>717</v>
       </c>
-      <c r="C93" t="s">
+      <c r="J93" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" t="s">
         <v>718</v>
       </c>
-      <c r="D93" t="s">
-        <v>713</v>
-      </c>
-      <c r="E93" t="s">
-        <v>713</v>
-      </c>
-      <c r="F93" t="s">
-        <v>719</v>
-      </c>
-      <c r="G93" t="s">
-        <v>720</v>
-      </c>
-      <c r="H93" t="s">
-        <v>717</v>
-      </c>
-      <c r="I93" t="s">
-        <v>721</v>
-      </c>
-      <c r="J93" t="s">
-        <v>31</v>
-      </c>
-      <c r="L93" t="s">
-        <v>722</v>
-      </c>
       <c r="O93" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="P93" t="b">
         <f>TRUE()</f>
@@ -11490,37 +11633,37 @@
     </row>
     <row r="94" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="G94" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="H94" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="I94" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>729</v>
-      </c>
       <c r="J94" s="5" t="s">
         <v>31</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P94" s="5" t="b">
         <f>TRUE()</f>
@@ -11546,37 +11689,37 @@
     </row>
     <row r="95" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H95" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="I95" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="I95" s="5" t="s">
-        <v>734</v>
-      </c>
       <c r="J95" s="5" t="s">
         <v>31</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P95" s="5" t="b">
         <f>TRUE()</f>
@@ -11602,40 +11745,40 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" t="s">
+        <v>731</v>
+      </c>
+      <c r="D96" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" t="s">
         <v>64</v>
       </c>
-      <c r="B96" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" t="s">
-        <v>735</v>
-      </c>
-      <c r="D96" t="s">
-        <v>67</v>
-      </c>
-      <c r="E96" t="s">
-        <v>68</v>
-      </c>
       <c r="F96" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G96" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H96" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I96" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="J96" t="s">
         <v>31</v>
       </c>
       <c r="M96" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N96" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P96" t="b">
         <f>TRUE()</f>
@@ -11667,40 +11810,40 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D97" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E97" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F97" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G97" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="H97" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I97" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="J97" t="s">
         <v>31</v>
       </c>
       <c r="M97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N97" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P97" t="b">
         <f>TRUE()</f>
@@ -11732,40 +11875,40 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B98" t="s">
+        <v>738</v>
+      </c>
+      <c r="C98" t="s">
+        <v>739</v>
+      </c>
+      <c r="D98" t="s">
+        <v>740</v>
+      </c>
+      <c r="E98" t="s">
+        <v>70</v>
+      </c>
+      <c r="F98" t="s">
+        <v>741</v>
+      </c>
+      <c r="G98" t="s">
         <v>742</v>
       </c>
-      <c r="C98" t="s">
+      <c r="H98" t="s">
+        <v>738</v>
+      </c>
+      <c r="I98" t="s">
         <v>743</v>
       </c>
-      <c r="D98" t="s">
-        <v>744</v>
-      </c>
-      <c r="E98" t="s">
-        <v>74</v>
-      </c>
-      <c r="F98" t="s">
-        <v>745</v>
-      </c>
-      <c r="G98" t="s">
-        <v>746</v>
-      </c>
-      <c r="H98" t="s">
-        <v>742</v>
-      </c>
-      <c r="I98" t="s">
-        <v>747</v>
-      </c>
       <c r="J98" t="s">
         <v>31</v>
       </c>
       <c r="M98" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N98" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="P98" t="b">
         <f>TRUE()</f>
@@ -11797,40 +11940,40 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>744</v>
+      </c>
+      <c r="B99" t="s">
+        <v>745</v>
+      </c>
+      <c r="C99" t="s">
+        <v>746</v>
+      </c>
+      <c r="D99" t="s">
+        <v>747</v>
+      </c>
+      <c r="E99" t="s">
         <v>748</v>
       </c>
-      <c r="B99" t="s">
+      <c r="F99" t="s">
         <v>749</v>
       </c>
-      <c r="C99" t="s">
+      <c r="G99" t="s">
         <v>750</v>
       </c>
-      <c r="D99" t="s">
+      <c r="H99" t="s">
+        <v>745</v>
+      </c>
+      <c r="I99" t="s">
         <v>751</v>
       </c>
-      <c r="E99" t="s">
-        <v>752</v>
-      </c>
-      <c r="F99" t="s">
-        <v>753</v>
-      </c>
-      <c r="G99" t="s">
-        <v>754</v>
-      </c>
-      <c r="H99" t="s">
-        <v>749</v>
-      </c>
-      <c r="I99" t="s">
-        <v>755</v>
-      </c>
       <c r="J99" t="s">
         <v>31</v>
       </c>
       <c r="L99" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N99" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="P99" t="b">
         <f>TRUE()</f>
@@ -11850,40 +11993,40 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B100" t="s">
+        <v>752</v>
+      </c>
+      <c r="C100" t="s">
+        <v>753</v>
+      </c>
+      <c r="D100" t="s">
+        <v>747</v>
+      </c>
+      <c r="E100" t="s">
+        <v>754</v>
+      </c>
+      <c r="F100" t="s">
+        <v>755</v>
+      </c>
+      <c r="G100" t="s">
         <v>756</v>
       </c>
-      <c r="C100" t="s">
+      <c r="H100" t="s">
+        <v>752</v>
+      </c>
+      <c r="I100" t="s">
         <v>757</v>
       </c>
-      <c r="D100" t="s">
-        <v>751</v>
-      </c>
-      <c r="E100" t="s">
-        <v>758</v>
-      </c>
-      <c r="F100" t="s">
-        <v>759</v>
-      </c>
-      <c r="G100" t="s">
-        <v>760</v>
-      </c>
-      <c r="H100" t="s">
-        <v>756</v>
-      </c>
-      <c r="I100" t="s">
-        <v>761</v>
-      </c>
       <c r="J100" t="s">
         <v>31</v>
       </c>
       <c r="L100" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N100" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="P100" t="b">
         <f>TRUE()</f>
@@ -11903,40 +12046,40 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B101" t="s">
+        <v>758</v>
+      </c>
+      <c r="C101" t="s">
+        <v>759</v>
+      </c>
+      <c r="D101" t="s">
+        <v>760</v>
+      </c>
+      <c r="E101" t="s">
+        <v>760</v>
+      </c>
+      <c r="F101" t="s">
+        <v>761</v>
+      </c>
+      <c r="G101" t="s">
         <v>762</v>
       </c>
-      <c r="C101" t="s">
+      <c r="H101" t="s">
+        <v>758</v>
+      </c>
+      <c r="I101" t="s">
         <v>763</v>
       </c>
-      <c r="D101" t="s">
-        <v>764</v>
-      </c>
-      <c r="E101" t="s">
-        <v>764</v>
-      </c>
-      <c r="F101" t="s">
-        <v>765</v>
-      </c>
-      <c r="G101" t="s">
-        <v>766</v>
-      </c>
-      <c r="H101" t="s">
-        <v>762</v>
-      </c>
-      <c r="I101" t="s">
-        <v>767</v>
-      </c>
       <c r="J101" t="s">
         <v>31</v>
       </c>
       <c r="L101" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N101" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P101" t="b">
         <f>TRUE()</f>
@@ -11956,40 +12099,40 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
+        <v>764</v>
+      </c>
+      <c r="C102" t="s">
+        <v>765</v>
+      </c>
+      <c r="D102" t="s">
+        <v>328</v>
+      </c>
+      <c r="E102" t="s">
+        <v>328</v>
+      </c>
+      <c r="F102" t="s">
+        <v>766</v>
+      </c>
+      <c r="G102" t="s">
+        <v>767</v>
+      </c>
+      <c r="H102" t="s">
+        <v>764</v>
+      </c>
+      <c r="I102" t="s">
         <v>768</v>
       </c>
-      <c r="C102" t="s">
-        <v>769</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="J102" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102" t="s">
         <v>332</v>
       </c>
-      <c r="E102" t="s">
-        <v>332</v>
-      </c>
-      <c r="F102" t="s">
-        <v>770</v>
-      </c>
-      <c r="G102" t="s">
-        <v>771</v>
-      </c>
-      <c r="H102" t="s">
-        <v>768</v>
-      </c>
-      <c r="I102" t="s">
-        <v>772</v>
-      </c>
-      <c r="J102" t="s">
-        <v>31</v>
-      </c>
-      <c r="L102" t="s">
-        <v>336</v>
-      </c>
       <c r="M102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N102" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P102" t="b">
         <f>TRUE()</f>
@@ -12021,34 +12164,34 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
+        <v>769</v>
+      </c>
+      <c r="C103" t="s">
+        <v>770</v>
+      </c>
+      <c r="D103" t="s">
+        <v>294</v>
+      </c>
+      <c r="E103" t="s">
+        <v>76</v>
+      </c>
+      <c r="F103" t="s">
+        <v>771</v>
+      </c>
+      <c r="G103" t="s">
+        <v>772</v>
+      </c>
+      <c r="H103" t="s">
+        <v>769</v>
+      </c>
+      <c r="I103" t="s">
         <v>773</v>
       </c>
-      <c r="C103" t="s">
-        <v>774</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="J103" t="s">
+        <v>31</v>
+      </c>
+      <c r="N103" t="s">
         <v>298</v>
-      </c>
-      <c r="E103" t="s">
-        <v>80</v>
-      </c>
-      <c r="F103" t="s">
-        <v>775</v>
-      </c>
-      <c r="G103" t="s">
-        <v>776</v>
-      </c>
-      <c r="H103" t="s">
-        <v>773</v>
-      </c>
-      <c r="I103" t="s">
-        <v>777</v>
-      </c>
-      <c r="J103" t="s">
-        <v>31</v>
-      </c>
-      <c r="N103" t="s">
-        <v>302</v>
       </c>
       <c r="P103" t="b">
         <f>TRUE()</f>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BDF673-9AFF-4D51-89BA-627BE913C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B6363C-5FE9-40C7-ABF0-096542837E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="826">
   <si>
     <t>targets</t>
   </si>
@@ -2479,6 +2479,45 @@
   </si>
   <si>
     <t>variable</t>
+  </si>
+  <si>
+    <t>protection_amp_pat2021.csv</t>
+  </si>
+  <si>
+    <t>protection_amp</t>
+  </si>
+  <si>
+    <t>protection_ramsar</t>
+  </si>
+  <si>
+    <t>protection_ramsar_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/protection_amp_pat2021.csv</t>
+  </si>
+  <si>
+    <t>resilience</t>
+  </si>
+  <si>
+    <t>wgi_all_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/wgi_all_pat2021.csv</t>
+  </si>
+  <si>
+    <t>cc_consumption_ernc</t>
+  </si>
+  <si>
+    <t>cc_consumption_ernc_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/cc_consumption_ernc_pat2021.csv</t>
+  </si>
+  <si>
+    <t>cc_investigation</t>
+  </si>
+  <si>
+    <t>cc_investigation_pat2021.csv</t>
   </si>
 </sst>
 </file>
@@ -2969,11 +3008,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5614,6 +5653,231 @@
       </c>
       <c r="Z49" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>818</v>
+      </c>
+      <c r="B50" t="s">
+        <v>814</v>
+      </c>
+      <c r="C50" t="s">
+        <v>813</v>
+      </c>
+      <c r="D50" t="s">
+        <v>282</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s">
+        <v>817</v>
+      </c>
+      <c r="J50" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" t="s">
+        <v>282</v>
+      </c>
+      <c r="P50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0.37823649999999998</v>
+      </c>
+      <c r="U50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y50">
+        <v>36</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>818</v>
+      </c>
+      <c r="B51" t="s">
+        <v>815</v>
+      </c>
+      <c r="C51" t="s">
+        <v>816</v>
+      </c>
+      <c r="D51" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s">
+        <v>817</v>
+      </c>
+      <c r="J51" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" t="s">
+        <v>282</v>
+      </c>
+      <c r="P51" t="s">
+        <v>35</v>
+      </c>
+      <c r="S51">
+        <v>0.21998529999999999</v>
+      </c>
+      <c r="T51">
+        <v>0.21998529999999999</v>
+      </c>
+      <c r="U51" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y51">
+        <v>36</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>818</v>
+      </c>
+      <c r="B52" t="s">
+        <v>819</v>
+      </c>
+      <c r="C52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52" t="s">
+        <v>282</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s">
+        <v>820</v>
+      </c>
+      <c r="J52" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" t="s">
+        <v>282</v>
+      </c>
+      <c r="P52" t="s">
+        <v>35</v>
+      </c>
+      <c r="S52">
+        <v>0.1036097</v>
+      </c>
+      <c r="T52">
+        <v>0.91077750000000002</v>
+      </c>
+      <c r="U52" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y52">
+        <v>36</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>818</v>
+      </c>
+      <c r="B53" t="s">
+        <v>821</v>
+      </c>
+      <c r="C53" t="s">
+        <v>825</v>
+      </c>
+      <c r="D53" t="s">
+        <v>282</v>
+      </c>
+      <c r="E53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s">
+        <v>823</v>
+      </c>
+      <c r="J53" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" t="s">
+        <v>282</v>
+      </c>
+      <c r="P53" t="s">
+        <v>35</v>
+      </c>
+      <c r="S53">
+        <v>4.6296749999999998E-2</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y53">
+        <v>36</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>818</v>
+      </c>
+      <c r="B54" t="s">
+        <v>824</v>
+      </c>
+      <c r="C54" t="s">
+        <v>822</v>
+      </c>
+      <c r="D54" t="s">
+        <v>282</v>
+      </c>
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s">
+        <v>823</v>
+      </c>
+      <c r="J54" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" t="s">
+        <v>282</v>
+      </c>
+      <c r="P54" t="s">
+        <v>35</v>
+      </c>
+      <c r="S54">
+        <v>0.20610790000000001</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y54">
+        <v>36</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>0.20610790000000001</v>
       </c>
     </row>
   </sheetData>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B6363C-5FE9-40C7-ABF0-096542837E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8676E-E2CD-425F-9247-A8E1BC9BAA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="829">
   <si>
     <t>targets</t>
   </si>
@@ -2518,6 +2518,15 @@
   </si>
   <si>
     <t>cc_investigation_pat2021.csv</t>
+  </si>
+  <si>
+    <t>species_diversity_3mn</t>
+  </si>
+  <si>
+    <t>species_diversity_3mn_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/species_diversity_3mn_pat2021.csv</t>
   </si>
 </sst>
 </file>
@@ -3008,11 +3017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W66" sqref="W66"/>
+      <selection pane="bottomLeft" activeCell="Y53" sqref="Y53:Z55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5848,7 +5857,7 @@
         <v>76</v>
       </c>
       <c r="I54" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="J54" t="s">
         <v>31</v>
@@ -5875,9 +5884,48 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K59">
-        <v>0.20610790000000001</v>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>818</v>
+      </c>
+      <c r="B55" t="s">
+        <v>826</v>
+      </c>
+      <c r="C55" t="s">
+        <v>827</v>
+      </c>
+      <c r="D55" t="s">
+        <v>282</v>
+      </c>
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s">
+        <v>823</v>
+      </c>
+      <c r="J55" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" t="s">
+        <v>282</v>
+      </c>
+      <c r="P55" t="s">
+        <v>35</v>
+      </c>
+      <c r="S55">
+        <v>5.4210730000000002E-3</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y55">
+        <v>36</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\pat\comunas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8676E-E2CD-425F-9247-A8E1BC9BAA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47EBC7-3515-4E96-AB30-4D2C36F71B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="838">
   <si>
     <t>targets</t>
   </si>
@@ -636,15 +636,6 @@
     <t>~/github/pat/comunas/layers/fp_unstt_pat2021.csv</t>
   </si>
   <si>
-    <t>hd_infa</t>
-  </si>
-  <si>
-    <t>hd_infa_pat2021.csv</t>
-  </si>
-  <si>
-    <t>~/github/pat/comunas/layers/hd_infa_pat2021.csv</t>
-  </si>
-  <si>
     <t>hd_marine</t>
   </si>
   <si>
@@ -2367,9 +2358,6 @@
     <t>spp_status_pat2021.csv</t>
   </si>
   <si>
-    <t>status_score</t>
-  </si>
-  <si>
     <t>~/github/pat/comunas/layers/spp_status_pat2021.csv</t>
   </si>
   <si>
@@ -2527,6 +2515,45 @@
   </si>
   <si>
     <t>~/github/pat/comunas/layers/species_diversity_3mn_pat2021.csv</t>
+  </si>
+  <si>
+    <t>ssp_trend</t>
+  </si>
+  <si>
+    <t>spp_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>Puntaje estatus</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/spp_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>hd_density_pat2021.csv</t>
+  </si>
+  <si>
+    <t>hd_density</t>
+  </si>
+  <si>
+    <t>hd_traffic</t>
+  </si>
+  <si>
+    <t>hd_traffic_pat2021</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/hd_traffic_pat2021</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/hd_density_pat2021</t>
+  </si>
+  <si>
+    <t>sp_exhaust_pat2021.csv</t>
+  </si>
+  <si>
+    <t>sp_exhaust</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/sp_exhaust_pat2021.csv</t>
   </si>
 </sst>
 </file>
@@ -3017,21 +3044,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z55"/>
+  <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y53" sqref="Y53:Z55"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T58" sqref="T58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="25" width="11.42578125" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" customWidth="1"/>
-    <col min="27" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="1" max="25" width="11.3984375" customWidth="1"/>
+    <col min="26" max="26" width="13.265625" customWidth="1"/>
+    <col min="27" max="1025" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3111,7 +3138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3161,7 +3188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3208,7 +3235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -3255,15 +3282,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C5" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -3272,10 +3299,10 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
@@ -3311,15 +3338,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C6" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -3331,7 +3358,7 @@
         <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
@@ -3367,7 +3394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -3414,7 +3441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3461,7 +3488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -3517,7 +3544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -3573,7 +3600,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -3614,7 +3641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -3631,10 +3658,10 @@
         <v>81</v>
       </c>
       <c r="F12" t="s">
+        <v>774</v>
+      </c>
+      <c r="G12" t="s">
         <v>778</v>
-      </c>
-      <c r="G12" t="s">
-        <v>782</v>
       </c>
       <c r="H12" t="s">
         <v>79</v>
@@ -3679,7 +3706,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -3696,10 +3723,10 @@
         <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G13" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="H13" t="s">
         <v>84</v>
@@ -3744,7 +3771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -3761,10 +3788,10 @@
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="G14" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="H14" t="s">
         <v>87</v>
@@ -3809,7 +3836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -3826,10 +3853,10 @@
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="G15" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="I15" t="s">
         <v>94</v>
@@ -3862,7 +3889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -3879,10 +3906,10 @@
         <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G16" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="H16" t="s">
         <v>96</v>
@@ -3930,7 +3957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -3944,13 +3971,13 @@
         <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F17" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G17" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="H17" t="s">
         <v>102</v>
@@ -3998,7 +4025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -4015,10 +4042,10 @@
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G18" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H18" t="s">
         <v>107</v>
@@ -4060,7 +4087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -4077,10 +4104,10 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G19" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="H19" t="s">
         <v>111</v>
@@ -4122,7 +4149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -4139,10 +4166,10 @@
         <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G20" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="H20" t="s">
         <v>114</v>
@@ -4184,7 +4211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -4243,7 +4270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -4299,7 +4326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -4352,7 +4379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -4405,7 +4432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -4458,7 +4485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -4511,7 +4538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -4564,7 +4591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -4617,7 +4644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -4670,7 +4697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -4723,7 +4750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>156</v>
       </c>
@@ -4779,7 +4806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -4835,7 +4862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -4888,7 +4915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -4941,7 +4968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -4994,7 +5021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -5047,7 +5074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>184</v>
       </c>
@@ -5094,7 +5121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -5141,7 +5168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -5191,7 +5218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -5235,7 +5262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -5279,7 +5306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>184</v>
       </c>
@@ -5308,7 +5335,7 @@
         <v>35</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>4.8026190000000002E-3</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -5317,13 +5344,13 @@
         <v>36</v>
       </c>
       <c r="Y42">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="Z42" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>184</v>
       </c>
@@ -5352,7 +5379,7 @@
         <v>35</v>
       </c>
       <c r="S43">
-        <v>4.8026190000000002E-3</v>
+        <v>1.061578E-4</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -5361,13 +5388,13 @@
         <v>36</v>
       </c>
       <c r="Y43">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="Z43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -5396,10 +5423,10 @@
         <v>35</v>
       </c>
       <c r="S44">
-        <v>1.061578E-4</v>
+        <v>8.9222469999999998E-2</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>0.89639031000000002</v>
       </c>
       <c r="U44" t="s">
         <v>36</v>
@@ -5411,80 +5438,86 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="F45" t="s">
+        <v>792</v>
+      </c>
+      <c r="G45" t="s">
+        <v>793</v>
       </c>
       <c r="I45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J45" t="s">
         <v>31</v>
       </c>
-      <c r="N45" t="s">
-        <v>145</v>
+      <c r="N45" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="P45" t="s">
         <v>35</v>
       </c>
+      <c r="Q45">
+        <v>2021</v>
+      </c>
+      <c r="R45">
+        <v>2021</v>
+      </c>
       <c r="S45">
-        <v>8.9222469999999998E-2</v>
+        <v>1.007532E-3</v>
       </c>
       <c r="T45">
-        <v>0.89639031000000002</v>
+        <v>1</v>
       </c>
       <c r="U45" t="s">
         <v>36</v>
       </c>
       <c r="Y45">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="Z45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>213</v>
+        <v>716</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>717</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>771</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" t="s">
-        <v>796</v>
-      </c>
-      <c r="G46" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="I46" t="s">
-        <v>217</v>
+        <v>772</v>
       </c>
       <c r="J46" t="s">
         <v>31</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>216</v>
+      <c r="N46" t="s">
+        <v>70</v>
       </c>
       <c r="P46" t="s">
         <v>35</v>
@@ -5496,45 +5529,48 @@
         <v>2021</v>
       </c>
       <c r="S46">
-        <v>1.007532E-3</v>
+        <v>72.748900000000006</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="U46" t="s">
         <v>36</v>
       </c>
       <c r="Y46">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Z46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B47" t="s">
-        <v>720</v>
+        <v>801</v>
       </c>
       <c r="C47" t="s">
-        <v>774</v>
+        <v>803</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>775</v>
+        <v>30</v>
       </c>
       <c r="I47" t="s">
-        <v>776</v>
+        <v>806</v>
       </c>
       <c r="J47" t="s">
         <v>31</v>
       </c>
+      <c r="L47" t="s">
+        <v>808</v>
+      </c>
       <c r="N47" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="P47" t="s">
         <v>35</v>
@@ -5546,48 +5582,45 @@
         <v>2021</v>
       </c>
       <c r="S47">
-        <v>72.748900000000006</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>100</v>
+        <v>20011</v>
       </c>
       <c r="U47" t="s">
         <v>36</v>
       </c>
       <c r="Y47">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B48" t="s">
+        <v>802</v>
+      </c>
+      <c r="C48" t="s">
+        <v>804</v>
+      </c>
+      <c r="D48" t="s">
         <v>805</v>
-      </c>
-      <c r="C48" t="s">
-        <v>807</v>
-      </c>
-      <c r="D48" t="s">
-        <v>182</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="J48" t="s">
         <v>31</v>
       </c>
-      <c r="L48" t="s">
-        <v>812</v>
-      </c>
       <c r="N48" t="s">
-        <v>182</v>
+        <v>805</v>
       </c>
       <c r="P48" t="s">
         <v>35</v>
@@ -5599,10 +5632,10 @@
         <v>2021</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>8.3150080000000006</v>
       </c>
       <c r="T48">
-        <v>20011</v>
+        <v>32645.916850000001</v>
       </c>
       <c r="U48" t="s">
         <v>36</v>
@@ -5611,48 +5644,42 @@
         <v>36</v>
       </c>
       <c r="Z48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>554</v>
+        <v>814</v>
       </c>
       <c r="B49" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C49" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D49" t="s">
-        <v>809</v>
+        <v>279</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="J49" t="s">
         <v>31</v>
       </c>
       <c r="N49" t="s">
-        <v>809</v>
+        <v>279</v>
       </c>
       <c r="P49" t="s">
         <v>35</v>
       </c>
-      <c r="Q49">
-        <v>2021</v>
-      </c>
-      <c r="R49">
-        <v>2021</v>
-      </c>
       <c r="S49">
-        <v>8.3150080000000006</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>32645.916850000001</v>
+        <v>0.37823649999999998</v>
       </c>
       <c r="U49" t="s">
         <v>36</v>
@@ -5661,42 +5688,42 @@
         <v>36</v>
       </c>
       <c r="Z49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B50" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C50" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D50" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E50" t="s">
         <v>76</v>
       </c>
       <c r="I50" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="J50" t="s">
         <v>31</v>
       </c>
       <c r="N50" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P50" t="s">
         <v>35</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>0.21998529999999999</v>
       </c>
       <c r="T50">
-        <v>0.37823649999999998</v>
+        <v>0.21998529999999999</v>
       </c>
       <c r="U50" t="s">
         <v>36</v>
@@ -5705,42 +5732,42 @@
         <v>36</v>
       </c>
       <c r="Z50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B51" t="s">
         <v>815</v>
       </c>
       <c r="C51" t="s">
-        <v>816</v>
+        <v>283</v>
       </c>
       <c r="D51" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E51" t="s">
         <v>76</v>
       </c>
       <c r="I51" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J51" t="s">
         <v>31</v>
       </c>
       <c r="N51" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P51" t="s">
         <v>35</v>
       </c>
       <c r="S51">
-        <v>0.21998529999999999</v>
+        <v>0.1036097</v>
       </c>
       <c r="T51">
-        <v>0.21998529999999999</v>
+        <v>0.91077750000000002</v>
       </c>
       <c r="U51" t="s">
         <v>36</v>
@@ -5749,42 +5776,42 @@
         <v>36</v>
       </c>
       <c r="Z51" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B52" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C52" t="s">
-        <v>286</v>
+        <v>821</v>
       </c>
       <c r="D52" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E52" t="s">
         <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J52" t="s">
         <v>31</v>
       </c>
       <c r="N52" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P52" t="s">
         <v>35</v>
       </c>
       <c r="S52">
-        <v>0.1036097</v>
+        <v>4.6296749999999998E-2</v>
       </c>
       <c r="T52">
-        <v>0.91077750000000002</v>
+        <v>1</v>
       </c>
       <c r="U52" t="s">
         <v>36</v>
@@ -5796,36 +5823,36 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>814</v>
+      </c>
+      <c r="B53" t="s">
+        <v>820</v>
+      </c>
+      <c r="C53" t="s">
         <v>818</v>
       </c>
-      <c r="B53" t="s">
-        <v>821</v>
-      </c>
-      <c r="C53" t="s">
-        <v>825</v>
-      </c>
       <c r="D53" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E53" t="s">
         <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="J53" t="s">
         <v>31</v>
       </c>
       <c r="N53" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P53" t="s">
         <v>35</v>
       </c>
       <c r="S53">
-        <v>4.6296749999999998E-2</v>
+        <v>0.20610790000000001</v>
       </c>
       <c r="T53">
         <v>1</v>
@@ -5840,36 +5867,36 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B54" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C54" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D54" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E54" t="s">
         <v>76</v>
       </c>
       <c r="I54" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="J54" t="s">
         <v>31</v>
       </c>
       <c r="N54" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P54" t="s">
         <v>35</v>
       </c>
       <c r="S54">
-        <v>0.20610790000000001</v>
+        <v>5.4210730000000002E-3</v>
       </c>
       <c r="T54">
         <v>1</v>
@@ -5884,47 +5911,179 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>818</v>
+        <v>716</v>
       </c>
       <c r="B55" t="s">
+        <v>825</v>
+      </c>
+      <c r="C55" t="s">
         <v>826</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" t="s">
         <v>827</v>
       </c>
-      <c r="D55" t="s">
-        <v>282</v>
-      </c>
-      <c r="E55" t="s">
-        <v>76</v>
-      </c>
       <c r="I55" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
       </c>
       <c r="N55" t="s">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c r="P55" t="s">
         <v>35</v>
       </c>
       <c r="S55">
-        <v>5.4210730000000002E-3</v>
+        <v>-0.5</v>
       </c>
       <c r="T55">
-        <v>1</v>
+        <v>0.3130252</v>
       </c>
       <c r="U55" t="s">
         <v>36</v>
       </c>
       <c r="Y55">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Z55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" t="s">
+        <v>830</v>
+      </c>
+      <c r="C56" t="s">
+        <v>829</v>
+      </c>
+      <c r="D56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s">
+        <v>834</v>
+      </c>
+      <c r="J56" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" t="s">
+        <v>145</v>
+      </c>
+      <c r="P56" t="s">
+        <v>35</v>
+      </c>
+      <c r="S56">
+        <v>6.9577079999999999E-2</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y56">
+        <v>25</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" t="s">
+        <v>831</v>
+      </c>
+      <c r="C57" t="s">
+        <v>832</v>
+      </c>
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" t="s">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s">
+        <v>833</v>
+      </c>
+      <c r="J57" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" t="s">
+        <v>145</v>
+      </c>
+      <c r="P57" t="s">
+        <v>35</v>
+      </c>
+      <c r="S57">
+        <v>1.4701920000000001E-4</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y57">
+        <v>36</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" t="s">
+        <v>836</v>
+      </c>
+      <c r="C58" t="s">
+        <v>835</v>
+      </c>
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s">
+        <v>837</v>
+      </c>
+      <c r="J58" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" t="s">
+        <v>145</v>
+      </c>
+      <c r="P58" t="s">
+        <v>35</v>
+      </c>
+      <c r="S58">
+        <v>1.11E-5</v>
+      </c>
+      <c r="T58">
+        <v>0.32779214899999998</v>
+      </c>
+      <c r="U58" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y58">
+        <v>23</v>
+      </c>
+      <c r="Z58" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5943,37 +6102,37 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="81.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="81.1328125" customWidth="1"/>
+    <col min="2" max="2" width="33.265625" customWidth="1"/>
+    <col min="3" max="3" width="43.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
     <col min="6" max="6" width="51" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" customWidth="1"/>
-    <col min="9" max="9" width="65.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="81.1328125" customWidth="1"/>
+    <col min="8" max="8" width="33.265625" customWidth="1"/>
+    <col min="9" max="9" width="65.86328125" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.59765625" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
+    <col min="14" max="14" width="15.3984375" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" customWidth="1"/>
+    <col min="17" max="17" width="11.59765625" customWidth="1"/>
+    <col min="18" max="18" width="11.86328125" customWidth="1"/>
+    <col min="19" max="20" width="12.73046875" customWidth="1"/>
+    <col min="21" max="21" width="11.86328125" customWidth="1"/>
+    <col min="22" max="22" width="14.1328125" customWidth="1"/>
+    <col min="23" max="23" width="14.265625" customWidth="1"/>
     <col min="24" max="24" width="18" customWidth="1"/>
-    <col min="25" max="25" width="18.140625" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" customWidth="1"/>
-    <col min="27" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="18.1328125" customWidth="1"/>
+    <col min="26" max="26" width="11.86328125" customWidth="1"/>
+    <col min="27" max="1025" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6053,15 +6212,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
         <v>182</v>
@@ -6070,16 +6229,16 @@
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -6118,15 +6277,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
         <v>182</v>
@@ -6135,16 +6294,16 @@
         <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -6183,15 +6342,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
         <v>145</v>
@@ -6200,16 +6359,16 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -6248,15 +6407,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
         <v>145</v>
@@ -6265,16 +6424,16 @@
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -6313,15 +6472,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
@@ -6330,16 +6489,16 @@
         <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
@@ -6378,39 +6537,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
         <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P7" t="b">
         <f>TRUE()</f>
@@ -6434,15 +6593,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -6451,16 +6610,16 @@
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
@@ -6499,15 +6658,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
         <v>145</v>
@@ -6516,16 +6675,16 @@
         <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
@@ -6564,15 +6723,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
         <v>145</v>
@@ -6581,16 +6740,16 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
@@ -6629,15 +6788,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
         <v>145</v>
@@ -6646,16 +6805,16 @@
         <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
@@ -6694,15 +6853,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
         <v>145</v>
@@ -6711,16 +6870,16 @@
         <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
@@ -6759,33 +6918,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" t="s">
         <v>279</v>
-      </c>
-      <c r="B13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D13" t="s">
-        <v>282</v>
       </c>
       <c r="E13" t="s">
         <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
@@ -6794,7 +6953,7 @@
         <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P13" t="b">
         <f>TRUE()</f>
@@ -6824,33 +6983,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" t="s">
         <v>279</v>
-      </c>
-      <c r="B14" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" t="s">
-        <v>282</v>
       </c>
       <c r="E14" t="s">
         <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
@@ -6859,7 +7018,7 @@
         <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P14" t="b">
         <f>TRUE()</f>
@@ -6889,39 +7048,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" t="s">
         <v>291</v>
-      </c>
-      <c r="B15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C15" t="s">
-        <v>293</v>
-      </c>
-      <c r="D15" t="s">
-        <v>294</v>
       </c>
       <c r="E15" t="s">
         <v>76</v>
       </c>
       <c r="F15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G15" t="s">
+        <v>293</v>
+      </c>
+      <c r="H15" t="s">
+        <v>289</v>
+      </c>
+      <c r="I15" t="s">
+        <v>294</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" t="s">
         <v>295</v>
-      </c>
-      <c r="G15" t="s">
-        <v>296</v>
-      </c>
-      <c r="H15" t="s">
-        <v>292</v>
-      </c>
-      <c r="I15" t="s">
-        <v>297</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" t="s">
-        <v>298</v>
       </c>
       <c r="P15" t="b">
         <f>TRUE()</f>
@@ -6945,33 +7104,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E16" t="s">
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
@@ -6980,7 +7139,7 @@
         <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P16" t="b">
         <f>TRUE()</f>
@@ -7010,39 +7169,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H17" t="s">
+        <v>303</v>
+      </c>
+      <c r="I17" t="s">
         <v>306</v>
       </c>
-      <c r="I17" t="s">
-        <v>309</v>
-      </c>
       <c r="J17" t="s">
         <v>31</v>
       </c>
       <c r="N17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P17" t="b">
         <f>TRUE()</f>
@@ -7066,15 +7225,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D18" t="s">
         <v>182</v>
@@ -7083,16 +7242,16 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
@@ -7122,33 +7281,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s">
+        <v>313</v>
+      </c>
+      <c r="I19" t="s">
         <v>316</v>
-      </c>
-      <c r="I19" t="s">
-        <v>319</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
@@ -7157,7 +7316,7 @@
         <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P19" t="b">
         <f>TRUE()</f>
@@ -7187,15 +7346,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -7204,16 +7363,16 @@
         <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
@@ -7243,45 +7402,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>322</v>
+      </c>
+      <c r="B21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" t="s">
         <v>325</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" t="s">
         <v>326</v>
       </c>
-      <c r="C21" t="s">
+      <c r="G21" t="s">
         <v>327</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
+        <v>323</v>
+      </c>
+      <c r="I21" t="s">
         <v>328</v>
       </c>
-      <c r="E21" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
         <v>329</v>
-      </c>
-      <c r="G21" t="s">
-        <v>330</v>
-      </c>
-      <c r="H21" t="s">
-        <v>326</v>
-      </c>
-      <c r="I21" t="s">
-        <v>331</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" t="s">
-        <v>332</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P21" t="b">
         <f>TRUE()</f>
@@ -7311,45 +7470,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" t="s">
         <v>325</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" t="s">
         <v>333</v>
       </c>
-      <c r="C22" t="s">
+      <c r="H22" t="s">
+        <v>330</v>
+      </c>
+      <c r="I22" t="s">
         <v>334</v>
       </c>
-      <c r="D22" t="s">
-        <v>328</v>
-      </c>
-      <c r="E22" t="s">
-        <v>328</v>
-      </c>
-      <c r="F22" t="s">
-        <v>335</v>
-      </c>
-      <c r="G22" t="s">
-        <v>336</v>
-      </c>
-      <c r="H22" t="s">
-        <v>333</v>
-      </c>
-      <c r="I22" t="s">
-        <v>337</v>
-      </c>
       <c r="J22" t="s">
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M22" t="s">
         <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P22" t="b">
         <f>TRUE()</f>
@@ -7379,15 +7538,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B23" t="s">
         <v>185</v>
       </c>
       <c r="C23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D23" t="s">
         <v>145</v>
@@ -7396,16 +7555,16 @@
         <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G23" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H23" t="s">
         <v>185</v>
       </c>
       <c r="I23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -7444,15 +7603,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B24" t="s">
         <v>191</v>
       </c>
       <c r="C24" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D24" t="s">
         <v>145</v>
@@ -7461,16 +7620,16 @@
         <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G24" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H24" t="s">
         <v>191</v>
       </c>
       <c r="I24" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
@@ -7509,15 +7668,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B25" t="s">
         <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
@@ -7526,16 +7685,16 @@
         <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H25" t="s">
         <v>188</v>
       </c>
       <c r="I25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -7574,15 +7733,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C26" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D26" t="s">
         <v>145</v>
@@ -7591,16 +7750,16 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I26" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J26" t="s">
         <v>31</v>
@@ -7639,39 +7798,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D27" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E27" t="s">
         <v>76</v>
       </c>
       <c r="F27" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G27" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I27" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J27" t="s">
         <v>31</v>
       </c>
       <c r="N27" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P27" t="b">
         <f>TRUE()</f>
@@ -7695,45 +7854,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C28" t="s">
+        <v>363</v>
+      </c>
+      <c r="D28" t="s">
         <v>364</v>
-      </c>
-      <c r="B28" t="s">
-        <v>365</v>
-      </c>
-      <c r="C28" t="s">
-        <v>366</v>
-      </c>
-      <c r="D28" t="s">
-        <v>367</v>
       </c>
       <c r="E28" t="s">
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G28" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I28" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M28" t="s">
         <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P28" t="b">
         <f>TRUE()</f>
@@ -7763,15 +7922,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D29" t="s">
         <v>131</v>
@@ -7780,22 +7939,22 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J29" t="s">
         <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M29" t="s">
         <v>51</v>
@@ -7831,45 +7990,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" t="s">
+        <v>373</v>
+      </c>
+      <c r="C30" t="s">
+        <v>374</v>
+      </c>
+      <c r="D30" t="s">
         <v>364</v>
-      </c>
-      <c r="B30" t="s">
-        <v>376</v>
-      </c>
-      <c r="C30" t="s">
-        <v>377</v>
-      </c>
-      <c r="D30" t="s">
-        <v>367</v>
       </c>
       <c r="E30" t="s">
         <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G30" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I30" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J30" t="s">
         <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M30" t="s">
         <v>51</v>
       </c>
       <c r="N30" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P30" t="b">
         <f>TRUE()</f>
@@ -7899,15 +8058,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D31" t="s">
         <v>131</v>
@@ -7916,22 +8075,22 @@
         <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G31" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I31" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J31" t="s">
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M31" t="s">
         <v>51</v>
@@ -7967,45 +8126,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>383</v>
+      </c>
+      <c r="B32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C32" t="s">
+        <v>385</v>
+      </c>
+      <c r="D32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" t="s">
         <v>386</v>
       </c>
-      <c r="B32" t="s">
+      <c r="G32" t="s">
         <v>387</v>
       </c>
-      <c r="C32" t="s">
+      <c r="H32" t="s">
+        <v>384</v>
+      </c>
+      <c r="I32" t="s">
         <v>388</v>
       </c>
-      <c r="D32" t="s">
-        <v>328</v>
-      </c>
-      <c r="E32" t="s">
-        <v>328</v>
-      </c>
-      <c r="F32" t="s">
-        <v>389</v>
-      </c>
-      <c r="G32" t="s">
-        <v>390</v>
-      </c>
-      <c r="H32" t="s">
-        <v>387</v>
-      </c>
-      <c r="I32" t="s">
-        <v>391</v>
-      </c>
       <c r="J32" t="s">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
       </c>
       <c r="N32" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P32" t="b">
         <f>TRUE()</f>
@@ -8035,45 +8194,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33" t="s">
+        <v>325</v>
+      </c>
+      <c r="F33" t="s">
+        <v>391</v>
+      </c>
+      <c r="G33" t="s">
         <v>392</v>
       </c>
-      <c r="C33" t="s">
+      <c r="H33" t="s">
+        <v>389</v>
+      </c>
+      <c r="I33" t="s">
         <v>393</v>
       </c>
-      <c r="D33" t="s">
-        <v>328</v>
-      </c>
-      <c r="E33" t="s">
-        <v>328</v>
-      </c>
-      <c r="F33" t="s">
-        <v>394</v>
-      </c>
-      <c r="G33" t="s">
-        <v>395</v>
-      </c>
-      <c r="H33" t="s">
-        <v>392</v>
-      </c>
-      <c r="I33" t="s">
-        <v>396</v>
-      </c>
       <c r="J33" t="s">
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M33" t="s">
         <v>51</v>
       </c>
       <c r="N33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P33" t="b">
         <f>TRUE()</f>
@@ -8103,45 +8262,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" t="s">
+        <v>395</v>
+      </c>
+      <c r="D34" t="s">
+        <v>325</v>
+      </c>
+      <c r="E34" t="s">
+        <v>325</v>
+      </c>
+      <c r="F34" t="s">
+        <v>396</v>
+      </c>
+      <c r="G34" t="s">
         <v>397</v>
       </c>
-      <c r="C34" t="s">
+      <c r="H34" t="s">
+        <v>394</v>
+      </c>
+      <c r="I34" t="s">
         <v>398</v>
       </c>
-      <c r="D34" t="s">
-        <v>328</v>
-      </c>
-      <c r="E34" t="s">
-        <v>328</v>
-      </c>
-      <c r="F34" t="s">
-        <v>399</v>
-      </c>
-      <c r="G34" t="s">
-        <v>400</v>
-      </c>
-      <c r="H34" t="s">
-        <v>397</v>
-      </c>
-      <c r="I34" t="s">
-        <v>401</v>
-      </c>
       <c r="J34" t="s">
         <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M34" t="s">
         <v>51</v>
       </c>
       <c r="N34" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P34" t="b">
         <f>TRUE()</f>
@@ -8171,45 +8330,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B35" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D35" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E35" t="s">
         <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G35" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H35" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I35" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J35" t="s">
         <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s">
         <v>51</v>
       </c>
       <c r="N35" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P35" t="b">
         <f>TRUE()</f>
@@ -8239,15 +8398,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B36" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C36" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D36" t="s">
         <v>131</v>
@@ -8256,22 +8415,22 @@
         <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H36" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s">
         <v>51</v>
@@ -8307,45 +8466,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C37" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E37" t="s">
         <v>64</v>
       </c>
       <c r="F37" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G37" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I37" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J37" t="s">
         <v>31</v>
       </c>
       <c r="L37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s">
         <v>51</v>
       </c>
       <c r="N37" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P37" t="b">
         <f>TRUE()</f>
@@ -8375,15 +8534,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B38" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C38" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D38" t="s">
         <v>131</v>
@@ -8392,22 +8551,22 @@
         <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G38" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H38" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I38" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s">
         <v>51</v>
@@ -8443,45 +8602,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B39" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D39" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E39" t="s">
         <v>64</v>
       </c>
       <c r="F39" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G39" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H39" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I39" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J39" t="s">
         <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s">
         <v>51</v>
       </c>
       <c r="N39" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P39" t="b">
         <f>TRUE()</f>
@@ -8511,15 +8670,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C40" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D40" t="s">
         <v>131</v>
@@ -8528,22 +8687,22 @@
         <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G40" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I40" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J40" t="s">
         <v>31</v>
       </c>
       <c r="L40" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M40" t="s">
         <v>51</v>
@@ -8579,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -8587,7 +8746,7 @@
         <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D41" t="s">
         <v>131</v>
@@ -8596,16 +8755,16 @@
         <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G41" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H41" t="s">
         <v>139</v>
       </c>
       <c r="I41" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J41" t="s">
         <v>31</v>
@@ -8644,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -8652,7 +8811,7 @@
         <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D42" t="s">
         <v>131</v>
@@ -8661,16 +8820,16 @@
         <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G42" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H42" t="s">
         <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J42" t="s">
         <v>31</v>
@@ -8709,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -8717,7 +8876,7 @@
         <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D43" t="s">
         <v>131</v>
@@ -8726,16 +8885,16 @@
         <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G43" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H43" t="s">
         <v>136</v>
       </c>
       <c r="I43" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J43" t="s">
         <v>31</v>
@@ -8774,15 +8933,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C44" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D44" t="s">
         <v>131</v>
@@ -8791,16 +8950,16 @@
         <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G44" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H44" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I44" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J44" t="s">
         <v>31</v>
@@ -8839,15 +8998,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D45" t="s">
         <v>145</v>
@@ -8856,16 +9015,16 @@
         <v>76</v>
       </c>
       <c r="F45" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G45" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H45" t="s">
         <v>143</v>
       </c>
       <c r="I45" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J45" t="s">
         <v>31</v>
@@ -8904,15 +9063,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B46" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D46" t="s">
         <v>145</v>
@@ -8921,16 +9080,16 @@
         <v>76</v>
       </c>
       <c r="F46" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G46" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H46" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I46" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J46" t="s">
         <v>31</v>
@@ -8969,15 +9128,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B47" t="s">
         <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D47" t="s">
         <v>145</v>
@@ -8986,16 +9145,16 @@
         <v>76</v>
       </c>
       <c r="F47" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G47" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H47" t="s">
         <v>153</v>
       </c>
       <c r="I47" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J47" t="s">
         <v>31</v>
@@ -9034,15 +9193,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B48" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C48" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D48" t="s">
         <v>145</v>
@@ -9051,16 +9210,16 @@
         <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G48" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H48" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I48" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J48" t="s">
         <v>31</v>
@@ -9099,33 +9258,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B49" t="s">
         <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D49" t="s">
         <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F49" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G49" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H49" t="s">
         <v>114</v>
       </c>
       <c r="I49" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J49" t="s">
         <v>31</v>
@@ -9164,15 +9323,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B50" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C50" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D50" t="s">
         <v>145</v>
@@ -9181,16 +9340,16 @@
         <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G50" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H50" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I50" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J50" t="s">
         <v>31</v>
@@ -9229,15 +9388,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B51" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D51" t="s">
         <v>145</v>
@@ -9246,16 +9405,16 @@
         <v>76</v>
       </c>
       <c r="F51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G51" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H51" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I51" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J51" t="s">
         <v>31</v>
@@ -9294,15 +9453,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B52" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C52" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D52" t="s">
         <v>145</v>
@@ -9311,16 +9470,16 @@
         <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G52" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H52" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I52" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J52" t="s">
         <v>31</v>
@@ -9359,15 +9518,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B53" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C53" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D53" t="s">
         <v>145</v>
@@ -9376,16 +9535,16 @@
         <v>76</v>
       </c>
       <c r="F53" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G53" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H53" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I53" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J53" t="s">
         <v>31</v>
@@ -9424,33 +9583,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>499</v>
+      </c>
+      <c r="B54" t="s">
+        <v>500</v>
+      </c>
+      <c r="C54" t="s">
+        <v>501</v>
+      </c>
+      <c r="D54" t="s">
+        <v>279</v>
+      </c>
+      <c r="E54" t="s">
         <v>502</v>
       </c>
-      <c r="B54" t="s">
+      <c r="F54" t="s">
         <v>503</v>
       </c>
-      <c r="C54" t="s">
+      <c r="G54" t="s">
         <v>504</v>
       </c>
-      <c r="D54" t="s">
-        <v>282</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
+        <v>500</v>
+      </c>
+      <c r="I54" t="s">
         <v>505</v>
-      </c>
-      <c r="F54" t="s">
-        <v>506</v>
-      </c>
-      <c r="G54" t="s">
-        <v>507</v>
-      </c>
-      <c r="H54" t="s">
-        <v>503</v>
-      </c>
-      <c r="I54" t="s">
-        <v>508</v>
       </c>
       <c r="J54" t="s">
         <v>31</v>
@@ -9459,7 +9618,7 @@
         <v>51</v>
       </c>
       <c r="N54" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P54" t="b">
         <f>TRUE()</f>
@@ -9489,33 +9648,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>506</v>
+      </c>
+      <c r="B55" t="s">
+        <v>507</v>
+      </c>
+      <c r="C55" t="s">
+        <v>508</v>
+      </c>
+      <c r="D55" t="s">
         <v>509</v>
-      </c>
-      <c r="B55" t="s">
-        <v>510</v>
-      </c>
-      <c r="C55" t="s">
-        <v>511</v>
-      </c>
-      <c r="D55" t="s">
-        <v>512</v>
       </c>
       <c r="E55" t="s">
         <v>182</v>
       </c>
       <c r="F55" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G55" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H55" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I55" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
@@ -9524,7 +9683,7 @@
         <v>101</v>
       </c>
       <c r="N55" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P55" t="b">
         <f>TRUE()</f>
@@ -9548,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -9556,31 +9715,31 @@
         <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D56" t="s">
         <v>121</v>
       </c>
       <c r="E56" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F56" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G56" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H56" t="s">
         <v>119</v>
       </c>
       <c r="I56" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
       </c>
       <c r="L56" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M56" t="s">
         <v>51</v>
@@ -9616,45 +9775,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C57" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D57" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E57" t="s">
         <v>81</v>
       </c>
       <c r="F57" t="s">
+        <v>522</v>
+      </c>
+      <c r="G57" t="s">
+        <v>523</v>
+      </c>
+      <c r="H57" t="s">
+        <v>519</v>
+      </c>
+      <c r="I57" t="s">
+        <v>524</v>
+      </c>
+      <c r="J57" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" t="s">
         <v>525</v>
-      </c>
-      <c r="G57" t="s">
-        <v>526</v>
-      </c>
-      <c r="H57" t="s">
-        <v>522</v>
-      </c>
-      <c r="I57" t="s">
-        <v>527</v>
-      </c>
-      <c r="J57" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" t="s">
-        <v>528</v>
       </c>
       <c r="M57" t="s">
         <v>51</v>
       </c>
       <c r="N57" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="P57" t="b">
         <f>TRUE()</f>
@@ -9684,15 +9843,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B58" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C58" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D58" t="s">
         <v>70</v>
@@ -9701,16 +9860,16 @@
         <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G58" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H58" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I58" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J58" t="s">
         <v>31</v>
@@ -9740,15 +9899,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B59" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C59" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D59" t="s">
         <v>182</v>
@@ -9757,16 +9916,16 @@
         <v>76</v>
       </c>
       <c r="F59" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G59" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H59" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I59" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J59" t="s">
         <v>31</v>
@@ -9796,33 +9955,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B60" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C60" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D60" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E60" t="s">
         <v>76</v>
       </c>
       <c r="F60" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G60" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H60" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I60" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J60" t="s">
         <v>31</v>
@@ -9831,7 +9990,7 @@
         <v>51</v>
       </c>
       <c r="N60" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P60" t="b">
         <f>TRUE()</f>
@@ -9861,33 +10020,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B61" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C61" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D61" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E61" t="s">
         <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G61" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H61" t="s">
+        <v>543</v>
+      </c>
+      <c r="I61" t="s">
         <v>546</v>
-      </c>
-      <c r="I61" t="s">
-        <v>549</v>
       </c>
       <c r="J61" t="s">
         <v>31</v>
@@ -9896,7 +10055,7 @@
         <v>51</v>
       </c>
       <c r="N61" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P61" t="b">
         <f>TRUE()</f>
@@ -9926,33 +10085,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" t="s">
+        <v>547</v>
+      </c>
+      <c r="D62" t="s">
         <v>213</v>
-      </c>
-      <c r="B62" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" t="s">
-        <v>550</v>
-      </c>
-      <c r="D62" t="s">
-        <v>216</v>
       </c>
       <c r="E62" t="s">
         <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G62" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H62" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I62" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J62" t="s">
         <v>31</v>
@@ -9961,7 +10120,7 @@
         <v>51</v>
       </c>
       <c r="N62" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P62" t="b">
         <f>TRUE()</f>
@@ -9991,45 +10150,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B63" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C63" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D63" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E63" t="s">
         <v>64</v>
       </c>
       <c r="F63" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G63" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H63" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I63" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J63" t="s">
         <v>31</v>
       </c>
       <c r="L63" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M63" t="s">
         <v>51</v>
       </c>
       <c r="N63" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P63" t="b">
         <f>TRUE()</f>
@@ -10059,15 +10218,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B64" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C64" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D64" t="s">
         <v>131</v>
@@ -10076,22 +10235,22 @@
         <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G64" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H64" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I64" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J64" t="s">
         <v>31</v>
       </c>
       <c r="L64" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M64" t="s">
         <v>51</v>
@@ -10127,39 +10286,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B65" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C65" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D65" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E65" t="s">
         <v>76</v>
       </c>
       <c r="F65" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G65" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H65" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I65" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J65" t="s">
         <v>31</v>
       </c>
       <c r="N65" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P65" t="b">
         <f>TRUE()</f>
@@ -10183,39 +10342,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B66" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C66" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D66" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E66" t="s">
         <v>76</v>
       </c>
       <c r="F66" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G66" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H66" t="s">
+        <v>569</v>
+      </c>
+      <c r="I66" t="s">
         <v>572</v>
       </c>
-      <c r="I66" t="s">
-        <v>575</v>
-      </c>
       <c r="J66" t="s">
         <v>31</v>
       </c>
       <c r="N66" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P66" t="b">
         <f>TRUE()</f>
@@ -10239,33 +10398,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C67" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D67" t="s">
         <v>43</v>
       </c>
       <c r="E67" t="s">
+        <v>575</v>
+      </c>
+      <c r="F67" t="s">
+        <v>576</v>
+      </c>
+      <c r="G67" t="s">
+        <v>577</v>
+      </c>
+      <c r="H67" t="s">
+        <v>573</v>
+      </c>
+      <c r="I67" t="s">
         <v>578</v>
-      </c>
-      <c r="F67" t="s">
-        <v>579</v>
-      </c>
-      <c r="G67" t="s">
-        <v>580</v>
-      </c>
-      <c r="H67" t="s">
-        <v>576</v>
-      </c>
-      <c r="I67" t="s">
-        <v>581</v>
       </c>
       <c r="J67" t="s">
         <v>31</v>
@@ -10294,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="X67">
         <v>952</v>
@@ -10303,15 +10462,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B68" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C68" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D68" t="s">
         <v>145</v>
@@ -10320,16 +10479,16 @@
         <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G68" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H68" t="s">
+        <v>581</v>
+      </c>
+      <c r="I68" t="s">
         <v>584</v>
-      </c>
-      <c r="I68" t="s">
-        <v>587</v>
       </c>
       <c r="J68" t="s">
         <v>31</v>
@@ -10368,33 +10527,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
+        <v>585</v>
+      </c>
+      <c r="B69" t="s">
+        <v>586</v>
+      </c>
+      <c r="C69" t="s">
+        <v>587</v>
+      </c>
+      <c r="D69" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" t="s">
         <v>588</v>
       </c>
-      <c r="B69" t="s">
+      <c r="F69" t="s">
         <v>589</v>
       </c>
-      <c r="C69" t="s">
+      <c r="G69" t="s">
         <v>590</v>
       </c>
-      <c r="D69" t="s">
-        <v>282</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="H69" t="s">
+        <v>586</v>
+      </c>
+      <c r="I69" t="s">
         <v>591</v>
-      </c>
-      <c r="F69" t="s">
-        <v>592</v>
-      </c>
-      <c r="G69" t="s">
-        <v>593</v>
-      </c>
-      <c r="H69" t="s">
-        <v>589</v>
-      </c>
-      <c r="I69" t="s">
-        <v>594</v>
       </c>
       <c r="J69" t="s">
         <v>31</v>
@@ -10403,7 +10562,7 @@
         <v>51</v>
       </c>
       <c r="N69" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P69" t="b">
         <f>TRUE()</f>
@@ -10433,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>95</v>
       </c>
@@ -10441,7 +10600,7 @@
         <v>96</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>182</v>
@@ -10450,16 +10609,16 @@
         <v>99</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>31</v>
@@ -10494,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="X70" s="3">
         <v>144</v>
@@ -10507,33 +10666,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="H71" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>606</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>31</v>
@@ -10542,7 +10701,7 @@
         <v>51</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="P71" s="3" t="b">
         <f>TRUE()</f>
@@ -10572,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>95</v>
       </c>
@@ -10580,7 +10739,7 @@
         <v>107</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>109</v>
@@ -10589,16 +10748,16 @@
         <v>64</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>107</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>31</v>
@@ -10637,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>95</v>
       </c>
@@ -10645,7 +10804,7 @@
         <v>102</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>182</v>
@@ -10654,16 +10813,16 @@
         <v>105</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>102</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>31</v>
@@ -10698,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="X73" s="3">
         <v>120</v>
@@ -10711,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>95</v>
       </c>
@@ -10719,7 +10878,7 @@
         <v>111</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>98</v>
@@ -10728,16 +10887,16 @@
         <v>99</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>111</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>31</v>
@@ -10776,39 +10935,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
+        <v>616</v>
+      </c>
+      <c r="B75" t="s">
+        <v>617</v>
+      </c>
+      <c r="C75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D75" t="s">
+        <v>291</v>
+      </c>
+      <c r="E75" t="s">
+        <v>502</v>
+      </c>
+      <c r="F75" t="s">
         <v>619</v>
       </c>
-      <c r="B75" t="s">
+      <c r="G75" t="s">
         <v>620</v>
       </c>
-      <c r="C75" t="s">
+      <c r="H75" t="s">
+        <v>617</v>
+      </c>
+      <c r="I75" t="s">
         <v>621</v>
       </c>
-      <c r="D75" t="s">
-        <v>294</v>
-      </c>
-      <c r="E75" t="s">
-        <v>505</v>
-      </c>
-      <c r="F75" t="s">
-        <v>622</v>
-      </c>
-      <c r="G75" t="s">
-        <v>623</v>
-      </c>
-      <c r="H75" t="s">
-        <v>620</v>
-      </c>
-      <c r="I75" t="s">
-        <v>624</v>
-      </c>
       <c r="J75" t="s">
         <v>31</v>
       </c>
       <c r="N75" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P75" t="b">
         <f>TRUE()</f>
@@ -10832,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -10840,25 +10999,25 @@
         <v>50</v>
       </c>
       <c r="C76" t="s">
+        <v>622</v>
+      </c>
+      <c r="D76" t="s">
+        <v>623</v>
+      </c>
+      <c r="E76" t="s">
+        <v>325</v>
+      </c>
+      <c r="F76" t="s">
+        <v>624</v>
+      </c>
+      <c r="G76" t="s">
         <v>625</v>
-      </c>
-      <c r="D76" t="s">
-        <v>626</v>
-      </c>
-      <c r="E76" t="s">
-        <v>328</v>
-      </c>
-      <c r="F76" t="s">
-        <v>627</v>
-      </c>
-      <c r="G76" t="s">
-        <v>628</v>
       </c>
       <c r="H76" t="s">
         <v>50</v>
       </c>
       <c r="I76" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J76" t="s">
         <v>31</v>
@@ -10867,7 +11026,7 @@
         <v>51</v>
       </c>
       <c r="N76" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="P76" t="b">
         <f>TRUE()</f>
@@ -10897,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -10905,25 +11064,25 @@
         <v>52</v>
       </c>
       <c r="C77" t="s">
+        <v>627</v>
+      </c>
+      <c r="D77" t="s">
+        <v>628</v>
+      </c>
+      <c r="E77" t="s">
+        <v>325</v>
+      </c>
+      <c r="F77" t="s">
+        <v>629</v>
+      </c>
+      <c r="G77" t="s">
         <v>630</v>
-      </c>
-      <c r="D77" t="s">
-        <v>631</v>
-      </c>
-      <c r="E77" t="s">
-        <v>328</v>
-      </c>
-      <c r="F77" t="s">
-        <v>632</v>
-      </c>
-      <c r="G77" t="s">
-        <v>633</v>
       </c>
       <c r="H77" t="s">
         <v>52</v>
       </c>
       <c r="I77" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J77" t="s">
         <v>31</v>
@@ -10932,7 +11091,7 @@
         <v>51</v>
       </c>
       <c r="N77" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="P77" t="b">
         <f>TRUE()</f>
@@ -10962,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>49</v>
       </c>
@@ -10970,31 +11129,31 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
+        <v>632</v>
+      </c>
+      <c r="D78" t="s">
+        <v>633</v>
+      </c>
+      <c r="E78" t="s">
+        <v>325</v>
+      </c>
+      <c r="F78" t="s">
+        <v>634</v>
+      </c>
+      <c r="G78" t="s">
         <v>635</v>
-      </c>
-      <c r="D78" t="s">
-        <v>636</v>
-      </c>
-      <c r="E78" t="s">
-        <v>328</v>
-      </c>
-      <c r="F78" t="s">
-        <v>637</v>
-      </c>
-      <c r="G78" t="s">
-        <v>638</v>
       </c>
       <c r="H78" t="s">
         <v>54</v>
       </c>
       <c r="I78" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J78" t="s">
         <v>31</v>
       </c>
       <c r="N78" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="P78" t="b">
         <f>TRUE()</f>
@@ -11018,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -11026,31 +11185,31 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D79" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E79" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F79" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G79" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H79" t="s">
         <v>57</v>
       </c>
       <c r="I79" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J79" t="s">
         <v>31</v>
       </c>
       <c r="N79" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="P79" t="b">
         <f>TRUE()</f>
@@ -11074,33 +11233,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>156</v>
       </c>
       <c r="B80" t="s">
+        <v>641</v>
+      </c>
+      <c r="C80" t="s">
+        <v>642</v>
+      </c>
+      <c r="D80" t="s">
+        <v>643</v>
+      </c>
+      <c r="E80" t="s">
+        <v>600</v>
+      </c>
+      <c r="F80" t="s">
         <v>644</v>
       </c>
-      <c r="C80" t="s">
+      <c r="G80" t="s">
         <v>645</v>
       </c>
-      <c r="D80" t="s">
+      <c r="H80" t="s">
+        <v>641</v>
+      </c>
+      <c r="I80" t="s">
         <v>646</v>
-      </c>
-      <c r="E80" t="s">
-        <v>603</v>
-      </c>
-      <c r="F80" t="s">
-        <v>647</v>
-      </c>
-      <c r="G80" t="s">
-        <v>648</v>
-      </c>
-      <c r="H80" t="s">
-        <v>644</v>
-      </c>
-      <c r="I80" t="s">
-        <v>649</v>
       </c>
       <c r="J80" t="s">
         <v>31</v>
@@ -11109,7 +11268,7 @@
         <v>51</v>
       </c>
       <c r="N80" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="P80" t="b">
         <f>TRUE()</f>
@@ -11139,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>156</v>
       </c>
@@ -11147,7 +11306,7 @@
         <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D81" t="s">
         <v>81</v>
@@ -11156,22 +11315,22 @@
         <v>81</v>
       </c>
       <c r="F81" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G81" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H81" t="s">
         <v>157</v>
       </c>
       <c r="I81" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="J81" t="s">
         <v>31</v>
       </c>
       <c r="L81" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M81" t="s">
         <v>51</v>
@@ -11207,15 +11366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>156</v>
       </c>
       <c r="B82" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C82" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D82" t="s">
         <v>163</v>
@@ -11224,22 +11383,22 @@
         <v>70</v>
       </c>
       <c r="F82" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G82" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H82" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I82" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="J82" t="s">
         <v>31</v>
       </c>
       <c r="L82" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M82" t="s">
         <v>51</v>
@@ -11275,39 +11434,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B83" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C83" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D83" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E83" t="s">
         <v>76</v>
       </c>
       <c r="F83" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G83" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H83" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I83" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J83" t="s">
         <v>31</v>
       </c>
       <c r="N83" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P83" t="b">
         <f>TRUE()</f>
@@ -11331,45 +11490,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="H84" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>670</v>
-      </c>
       <c r="J84" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P84" s="4" t="b">
         <f>TRUE()</f>
@@ -11399,15 +11558,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>70</v>
@@ -11416,16 +11575,16 @@
         <v>70</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>31</v>
@@ -11464,15 +11623,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>70</v>
@@ -11481,16 +11640,16 @@
         <v>70</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>31</v>
@@ -11529,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>78</v>
       </c>
@@ -11537,37 +11696,37 @@
         <v>87</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P87" s="4" t="b">
         <f>TRUE()</f>
@@ -11597,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="4" t="s">
         <v>78</v>
       </c>
@@ -11605,7 +11764,7 @@
         <v>79</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>81</v>
@@ -11614,22 +11773,22 @@
         <v>81</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>79</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>51</v>
@@ -11665,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>78</v>
       </c>
@@ -11673,37 +11832,37 @@
         <v>84</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="P89" s="4" t="b">
         <f>TRUE()</f>
@@ -11733,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -11741,25 +11900,25 @@
         <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D90" t="s">
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F90" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G90" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
       </c>
       <c r="I90" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="J90" t="s">
         <v>31</v>
@@ -11789,42 +11948,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>26</v>
       </c>
       <c r="B91" t="s">
+        <v>696</v>
+      </c>
+      <c r="C91" t="s">
+        <v>697</v>
+      </c>
+      <c r="D91" t="s">
+        <v>698</v>
+      </c>
+      <c r="E91" t="s">
         <v>699</v>
       </c>
-      <c r="C91" t="s">
+      <c r="F91" t="s">
         <v>700</v>
       </c>
-      <c r="D91" t="s">
+      <c r="G91" t="s">
         <v>701</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
+        <v>696</v>
+      </c>
+      <c r="I91" t="s">
         <v>702</v>
       </c>
-      <c r="F91" t="s">
+      <c r="J91" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" t="s">
         <v>703</v>
       </c>
-      <c r="G91" t="s">
-        <v>704</v>
-      </c>
-      <c r="H91" t="s">
-        <v>699</v>
-      </c>
-      <c r="I91" t="s">
-        <v>705</v>
-      </c>
-      <c r="J91" t="s">
-        <v>31</v>
-      </c>
-      <c r="L91" t="s">
-        <v>706</v>
-      </c>
       <c r="N91" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="P91" t="b">
         <f>TRUE()</f>
@@ -11848,39 +12007,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>26</v>
       </c>
       <c r="B92" t="s">
+        <v>704</v>
+      </c>
+      <c r="C92" t="s">
+        <v>705</v>
+      </c>
+      <c r="D92" t="s">
+        <v>706</v>
+      </c>
+      <c r="E92" t="s">
+        <v>706</v>
+      </c>
+      <c r="F92" t="s">
         <v>707</v>
       </c>
-      <c r="C92" t="s">
+      <c r="G92" t="s">
         <v>708</v>
       </c>
-      <c r="D92" t="s">
+      <c r="H92" t="s">
+        <v>704</v>
+      </c>
+      <c r="I92" t="s">
         <v>709</v>
       </c>
-      <c r="E92" t="s">
-        <v>709</v>
-      </c>
-      <c r="F92" t="s">
-        <v>710</v>
-      </c>
-      <c r="G92" t="s">
-        <v>711</v>
-      </c>
-      <c r="H92" t="s">
-        <v>707</v>
-      </c>
-      <c r="I92" t="s">
-        <v>712</v>
-      </c>
       <c r="J92" t="s">
         <v>31</v>
       </c>
       <c r="O92" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="P92" t="b">
         <f>TRUE()</f>
@@ -11894,42 +12053,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>26</v>
       </c>
       <c r="B93" t="s">
+        <v>710</v>
+      </c>
+      <c r="C93" t="s">
+        <v>711</v>
+      </c>
+      <c r="D93" t="s">
+        <v>706</v>
+      </c>
+      <c r="E93" t="s">
+        <v>706</v>
+      </c>
+      <c r="F93" t="s">
+        <v>712</v>
+      </c>
+      <c r="G93" t="s">
         <v>713</v>
       </c>
-      <c r="C93" t="s">
+      <c r="H93" t="s">
+        <v>710</v>
+      </c>
+      <c r="I93" t="s">
         <v>714</v>
       </c>
-      <c r="D93" t="s">
-        <v>709</v>
-      </c>
-      <c r="E93" t="s">
-        <v>709</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="J93" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" t="s">
         <v>715</v>
       </c>
-      <c r="G93" t="s">
-        <v>716</v>
-      </c>
-      <c r="H93" t="s">
-        <v>713</v>
-      </c>
-      <c r="I93" t="s">
-        <v>717</v>
-      </c>
-      <c r="J93" t="s">
-        <v>31</v>
-      </c>
-      <c r="L93" t="s">
-        <v>718</v>
-      </c>
       <c r="O93" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="P93" t="b">
         <f>TRUE()</f>
@@ -11943,33 +12102,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E94" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="I94" s="5" t="s">
         <v>722</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>725</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>31</v>
@@ -11999,15 +12158,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>70</v>
@@ -12016,16 +12175,16 @@
         <v>47</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>31</v>
@@ -12055,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -12063,7 +12222,7 @@
         <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D96" t="s">
         <v>63</v>
@@ -12072,16 +12231,16 @@
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G96" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H96" t="s">
         <v>61</v>
       </c>
       <c r="I96" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="J96" t="s">
         <v>31</v>
@@ -12120,7 +12279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -12128,7 +12287,7 @@
         <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D97" t="s">
         <v>69</v>
@@ -12137,16 +12296,16 @@
         <v>70</v>
       </c>
       <c r="F97" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G97" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H97" t="s">
         <v>67</v>
       </c>
       <c r="I97" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J97" t="s">
         <v>31</v>
@@ -12185,33 +12344,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C98" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D98" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E98" t="s">
         <v>70</v>
       </c>
       <c r="F98" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G98" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H98" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I98" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J98" t="s">
         <v>31</v>
@@ -12220,7 +12379,7 @@
         <v>51</v>
       </c>
       <c r="N98" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="P98" t="b">
         <f>TRUE()</f>
@@ -12250,42 +12409,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
+        <v>741</v>
+      </c>
+      <c r="B99" t="s">
+        <v>742</v>
+      </c>
+      <c r="C99" t="s">
+        <v>743</v>
+      </c>
+      <c r="D99" t="s">
         <v>744</v>
       </c>
-      <c r="B99" t="s">
+      <c r="E99" t="s">
         <v>745</v>
       </c>
-      <c r="C99" t="s">
+      <c r="F99" t="s">
         <v>746</v>
       </c>
-      <c r="D99" t="s">
+      <c r="G99" t="s">
         <v>747</v>
       </c>
-      <c r="E99" t="s">
+      <c r="H99" t="s">
+        <v>742</v>
+      </c>
+      <c r="I99" t="s">
         <v>748</v>
       </c>
-      <c r="F99" t="s">
-        <v>749</v>
-      </c>
-      <c r="G99" t="s">
-        <v>750</v>
-      </c>
-      <c r="H99" t="s">
-        <v>745</v>
-      </c>
-      <c r="I99" t="s">
-        <v>751</v>
-      </c>
       <c r="J99" t="s">
         <v>31</v>
       </c>
       <c r="L99" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N99" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P99" t="b">
         <f>TRUE()</f>
@@ -12303,42 +12462,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
+        <v>741</v>
+      </c>
+      <c r="B100" t="s">
+        <v>749</v>
+      </c>
+      <c r="C100" t="s">
+        <v>750</v>
+      </c>
+      <c r="D100" t="s">
         <v>744</v>
       </c>
-      <c r="B100" t="s">
+      <c r="E100" t="s">
+        <v>751</v>
+      </c>
+      <c r="F100" t="s">
         <v>752</v>
       </c>
-      <c r="C100" t="s">
+      <c r="G100" t="s">
         <v>753</v>
       </c>
-      <c r="D100" t="s">
-        <v>747</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="H100" t="s">
+        <v>749</v>
+      </c>
+      <c r="I100" t="s">
         <v>754</v>
       </c>
-      <c r="F100" t="s">
-        <v>755</v>
-      </c>
-      <c r="G100" t="s">
-        <v>756</v>
-      </c>
-      <c r="H100" t="s">
-        <v>752</v>
-      </c>
-      <c r="I100" t="s">
-        <v>757</v>
-      </c>
       <c r="J100" t="s">
         <v>31</v>
       </c>
       <c r="L100" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N100" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P100" t="b">
         <f>TRUE()</f>
@@ -12356,42 +12515,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B101" t="s">
+        <v>755</v>
+      </c>
+      <c r="C101" t="s">
+        <v>756</v>
+      </c>
+      <c r="D101" t="s">
+        <v>757</v>
+      </c>
+      <c r="E101" t="s">
+        <v>757</v>
+      </c>
+      <c r="F101" t="s">
         <v>758</v>
       </c>
-      <c r="C101" t="s">
+      <c r="G101" t="s">
         <v>759</v>
       </c>
-      <c r="D101" t="s">
+      <c r="H101" t="s">
+        <v>755</v>
+      </c>
+      <c r="I101" t="s">
         <v>760</v>
       </c>
-      <c r="E101" t="s">
-        <v>760</v>
-      </c>
-      <c r="F101" t="s">
-        <v>761</v>
-      </c>
-      <c r="G101" t="s">
-        <v>762</v>
-      </c>
-      <c r="H101" t="s">
-        <v>758</v>
-      </c>
-      <c r="I101" t="s">
-        <v>763</v>
-      </c>
       <c r="J101" t="s">
         <v>31</v>
       </c>
       <c r="L101" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N101" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="P101" t="b">
         <f>TRUE()</f>
@@ -12409,42 +12568,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
+        <v>761</v>
+      </c>
+      <c r="C102" t="s">
+        <v>762</v>
+      </c>
+      <c r="D102" t="s">
+        <v>325</v>
+      </c>
+      <c r="E102" t="s">
+        <v>325</v>
+      </c>
+      <c r="F102" t="s">
+        <v>763</v>
+      </c>
+      <c r="G102" t="s">
         <v>764</v>
       </c>
-      <c r="C102" t="s">
+      <c r="H102" t="s">
+        <v>761</v>
+      </c>
+      <c r="I102" t="s">
         <v>765</v>
       </c>
-      <c r="D102" t="s">
-        <v>328</v>
-      </c>
-      <c r="E102" t="s">
-        <v>328</v>
-      </c>
-      <c r="F102" t="s">
-        <v>766</v>
-      </c>
-      <c r="G102" t="s">
-        <v>767</v>
-      </c>
-      <c r="H102" t="s">
-        <v>764</v>
-      </c>
-      <c r="I102" t="s">
-        <v>768</v>
-      </c>
       <c r="J102" t="s">
         <v>31</v>
       </c>
       <c r="L102" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M102" t="s">
         <v>51</v>
       </c>
       <c r="N102" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P102" t="b">
         <f>TRUE()</f>
@@ -12474,36 +12633,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C103" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D103" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E103" t="s">
         <v>76</v>
       </c>
       <c r="F103" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G103" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="H103" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I103" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="J103" t="s">
         <v>31</v>
       </c>
       <c r="N103" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P103" t="b">
         <f>TRUE()</f>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47EBC7-3515-4E96-AB30-4D2C36F71B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45391B38-FE4D-4F10-98B4-66CC66C012BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="844">
   <si>
     <t>targets</t>
   </si>
@@ -2554,6 +2554,24 @@
   </si>
   <si>
     <t>~/github/pat/comunas/layers/sp_exhaust_pat2021.csv</t>
+  </si>
+  <si>
+    <t>aquaculture_auditing</t>
+  </si>
+  <si>
+    <t>aquaculture_auditing_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/aquaculture_auditing_pat2021.csv</t>
+  </si>
+  <si>
+    <t>sp_management_plan_pat2021.csv</t>
+  </si>
+  <si>
+    <t>sp_management_plan</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/sp_management_plan_pat2021.csv</t>
   </si>
 </sst>
 </file>
@@ -3044,11 +3062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T58" sqref="T58"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6084,6 +6102,94 @@
         <v>23</v>
       </c>
       <c r="Z58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>814</v>
+      </c>
+      <c r="B59" t="s">
+        <v>838</v>
+      </c>
+      <c r="C59" t="s">
+        <v>839</v>
+      </c>
+      <c r="D59" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s">
+        <v>840</v>
+      </c>
+      <c r="J59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" t="s">
+        <v>279</v>
+      </c>
+      <c r="P59" t="s">
+        <v>35</v>
+      </c>
+      <c r="S59">
+        <v>8.5572310000000002E-3</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y59">
+        <v>24</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>814</v>
+      </c>
+      <c r="B60" t="s">
+        <v>842</v>
+      </c>
+      <c r="C60" t="s">
+        <v>841</v>
+      </c>
+      <c r="D60" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s">
+        <v>843</v>
+      </c>
+      <c r="J60" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" t="s">
+        <v>279</v>
+      </c>
+      <c r="P60" t="s">
+        <v>35</v>
+      </c>
+      <c r="S60">
+        <v>5.1863040000000001E-3</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y60">
+        <v>30</v>
+      </c>
+      <c r="Z60" t="s">
         <v>36</v>
       </c>
     </row>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45391B38-FE4D-4F10-98B4-66CC66C012BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CEF723-81E7-4CEC-B29C-C301D0DF5A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="853">
   <si>
     <t>targets</t>
   </si>
@@ -2572,6 +2572,33 @@
   </si>
   <si>
     <t>~/github/pat/comunas/layers/sp_management_plan_pat2021.csv</t>
+  </si>
+  <si>
+    <t>po_compliance_standards_pat2021.csv</t>
+  </si>
+  <si>
+    <t>po_compliance_standards</t>
+  </si>
+  <si>
+    <t>po_cleaning_beach_pat2021.csv</t>
+  </si>
+  <si>
+    <t>po_cleaning_beach</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/po_compliance_standards_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/po_cleaning_beach_pat2021.csv</t>
+  </si>
+  <si>
+    <t>fishing_reg_pat2021.csv</t>
+  </si>
+  <si>
+    <t>fishing_reg</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/fishing_reg_pat2021.csv</t>
   </si>
 </sst>
 </file>
@@ -3062,11 +3089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z60"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y63" sqref="Y63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6190,6 +6217,138 @@
         <v>30</v>
       </c>
       <c r="Z60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>814</v>
+      </c>
+      <c r="B61" t="s">
+        <v>845</v>
+      </c>
+      <c r="C61" t="s">
+        <v>844</v>
+      </c>
+      <c r="D61" t="s">
+        <v>279</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s">
+        <v>848</v>
+      </c>
+      <c r="J61" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" t="s">
+        <v>279</v>
+      </c>
+      <c r="P61" t="s">
+        <v>35</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y61">
+        <v>36</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>814</v>
+      </c>
+      <c r="B62" t="s">
+        <v>847</v>
+      </c>
+      <c r="C62" t="s">
+        <v>846</v>
+      </c>
+      <c r="D62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s">
+        <v>849</v>
+      </c>
+      <c r="J62" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" t="s">
+        <v>279</v>
+      </c>
+      <c r="P62" t="s">
+        <v>35</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y62">
+        <v>36</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>814</v>
+      </c>
+      <c r="B63" t="s">
+        <v>851</v>
+      </c>
+      <c r="C63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D63" t="s">
+        <v>279</v>
+      </c>
+      <c r="E63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s">
+        <v>852</v>
+      </c>
+      <c r="J63" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" t="s">
+        <v>279</v>
+      </c>
+      <c r="P63" t="s">
+        <v>35</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y63">
+        <v>36</v>
+      </c>
+      <c r="Z63" t="s">
         <v>36</v>
       </c>
     </row>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CEF723-81E7-4CEC-B29C-C301D0DF5A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C8D942-9D27-4008-8894-5AD65A70E753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="856">
   <si>
     <t>targets</t>
   </si>
@@ -582,18 +582,9 @@
     <t>CS</t>
   </si>
   <si>
-    <t>cs_seaweed</t>
-  </si>
-  <si>
-    <t>cs_seaweed_pat2021.csv</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
-    <t>~/github/pat/comunas/layers/cs_seaweed_pat2021.csv</t>
-  </si>
-  <si>
     <t>pressure</t>
   </si>
   <si>
@@ -2599,6 +2590,24 @@
   </si>
   <si>
     <t>~/github/pat/comunas/layers/fishing_reg_pat2021.csv</t>
+  </si>
+  <si>
+    <t>fp_illegal_pat2021.csv</t>
+  </si>
+  <si>
+    <t>fp_illegal</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/fp_illegal_pat2021.csv</t>
+  </si>
+  <si>
+    <t>cs_kelp_forest</t>
+  </si>
+  <si>
+    <t>cs_cs_kelp_forest_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/cs_cs_kelp_forest_pat2021.csv</t>
   </si>
 </sst>
 </file>
@@ -3089,11 +3098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y63" sqref="Y63"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3332,10 +3341,10 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -3344,10 +3353,10 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
@@ -3388,10 +3397,10 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C6" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -3403,7 +3412,7 @@
         <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
@@ -3703,10 +3712,10 @@
         <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G12" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="H12" t="s">
         <v>79</v>
@@ -3768,10 +3777,10 @@
         <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G13" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="H13" t="s">
         <v>84</v>
@@ -3833,10 +3842,10 @@
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G14" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H14" t="s">
         <v>87</v>
@@ -3898,10 +3907,10 @@
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G15" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I15" t="s">
         <v>94</v>
@@ -3951,10 +3960,10 @@
         <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G16" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="H16" t="s">
         <v>96</v>
@@ -4016,13 +4025,13 @@
         <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F17" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G17" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="H17" t="s">
         <v>102</v>
@@ -4087,10 +4096,10 @@
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G18" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="H18" t="s">
         <v>107</v>
@@ -4149,10 +4158,10 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G19" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="H19" t="s">
         <v>111</v>
@@ -4211,10 +4220,10 @@
         <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G20" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="H20" t="s">
         <v>114</v>
@@ -5071,19 +5080,19 @@
         <v>179</v>
       </c>
       <c r="B36" t="s">
+        <v>853</v>
+      </c>
+      <c r="C36" t="s">
+        <v>854</v>
+      </c>
+      <c r="D36" t="s">
         <v>180</v>
-      </c>
-      <c r="C36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" t="s">
-        <v>182</v>
       </c>
       <c r="E36" t="s">
         <v>81</v>
       </c>
       <c r="I36" t="s">
-        <v>183</v>
+        <v>855</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
@@ -5092,7 +5101,7 @@
         <v>51</v>
       </c>
       <c r="N36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P36" t="s">
         <v>35</v>
@@ -5121,13 +5130,13 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
         <v>145</v>
@@ -5136,7 +5145,7 @@
         <v>76</v>
       </c>
       <c r="I37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J37" t="s">
         <v>31</v>
@@ -5168,13 +5177,13 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D38" t="s">
         <v>145</v>
@@ -5183,7 +5192,7 @@
         <v>76</v>
       </c>
       <c r="I38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
@@ -5215,13 +5224,13 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
         <v>145</v>
@@ -5230,10 +5239,10 @@
         <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J39" t="s">
         <v>31</v>
@@ -5265,13 +5274,13 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s">
         <v>145</v>
@@ -5280,7 +5289,7 @@
         <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J40" t="s">
         <v>31</v>
@@ -5309,13 +5318,13 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
         <v>145</v>
@@ -5324,7 +5333,7 @@
         <v>76</v>
       </c>
       <c r="I41" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J41" t="s">
         <v>31</v>
@@ -5353,13 +5362,13 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
         <v>145</v>
@@ -5368,7 +5377,7 @@
         <v>76</v>
       </c>
       <c r="I42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J42" t="s">
         <v>31</v>
@@ -5397,13 +5406,13 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
         <v>145</v>
@@ -5412,7 +5421,7 @@
         <v>76</v>
       </c>
       <c r="I43" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J43" t="s">
         <v>31</v>
@@ -5441,13 +5450,13 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D44" t="s">
         <v>145</v>
@@ -5456,7 +5465,7 @@
         <v>76</v>
       </c>
       <c r="I44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J44" t="s">
         <v>31</v>
@@ -5485,34 +5494,34 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" t="s">
         <v>210</v>
-      </c>
-      <c r="B45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45" t="s">
-        <v>213</v>
       </c>
       <c r="E45" t="s">
         <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G45" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I45" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J45" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P45" t="s">
         <v>35</v>
@@ -5541,22 +5550,22 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B46" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C46" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D46" t="s">
         <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I46" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="J46" t="s">
         <v>31</v>
@@ -5591,31 +5600,31 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B47" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C47" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="I47" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="J47" t="s">
         <v>31</v>
       </c>
       <c r="L47" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="N47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P47" t="s">
         <v>35</v>
@@ -5644,28 +5653,28 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B48" t="s">
+        <v>799</v>
+      </c>
+      <c r="C48" t="s">
+        <v>801</v>
+      </c>
+      <c r="D48" t="s">
         <v>802</v>
-      </c>
-      <c r="C48" t="s">
-        <v>804</v>
-      </c>
-      <c r="D48" t="s">
-        <v>805</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="J48" t="s">
         <v>31</v>
       </c>
       <c r="N48" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="P48" t="s">
         <v>35</v>
@@ -5694,28 +5703,28 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B49" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C49" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D49" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E49" t="s">
         <v>76</v>
       </c>
       <c r="I49" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="J49" t="s">
         <v>31</v>
       </c>
       <c r="N49" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P49" t="s">
         <v>35</v>
@@ -5738,28 +5747,28 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B50" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C50" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D50" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E50" t="s">
         <v>76</v>
       </c>
       <c r="I50" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="J50" t="s">
         <v>31</v>
       </c>
       <c r="N50" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P50" t="s">
         <v>35</v>
@@ -5782,28 +5791,28 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B51" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C51" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D51" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
         <v>76</v>
       </c>
       <c r="I51" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J51" t="s">
         <v>31</v>
       </c>
       <c r="N51" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P51" t="s">
         <v>35</v>
@@ -5826,28 +5835,28 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
+        <v>811</v>
+      </c>
+      <c r="B52" t="s">
         <v>814</v>
       </c>
-      <c r="B52" t="s">
-        <v>817</v>
-      </c>
       <c r="C52" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E52" t="s">
         <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="J52" t="s">
         <v>31</v>
       </c>
       <c r="N52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P52" t="s">
         <v>35</v>
@@ -5870,28 +5879,28 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B53" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C53" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D53" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E53" t="s">
         <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J53" t="s">
         <v>31</v>
       </c>
       <c r="N53" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P53" t="s">
         <v>35</v>
@@ -5914,28 +5923,28 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B54" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C54" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D54" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E54" t="s">
         <v>76</v>
       </c>
       <c r="I54" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="J54" t="s">
         <v>31</v>
       </c>
       <c r="N54" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P54" t="s">
         <v>35</v>
@@ -5958,22 +5967,22 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B55" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C55" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D55" t="s">
         <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I55" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
@@ -6002,13 +6011,13 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C56" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D56" t="s">
         <v>145</v>
@@ -6017,7 +6026,7 @@
         <v>76</v>
       </c>
       <c r="I56" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
@@ -6046,13 +6055,13 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C57" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D57" t="s">
         <v>145</v>
@@ -6061,7 +6070,7 @@
         <v>76</v>
       </c>
       <c r="I57" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="J57" t="s">
         <v>31</v>
@@ -6090,13 +6099,13 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C58" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D58" t="s">
         <v>145</v>
@@ -6105,7 +6114,7 @@
         <v>76</v>
       </c>
       <c r="I58" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="J58" t="s">
         <v>31</v>
@@ -6134,28 +6143,28 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B59" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C59" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E59" t="s">
         <v>76</v>
       </c>
       <c r="I59" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="J59" t="s">
         <v>31</v>
       </c>
       <c r="N59" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P59" t="s">
         <v>35</v>
@@ -6178,28 +6187,28 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B60" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C60" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E60" t="s">
         <v>76</v>
       </c>
       <c r="I60" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J60" t="s">
         <v>31</v>
       </c>
       <c r="N60" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P60" t="s">
         <v>35</v>
@@ -6222,28 +6231,28 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B61" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C61" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D61" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E61" t="s">
         <v>76</v>
       </c>
       <c r="I61" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J61" t="s">
         <v>31</v>
       </c>
       <c r="N61" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P61" t="s">
         <v>35</v>
@@ -6266,28 +6275,28 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B62" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C62" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E62" t="s">
         <v>76</v>
       </c>
       <c r="I62" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="J62" t="s">
         <v>31</v>
       </c>
       <c r="N62" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P62" t="s">
         <v>35</v>
@@ -6310,28 +6319,28 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B63" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C63" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D63" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E63" t="s">
         <v>76</v>
       </c>
       <c r="I63" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J63" t="s">
         <v>31</v>
       </c>
       <c r="N63" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P63" t="s">
         <v>35</v>
@@ -6349,6 +6358,50 @@
         <v>36</v>
       </c>
       <c r="Z63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" t="s">
+        <v>851</v>
+      </c>
+      <c r="C64" t="s">
+        <v>850</v>
+      </c>
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s">
+        <v>852</v>
+      </c>
+      <c r="J64" t="s">
+        <v>31</v>
+      </c>
+      <c r="N64" t="s">
+        <v>145</v>
+      </c>
+      <c r="P64" t="s">
+        <v>35</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y64">
+        <v>36</v>
+      </c>
+      <c r="Z64" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6482,28 +6535,28 @@
         <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -6512,7 +6565,7 @@
         <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P2" t="b">
         <f>TRUE()</f>
@@ -6547,28 +6600,28 @@
         <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
         <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -6577,7 +6630,7 @@
         <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P3" t="b">
         <f>TRUE()</f>
@@ -6609,13 +6662,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
         <v>145</v>
@@ -6624,16 +6677,16 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -6674,13 +6727,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
         <v>145</v>
@@ -6689,16 +6742,16 @@
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -6739,13 +6792,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
@@ -6754,16 +6807,16 @@
         <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
@@ -6804,37 +6857,37 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
         <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P7" t="b">
         <f>TRUE()</f>
@@ -6860,13 +6913,13 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -6875,16 +6928,16 @@
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
@@ -6925,13 +6978,13 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
         <v>145</v>
@@ -6940,16 +6993,16 @@
         <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
@@ -6990,13 +7043,13 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
         <v>145</v>
@@ -7005,16 +7058,16 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
@@ -7055,13 +7108,13 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
         <v>145</v>
@@ -7070,16 +7123,16 @@
         <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
@@ -7120,13 +7173,13 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D12" t="s">
         <v>145</v>
@@ -7135,16 +7188,16 @@
         <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
@@ -7185,31 +7238,31 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" t="s">
         <v>276</v>
-      </c>
-      <c r="B13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" t="s">
-        <v>279</v>
       </c>
       <c r="E13" t="s">
         <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
@@ -7218,7 +7271,7 @@
         <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P13" t="b">
         <f>TRUE()</f>
@@ -7250,31 +7303,31 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" t="s">
         <v>276</v>
-      </c>
-      <c r="B14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" t="s">
-        <v>279</v>
       </c>
       <c r="E14" t="s">
         <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
@@ -7283,7 +7336,7 @@
         <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P14" t="b">
         <f>TRUE()</f>
@@ -7315,37 +7368,37 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" t="s">
         <v>288</v>
-      </c>
-      <c r="B15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" t="s">
-        <v>290</v>
-      </c>
-      <c r="D15" t="s">
-        <v>291</v>
       </c>
       <c r="E15" t="s">
         <v>76</v>
       </c>
       <c r="F15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G15" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15" t="s">
+        <v>286</v>
+      </c>
+      <c r="I15" t="s">
+        <v>291</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" t="s">
         <v>292</v>
-      </c>
-      <c r="G15" t="s">
-        <v>293</v>
-      </c>
-      <c r="H15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I15" t="s">
-        <v>294</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" t="s">
-        <v>295</v>
       </c>
       <c r="P15" t="b">
         <f>TRUE()</f>
@@ -7371,31 +7424,31 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E16" t="s">
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
@@ -7404,7 +7457,7 @@
         <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P16" t="b">
         <f>TRUE()</f>
@@ -7436,37 +7489,37 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H17" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" t="s">
         <v>303</v>
       </c>
-      <c r="I17" t="s">
-        <v>306</v>
-      </c>
       <c r="J17" t="s">
         <v>31</v>
       </c>
       <c r="N17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P17" t="b">
         <f>TRUE()</f>
@@ -7492,37 +7545,37 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P18" t="b">
         <f>TRUE()</f>
@@ -7548,31 +7601,31 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H19" t="s">
+        <v>310</v>
+      </c>
+      <c r="I19" t="s">
         <v>313</v>
-      </c>
-      <c r="I19" t="s">
-        <v>316</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
@@ -7581,7 +7634,7 @@
         <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P19" t="b">
         <f>TRUE()</f>
@@ -7613,13 +7666,13 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -7628,16 +7681,16 @@
         <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
@@ -7669,43 +7722,43 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" t="s">
         <v>322</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F21" t="s">
         <v>323</v>
       </c>
-      <c r="C21" t="s">
+      <c r="G21" t="s">
         <v>324</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
+        <v>320</v>
+      </c>
+      <c r="I21" t="s">
         <v>325</v>
       </c>
-      <c r="E21" t="s">
-        <v>325</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
         <v>326</v>
-      </c>
-      <c r="G21" t="s">
-        <v>327</v>
-      </c>
-      <c r="H21" t="s">
-        <v>323</v>
-      </c>
-      <c r="I21" t="s">
-        <v>328</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" t="s">
-        <v>329</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P21" t="b">
         <f>TRUE()</f>
@@ -7737,43 +7790,43 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" t="s">
         <v>322</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G22" t="s">
         <v>330</v>
       </c>
-      <c r="C22" t="s">
+      <c r="H22" t="s">
+        <v>327</v>
+      </c>
+      <c r="I22" t="s">
         <v>331</v>
       </c>
-      <c r="D22" t="s">
-        <v>325</v>
-      </c>
-      <c r="E22" t="s">
-        <v>325</v>
-      </c>
-      <c r="F22" t="s">
-        <v>332</v>
-      </c>
-      <c r="G22" t="s">
-        <v>333</v>
-      </c>
-      <c r="H22" t="s">
-        <v>330</v>
-      </c>
-      <c r="I22" t="s">
-        <v>334</v>
-      </c>
       <c r="J22" t="s">
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M22" t="s">
         <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P22" t="b">
         <f>TRUE()</f>
@@ -7805,13 +7858,13 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D23" t="s">
         <v>145</v>
@@ -7820,16 +7873,16 @@
         <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -7870,13 +7923,13 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D24" t="s">
         <v>145</v>
@@ -7885,16 +7938,16 @@
         <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G24" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I24" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
@@ -7935,13 +7988,13 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
@@ -7950,16 +8003,16 @@
         <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -8000,13 +8053,13 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B26" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C26" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D26" t="s">
         <v>145</v>
@@ -8015,16 +8068,16 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H26" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I26" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J26" t="s">
         <v>31</v>
@@ -8065,37 +8118,37 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E27" t="s">
         <v>76</v>
       </c>
       <c r="F27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J27" t="s">
         <v>31</v>
       </c>
       <c r="N27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P27" t="b">
         <f>TRUE()</f>
@@ -8121,43 +8174,43 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" t="s">
+        <v>360</v>
+      </c>
+      <c r="D28" t="s">
         <v>361</v>
-      </c>
-      <c r="B28" t="s">
-        <v>362</v>
-      </c>
-      <c r="C28" t="s">
-        <v>363</v>
-      </c>
-      <c r="D28" t="s">
-        <v>364</v>
       </c>
       <c r="E28" t="s">
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H28" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M28" t="s">
         <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P28" t="b">
         <f>TRUE()</f>
@@ -8189,13 +8242,13 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D29" t="s">
         <v>131</v>
@@ -8204,22 +8257,22 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J29" t="s">
         <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M29" t="s">
         <v>51</v>
@@ -8257,43 +8310,43 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C30" t="s">
+        <v>371</v>
+      </c>
+      <c r="D30" t="s">
         <v>361</v>
-      </c>
-      <c r="B30" t="s">
-        <v>373</v>
-      </c>
-      <c r="C30" t="s">
-        <v>374</v>
-      </c>
-      <c r="D30" t="s">
-        <v>364</v>
       </c>
       <c r="E30" t="s">
         <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H30" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I30" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J30" t="s">
         <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M30" t="s">
         <v>51</v>
       </c>
       <c r="N30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P30" t="b">
         <f>TRUE()</f>
@@ -8325,13 +8378,13 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C31" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D31" t="s">
         <v>131</v>
@@ -8340,22 +8393,22 @@
         <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I31" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J31" t="s">
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M31" t="s">
         <v>51</v>
@@ -8393,43 +8446,43 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>380</v>
+      </c>
+      <c r="B32" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" t="s">
+        <v>382</v>
+      </c>
+      <c r="D32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E32" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" t="s">
         <v>383</v>
       </c>
-      <c r="B32" t="s">
+      <c r="G32" t="s">
         <v>384</v>
       </c>
-      <c r="C32" t="s">
+      <c r="H32" t="s">
+        <v>381</v>
+      </c>
+      <c r="I32" t="s">
         <v>385</v>
       </c>
-      <c r="D32" t="s">
-        <v>325</v>
-      </c>
-      <c r="E32" t="s">
-        <v>325</v>
-      </c>
-      <c r="F32" t="s">
-        <v>386</v>
-      </c>
-      <c r="G32" t="s">
-        <v>387</v>
-      </c>
-      <c r="H32" t="s">
-        <v>384</v>
-      </c>
-      <c r="I32" t="s">
-        <v>388</v>
-      </c>
       <c r="J32" t="s">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
       </c>
       <c r="N32" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P32" t="b">
         <f>TRUE()</f>
@@ -8461,43 +8514,43 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B33" t="s">
+        <v>386</v>
+      </c>
+      <c r="C33" t="s">
+        <v>387</v>
+      </c>
+      <c r="D33" t="s">
+        <v>322</v>
+      </c>
+      <c r="E33" t="s">
+        <v>322</v>
+      </c>
+      <c r="F33" t="s">
+        <v>388</v>
+      </c>
+      <c r="G33" t="s">
         <v>389</v>
       </c>
-      <c r="C33" t="s">
+      <c r="H33" t="s">
+        <v>386</v>
+      </c>
+      <c r="I33" t="s">
         <v>390</v>
       </c>
-      <c r="D33" t="s">
-        <v>325</v>
-      </c>
-      <c r="E33" t="s">
-        <v>325</v>
-      </c>
-      <c r="F33" t="s">
-        <v>391</v>
-      </c>
-      <c r="G33" t="s">
-        <v>392</v>
-      </c>
-      <c r="H33" t="s">
-        <v>389</v>
-      </c>
-      <c r="I33" t="s">
-        <v>393</v>
-      </c>
       <c r="J33" t="s">
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s">
         <v>51</v>
       </c>
       <c r="N33" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P33" t="b">
         <f>TRUE()</f>
@@ -8529,43 +8582,43 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C34" t="s">
+        <v>392</v>
+      </c>
+      <c r="D34" t="s">
+        <v>322</v>
+      </c>
+      <c r="E34" t="s">
+        <v>322</v>
+      </c>
+      <c r="F34" t="s">
+        <v>393</v>
+      </c>
+      <c r="G34" t="s">
         <v>394</v>
       </c>
-      <c r="C34" t="s">
+      <c r="H34" t="s">
+        <v>391</v>
+      </c>
+      <c r="I34" t="s">
         <v>395</v>
       </c>
-      <c r="D34" t="s">
-        <v>325</v>
-      </c>
-      <c r="E34" t="s">
-        <v>325</v>
-      </c>
-      <c r="F34" t="s">
-        <v>396</v>
-      </c>
-      <c r="G34" t="s">
-        <v>397</v>
-      </c>
-      <c r="H34" t="s">
-        <v>394</v>
-      </c>
-      <c r="I34" t="s">
-        <v>398</v>
-      </c>
       <c r="J34" t="s">
         <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s">
         <v>51</v>
       </c>
       <c r="N34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P34" t="b">
         <f>TRUE()</f>
@@ -8597,43 +8650,43 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B35" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C35" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E35" t="s">
         <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G35" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H35" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J35" t="s">
         <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s">
         <v>51</v>
       </c>
       <c r="N35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P35" t="b">
         <f>TRUE()</f>
@@ -8665,13 +8718,13 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B36" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C36" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D36" t="s">
         <v>131</v>
@@ -8680,22 +8733,22 @@
         <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G36" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H36" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I36" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s">
         <v>51</v>
@@ -8733,43 +8786,43 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B37" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C37" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E37" t="s">
         <v>64</v>
       </c>
       <c r="F37" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H37" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I37" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J37" t="s">
         <v>31</v>
       </c>
       <c r="L37" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s">
         <v>51</v>
       </c>
       <c r="N37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P37" t="b">
         <f>TRUE()</f>
@@ -8801,13 +8854,13 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B38" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D38" t="s">
         <v>131</v>
@@ -8816,22 +8869,22 @@
         <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G38" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H38" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I38" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M38" t="s">
         <v>51</v>
@@ -8869,43 +8922,43 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B39" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D39" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E39" t="s">
         <v>64</v>
       </c>
       <c r="F39" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G39" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H39" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J39" t="s">
         <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s">
         <v>51</v>
       </c>
       <c r="N39" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P39" t="b">
         <f>TRUE()</f>
@@ -8937,13 +8990,13 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C40" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D40" t="s">
         <v>131</v>
@@ -8952,22 +9005,22 @@
         <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H40" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I40" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J40" t="s">
         <v>31</v>
       </c>
       <c r="L40" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s">
         <v>51</v>
@@ -9011,7 +9064,7 @@
         <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D41" t="s">
         <v>131</v>
@@ -9020,16 +9073,16 @@
         <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G41" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H41" t="s">
         <v>139</v>
       </c>
       <c r="I41" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J41" t="s">
         <v>31</v>
@@ -9076,7 +9129,7 @@
         <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D42" t="s">
         <v>131</v>
@@ -9085,16 +9138,16 @@
         <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G42" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H42" t="s">
         <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J42" t="s">
         <v>31</v>
@@ -9141,7 +9194,7 @@
         <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D43" t="s">
         <v>131</v>
@@ -9150,16 +9203,16 @@
         <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G43" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H43" t="s">
         <v>136</v>
       </c>
       <c r="I43" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J43" t="s">
         <v>31</v>
@@ -9203,10 +9256,10 @@
         <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C44" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D44" t="s">
         <v>131</v>
@@ -9215,16 +9268,16 @@
         <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G44" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H44" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I44" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J44" t="s">
         <v>31</v>
@@ -9265,13 +9318,13 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D45" t="s">
         <v>145</v>
@@ -9280,16 +9333,16 @@
         <v>76</v>
       </c>
       <c r="F45" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G45" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H45" t="s">
         <v>143</v>
       </c>
       <c r="I45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J45" t="s">
         <v>31</v>
@@ -9330,13 +9383,13 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C46" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D46" t="s">
         <v>145</v>
@@ -9345,16 +9398,16 @@
         <v>76</v>
       </c>
       <c r="F46" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G46" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I46" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J46" t="s">
         <v>31</v>
@@ -9395,13 +9448,13 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B47" t="s">
         <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D47" t="s">
         <v>145</v>
@@ -9410,16 +9463,16 @@
         <v>76</v>
       </c>
       <c r="F47" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G47" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H47" t="s">
         <v>153</v>
       </c>
       <c r="I47" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J47" t="s">
         <v>31</v>
@@ -9460,13 +9513,13 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B48" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C48" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D48" t="s">
         <v>145</v>
@@ -9475,16 +9528,16 @@
         <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G48" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H48" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I48" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J48" t="s">
         <v>31</v>
@@ -9525,31 +9578,31 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B49" t="s">
         <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D49" t="s">
         <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F49" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G49" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H49" t="s">
         <v>114</v>
       </c>
       <c r="I49" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J49" t="s">
         <v>31</v>
@@ -9590,13 +9643,13 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B50" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C50" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D50" t="s">
         <v>145</v>
@@ -9605,16 +9658,16 @@
         <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G50" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H50" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I50" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J50" t="s">
         <v>31</v>
@@ -9655,13 +9708,13 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D51" t="s">
         <v>145</v>
@@ -9670,16 +9723,16 @@
         <v>76</v>
       </c>
       <c r="F51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G51" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J51" t="s">
         <v>31</v>
@@ -9720,13 +9773,13 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B52" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D52" t="s">
         <v>145</v>
@@ -9735,16 +9788,16 @@
         <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G52" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H52" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I52" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J52" t="s">
         <v>31</v>
@@ -9785,13 +9838,13 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B53" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C53" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D53" t="s">
         <v>145</v>
@@ -9800,16 +9853,16 @@
         <v>76</v>
       </c>
       <c r="F53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G53" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H53" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I53" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J53" t="s">
         <v>31</v>
@@ -9850,31 +9903,31 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>496</v>
+      </c>
+      <c r="B54" t="s">
+        <v>497</v>
+      </c>
+      <c r="C54" t="s">
+        <v>498</v>
+      </c>
+      <c r="D54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" t="s">
         <v>499</v>
       </c>
-      <c r="B54" t="s">
+      <c r="F54" t="s">
         <v>500</v>
       </c>
-      <c r="C54" t="s">
+      <c r="G54" t="s">
         <v>501</v>
       </c>
-      <c r="D54" t="s">
-        <v>279</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
+        <v>497</v>
+      </c>
+      <c r="I54" t="s">
         <v>502</v>
-      </c>
-      <c r="F54" t="s">
-        <v>503</v>
-      </c>
-      <c r="G54" t="s">
-        <v>504</v>
-      </c>
-      <c r="H54" t="s">
-        <v>500</v>
-      </c>
-      <c r="I54" t="s">
-        <v>505</v>
       </c>
       <c r="J54" t="s">
         <v>31</v>
@@ -9883,7 +9936,7 @@
         <v>51</v>
       </c>
       <c r="N54" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P54" t="b">
         <f>TRUE()</f>
@@ -9915,31 +9968,31 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>503</v>
+      </c>
+      <c r="B55" t="s">
+        <v>504</v>
+      </c>
+      <c r="C55" t="s">
+        <v>505</v>
+      </c>
+      <c r="D55" t="s">
         <v>506</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" t="s">
         <v>507</v>
       </c>
-      <c r="C55" t="s">
+      <c r="G55" t="s">
         <v>508</v>
       </c>
-      <c r="D55" t="s">
+      <c r="H55" t="s">
+        <v>504</v>
+      </c>
+      <c r="I55" t="s">
         <v>509</v>
-      </c>
-      <c r="E55" t="s">
-        <v>182</v>
-      </c>
-      <c r="F55" t="s">
-        <v>510</v>
-      </c>
-      <c r="G55" t="s">
-        <v>511</v>
-      </c>
-      <c r="H55" t="s">
-        <v>507</v>
-      </c>
-      <c r="I55" t="s">
-        <v>512</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
@@ -9948,7 +10001,7 @@
         <v>101</v>
       </c>
       <c r="N55" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P55" t="b">
         <f>TRUE()</f>
@@ -9980,31 +10033,31 @@
         <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D56" t="s">
         <v>121</v>
       </c>
       <c r="E56" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F56" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G56" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H56" t="s">
         <v>119</v>
       </c>
       <c r="I56" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
       </c>
       <c r="L56" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M56" t="s">
         <v>51</v>
@@ -10045,40 +10098,40 @@
         <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C57" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D57" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E57" t="s">
         <v>81</v>
       </c>
       <c r="F57" t="s">
+        <v>519</v>
+      </c>
+      <c r="G57" t="s">
+        <v>520</v>
+      </c>
+      <c r="H57" t="s">
+        <v>516</v>
+      </c>
+      <c r="I57" t="s">
+        <v>521</v>
+      </c>
+      <c r="J57" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" t="s">
         <v>522</v>
-      </c>
-      <c r="G57" t="s">
-        <v>523</v>
-      </c>
-      <c r="H57" t="s">
-        <v>519</v>
-      </c>
-      <c r="I57" t="s">
-        <v>524</v>
-      </c>
-      <c r="J57" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" t="s">
-        <v>525</v>
       </c>
       <c r="M57" t="s">
         <v>51</v>
       </c>
       <c r="N57" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="P57" t="b">
         <f>TRUE()</f>
@@ -10110,13 +10163,13 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B58" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C58" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D58" t="s">
         <v>70</v>
@@ -10125,16 +10178,16 @@
         <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G58" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H58" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I58" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J58" t="s">
         <v>31</v>
@@ -10166,37 +10219,37 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B59" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C59" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
         <v>76</v>
       </c>
       <c r="F59" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G59" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H59" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I59" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J59" t="s">
         <v>31</v>
       </c>
       <c r="N59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P59" t="b">
         <f>TRUE()</f>
@@ -10222,31 +10275,31 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B60" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C60" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E60" t="s">
         <v>76</v>
       </c>
       <c r="F60" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G60" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H60" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I60" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J60" t="s">
         <v>31</v>
@@ -10255,7 +10308,7 @@
         <v>51</v>
       </c>
       <c r="N60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P60" t="b">
         <f>TRUE()</f>
@@ -10287,31 +10340,31 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B61" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C61" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D61" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E61" t="s">
         <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G61" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H61" t="s">
+        <v>540</v>
+      </c>
+      <c r="I61" t="s">
         <v>543</v>
-      </c>
-      <c r="I61" t="s">
-        <v>546</v>
       </c>
       <c r="J61" t="s">
         <v>31</v>
@@ -10320,7 +10373,7 @@
         <v>51</v>
       </c>
       <c r="N61" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P61" t="b">
         <f>TRUE()</f>
@@ -10352,31 +10405,31 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" t="s">
+        <v>544</v>
+      </c>
+      <c r="D62" t="s">
         <v>210</v>
-      </c>
-      <c r="B62" t="s">
-        <v>211</v>
-      </c>
-      <c r="C62" t="s">
-        <v>547</v>
-      </c>
-      <c r="D62" t="s">
-        <v>213</v>
       </c>
       <c r="E62" t="s">
         <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G62" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H62" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I62" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J62" t="s">
         <v>31</v>
@@ -10385,7 +10438,7 @@
         <v>51</v>
       </c>
       <c r="N62" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P62" t="b">
         <f>TRUE()</f>
@@ -10417,43 +10470,43 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B63" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C63" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D63" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E63" t="s">
         <v>64</v>
       </c>
       <c r="F63" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G63" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H63" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I63" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J63" t="s">
         <v>31</v>
       </c>
       <c r="L63" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M63" t="s">
         <v>51</v>
       </c>
       <c r="N63" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P63" t="b">
         <f>TRUE()</f>
@@ -10485,13 +10538,13 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B64" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C64" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D64" t="s">
         <v>131</v>
@@ -10500,22 +10553,22 @@
         <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G64" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H64" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I64" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J64" t="s">
         <v>31</v>
       </c>
       <c r="L64" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M64" t="s">
         <v>51</v>
@@ -10553,37 +10606,37 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B65" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C65" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D65" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E65" t="s">
         <v>76</v>
       </c>
       <c r="F65" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G65" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H65" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I65" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="J65" t="s">
         <v>31</v>
       </c>
       <c r="N65" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P65" t="b">
         <f>TRUE()</f>
@@ -10609,37 +10662,37 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B66" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C66" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D66" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E66" t="s">
         <v>76</v>
       </c>
       <c r="F66" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G66" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H66" t="s">
+        <v>566</v>
+      </c>
+      <c r="I66" t="s">
         <v>569</v>
       </c>
-      <c r="I66" t="s">
-        <v>572</v>
-      </c>
       <c r="J66" t="s">
         <v>31</v>
       </c>
       <c r="N66" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P66" t="b">
         <f>TRUE()</f>
@@ -10668,28 +10721,28 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C67" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D67" t="s">
         <v>43</v>
       </c>
       <c r="E67" t="s">
+        <v>572</v>
+      </c>
+      <c r="F67" t="s">
+        <v>573</v>
+      </c>
+      <c r="G67" t="s">
+        <v>574</v>
+      </c>
+      <c r="H67" t="s">
+        <v>570</v>
+      </c>
+      <c r="I67" t="s">
         <v>575</v>
-      </c>
-      <c r="F67" t="s">
-        <v>576</v>
-      </c>
-      <c r="G67" t="s">
-        <v>577</v>
-      </c>
-      <c r="H67" t="s">
-        <v>573</v>
-      </c>
-      <c r="I67" t="s">
-        <v>578</v>
       </c>
       <c r="J67" t="s">
         <v>31</v>
@@ -10718,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="X67">
         <v>952</v>
@@ -10729,13 +10782,13 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B68" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C68" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D68" t="s">
         <v>145</v>
@@ -10744,16 +10797,16 @@
         <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G68" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H68" t="s">
+        <v>578</v>
+      </c>
+      <c r="I68" t="s">
         <v>581</v>
-      </c>
-      <c r="I68" t="s">
-        <v>584</v>
       </c>
       <c r="J68" t="s">
         <v>31</v>
@@ -10794,31 +10847,31 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
+        <v>582</v>
+      </c>
+      <c r="B69" t="s">
+        <v>583</v>
+      </c>
+      <c r="C69" t="s">
+        <v>584</v>
+      </c>
+      <c r="D69" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" t="s">
         <v>585</v>
       </c>
-      <c r="B69" t="s">
+      <c r="F69" t="s">
         <v>586</v>
       </c>
-      <c r="C69" t="s">
+      <c r="G69" t="s">
         <v>587</v>
       </c>
-      <c r="D69" t="s">
-        <v>279</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="H69" t="s">
+        <v>583</v>
+      </c>
+      <c r="I69" t="s">
         <v>588</v>
-      </c>
-      <c r="F69" t="s">
-        <v>589</v>
-      </c>
-      <c r="G69" t="s">
-        <v>590</v>
-      </c>
-      <c r="H69" t="s">
-        <v>586</v>
-      </c>
-      <c r="I69" t="s">
-        <v>591</v>
       </c>
       <c r="J69" t="s">
         <v>31</v>
@@ -10827,7 +10880,7 @@
         <v>51</v>
       </c>
       <c r="N69" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P69" t="b">
         <f>TRUE()</f>
@@ -10865,25 +10918,25 @@
         <v>96</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>31</v>
@@ -10895,7 +10948,7 @@
         <v>51</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P70" s="3" t="b">
         <f>TRUE()</f>
@@ -10918,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="X70" s="3">
         <v>144</v>
@@ -10936,28 +10989,28 @@
         <v>95</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="H71" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>603</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>31</v>
@@ -10966,7 +11019,7 @@
         <v>51</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="P71" s="3" t="b">
         <f>TRUE()</f>
@@ -11004,7 +11057,7 @@
         <v>107</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>109</v>
@@ -11013,16 +11066,16 @@
         <v>64</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>107</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>31</v>
@@ -11069,25 +11122,25 @@
         <v>102</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>102</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>31</v>
@@ -11099,7 +11152,7 @@
         <v>51</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P73" s="3" t="b">
         <f>TRUE()</f>
@@ -11122,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="X73" s="3">
         <v>120</v>
@@ -11143,7 +11196,7 @@
         <v>111</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>98</v>
@@ -11152,16 +11205,16 @@
         <v>99</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>111</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>31</v>
@@ -11202,37 +11255,37 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
+        <v>613</v>
+      </c>
+      <c r="B75" t="s">
+        <v>614</v>
+      </c>
+      <c r="C75" t="s">
+        <v>615</v>
+      </c>
+      <c r="D75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" t="s">
+        <v>499</v>
+      </c>
+      <c r="F75" t="s">
         <v>616</v>
       </c>
-      <c r="B75" t="s">
+      <c r="G75" t="s">
         <v>617</v>
       </c>
-      <c r="C75" t="s">
+      <c r="H75" t="s">
+        <v>614</v>
+      </c>
+      <c r="I75" t="s">
         <v>618</v>
       </c>
-      <c r="D75" t="s">
-        <v>291</v>
-      </c>
-      <c r="E75" t="s">
-        <v>502</v>
-      </c>
-      <c r="F75" t="s">
-        <v>619</v>
-      </c>
-      <c r="G75" t="s">
-        <v>620</v>
-      </c>
-      <c r="H75" t="s">
-        <v>617</v>
-      </c>
-      <c r="I75" t="s">
-        <v>621</v>
-      </c>
       <c r="J75" t="s">
         <v>31</v>
       </c>
       <c r="N75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P75" t="b">
         <f>TRUE()</f>
@@ -11264,25 +11317,25 @@
         <v>50</v>
       </c>
       <c r="C76" t="s">
+        <v>619</v>
+      </c>
+      <c r="D76" t="s">
+        <v>620</v>
+      </c>
+      <c r="E76" t="s">
+        <v>322</v>
+      </c>
+      <c r="F76" t="s">
+        <v>621</v>
+      </c>
+      <c r="G76" t="s">
         <v>622</v>
-      </c>
-      <c r="D76" t="s">
-        <v>623</v>
-      </c>
-      <c r="E76" t="s">
-        <v>325</v>
-      </c>
-      <c r="F76" t="s">
-        <v>624</v>
-      </c>
-      <c r="G76" t="s">
-        <v>625</v>
       </c>
       <c r="H76" t="s">
         <v>50</v>
       </c>
       <c r="I76" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J76" t="s">
         <v>31</v>
@@ -11291,7 +11344,7 @@
         <v>51</v>
       </c>
       <c r="N76" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="P76" t="b">
         <f>TRUE()</f>
@@ -11329,25 +11382,25 @@
         <v>52</v>
       </c>
       <c r="C77" t="s">
+        <v>624</v>
+      </c>
+      <c r="D77" t="s">
+        <v>625</v>
+      </c>
+      <c r="E77" t="s">
+        <v>322</v>
+      </c>
+      <c r="F77" t="s">
+        <v>626</v>
+      </c>
+      <c r="G77" t="s">
         <v>627</v>
-      </c>
-      <c r="D77" t="s">
-        <v>628</v>
-      </c>
-      <c r="E77" t="s">
-        <v>325</v>
-      </c>
-      <c r="F77" t="s">
-        <v>629</v>
-      </c>
-      <c r="G77" t="s">
-        <v>630</v>
       </c>
       <c r="H77" t="s">
         <v>52</v>
       </c>
       <c r="I77" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J77" t="s">
         <v>31</v>
@@ -11356,7 +11409,7 @@
         <v>51</v>
       </c>
       <c r="N77" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="P77" t="b">
         <f>TRUE()</f>
@@ -11394,31 +11447,31 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
+        <v>629</v>
+      </c>
+      <c r="D78" t="s">
+        <v>630</v>
+      </c>
+      <c r="E78" t="s">
+        <v>322</v>
+      </c>
+      <c r="F78" t="s">
+        <v>631</v>
+      </c>
+      <c r="G78" t="s">
         <v>632</v>
-      </c>
-      <c r="D78" t="s">
-        <v>633</v>
-      </c>
-      <c r="E78" t="s">
-        <v>325</v>
-      </c>
-      <c r="F78" t="s">
-        <v>634</v>
-      </c>
-      <c r="G78" t="s">
-        <v>635</v>
       </c>
       <c r="H78" t="s">
         <v>54</v>
       </c>
       <c r="I78" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J78" t="s">
         <v>31</v>
       </c>
       <c r="N78" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="P78" t="b">
         <f>TRUE()</f>
@@ -11450,31 +11503,31 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D79" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E79" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F79" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G79" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H79" t="s">
         <v>57</v>
       </c>
       <c r="I79" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J79" t="s">
         <v>31</v>
       </c>
       <c r="N79" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="P79" t="b">
         <f>TRUE()</f>
@@ -11503,28 +11556,28 @@
         <v>156</v>
       </c>
       <c r="B80" t="s">
+        <v>638</v>
+      </c>
+      <c r="C80" t="s">
+        <v>639</v>
+      </c>
+      <c r="D80" t="s">
+        <v>640</v>
+      </c>
+      <c r="E80" t="s">
+        <v>597</v>
+      </c>
+      <c r="F80" t="s">
         <v>641</v>
       </c>
-      <c r="C80" t="s">
+      <c r="G80" t="s">
         <v>642</v>
       </c>
-      <c r="D80" t="s">
+      <c r="H80" t="s">
+        <v>638</v>
+      </c>
+      <c r="I80" t="s">
         <v>643</v>
-      </c>
-      <c r="E80" t="s">
-        <v>600</v>
-      </c>
-      <c r="F80" t="s">
-        <v>644</v>
-      </c>
-      <c r="G80" t="s">
-        <v>645</v>
-      </c>
-      <c r="H80" t="s">
-        <v>641</v>
-      </c>
-      <c r="I80" t="s">
-        <v>646</v>
       </c>
       <c r="J80" t="s">
         <v>31</v>
@@ -11533,7 +11586,7 @@
         <v>51</v>
       </c>
       <c r="N80" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="P80" t="b">
         <f>TRUE()</f>
@@ -11571,7 +11624,7 @@
         <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D81" t="s">
         <v>81</v>
@@ -11580,22 +11633,22 @@
         <v>81</v>
       </c>
       <c r="F81" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G81" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H81" t="s">
         <v>157</v>
       </c>
       <c r="I81" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J81" t="s">
         <v>31</v>
       </c>
       <c r="L81" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M81" t="s">
         <v>51</v>
@@ -11636,10 +11689,10 @@
         <v>156</v>
       </c>
       <c r="B82" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C82" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D82" t="s">
         <v>163</v>
@@ -11648,22 +11701,22 @@
         <v>70</v>
       </c>
       <c r="F82" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G82" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H82" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="I82" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="J82" t="s">
         <v>31</v>
       </c>
       <c r="L82" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M82" t="s">
         <v>51</v>
@@ -11701,37 +11754,37 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B83" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C83" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D83" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E83" t="s">
         <v>76</v>
       </c>
       <c r="F83" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G83" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H83" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I83" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J83" t="s">
         <v>31</v>
       </c>
       <c r="N83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P83" t="b">
         <f>TRUE()</f>
@@ -11760,40 +11813,40 @@
         <v>78</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="H84" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>667</v>
-      </c>
       <c r="J84" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P84" s="4" t="b">
         <f>TRUE()</f>
@@ -11828,10 +11881,10 @@
         <v>78</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>70</v>
@@ -11840,16 +11893,16 @@
         <v>70</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>31</v>
@@ -11893,10 +11946,10 @@
         <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>70</v>
@@ -11905,16 +11958,16 @@
         <v>70</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>31</v>
@@ -11961,37 +12014,37 @@
         <v>87</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P87" s="4" t="b">
         <f>TRUE()</f>
@@ -12029,7 +12082,7 @@
         <v>79</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>81</v>
@@ -12038,22 +12091,22 @@
         <v>81</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>79</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>51</v>
@@ -12097,37 +12150,37 @@
         <v>84</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="P89" s="4" t="b">
         <f>TRUE()</f>
@@ -12165,25 +12218,25 @@
         <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D90" t="s">
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F90" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G90" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
       </c>
       <c r="I90" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J90" t="s">
         <v>31</v>
@@ -12218,37 +12271,37 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
+        <v>693</v>
+      </c>
+      <c r="C91" t="s">
+        <v>694</v>
+      </c>
+      <c r="D91" t="s">
+        <v>695</v>
+      </c>
+      <c r="E91" t="s">
         <v>696</v>
       </c>
-      <c r="C91" t="s">
+      <c r="F91" t="s">
         <v>697</v>
       </c>
-      <c r="D91" t="s">
+      <c r="G91" t="s">
         <v>698</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
+        <v>693</v>
+      </c>
+      <c r="I91" t="s">
         <v>699</v>
       </c>
-      <c r="F91" t="s">
+      <c r="J91" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" t="s">
         <v>700</v>
       </c>
-      <c r="G91" t="s">
-        <v>701</v>
-      </c>
-      <c r="H91" t="s">
-        <v>696</v>
-      </c>
-      <c r="I91" t="s">
-        <v>702</v>
-      </c>
-      <c r="J91" t="s">
-        <v>31</v>
-      </c>
-      <c r="L91" t="s">
-        <v>703</v>
-      </c>
       <c r="N91" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="P91" t="b">
         <f>TRUE()</f>
@@ -12277,34 +12330,34 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
+        <v>701</v>
+      </c>
+      <c r="C92" t="s">
+        <v>702</v>
+      </c>
+      <c r="D92" t="s">
+        <v>703</v>
+      </c>
+      <c r="E92" t="s">
+        <v>703</v>
+      </c>
+      <c r="F92" t="s">
         <v>704</v>
       </c>
-      <c r="C92" t="s">
+      <c r="G92" t="s">
         <v>705</v>
       </c>
-      <c r="D92" t="s">
+      <c r="H92" t="s">
+        <v>701</v>
+      </c>
+      <c r="I92" t="s">
         <v>706</v>
       </c>
-      <c r="E92" t="s">
-        <v>706</v>
-      </c>
-      <c r="F92" t="s">
-        <v>707</v>
-      </c>
-      <c r="G92" t="s">
-        <v>708</v>
-      </c>
-      <c r="H92" t="s">
-        <v>704</v>
-      </c>
-      <c r="I92" t="s">
-        <v>709</v>
-      </c>
       <c r="J92" t="s">
         <v>31</v>
       </c>
       <c r="O92" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="P92" t="b">
         <f>TRUE()</f>
@@ -12323,37 +12376,37 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
+        <v>707</v>
+      </c>
+      <c r="C93" t="s">
+        <v>708</v>
+      </c>
+      <c r="D93" t="s">
+        <v>703</v>
+      </c>
+      <c r="E93" t="s">
+        <v>703</v>
+      </c>
+      <c r="F93" t="s">
+        <v>709</v>
+      </c>
+      <c r="G93" t="s">
         <v>710</v>
       </c>
-      <c r="C93" t="s">
+      <c r="H93" t="s">
+        <v>707</v>
+      </c>
+      <c r="I93" t="s">
         <v>711</v>
       </c>
-      <c r="D93" t="s">
-        <v>706</v>
-      </c>
-      <c r="E93" t="s">
-        <v>706</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="J93" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" t="s">
         <v>712</v>
       </c>
-      <c r="G93" t="s">
-        <v>713</v>
-      </c>
-      <c r="H93" t="s">
-        <v>710</v>
-      </c>
-      <c r="I93" t="s">
-        <v>714</v>
-      </c>
-      <c r="J93" t="s">
-        <v>31</v>
-      </c>
-      <c r="L93" t="s">
-        <v>715</v>
-      </c>
       <c r="O93" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="P93" t="b">
         <f>TRUE()</f>
@@ -12369,31 +12422,31 @@
     </row>
     <row r="94" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E94" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="I94" s="5" t="s">
         <v>719</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>722</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>31</v>
@@ -12425,13 +12478,13 @@
     </row>
     <row r="95" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>70</v>
@@ -12440,16 +12493,16 @@
         <v>47</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>31</v>
@@ -12487,7 +12540,7 @@
         <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D96" t="s">
         <v>63</v>
@@ -12496,16 +12549,16 @@
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G96" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H96" t="s">
         <v>61</v>
       </c>
       <c r="I96" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J96" t="s">
         <v>31</v>
@@ -12552,7 +12605,7 @@
         <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D97" t="s">
         <v>69</v>
@@ -12561,16 +12614,16 @@
         <v>70</v>
       </c>
       <c r="F97" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G97" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="H97" t="s">
         <v>67</v>
       </c>
       <c r="I97" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="J97" t="s">
         <v>31</v>
@@ -12614,28 +12667,28 @@
         <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C98" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D98" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E98" t="s">
         <v>70</v>
       </c>
       <c r="F98" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G98" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H98" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="I98" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J98" t="s">
         <v>31</v>
@@ -12644,7 +12697,7 @@
         <v>51</v>
       </c>
       <c r="N98" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="P98" t="b">
         <f>TRUE()</f>
@@ -12676,40 +12729,40 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
+        <v>738</v>
+      </c>
+      <c r="B99" t="s">
+        <v>739</v>
+      </c>
+      <c r="C99" t="s">
+        <v>740</v>
+      </c>
+      <c r="D99" t="s">
         <v>741</v>
       </c>
-      <c r="B99" t="s">
+      <c r="E99" t="s">
         <v>742</v>
       </c>
-      <c r="C99" t="s">
+      <c r="F99" t="s">
         <v>743</v>
       </c>
-      <c r="D99" t="s">
+      <c r="G99" t="s">
         <v>744</v>
       </c>
-      <c r="E99" t="s">
+      <c r="H99" t="s">
+        <v>739</v>
+      </c>
+      <c r="I99" t="s">
         <v>745</v>
       </c>
-      <c r="F99" t="s">
-        <v>746</v>
-      </c>
-      <c r="G99" t="s">
-        <v>747</v>
-      </c>
-      <c r="H99" t="s">
-        <v>742</v>
-      </c>
-      <c r="I99" t="s">
-        <v>748</v>
-      </c>
       <c r="J99" t="s">
         <v>31</v>
       </c>
       <c r="L99" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N99" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="P99" t="b">
         <f>TRUE()</f>
@@ -12729,40 +12782,40 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
+        <v>738</v>
+      </c>
+      <c r="B100" t="s">
+        <v>746</v>
+      </c>
+      <c r="C100" t="s">
+        <v>747</v>
+      </c>
+      <c r="D100" t="s">
         <v>741</v>
       </c>
-      <c r="B100" t="s">
+      <c r="E100" t="s">
+        <v>748</v>
+      </c>
+      <c r="F100" t="s">
         <v>749</v>
       </c>
-      <c r="C100" t="s">
+      <c r="G100" t="s">
         <v>750</v>
       </c>
-      <c r="D100" t="s">
-        <v>744</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="H100" t="s">
+        <v>746</v>
+      </c>
+      <c r="I100" t="s">
         <v>751</v>
       </c>
-      <c r="F100" t="s">
-        <v>752</v>
-      </c>
-      <c r="G100" t="s">
-        <v>753</v>
-      </c>
-      <c r="H100" t="s">
-        <v>749</v>
-      </c>
-      <c r="I100" t="s">
-        <v>754</v>
-      </c>
       <c r="J100" t="s">
         <v>31</v>
       </c>
       <c r="L100" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N100" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="P100" t="b">
         <f>TRUE()</f>
@@ -12782,40 +12835,40 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B101" t="s">
+        <v>752</v>
+      </c>
+      <c r="C101" t="s">
+        <v>753</v>
+      </c>
+      <c r="D101" t="s">
+        <v>754</v>
+      </c>
+      <c r="E101" t="s">
+        <v>754</v>
+      </c>
+      <c r="F101" t="s">
         <v>755</v>
       </c>
-      <c r="C101" t="s">
+      <c r="G101" t="s">
         <v>756</v>
       </c>
-      <c r="D101" t="s">
+      <c r="H101" t="s">
+        <v>752</v>
+      </c>
+      <c r="I101" t="s">
         <v>757</v>
       </c>
-      <c r="E101" t="s">
-        <v>757</v>
-      </c>
-      <c r="F101" t="s">
-        <v>758</v>
-      </c>
-      <c r="G101" t="s">
-        <v>759</v>
-      </c>
-      <c r="H101" t="s">
-        <v>755</v>
-      </c>
-      <c r="I101" t="s">
-        <v>760</v>
-      </c>
       <c r="J101" t="s">
         <v>31</v>
       </c>
       <c r="L101" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N101" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="P101" t="b">
         <f>TRUE()</f>
@@ -12835,40 +12888,40 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
+        <v>758</v>
+      </c>
+      <c r="C102" t="s">
+        <v>759</v>
+      </c>
+      <c r="D102" t="s">
+        <v>322</v>
+      </c>
+      <c r="E102" t="s">
+        <v>322</v>
+      </c>
+      <c r="F102" t="s">
+        <v>760</v>
+      </c>
+      <c r="G102" t="s">
         <v>761</v>
       </c>
-      <c r="C102" t="s">
+      <c r="H102" t="s">
+        <v>758</v>
+      </c>
+      <c r="I102" t="s">
         <v>762</v>
       </c>
-      <c r="D102" t="s">
-        <v>325</v>
-      </c>
-      <c r="E102" t="s">
-        <v>325</v>
-      </c>
-      <c r="F102" t="s">
-        <v>763</v>
-      </c>
-      <c r="G102" t="s">
-        <v>764</v>
-      </c>
-      <c r="H102" t="s">
-        <v>761</v>
-      </c>
-      <c r="I102" t="s">
-        <v>765</v>
-      </c>
       <c r="J102" t="s">
         <v>31</v>
       </c>
       <c r="L102" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M102" t="s">
         <v>51</v>
       </c>
       <c r="N102" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P102" t="b">
         <f>TRUE()</f>
@@ -12900,34 +12953,34 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C103" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D103" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E103" t="s">
         <v>76</v>
       </c>
       <c r="F103" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G103" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H103" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I103" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="J103" t="s">
         <v>31</v>
       </c>
       <c r="N103" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P103" t="b">
         <f>TRUE()</f>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C8D942-9D27-4008-8894-5AD65A70E753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C12E9F-625A-4715-9DCD-C8C5F1412980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="866">
   <si>
     <t>targets</t>
   </si>
@@ -2529,9 +2529,6 @@
     <t>hd_traffic</t>
   </si>
   <si>
-    <t>hd_traffic_pat2021</t>
-  </si>
-  <si>
     <t>~/github/pat/comunas/layers/hd_traffic_pat2021</t>
   </si>
   <si>
@@ -2608,6 +2605,39 @@
   </si>
   <si>
     <t>~/github/pat/comunas/layers/cs_cs_kelp_forest_pat2021.csv</t>
+  </si>
+  <si>
+    <t>cp_habitat_trend</t>
+  </si>
+  <si>
+    <t>cp_habitat</t>
+  </si>
+  <si>
+    <t>cp_habitat_health</t>
+  </si>
+  <si>
+    <t>cp_habitat_pat2021.csv</t>
+  </si>
+  <si>
+    <t>cp_habitat_health_pat2021.csv</t>
+  </si>
+  <si>
+    <t>cp_habitat_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>scaled -1 a 1</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/cp_habitat_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/cp_habitat_health_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/cp_habitat_trend_pat2021.csv</t>
+  </si>
+  <si>
+    <t>hd_traffic_pat2021.csv</t>
   </si>
 </sst>
 </file>
@@ -3098,11 +3128,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z64"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T60" sqref="T60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5080,10 +5110,10 @@
         <v>179</v>
       </c>
       <c r="B36" t="s">
+        <v>852</v>
+      </c>
+      <c r="C36" t="s">
         <v>853</v>
-      </c>
-      <c r="C36" t="s">
-        <v>854</v>
       </c>
       <c r="D36" t="s">
         <v>180</v>
@@ -5092,7 +5122,7 @@
         <v>81</v>
       </c>
       <c r="I36" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
@@ -5794,10 +5824,10 @@
         <v>811</v>
       </c>
       <c r="B51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" t="s">
         <v>812</v>
-      </c>
-      <c r="C51" t="s">
-        <v>280</v>
       </c>
       <c r="D51" t="s">
         <v>276</v>
@@ -6026,7 +6056,7 @@
         <v>76</v>
       </c>
       <c r="I56" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
@@ -6061,7 +6091,7 @@
         <v>828</v>
       </c>
       <c r="C57" t="s">
-        <v>829</v>
+        <v>865</v>
       </c>
       <c r="D57" t="s">
         <v>145</v>
@@ -6070,7 +6100,7 @@
         <v>76</v>
       </c>
       <c r="I57" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J57" t="s">
         <v>31</v>
@@ -6102,10 +6132,10 @@
         <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C58" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D58" t="s">
         <v>145</v>
@@ -6114,7 +6144,7 @@
         <v>76</v>
       </c>
       <c r="I58" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J58" t="s">
         <v>31</v>
@@ -6146,10 +6176,10 @@
         <v>811</v>
       </c>
       <c r="B59" t="s">
+        <v>834</v>
+      </c>
+      <c r="C59" t="s">
         <v>835</v>
-      </c>
-      <c r="C59" t="s">
-        <v>836</v>
       </c>
       <c r="D59" t="s">
         <v>276</v>
@@ -6158,7 +6188,7 @@
         <v>76</v>
       </c>
       <c r="I59" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J59" t="s">
         <v>31</v>
@@ -6190,10 +6220,10 @@
         <v>811</v>
       </c>
       <c r="B60" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C60" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D60" t="s">
         <v>276</v>
@@ -6202,7 +6232,7 @@
         <v>76</v>
       </c>
       <c r="I60" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J60" t="s">
         <v>31</v>
@@ -6234,10 +6264,10 @@
         <v>811</v>
       </c>
       <c r="B61" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C61" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D61" t="s">
         <v>276</v>
@@ -6246,7 +6276,7 @@
         <v>76</v>
       </c>
       <c r="I61" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J61" t="s">
         <v>31</v>
@@ -6278,10 +6308,10 @@
         <v>811</v>
       </c>
       <c r="B62" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C62" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D62" t="s">
         <v>276</v>
@@ -6290,7 +6320,7 @@
         <v>76</v>
       </c>
       <c r="I62" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J62" t="s">
         <v>31</v>
@@ -6322,10 +6352,10 @@
         <v>811</v>
       </c>
       <c r="B63" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C63" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D63" t="s">
         <v>276</v>
@@ -6334,7 +6364,7 @@
         <v>76</v>
       </c>
       <c r="I63" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J63" t="s">
         <v>31</v>
@@ -6366,10 +6396,10 @@
         <v>181</v>
       </c>
       <c r="B64" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C64" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D64" t="s">
         <v>145</v>
@@ -6378,7 +6408,7 @@
         <v>76</v>
       </c>
       <c r="I64" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J64" t="s">
         <v>31</v>
@@ -6402,6 +6432,165 @@
         <v>36</v>
       </c>
       <c r="Z64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>319</v>
+      </c>
+      <c r="B65" t="s">
+        <v>856</v>
+      </c>
+      <c r="C65" t="s">
+        <v>858</v>
+      </c>
+      <c r="D65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" t="s">
+        <v>862</v>
+      </c>
+      <c r="J65" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" t="s">
+        <v>322</v>
+      </c>
+      <c r="O65" t="s">
+        <v>326</v>
+      </c>
+      <c r="P65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q65">
+        <v>2017</v>
+      </c>
+      <c r="R65">
+        <v>2021</v>
+      </c>
+      <c r="S65">
+        <v>0.05</v>
+      </c>
+      <c r="T65">
+        <v>1631883069</v>
+      </c>
+      <c r="U65" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y65">
+        <v>36</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" t="s">
+        <v>857</v>
+      </c>
+      <c r="C66" t="s">
+        <v>859</v>
+      </c>
+      <c r="D66" t="s">
+        <v>361</v>
+      </c>
+      <c r="E66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s">
+        <v>863</v>
+      </c>
+      <c r="J66" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" t="s">
+        <v>361</v>
+      </c>
+      <c r="O66" t="s">
+        <v>326</v>
+      </c>
+      <c r="P66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q66">
+        <v>2017</v>
+      </c>
+      <c r="R66">
+        <v>2021</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0.86956522000000003</v>
+      </c>
+      <c r="U66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y66">
+        <v>36</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>319</v>
+      </c>
+      <c r="B67" t="s">
+        <v>855</v>
+      </c>
+      <c r="C67" t="s">
+        <v>860</v>
+      </c>
+      <c r="D67" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" t="s">
+        <v>861</v>
+      </c>
+      <c r="I67" t="s">
+        <v>864</v>
+      </c>
+      <c r="J67" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" t="s">
+        <v>131</v>
+      </c>
+      <c r="O67" t="s">
+        <v>326</v>
+      </c>
+      <c r="P67" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67">
+        <v>2021</v>
+      </c>
+      <c r="R67">
+        <v>2021</v>
+      </c>
+      <c r="S67" s="1">
+        <v>-0.32090780000000002</v>
+      </c>
+      <c r="T67" s="1">
+        <v>1</v>
+      </c>
+      <c r="U67" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y67">
+        <v>36</v>
+      </c>
+      <c r="Z67" t="s">
         <v>36</v>
       </c>
     </row>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C12E9F-625A-4715-9DCD-C8C5F1412980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFD867E-4050-4D09-A67E-028F8363844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="868">
   <si>
     <t>targets</t>
   </si>
@@ -207,18 +207,12 @@
     <t>rgn_area_inland1km</t>
   </si>
   <si>
-    <t>rgn_area_inland1km_pat2021.csv</t>
-  </si>
-  <si>
     <t>~/github/pat/comunas/layers/rgn_area_inland1km_pat2021.csv</t>
   </si>
   <si>
     <t>rgn_area_offshore3nm</t>
   </si>
   <si>
-    <t>rgn_area_offshore3nm_pat2021.csv</t>
-  </si>
-  <si>
     <t>~/github/pat/comunas/layers/rgn_area_offshore3nm_pat2021.csv</t>
   </si>
   <si>
@@ -2638,6 +2632,18 @@
   </si>
   <si>
     <t>hd_traffic_pat2021.csv</t>
+  </si>
+  <si>
+    <t>rgn_area_inland1mn_pat2021.csv</t>
+  </si>
+  <si>
+    <t>rgn_area_offshore3mn_pat2021.csv</t>
+  </si>
+  <si>
+    <t>rgn_area_inland1mn</t>
+  </si>
+  <si>
+    <t>rgn_area_offshore3mn</t>
   </si>
 </sst>
 </file>
@@ -3130,9 +3136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T60" sqref="T60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3371,10 +3377,10 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C5" t="s">
         <v>791</v>
-      </c>
-      <c r="C5" t="s">
-        <v>793</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -3383,10 +3389,10 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
@@ -3427,10 +3433,10 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>790</v>
+      </c>
+      <c r="C6" t="s">
         <v>792</v>
-      </c>
-      <c r="C6" t="s">
-        <v>794</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -3442,7 +3448,7 @@
         <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
@@ -3483,10 +3489,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>866</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>864</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -3498,7 +3504,7 @@
         <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
         <v>33</v>
@@ -3530,10 +3536,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>867</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>865</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -3542,10 +3548,10 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
         <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
       </c>
       <c r="J8" t="s">
         <v>33</v>
@@ -3574,25 +3580,25 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
       </c>
       <c r="J9" t="s">
         <v>33</v>
@@ -3601,7 +3607,7 @@
         <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s">
         <v>35</v>
@@ -3630,25 +3636,25 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
         <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" t="s">
-        <v>71</v>
       </c>
       <c r="J10" t="s">
         <v>33</v>
@@ -3657,7 +3663,7 @@
         <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s">
         <v>35</v>
@@ -3686,22 +3692,22 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
+      <c r="I11" t="s">
         <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
       </c>
       <c r="J11" t="s">
         <v>33</v>
@@ -3710,7 +3716,7 @@
         <v>51</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s">
         <v>35</v>
@@ -3727,43 +3733,43 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>769</v>
+      </c>
+      <c r="G12" t="s">
+        <v>773</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
         <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>771</v>
-      </c>
-      <c r="G12" t="s">
-        <v>775</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>82</v>
       </c>
       <c r="J12" t="s">
         <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
         <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s">
         <v>35</v>
@@ -3792,43 +3798,43 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>771</v>
+      </c>
+      <c r="G13" t="s">
+        <v>772</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>773</v>
-      </c>
-      <c r="G13" t="s">
-        <v>774</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M13" t="s">
         <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
         <v>35</v>
@@ -3857,43 +3863,43 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>768</v>
+      </c>
+      <c r="G14" t="s">
+        <v>774</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
         <v>88</v>
       </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>770</v>
-      </c>
-      <c r="G14" t="s">
-        <v>776</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" t="s">
-        <v>90</v>
-      </c>
       <c r="J14" t="s">
         <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s">
         <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P14" t="s">
         <v>35</v>
@@ -3922,37 +3928,37 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>770</v>
+      </c>
+      <c r="G15" t="s">
+        <v>775</v>
+      </c>
+      <c r="I15" t="s">
         <v>92</v>
       </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>772</v>
-      </c>
-      <c r="G15" t="s">
-        <v>777</v>
-      </c>
-      <c r="I15" t="s">
-        <v>94</v>
-      </c>
       <c r="J15" t="s">
         <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s">
         <v>35</v>
@@ -3975,43 +3981,43 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
         <v>95</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>97</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>776</v>
+      </c>
+      <c r="G16" t="s">
+        <v>785</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
         <v>98</v>
       </c>
-      <c r="E16" t="s">
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
         <v>99</v>
-      </c>
-      <c r="F16" t="s">
-        <v>778</v>
-      </c>
-      <c r="G16" t="s">
-        <v>787</v>
-      </c>
-      <c r="H16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" t="s">
-        <v>101</v>
       </c>
       <c r="M16" t="s">
         <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P16" t="s">
         <v>35</v>
@@ -4043,43 +4049,43 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
         <v>102</v>
       </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>778</v>
+      </c>
+      <c r="F17" t="s">
+        <v>777</v>
+      </c>
+      <c r="G17" t="s">
+        <v>786</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
         <v>104</v>
       </c>
-      <c r="E17" t="s">
-        <v>780</v>
-      </c>
-      <c r="F17" t="s">
-        <v>779</v>
-      </c>
-      <c r="G17" t="s">
-        <v>788</v>
-      </c>
-      <c r="H17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" t="s">
-        <v>106</v>
-      </c>
       <c r="J17" t="s">
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M17" t="s">
         <v>51</v>
       </c>
       <c r="N17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P17" t="s">
         <v>35</v>
@@ -4111,31 +4117,31 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
         <v>107</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>779</v>
+      </c>
+      <c r="G18" t="s">
+        <v>780</v>
+      </c>
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" t="s">
         <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>781</v>
-      </c>
-      <c r="G18" t="s">
-        <v>782</v>
-      </c>
-      <c r="H18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" t="s">
-        <v>110</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
@@ -4144,7 +4150,7 @@
         <v>51</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P18" t="s">
         <v>35</v>
@@ -4173,31 +4179,31 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>781</v>
+      </c>
+      <c r="G19" t="s">
+        <v>782</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" t="s">
         <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" t="s">
-        <v>783</v>
-      </c>
-      <c r="G19" t="s">
-        <v>784</v>
-      </c>
-      <c r="H19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I19" t="s">
-        <v>113</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
@@ -4206,7 +4212,7 @@
         <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P19" t="s">
         <v>35</v>
@@ -4235,31 +4241,31 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>783</v>
+      </c>
+      <c r="G20" t="s">
+        <v>784</v>
+      </c>
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" t="s">
         <v>115</v>
-      </c>
-      <c r="D20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" t="s">
-        <v>785</v>
-      </c>
-      <c r="G20" t="s">
-        <v>786</v>
-      </c>
-      <c r="H20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" t="s">
-        <v>117</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
@@ -4268,7 +4274,7 @@
         <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P20" t="s">
         <v>35</v>
@@ -4297,37 +4303,37 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
         <v>118</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>119</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" t="s">
         <v>120</v>
       </c>
-      <c r="D21" t="s">
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
         <v>121</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" t="s">
-        <v>123</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P21" t="s">
         <v>35</v>
@@ -4356,34 +4362,34 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
         <v>124</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s">
         <v>125</v>
       </c>
-      <c r="D22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" t="s">
-        <v>127</v>
-      </c>
       <c r="J22" t="s">
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M22" t="s">
         <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P22" t="s">
         <v>35</v>
@@ -4412,22 +4418,22 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
         <v>128</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" t="s">
         <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I23" t="s">
-        <v>132</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -4436,7 +4442,7 @@
         <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P23" t="s">
         <v>35</v>
@@ -4465,22 +4471,22 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" t="s">
         <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" t="s">
-        <v>131</v>
-      </c>
-      <c r="I24" t="s">
-        <v>135</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
@@ -4489,7 +4495,7 @@
         <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P24" t="s">
         <v>35</v>
@@ -4518,22 +4524,22 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" t="s">
         <v>136</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" t="s">
-        <v>138</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -4542,7 +4548,7 @@
         <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P25" t="s">
         <v>35</v>
@@ -4571,22 +4577,22 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" t="s">
         <v>139</v>
-      </c>
-      <c r="C26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" t="s">
-        <v>141</v>
       </c>
       <c r="J26" t="s">
         <v>31</v>
@@ -4595,7 +4601,7 @@
         <v>51</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P26" t="s">
         <v>35</v>
@@ -4624,22 +4630,22 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
         <v>142</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>143</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s">
         <v>144</v>
-      </c>
-      <c r="D27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s">
-        <v>146</v>
       </c>
       <c r="J27" t="s">
         <v>31</v>
@@ -4648,7 +4654,7 @@
         <v>51</v>
       </c>
       <c r="N27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
@@ -4677,22 +4683,22 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s">
         <v>147</v>
-      </c>
-      <c r="C28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" t="s">
-        <v>149</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
@@ -4701,7 +4707,7 @@
         <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P28" t="s">
         <v>35</v>
@@ -4730,22 +4736,22 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s">
         <v>150</v>
-      </c>
-      <c r="C29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s">
-        <v>152</v>
       </c>
       <c r="J29" t="s">
         <v>31</v>
@@ -4754,7 +4760,7 @@
         <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P29" t="s">
         <v>35</v>
@@ -4783,22 +4789,22 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" t="s">
         <v>153</v>
-      </c>
-      <c r="C30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s">
-        <v>155</v>
       </c>
       <c r="J30" t="s">
         <v>31</v>
@@ -4807,7 +4813,7 @@
         <v>51</v>
       </c>
       <c r="N30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P30" t="s">
         <v>35</v>
@@ -4836,34 +4842,34 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
         <v>156</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s">
         <v>157</v>
       </c>
-      <c r="C31" t="s">
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" t="s">
         <v>158</v>
-      </c>
-      <c r="D31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I31" t="s">
-        <v>159</v>
-      </c>
-      <c r="J31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" t="s">
-        <v>160</v>
       </c>
       <c r="M31" t="s">
         <v>51</v>
       </c>
       <c r="N31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P31" t="s">
         <v>35</v>
@@ -4892,34 +4898,34 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" t="s">
         <v>161</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" t="s">
-        <v>164</v>
-      </c>
       <c r="J32" t="s">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
       </c>
       <c r="N32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P32" t="s">
         <v>35</v>
@@ -4948,22 +4954,22 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
         <v>165</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>166</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>167</v>
       </c>
-      <c r="D33" t="s">
+      <c r="I33" t="s">
         <v>168</v>
-      </c>
-      <c r="E33" t="s">
-        <v>169</v>
-      </c>
-      <c r="I33" t="s">
-        <v>170</v>
       </c>
       <c r="J33" t="s">
         <v>31</v>
@@ -4972,7 +4978,7 @@
         <v>51</v>
       </c>
       <c r="N33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P33" t="s">
         <v>35</v>
@@ -5001,22 +5007,22 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
         <v>171</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" t="s">
         <v>172</v>
-      </c>
-      <c r="D34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" t="s">
-        <v>169</v>
-      </c>
-      <c r="I34" t="s">
-        <v>174</v>
       </c>
       <c r="J34" t="s">
         <v>31</v>
@@ -5025,7 +5031,7 @@
         <v>51</v>
       </c>
       <c r="N34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P34" t="s">
         <v>35</v>
@@ -5054,22 +5060,22 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" t="s">
         <v>175</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" t="s">
         <v>176</v>
-      </c>
-      <c r="D35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" t="s">
-        <v>169</v>
-      </c>
-      <c r="I35" t="s">
-        <v>178</v>
       </c>
       <c r="J35" t="s">
         <v>31</v>
@@ -5078,7 +5084,7 @@
         <v>51</v>
       </c>
       <c r="N35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P35" t="s">
         <v>35</v>
@@ -5107,22 +5113,22 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B36" t="s">
+        <v>850</v>
+      </c>
+      <c r="C36" t="s">
+        <v>851</v>
+      </c>
+      <c r="D36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s">
         <v>852</v>
-      </c>
-      <c r="C36" t="s">
-        <v>853</v>
-      </c>
-      <c r="D36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E36" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" t="s">
-        <v>854</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
@@ -5131,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="N36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P36" t="s">
         <v>35</v>
@@ -5160,22 +5166,22 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
         <v>181</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s">
         <v>182</v>
-      </c>
-      <c r="C37" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" t="s">
-        <v>184</v>
       </c>
       <c r="J37" t="s">
         <v>31</v>
@@ -5184,7 +5190,7 @@
         <v>51</v>
       </c>
       <c r="N37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P37" t="s">
         <v>35</v>
@@ -5207,22 +5213,22 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s">
         <v>185</v>
-      </c>
-      <c r="C38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s">
-        <v>187</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
@@ -5231,7 +5237,7 @@
         <v>51</v>
       </c>
       <c r="N38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P38" t="s">
         <v>35</v>
@@ -5254,25 +5260,25 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s">
         <v>188</v>
       </c>
-      <c r="C39" t="s">
+      <c r="I39" t="s">
         <v>189</v>
-      </c>
-      <c r="D39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" t="s">
-        <v>190</v>
-      </c>
-      <c r="I39" t="s">
-        <v>191</v>
       </c>
       <c r="J39" t="s">
         <v>31</v>
@@ -5281,7 +5287,7 @@
         <v>51</v>
       </c>
       <c r="N39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P39" t="s">
         <v>35</v>
@@ -5304,28 +5310,28 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s">
         <v>192</v>
       </c>
-      <c r="C40" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" t="s">
-        <v>194</v>
-      </c>
       <c r="J40" t="s">
         <v>31</v>
       </c>
       <c r="N40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P40" t="s">
         <v>35</v>
@@ -5348,28 +5354,28 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s">
         <v>195</v>
       </c>
-      <c r="C41" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" t="s">
-        <v>76</v>
-      </c>
-      <c r="I41" t="s">
-        <v>197</v>
-      </c>
       <c r="J41" t="s">
         <v>31</v>
       </c>
       <c r="N41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P41" t="s">
         <v>35</v>
@@ -5392,28 +5398,28 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s">
         <v>198</v>
       </c>
-      <c r="C42" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" t="s">
-        <v>76</v>
-      </c>
-      <c r="I42" t="s">
-        <v>200</v>
-      </c>
       <c r="J42" t="s">
         <v>31</v>
       </c>
       <c r="N42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P42" t="s">
         <v>35</v>
@@ -5436,28 +5442,28 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s">
         <v>201</v>
       </c>
-      <c r="C43" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" t="s">
-        <v>203</v>
-      </c>
       <c r="J43" t="s">
         <v>31</v>
       </c>
       <c r="N43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P43" t="s">
         <v>35</v>
@@ -5480,28 +5486,28 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s">
         <v>204</v>
       </c>
-      <c r="C44" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" t="s">
-        <v>76</v>
-      </c>
-      <c r="I44" t="s">
-        <v>206</v>
-      </c>
       <c r="J44" t="s">
         <v>31</v>
       </c>
       <c r="N44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P44" t="s">
         <v>35</v>
@@ -5524,34 +5530,34 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" t="s">
         <v>207</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>208</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s">
+        <v>787</v>
+      </c>
+      <c r="G45" t="s">
+        <v>788</v>
+      </c>
+      <c r="I45" t="s">
         <v>209</v>
       </c>
-      <c r="D45" t="s">
-        <v>210</v>
-      </c>
-      <c r="E45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" t="s">
-        <v>789</v>
-      </c>
-      <c r="G45" t="s">
-        <v>790</v>
-      </c>
-      <c r="I45" t="s">
-        <v>211</v>
-      </c>
       <c r="J45" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P45" t="s">
         <v>35</v>
@@ -5580,28 +5586,28 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B46" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C46" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I46" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J46" t="s">
         <v>31</v>
       </c>
       <c r="N46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P46" t="s">
         <v>35</v>
@@ -5630,31 +5636,31 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B47" t="s">
+        <v>796</v>
+      </c>
+      <c r="C47" t="s">
         <v>798</v>
       </c>
-      <c r="C47" t="s">
-        <v>800</v>
-      </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="I47" t="s">
+        <v>801</v>
+      </c>
+      <c r="J47" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" t="s">
         <v>803</v>
       </c>
-      <c r="J47" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" t="s">
-        <v>805</v>
-      </c>
       <c r="N47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P47" t="s">
         <v>35</v>
@@ -5683,28 +5689,28 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B48" t="s">
+        <v>797</v>
+      </c>
+      <c r="C48" t="s">
         <v>799</v>
       </c>
-      <c r="C48" t="s">
-        <v>801</v>
-      </c>
       <c r="D48" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J48" t="s">
         <v>31</v>
       </c>
       <c r="N48" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="P48" t="s">
         <v>35</v>
@@ -5733,28 +5739,28 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B49" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C49" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J49" t="s">
         <v>31</v>
       </c>
       <c r="N49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P49" t="s">
         <v>35</v>
@@ -5777,28 +5783,28 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B50" t="s">
+        <v>806</v>
+      </c>
+      <c r="C50" t="s">
+        <v>807</v>
+      </c>
+      <c r="D50" t="s">
+        <v>274</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s">
         <v>808</v>
       </c>
-      <c r="C50" t="s">
-        <v>809</v>
-      </c>
-      <c r="D50" t="s">
-        <v>276</v>
-      </c>
-      <c r="E50" t="s">
-        <v>76</v>
-      </c>
-      <c r="I50" t="s">
-        <v>810</v>
-      </c>
       <c r="J50" t="s">
         <v>31</v>
       </c>
       <c r="N50" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P50" t="s">
         <v>35</v>
@@ -5821,28 +5827,28 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>809</v>
+      </c>
+      <c r="B51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" t="s">
+        <v>810</v>
+      </c>
+      <c r="D51" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s">
         <v>811</v>
       </c>
-      <c r="B51" t="s">
-        <v>280</v>
-      </c>
-      <c r="C51" t="s">
-        <v>812</v>
-      </c>
-      <c r="D51" t="s">
-        <v>276</v>
-      </c>
-      <c r="E51" t="s">
-        <v>76</v>
-      </c>
-      <c r="I51" t="s">
-        <v>813</v>
-      </c>
       <c r="J51" t="s">
         <v>31</v>
       </c>
       <c r="N51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P51" t="s">
         <v>35</v>
@@ -5865,28 +5871,28 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B52" t="s">
+        <v>812</v>
+      </c>
+      <c r="C52" t="s">
+        <v>816</v>
+      </c>
+      <c r="D52" t="s">
+        <v>274</v>
+      </c>
+      <c r="E52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s">
         <v>814</v>
       </c>
-      <c r="C52" t="s">
-        <v>818</v>
-      </c>
-      <c r="D52" t="s">
-        <v>276</v>
-      </c>
-      <c r="E52" t="s">
-        <v>76</v>
-      </c>
-      <c r="I52" t="s">
-        <v>816</v>
-      </c>
       <c r="J52" t="s">
         <v>31</v>
       </c>
       <c r="N52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P52" t="s">
         <v>35</v>
@@ -5909,28 +5915,28 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B53" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C53" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I53" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J53" t="s">
         <v>31</v>
       </c>
       <c r="N53" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P53" t="s">
         <v>35</v>
@@ -5953,28 +5959,28 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B54" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C54" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I54" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J54" t="s">
         <v>31</v>
       </c>
       <c r="N54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P54" t="s">
         <v>35</v>
@@ -5997,28 +6003,28 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B55" t="s">
+        <v>820</v>
+      </c>
+      <c r="C55" t="s">
+        <v>821</v>
+      </c>
+      <c r="D55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" t="s">
         <v>822</v>
       </c>
-      <c r="C55" t="s">
+      <c r="I55" t="s">
         <v>823</v>
       </c>
-      <c r="D55" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" t="s">
-        <v>824</v>
-      </c>
-      <c r="I55" t="s">
-        <v>825</v>
-      </c>
       <c r="J55" t="s">
         <v>31</v>
       </c>
       <c r="N55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P55" t="s">
         <v>35</v>
@@ -6041,28 +6047,28 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C56" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
       </c>
       <c r="N56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P56" t="s">
         <v>35</v>
@@ -6085,28 +6091,28 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C57" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I57" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="J57" t="s">
         <v>31</v>
       </c>
       <c r="N57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P57" t="s">
         <v>35</v>
@@ -6129,28 +6135,28 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C58" t="s">
+        <v>829</v>
+      </c>
+      <c r="D58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s">
         <v>831</v>
       </c>
-      <c r="D58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" t="s">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s">
-        <v>833</v>
-      </c>
       <c r="J58" t="s">
         <v>31</v>
       </c>
       <c r="N58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P58" t="s">
         <v>35</v>
@@ -6173,28 +6179,28 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B59" t="s">
+        <v>832</v>
+      </c>
+      <c r="C59" t="s">
+        <v>833</v>
+      </c>
+      <c r="D59" t="s">
+        <v>274</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s">
         <v>834</v>
       </c>
-      <c r="C59" t="s">
-        <v>835</v>
-      </c>
-      <c r="D59" t="s">
-        <v>276</v>
-      </c>
-      <c r="E59" t="s">
-        <v>76</v>
-      </c>
-      <c r="I59" t="s">
-        <v>836</v>
-      </c>
       <c r="J59" t="s">
         <v>31</v>
       </c>
       <c r="N59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P59" t="s">
         <v>35</v>
@@ -6217,28 +6223,28 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B60" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C60" t="s">
+        <v>835</v>
+      </c>
+      <c r="D60" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s">
         <v>837</v>
       </c>
-      <c r="D60" t="s">
-        <v>276</v>
-      </c>
-      <c r="E60" t="s">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s">
-        <v>839</v>
-      </c>
       <c r="J60" t="s">
         <v>31</v>
       </c>
       <c r="N60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P60" t="s">
         <v>35</v>
@@ -6261,28 +6267,28 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B61" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C61" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D61" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I61" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="J61" t="s">
         <v>31</v>
       </c>
       <c r="N61" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P61" t="s">
         <v>35</v>
@@ -6305,28 +6311,28 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B62" t="s">
+        <v>841</v>
+      </c>
+      <c r="C62" t="s">
+        <v>840</v>
+      </c>
+      <c r="D62" t="s">
+        <v>274</v>
+      </c>
+      <c r="E62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s">
         <v>843</v>
       </c>
-      <c r="C62" t="s">
-        <v>842</v>
-      </c>
-      <c r="D62" t="s">
-        <v>276</v>
-      </c>
-      <c r="E62" t="s">
-        <v>76</v>
-      </c>
-      <c r="I62" t="s">
-        <v>845</v>
-      </c>
       <c r="J62" t="s">
         <v>31</v>
       </c>
       <c r="N62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P62" t="s">
         <v>35</v>
@@ -6349,28 +6355,28 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B63" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C63" t="s">
+        <v>844</v>
+      </c>
+      <c r="D63" t="s">
+        <v>274</v>
+      </c>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63" t="s">
         <v>846</v>
       </c>
-      <c r="D63" t="s">
-        <v>276</v>
-      </c>
-      <c r="E63" t="s">
-        <v>76</v>
-      </c>
-      <c r="I63" t="s">
-        <v>848</v>
-      </c>
       <c r="J63" t="s">
         <v>31</v>
       </c>
       <c r="N63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P63" t="s">
         <v>35</v>
@@ -6393,28 +6399,28 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C64" t="s">
+        <v>847</v>
+      </c>
+      <c r="D64" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s">
         <v>849</v>
       </c>
-      <c r="D64" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" t="s">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s">
-        <v>851</v>
-      </c>
       <c r="J64" t="s">
         <v>31</v>
       </c>
       <c r="N64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P64" t="s">
         <v>35</v>
@@ -6437,31 +6443,31 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B65" t="s">
+        <v>854</v>
+      </c>
+      <c r="C65" t="s">
         <v>856</v>
       </c>
-      <c r="C65" t="s">
-        <v>858</v>
-      </c>
       <c r="D65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="I65" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="J65" t="s">
         <v>31</v>
       </c>
       <c r="N65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O65" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P65" t="s">
         <v>35</v>
@@ -6490,31 +6496,31 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B66" t="s">
+        <v>855</v>
+      </c>
+      <c r="C66" t="s">
         <v>857</v>
       </c>
-      <c r="C66" t="s">
-        <v>859</v>
-      </c>
       <c r="D66" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I66" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J66" t="s">
         <v>31</v>
       </c>
       <c r="N66" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P66" t="s">
         <v>35</v>
@@ -6543,31 +6549,31 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B67" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C67" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E67" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I67" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J67" t="s">
         <v>31</v>
       </c>
       <c r="N67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O67" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P67" t="s">
         <v>35</v>
@@ -6721,31 +6727,31 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
         <v>212</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>213</v>
       </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" t="s">
         <v>214</v>
-      </c>
-      <c r="G2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I2" t="s">
-        <v>216</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -6754,7 +6760,7 @@
         <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P2" t="b">
         <f>TRUE()</f>
@@ -6786,31 +6792,31 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
         <v>217</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>218</v>
       </c>
-      <c r="D3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" t="s">
         <v>219</v>
-      </c>
-      <c r="G3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" t="s">
-        <v>221</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -6819,7 +6825,7 @@
         <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P3" t="b">
         <f>TRUE()</f>
@@ -6851,31 +6857,31 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" t="s">
         <v>222</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
         <v>223</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>224</v>
       </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" t="s">
         <v>225</v>
-      </c>
-      <c r="G4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I4" t="s">
-        <v>227</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -6884,7 +6890,7 @@
         <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P4" t="b">
         <f>TRUE()</f>
@@ -6916,31 +6922,31 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" t="s">
         <v>228</v>
       </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" t="s">
         <v>229</v>
-      </c>
-      <c r="G5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" t="s">
-        <v>231</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -6949,7 +6955,7 @@
         <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P5" t="b">
         <f>TRUE()</f>
@@ -6981,31 +6987,31 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" t="s">
         <v>232</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
         <v>233</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>234</v>
       </c>
-      <c r="D6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" t="s">
         <v>235</v>
-      </c>
-      <c r="G6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I6" t="s">
-        <v>237</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
@@ -7014,7 +7020,7 @@
         <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P6" t="b">
         <f>TRUE()</f>
@@ -7046,37 +7052,37 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" t="s">
         <v>238</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
         <v>239</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>240</v>
       </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" t="s">
         <v>241</v>
       </c>
-      <c r="G7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
         <v>238</v>
-      </c>
-      <c r="I7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>240</v>
       </c>
       <c r="P7" t="b">
         <f>TRUE()</f>
@@ -7102,31 +7108,31 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" t="s">
         <v>244</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
         <v>245</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>246</v>
       </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" t="s">
         <v>247</v>
-      </c>
-      <c r="G8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" t="s">
-        <v>249</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
@@ -7135,7 +7141,7 @@
         <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P8" t="b">
         <f>TRUE()</f>
@@ -7167,31 +7173,31 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
         <v>250</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
         <v>251</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>252</v>
       </c>
-      <c r="D9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" t="s">
         <v>253</v>
-      </c>
-      <c r="G9" t="s">
-        <v>254</v>
-      </c>
-      <c r="H9" t="s">
-        <v>251</v>
-      </c>
-      <c r="I9" t="s">
-        <v>255</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
@@ -7200,7 +7206,7 @@
         <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P9" t="b">
         <f>TRUE()</f>
@@ -7232,31 +7238,31 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" t="s">
         <v>256</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
         <v>257</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>258</v>
       </c>
-      <c r="D10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" t="s">
         <v>259</v>
-      </c>
-      <c r="G10" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I10" t="s">
-        <v>261</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
@@ -7265,7 +7271,7 @@
         <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P10" t="b">
         <f>TRUE()</f>
@@ -7297,31 +7303,31 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="s">
         <v>262</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
         <v>263</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>264</v>
       </c>
-      <c r="D11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>261</v>
+      </c>
+      <c r="I11" t="s">
         <v>265</v>
-      </c>
-      <c r="G11" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" t="s">
-        <v>263</v>
-      </c>
-      <c r="I11" t="s">
-        <v>267</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
@@ -7330,7 +7336,7 @@
         <v>51</v>
       </c>
       <c r="N11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P11" t="b">
         <f>TRUE()</f>
@@ -7362,31 +7368,31 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
         <v>268</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>269</v>
       </c>
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" t="s">
         <v>270</v>
-      </c>
-      <c r="G12" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" t="s">
-        <v>268</v>
-      </c>
-      <c r="I12" t="s">
-        <v>272</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
@@ -7395,7 +7401,7 @@
         <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P12" t="b">
         <f>TRUE()</f>
@@ -7427,31 +7433,31 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" t="s">
         <v>273</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>274</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
         <v>275</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>276</v>
       </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I13" t="s">
         <v>277</v>
-      </c>
-      <c r="G13" t="s">
-        <v>278</v>
-      </c>
-      <c r="H13" t="s">
-        <v>274</v>
-      </c>
-      <c r="I13" t="s">
-        <v>279</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
@@ -7460,7 +7466,7 @@
         <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P13" t="b">
         <f>TRUE()</f>
@@ -7492,31 +7498,31 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
         <v>280</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" t="s">
         <v>281</v>
       </c>
-      <c r="D14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" t="s">
         <v>282</v>
-      </c>
-      <c r="G14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" t="s">
-        <v>280</v>
-      </c>
-      <c r="I14" t="s">
-        <v>284</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
@@ -7525,7 +7531,7 @@
         <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P14" t="b">
         <f>TRUE()</f>
@@ -7557,37 +7563,37 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" t="s">
         <v>285</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>286</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
         <v>287</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>288</v>
       </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>284</v>
+      </c>
+      <c r="I15" t="s">
         <v>289</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" t="s">
         <v>290</v>
-      </c>
-      <c r="H15" t="s">
-        <v>286</v>
-      </c>
-      <c r="I15" t="s">
-        <v>291</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" t="s">
-        <v>292</v>
       </c>
       <c r="P15" t="b">
         <f>TRUE()</f>
@@ -7613,31 +7619,31 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" t="s">
         <v>293</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
         <v>294</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" t="s">
         <v>295</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>292</v>
       </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>296</v>
-      </c>
-      <c r="G16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H16" t="s">
-        <v>294</v>
-      </c>
-      <c r="I16" t="s">
-        <v>298</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
@@ -7646,7 +7652,7 @@
         <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P16" t="b">
         <f>TRUE()</f>
@@ -7678,37 +7684,37 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" t="s">
         <v>299</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
         <v>300</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" t="s">
+        <v>298</v>
+      </c>
+      <c r="I17" t="s">
         <v>301</v>
       </c>
-      <c r="D17" t="s">
-        <v>288</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" t="s">
-        <v>302</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" t="s">
         <v>290</v>
-      </c>
-      <c r="H17" t="s">
-        <v>300</v>
-      </c>
-      <c r="I17" t="s">
-        <v>303</v>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" t="s">
-        <v>292</v>
       </c>
       <c r="P17" t="b">
         <f>TRUE()</f>
@@ -7734,37 +7740,37 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
         <v>304</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
         <v>305</v>
       </c>
-      <c r="D18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>302</v>
+      </c>
+      <c r="I18" t="s">
         <v>306</v>
       </c>
-      <c r="G18" t="s">
-        <v>307</v>
-      </c>
-      <c r="H18" t="s">
-        <v>304</v>
-      </c>
-      <c r="I18" t="s">
-        <v>308</v>
-      </c>
       <c r="J18" t="s">
         <v>31</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P18" t="b">
         <f>TRUE()</f>
@@ -7790,31 +7796,31 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" t="s">
         <v>309</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
         <v>310</v>
       </c>
-      <c r="C19" t="s">
+      <c r="G19" t="s">
+        <v>295</v>
+      </c>
+      <c r="H19" t="s">
+        <v>308</v>
+      </c>
+      <c r="I19" t="s">
         <v>311</v>
-      </c>
-      <c r="D19" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" t="s">
-        <v>312</v>
-      </c>
-      <c r="G19" t="s">
-        <v>297</v>
-      </c>
-      <c r="H19" t="s">
-        <v>310</v>
-      </c>
-      <c r="I19" t="s">
-        <v>313</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
@@ -7823,7 +7829,7 @@
         <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P19" t="b">
         <f>TRUE()</f>
@@ -7855,37 +7861,37 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
         <v>314</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
         <v>315</v>
       </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I20" t="s">
         <v>316</v>
       </c>
-      <c r="G20" t="s">
-        <v>317</v>
-      </c>
-      <c r="H20" t="s">
-        <v>314</v>
-      </c>
-      <c r="I20" t="s">
-        <v>318</v>
-      </c>
       <c r="J20" t="s">
         <v>31</v>
       </c>
       <c r="N20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P20" t="b">
         <f>TRUE()</f>
@@ -7911,43 +7917,43 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" t="s">
         <v>319</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>320</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F21" t="s">
         <v>321</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>322</v>
       </c>
-      <c r="E21" t="s">
-        <v>322</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
+        <v>318</v>
+      </c>
+      <c r="I21" t="s">
         <v>323</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
         <v>324</v>
-      </c>
-      <c r="H21" t="s">
-        <v>320</v>
-      </c>
-      <c r="I21" t="s">
-        <v>325</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" t="s">
-        <v>326</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P21" t="b">
         <f>TRUE()</f>
@@ -7979,43 +7985,43 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" t="s">
         <v>327</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
         <v>328</v>
       </c>
-      <c r="D22" t="s">
-        <v>322</v>
-      </c>
-      <c r="E22" t="s">
-        <v>322</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
+        <v>325</v>
+      </c>
+      <c r="I22" t="s">
         <v>329</v>
       </c>
-      <c r="G22" t="s">
-        <v>330</v>
-      </c>
-      <c r="H22" t="s">
-        <v>327</v>
-      </c>
-      <c r="I22" t="s">
-        <v>331</v>
-      </c>
       <c r="J22" t="s">
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M22" t="s">
         <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P22" t="b">
         <f>TRUE()</f>
@@ -8047,31 +8053,31 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
         <v>332</v>
       </c>
-      <c r="B23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
         <v>333</v>
       </c>
-      <c r="D23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" t="s">
         <v>334</v>
-      </c>
-      <c r="G23" t="s">
-        <v>335</v>
-      </c>
-      <c r="H23" t="s">
-        <v>182</v>
-      </c>
-      <c r="I23" t="s">
-        <v>336</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -8080,7 +8086,7 @@
         <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P23" t="b">
         <f>TRUE()</f>
@@ -8112,31 +8118,31 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" t="s">
         <v>337</v>
       </c>
-      <c r="D24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" t="s">
         <v>338</v>
-      </c>
-      <c r="G24" t="s">
-        <v>339</v>
-      </c>
-      <c r="H24" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24" t="s">
-        <v>340</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
@@ -8145,7 +8151,7 @@
         <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P24" t="b">
         <f>TRUE()</f>
@@ -8177,31 +8183,31 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
         <v>341</v>
       </c>
-      <c r="B25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
         <v>342</v>
       </c>
-      <c r="D25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
+        <v>183</v>
+      </c>
+      <c r="I25" t="s">
         <v>343</v>
-      </c>
-      <c r="G25" t="s">
-        <v>344</v>
-      </c>
-      <c r="H25" t="s">
-        <v>185</v>
-      </c>
-      <c r="I25" t="s">
-        <v>345</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -8210,7 +8216,7 @@
         <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P25" t="b">
         <f>TRUE()</f>
@@ -8242,31 +8248,31 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" t="s">
+        <v>345</v>
+      </c>
+      <c r="C26" t="s">
         <v>346</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
         <v>347</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G26" t="s">
         <v>348</v>
       </c>
-      <c r="D26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
+        <v>345</v>
+      </c>
+      <c r="I26" t="s">
         <v>349</v>
-      </c>
-      <c r="G26" t="s">
-        <v>350</v>
-      </c>
-      <c r="H26" t="s">
-        <v>347</v>
-      </c>
-      <c r="I26" t="s">
-        <v>351</v>
       </c>
       <c r="J26" t="s">
         <v>31</v>
@@ -8275,7 +8281,7 @@
         <v>51</v>
       </c>
       <c r="N26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P26" t="b">
         <f>TRUE()</f>
@@ -8307,37 +8313,37 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" t="s">
         <v>352</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
+        <v>286</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
         <v>353</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
         <v>354</v>
       </c>
-      <c r="D27" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
+        <v>351</v>
+      </c>
+      <c r="I27" t="s">
         <v>355</v>
       </c>
-      <c r="G27" t="s">
-        <v>356</v>
-      </c>
-      <c r="H27" t="s">
-        <v>353</v>
-      </c>
-      <c r="I27" t="s">
-        <v>357</v>
-      </c>
       <c r="J27" t="s">
         <v>31</v>
       </c>
       <c r="N27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P27" t="b">
         <f>TRUE()</f>
@@ -8363,43 +8369,43 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" t="s">
         <v>358</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>359</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
         <v>360</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>361</v>
       </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
+        <v>357</v>
+      </c>
+      <c r="I28" t="s">
         <v>362</v>
       </c>
-      <c r="G28" t="s">
-        <v>363</v>
-      </c>
-      <c r="H28" t="s">
-        <v>359</v>
-      </c>
-      <c r="I28" t="s">
-        <v>364</v>
-      </c>
       <c r="J28" t="s">
         <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M28" t="s">
         <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P28" t="b">
         <f>TRUE()</f>
@@ -8431,43 +8437,43 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
         <v>365</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G29" t="s">
         <v>366</v>
       </c>
-      <c r="D29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
+        <v>363</v>
+      </c>
+      <c r="I29" t="s">
         <v>367</v>
       </c>
-      <c r="G29" t="s">
-        <v>368</v>
-      </c>
-      <c r="H29" t="s">
-        <v>365</v>
-      </c>
-      <c r="I29" t="s">
-        <v>369</v>
-      </c>
       <c r="J29" t="s">
         <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M29" t="s">
         <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P29" t="b">
         <f>TRUE()</f>
@@ -8499,43 +8505,43 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30" t="s">
+        <v>359</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
         <v>370</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30" t="s">
         <v>371</v>
       </c>
-      <c r="D30" t="s">
-        <v>361</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
+        <v>368</v>
+      </c>
+      <c r="I30" t="s">
         <v>372</v>
       </c>
-      <c r="G30" t="s">
-        <v>373</v>
-      </c>
-      <c r="H30" t="s">
-        <v>370</v>
-      </c>
-      <c r="I30" t="s">
-        <v>374</v>
-      </c>
       <c r="J30" t="s">
         <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M30" t="s">
         <v>51</v>
       </c>
       <c r="N30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P30" t="b">
         <f>TRUE()</f>
@@ -8567,43 +8573,43 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B31" t="s">
+        <v>373</v>
+      </c>
+      <c r="C31" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" t="s">
         <v>375</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G31" t="s">
         <v>376</v>
       </c>
-      <c r="D31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
+        <v>373</v>
+      </c>
+      <c r="I31" t="s">
         <v>377</v>
       </c>
-      <c r="G31" t="s">
-        <v>378</v>
-      </c>
-      <c r="H31" t="s">
-        <v>375</v>
-      </c>
-      <c r="I31" t="s">
-        <v>379</v>
-      </c>
       <c r="J31" t="s">
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M31" t="s">
         <v>51</v>
       </c>
       <c r="N31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P31" t="b">
         <f>TRUE()</f>
@@ -8635,43 +8641,43 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>378</v>
+      </c>
+      <c r="B32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" t="s">
         <v>380</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E32" t="s">
+        <v>320</v>
+      </c>
+      <c r="F32" t="s">
         <v>381</v>
       </c>
-      <c r="C32" t="s">
+      <c r="G32" t="s">
         <v>382</v>
       </c>
-      <c r="D32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E32" t="s">
-        <v>322</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
+        <v>379</v>
+      </c>
+      <c r="I32" t="s">
         <v>383</v>
       </c>
-      <c r="G32" t="s">
-        <v>384</v>
-      </c>
-      <c r="H32" t="s">
-        <v>381</v>
-      </c>
-      <c r="I32" t="s">
-        <v>385</v>
-      </c>
       <c r="J32" t="s">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
       </c>
       <c r="N32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P32" t="b">
         <f>TRUE()</f>
@@ -8703,43 +8709,43 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" t="s">
+        <v>385</v>
+      </c>
+      <c r="D33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E33" t="s">
+        <v>320</v>
+      </c>
+      <c r="F33" t="s">
         <v>386</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G33" t="s">
         <v>387</v>
       </c>
-      <c r="D33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E33" t="s">
-        <v>322</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
+        <v>384</v>
+      </c>
+      <c r="I33" t="s">
         <v>388</v>
       </c>
-      <c r="G33" t="s">
-        <v>389</v>
-      </c>
-      <c r="H33" t="s">
-        <v>386</v>
-      </c>
-      <c r="I33" t="s">
-        <v>390</v>
-      </c>
       <c r="J33" t="s">
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M33" t="s">
         <v>51</v>
       </c>
       <c r="N33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P33" t="b">
         <f>TRUE()</f>
@@ -8771,43 +8777,43 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" t="s">
+        <v>320</v>
+      </c>
+      <c r="F34" t="s">
         <v>391</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
         <v>392</v>
       </c>
-      <c r="D34" t="s">
-        <v>322</v>
-      </c>
-      <c r="E34" t="s">
-        <v>322</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
+        <v>389</v>
+      </c>
+      <c r="I34" t="s">
         <v>393</v>
       </c>
-      <c r="G34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H34" t="s">
-        <v>391</v>
-      </c>
-      <c r="I34" t="s">
-        <v>395</v>
-      </c>
       <c r="J34" t="s">
         <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M34" t="s">
         <v>51</v>
       </c>
       <c r="N34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P34" t="b">
         <f>TRUE()</f>
@@ -8839,43 +8845,43 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C35" t="s">
         <v>396</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
+        <v>359</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>397</v>
       </c>
-      <c r="C35" t="s">
+      <c r="G35" t="s">
         <v>398</v>
       </c>
-      <c r="D35" t="s">
-        <v>361</v>
-      </c>
-      <c r="E35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
+        <v>395</v>
+      </c>
+      <c r="I35" t="s">
         <v>399</v>
       </c>
-      <c r="G35" t="s">
-        <v>400</v>
-      </c>
-      <c r="H35" t="s">
-        <v>397</v>
-      </c>
-      <c r="I35" t="s">
-        <v>401</v>
-      </c>
       <c r="J35" t="s">
         <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M35" t="s">
         <v>51</v>
       </c>
       <c r="N35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P35" t="b">
         <f>TRUE()</f>
@@ -8907,43 +8913,43 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B36" t="s">
+        <v>400</v>
+      </c>
+      <c r="C36" t="s">
+        <v>401</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
         <v>402</v>
       </c>
-      <c r="C36" t="s">
+      <c r="G36" t="s">
         <v>403</v>
       </c>
-      <c r="D36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
+        <v>400</v>
+      </c>
+      <c r="I36" t="s">
         <v>404</v>
       </c>
-      <c r="G36" t="s">
-        <v>405</v>
-      </c>
-      <c r="H36" t="s">
-        <v>402</v>
-      </c>
-      <c r="I36" t="s">
-        <v>406</v>
-      </c>
       <c r="J36" t="s">
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s">
         <v>51</v>
       </c>
       <c r="N36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P36" t="b">
         <f>TRUE()</f>
@@ -8975,43 +8981,43 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B37" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" t="s">
+        <v>406</v>
+      </c>
+      <c r="D37" t="s">
+        <v>359</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
         <v>407</v>
       </c>
-      <c r="C37" t="s">
+      <c r="G37" t="s">
         <v>408</v>
       </c>
-      <c r="D37" t="s">
-        <v>361</v>
-      </c>
-      <c r="E37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
+        <v>405</v>
+      </c>
+      <c r="I37" t="s">
         <v>409</v>
       </c>
-      <c r="G37" t="s">
-        <v>410</v>
-      </c>
-      <c r="H37" t="s">
-        <v>407</v>
-      </c>
-      <c r="I37" t="s">
-        <v>411</v>
-      </c>
       <c r="J37" t="s">
         <v>31</v>
       </c>
       <c r="L37" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M37" t="s">
         <v>51</v>
       </c>
       <c r="N37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P37" t="b">
         <f>TRUE()</f>
@@ -9043,43 +9049,43 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C38" t="s">
+        <v>411</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" t="s">
         <v>412</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G38" t="s">
         <v>413</v>
       </c>
-      <c r="D38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
+        <v>410</v>
+      </c>
+      <c r="I38" t="s">
         <v>414</v>
       </c>
-      <c r="G38" t="s">
-        <v>415</v>
-      </c>
-      <c r="H38" t="s">
-        <v>412</v>
-      </c>
-      <c r="I38" t="s">
-        <v>416</v>
-      </c>
       <c r="J38" t="s">
         <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s">
         <v>51</v>
       </c>
       <c r="N38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P38" t="b">
         <f>TRUE()</f>
@@ -9111,43 +9117,43 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B39" t="s">
+        <v>415</v>
+      </c>
+      <c r="C39" t="s">
+        <v>416</v>
+      </c>
+      <c r="D39" t="s">
+        <v>359</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
         <v>417</v>
       </c>
-      <c r="C39" t="s">
+      <c r="G39" t="s">
         <v>418</v>
       </c>
-      <c r="D39" t="s">
-        <v>361</v>
-      </c>
-      <c r="E39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
+        <v>415</v>
+      </c>
+      <c r="I39" t="s">
         <v>419</v>
       </c>
-      <c r="G39" t="s">
-        <v>420</v>
-      </c>
-      <c r="H39" t="s">
-        <v>417</v>
-      </c>
-      <c r="I39" t="s">
-        <v>421</v>
-      </c>
       <c r="J39" t="s">
         <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M39" t="s">
         <v>51</v>
       </c>
       <c r="N39" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P39" t="b">
         <f>TRUE()</f>
@@ -9179,43 +9185,43 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C40" t="s">
+        <v>421</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
         <v>422</v>
       </c>
-      <c r="C40" t="s">
+      <c r="G40" t="s">
         <v>423</v>
       </c>
-      <c r="D40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
+        <v>420</v>
+      </c>
+      <c r="I40" t="s">
         <v>424</v>
       </c>
-      <c r="G40" t="s">
-        <v>425</v>
-      </c>
-      <c r="H40" t="s">
-        <v>422</v>
-      </c>
-      <c r="I40" t="s">
-        <v>426</v>
-      </c>
       <c r="J40" t="s">
         <v>31</v>
       </c>
       <c r="L40" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s">
         <v>51</v>
       </c>
       <c r="N40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P40" t="b">
         <f>TRUE()</f>
@@ -9247,31 +9253,31 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
+        <v>425</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" t="s">
+        <v>426</v>
+      </c>
+      <c r="G41" t="s">
         <v>427</v>
       </c>
-      <c r="D41" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" t="s">
-        <v>131</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" t="s">
         <v>428</v>
-      </c>
-      <c r="G41" t="s">
-        <v>429</v>
-      </c>
-      <c r="H41" t="s">
-        <v>139</v>
-      </c>
-      <c r="I41" t="s">
-        <v>430</v>
       </c>
       <c r="J41" t="s">
         <v>31</v>
@@ -9280,7 +9286,7 @@
         <v>51</v>
       </c>
       <c r="N41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P41" t="b">
         <f>TRUE()</f>
@@ -9312,31 +9318,31 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
+        <v>429</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" t="s">
+        <v>430</v>
+      </c>
+      <c r="G42" t="s">
         <v>431</v>
       </c>
-      <c r="D42" t="s">
+      <c r="H42" t="s">
         <v>131</v>
       </c>
-      <c r="E42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>432</v>
-      </c>
-      <c r="G42" t="s">
-        <v>433</v>
-      </c>
-      <c r="H42" t="s">
-        <v>133</v>
-      </c>
-      <c r="I42" t="s">
-        <v>434</v>
       </c>
       <c r="J42" t="s">
         <v>31</v>
@@ -9345,7 +9351,7 @@
         <v>51</v>
       </c>
       <c r="N42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P42" t="b">
         <f>TRUE()</f>
@@ -9377,31 +9383,31 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
+        <v>433</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" t="s">
+        <v>434</v>
+      </c>
+      <c r="G43" t="s">
         <v>435</v>
       </c>
-      <c r="D43" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" t="s">
         <v>436</v>
-      </c>
-      <c r="G43" t="s">
-        <v>437</v>
-      </c>
-      <c r="H43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" t="s">
-        <v>438</v>
       </c>
       <c r="J43" t="s">
         <v>31</v>
@@ -9410,7 +9416,7 @@
         <v>51</v>
       </c>
       <c r="N43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P43" t="b">
         <f>TRUE()</f>
@@ -9442,31 +9448,31 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
+        <v>437</v>
+      </c>
+      <c r="C44" t="s">
+        <v>438</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" t="s">
         <v>439</v>
       </c>
-      <c r="C44" t="s">
+      <c r="G44" t="s">
         <v>440</v>
       </c>
-      <c r="D44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
+        <v>437</v>
+      </c>
+      <c r="I44" t="s">
         <v>441</v>
-      </c>
-      <c r="G44" t="s">
-        <v>442</v>
-      </c>
-      <c r="H44" t="s">
-        <v>439</v>
-      </c>
-      <c r="I44" t="s">
-        <v>443</v>
       </c>
       <c r="J44" t="s">
         <v>31</v>
@@ -9475,7 +9481,7 @@
         <v>51</v>
       </c>
       <c r="N44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P44" t="b">
         <f>TRUE()</f>
@@ -9507,31 +9513,31 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>442</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>443</v>
+      </c>
+      <c r="D45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s">
         <v>444</v>
       </c>
-      <c r="B45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="G45" t="s">
         <v>445</v>
       </c>
-      <c r="D45" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" t="s">
         <v>446</v>
-      </c>
-      <c r="G45" t="s">
-        <v>447</v>
-      </c>
-      <c r="H45" t="s">
-        <v>143</v>
-      </c>
-      <c r="I45" t="s">
-        <v>448</v>
       </c>
       <c r="J45" t="s">
         <v>31</v>
@@ -9540,7 +9546,7 @@
         <v>51</v>
       </c>
       <c r="N45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P45" t="b">
         <f>TRUE()</f>
@@ -9572,31 +9578,31 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B46" t="s">
+        <v>448</v>
+      </c>
+      <c r="C46" t="s">
         <v>449</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s">
         <v>450</v>
       </c>
-      <c r="C46" t="s">
+      <c r="G46" t="s">
         <v>451</v>
       </c>
-      <c r="D46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
+        <v>448</v>
+      </c>
+      <c r="I46" t="s">
         <v>452</v>
-      </c>
-      <c r="G46" t="s">
-        <v>453</v>
-      </c>
-      <c r="H46" t="s">
-        <v>450</v>
-      </c>
-      <c r="I46" t="s">
-        <v>454</v>
       </c>
       <c r="J46" t="s">
         <v>31</v>
@@ -9605,7 +9611,7 @@
         <v>51</v>
       </c>
       <c r="N46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P46" t="b">
         <f>TRUE()</f>
@@ -9637,31 +9643,31 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>453</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>454</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s">
         <v>455</v>
       </c>
-      <c r="B47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="G47" t="s">
         <v>456</v>
       </c>
-      <c r="D47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
+        <v>151</v>
+      </c>
+      <c r="I47" t="s">
         <v>457</v>
-      </c>
-      <c r="G47" t="s">
-        <v>458</v>
-      </c>
-      <c r="H47" t="s">
-        <v>153</v>
-      </c>
-      <c r="I47" t="s">
-        <v>459</v>
       </c>
       <c r="J47" t="s">
         <v>31</v>
@@ -9670,7 +9676,7 @@
         <v>51</v>
       </c>
       <c r="N47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P47" t="b">
         <f>TRUE()</f>
@@ -9702,31 +9708,31 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>458</v>
+      </c>
+      <c r="B48" t="s">
+        <v>459</v>
+      </c>
+      <c r="C48" t="s">
         <v>460</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s">
         <v>461</v>
       </c>
-      <c r="C48" t="s">
+      <c r="G48" t="s">
         <v>462</v>
       </c>
-      <c r="D48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
+        <v>459</v>
+      </c>
+      <c r="I48" t="s">
         <v>463</v>
-      </c>
-      <c r="G48" t="s">
-        <v>464</v>
-      </c>
-      <c r="H48" t="s">
-        <v>461</v>
-      </c>
-      <c r="I48" t="s">
-        <v>465</v>
       </c>
       <c r="J48" t="s">
         <v>31</v>
@@ -9735,7 +9741,7 @@
         <v>51</v>
       </c>
       <c r="N48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P48" t="b">
         <f>TRUE()</f>
@@ -9767,31 +9773,31 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>464</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>465</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" t="s">
         <v>466</v>
       </c>
-      <c r="B49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="F49" t="s">
         <v>467</v>
       </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>468</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" t="s">
         <v>469</v>
-      </c>
-      <c r="G49" t="s">
-        <v>470</v>
-      </c>
-      <c r="H49" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49" t="s">
-        <v>471</v>
       </c>
       <c r="J49" t="s">
         <v>31</v>
@@ -9800,7 +9806,7 @@
         <v>51</v>
       </c>
       <c r="N49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P49" t="b">
         <f>TRUE()</f>
@@ -9832,31 +9838,31 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
+        <v>470</v>
+      </c>
+      <c r="B50" t="s">
+        <v>471</v>
+      </c>
+      <c r="C50" t="s">
         <v>472</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s">
         <v>473</v>
       </c>
-      <c r="C50" t="s">
+      <c r="G50" t="s">
         <v>474</v>
       </c>
-      <c r="D50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
+        <v>471</v>
+      </c>
+      <c r="I50" t="s">
         <v>475</v>
-      </c>
-      <c r="G50" t="s">
-        <v>476</v>
-      </c>
-      <c r="H50" t="s">
-        <v>473</v>
-      </c>
-      <c r="I50" t="s">
-        <v>477</v>
       </c>
       <c r="J50" t="s">
         <v>31</v>
@@ -9865,7 +9871,7 @@
         <v>51</v>
       </c>
       <c r="N50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P50" t="b">
         <f>TRUE()</f>
@@ -9897,31 +9903,31 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>476</v>
+      </c>
+      <c r="B51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C51" t="s">
         <v>478</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s">
         <v>479</v>
       </c>
-      <c r="C51" t="s">
+      <c r="G51" t="s">
         <v>480</v>
       </c>
-      <c r="D51" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
+        <v>477</v>
+      </c>
+      <c r="I51" t="s">
         <v>481</v>
-      </c>
-      <c r="G51" t="s">
-        <v>482</v>
-      </c>
-      <c r="H51" t="s">
-        <v>479</v>
-      </c>
-      <c r="I51" t="s">
-        <v>483</v>
       </c>
       <c r="J51" t="s">
         <v>31</v>
@@ -9930,7 +9936,7 @@
         <v>51</v>
       </c>
       <c r="N51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P51" t="b">
         <f>TRUE()</f>
@@ -9962,31 +9968,31 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
+        <v>482</v>
+      </c>
+      <c r="B52" t="s">
+        <v>483</v>
+      </c>
+      <c r="C52" t="s">
         <v>484</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s">
         <v>485</v>
       </c>
-      <c r="C52" t="s">
+      <c r="G52" t="s">
         <v>486</v>
       </c>
-      <c r="D52" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
+        <v>483</v>
+      </c>
+      <c r="I52" t="s">
         <v>487</v>
-      </c>
-      <c r="G52" t="s">
-        <v>488</v>
-      </c>
-      <c r="H52" t="s">
-        <v>485</v>
-      </c>
-      <c r="I52" t="s">
-        <v>489</v>
       </c>
       <c r="J52" t="s">
         <v>31</v>
@@ -9995,7 +10001,7 @@
         <v>51</v>
       </c>
       <c r="N52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P52" t="b">
         <f>TRUE()</f>
@@ -10027,31 +10033,31 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>488</v>
+      </c>
+      <c r="B53" t="s">
+        <v>489</v>
+      </c>
+      <c r="C53" t="s">
         <v>490</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s">
         <v>491</v>
       </c>
-      <c r="C53" t="s">
+      <c r="G53" t="s">
         <v>492</v>
       </c>
-      <c r="D53" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
+        <v>489</v>
+      </c>
+      <c r="I53" t="s">
         <v>493</v>
-      </c>
-      <c r="G53" t="s">
-        <v>494</v>
-      </c>
-      <c r="H53" t="s">
-        <v>491</v>
-      </c>
-      <c r="I53" t="s">
-        <v>495</v>
       </c>
       <c r="J53" t="s">
         <v>31</v>
@@ -10060,7 +10066,7 @@
         <v>51</v>
       </c>
       <c r="N53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P53" t="b">
         <f>TRUE()</f>
@@ -10092,31 +10098,31 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>494</v>
+      </c>
+      <c r="B54" t="s">
+        <v>495</v>
+      </c>
+      <c r="C54" t="s">
         <v>496</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
+        <v>274</v>
+      </c>
+      <c r="E54" t="s">
         <v>497</v>
       </c>
-      <c r="C54" t="s">
+      <c r="F54" t="s">
         <v>498</v>
       </c>
-      <c r="D54" t="s">
-        <v>276</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>499</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
+        <v>495</v>
+      </c>
+      <c r="I54" t="s">
         <v>500</v>
-      </c>
-      <c r="G54" t="s">
-        <v>501</v>
-      </c>
-      <c r="H54" t="s">
-        <v>497</v>
-      </c>
-      <c r="I54" t="s">
-        <v>502</v>
       </c>
       <c r="J54" t="s">
         <v>31</v>
@@ -10125,7 +10131,7 @@
         <v>51</v>
       </c>
       <c r="N54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P54" t="b">
         <f>TRUE()</f>
@@ -10157,40 +10163,40 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>501</v>
+      </c>
+      <c r="B55" t="s">
+        <v>502</v>
+      </c>
+      <c r="C55" t="s">
         <v>503</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>504</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" t="s">
         <v>505</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
         <v>506</v>
       </c>
-      <c r="E55" t="s">
-        <v>180</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
+        <v>502</v>
+      </c>
+      <c r="I55" t="s">
         <v>507</v>
       </c>
-      <c r="G55" t="s">
-        <v>508</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="J55" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" t="s">
+        <v>99</v>
+      </c>
+      <c r="N55" t="s">
         <v>504</v>
-      </c>
-      <c r="I55" t="s">
-        <v>509</v>
-      </c>
-      <c r="J55" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" t="s">
-        <v>101</v>
-      </c>
-      <c r="N55" t="s">
-        <v>506</v>
       </c>
       <c r="P55" t="b">
         <f>TRUE()</f>
@@ -10216,43 +10222,43 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>508</v>
+      </c>
+      <c r="D56" t="s">
         <v>119</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
+        <v>509</v>
+      </c>
+      <c r="F56" t="s">
         <v>510</v>
       </c>
-      <c r="D56" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>511</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
+        <v>117</v>
+      </c>
+      <c r="I56" t="s">
         <v>512</v>
       </c>
-      <c r="G56" t="s">
+      <c r="J56" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" t="s">
         <v>513</v>
-      </c>
-      <c r="H56" t="s">
-        <v>119</v>
-      </c>
-      <c r="I56" t="s">
-        <v>514</v>
-      </c>
-      <c r="J56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L56" t="s">
-        <v>515</v>
       </c>
       <c r="M56" t="s">
         <v>51</v>
       </c>
       <c r="N56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P56" t="b">
         <f>TRUE()</f>
@@ -10284,43 +10290,43 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
+        <v>514</v>
+      </c>
+      <c r="C57" t="s">
+        <v>515</v>
+      </c>
+      <c r="D57" t="s">
         <v>516</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" t="s">
         <v>517</v>
       </c>
-      <c r="D57" t="s">
+      <c r="G57" t="s">
         <v>518</v>
       </c>
-      <c r="E57" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
+        <v>514</v>
+      </c>
+      <c r="I57" t="s">
         <v>519</v>
       </c>
-      <c r="G57" t="s">
+      <c r="J57" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" t="s">
         <v>520</v>
-      </c>
-      <c r="H57" t="s">
-        <v>516</v>
-      </c>
-      <c r="I57" t="s">
-        <v>521</v>
-      </c>
-      <c r="J57" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" t="s">
-        <v>522</v>
       </c>
       <c r="M57" t="s">
         <v>51</v>
       </c>
       <c r="N57" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="P57" t="b">
         <f>TRUE()</f>
@@ -10352,37 +10358,37 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
+        <v>521</v>
+      </c>
+      <c r="B58" t="s">
+        <v>522</v>
+      </c>
+      <c r="C58" t="s">
         <v>523</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s">
         <v>524</v>
       </c>
-      <c r="C58" t="s">
+      <c r="G58" t="s">
         <v>525</v>
       </c>
-      <c r="D58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
+        <v>522</v>
+      </c>
+      <c r="I58" t="s">
         <v>526</v>
       </c>
-      <c r="G58" t="s">
-        <v>527</v>
-      </c>
-      <c r="H58" t="s">
-        <v>524</v>
-      </c>
-      <c r="I58" t="s">
-        <v>528</v>
-      </c>
       <c r="J58" t="s">
         <v>31</v>
       </c>
       <c r="N58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P58" t="b">
         <f>TRUE()</f>
@@ -10408,37 +10414,37 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
+        <v>527</v>
+      </c>
+      <c r="B59" t="s">
+        <v>528</v>
+      </c>
+      <c r="C59" t="s">
         <v>529</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s">
         <v>530</v>
       </c>
-      <c r="C59" t="s">
+      <c r="G59" t="s">
         <v>531</v>
       </c>
-      <c r="D59" t="s">
-        <v>180</v>
-      </c>
-      <c r="E59" t="s">
-        <v>76</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
+        <v>528</v>
+      </c>
+      <c r="I59" t="s">
         <v>532</v>
       </c>
-      <c r="G59" t="s">
-        <v>533</v>
-      </c>
-      <c r="H59" t="s">
-        <v>530</v>
-      </c>
-      <c r="I59" t="s">
-        <v>534</v>
-      </c>
       <c r="J59" t="s">
         <v>31</v>
       </c>
       <c r="N59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P59" t="b">
         <f>TRUE()</f>
@@ -10464,31 +10470,31 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B60" t="s">
+        <v>533</v>
+      </c>
+      <c r="C60" t="s">
+        <v>534</v>
+      </c>
+      <c r="D60" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" t="s">
         <v>535</v>
       </c>
-      <c r="C60" t="s">
+      <c r="G60" t="s">
         <v>536</v>
       </c>
-      <c r="D60" t="s">
-        <v>292</v>
-      </c>
-      <c r="E60" t="s">
-        <v>76</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
+        <v>533</v>
+      </c>
+      <c r="I60" t="s">
         <v>537</v>
-      </c>
-      <c r="G60" t="s">
-        <v>538</v>
-      </c>
-      <c r="H60" t="s">
-        <v>535</v>
-      </c>
-      <c r="I60" t="s">
-        <v>539</v>
       </c>
       <c r="J60" t="s">
         <v>31</v>
@@ -10497,7 +10503,7 @@
         <v>51</v>
       </c>
       <c r="N60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P60" t="b">
         <f>TRUE()</f>
@@ -10529,31 +10535,31 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B61" t="s">
+        <v>538</v>
+      </c>
+      <c r="C61" t="s">
+        <v>539</v>
+      </c>
+      <c r="D61" t="s">
+        <v>290</v>
+      </c>
+      <c r="E61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" t="s">
         <v>540</v>
       </c>
-      <c r="C61" t="s">
+      <c r="G61" t="s">
+        <v>536</v>
+      </c>
+      <c r="H61" t="s">
+        <v>538</v>
+      </c>
+      <c r="I61" t="s">
         <v>541</v>
-      </c>
-      <c r="D61" t="s">
-        <v>292</v>
-      </c>
-      <c r="E61" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" t="s">
-        <v>542</v>
-      </c>
-      <c r="G61" t="s">
-        <v>538</v>
-      </c>
-      <c r="H61" t="s">
-        <v>540</v>
-      </c>
-      <c r="I61" t="s">
-        <v>543</v>
       </c>
       <c r="J61" t="s">
         <v>31</v>
@@ -10562,7 +10568,7 @@
         <v>51</v>
       </c>
       <c r="N61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P61" t="b">
         <f>TRUE()</f>
@@ -10594,31 +10600,31 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" t="s">
+        <v>542</v>
+      </c>
+      <c r="D62" t="s">
         <v>208</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" t="s">
+        <v>543</v>
+      </c>
+      <c r="G62" t="s">
         <v>544</v>
       </c>
-      <c r="D62" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
+        <v>206</v>
+      </c>
+      <c r="I62" t="s">
         <v>545</v>
-      </c>
-      <c r="G62" t="s">
-        <v>546</v>
-      </c>
-      <c r="H62" t="s">
-        <v>208</v>
-      </c>
-      <c r="I62" t="s">
-        <v>547</v>
       </c>
       <c r="J62" t="s">
         <v>31</v>
@@ -10627,7 +10633,7 @@
         <v>51</v>
       </c>
       <c r="N62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P62" t="b">
         <f>TRUE()</f>
@@ -10659,43 +10665,43 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
+        <v>546</v>
+      </c>
+      <c r="B63" t="s">
+        <v>547</v>
+      </c>
+      <c r="C63" t="s">
         <v>548</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
+        <v>359</v>
+      </c>
+      <c r="E63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" t="s">
         <v>549</v>
       </c>
-      <c r="C63" t="s">
+      <c r="G63" t="s">
         <v>550</v>
       </c>
-      <c r="D63" t="s">
-        <v>361</v>
-      </c>
-      <c r="E63" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
+        <v>547</v>
+      </c>
+      <c r="I63" t="s">
         <v>551</v>
       </c>
-      <c r="G63" t="s">
-        <v>552</v>
-      </c>
-      <c r="H63" t="s">
-        <v>549</v>
-      </c>
-      <c r="I63" t="s">
-        <v>553</v>
-      </c>
       <c r="J63" t="s">
         <v>31</v>
       </c>
       <c r="L63" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M63" t="s">
         <v>51</v>
       </c>
       <c r="N63" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P63" t="b">
         <f>TRUE()</f>
@@ -10727,43 +10733,43 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B64" t="s">
+        <v>552</v>
+      </c>
+      <c r="C64" t="s">
+        <v>553</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" t="s">
         <v>554</v>
       </c>
-      <c r="C64" t="s">
+      <c r="G64" t="s">
         <v>555</v>
       </c>
-      <c r="D64" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
+        <v>552</v>
+      </c>
+      <c r="I64" t="s">
         <v>556</v>
       </c>
-      <c r="G64" t="s">
-        <v>557</v>
-      </c>
-      <c r="H64" t="s">
-        <v>554</v>
-      </c>
-      <c r="I64" t="s">
-        <v>558</v>
-      </c>
       <c r="J64" t="s">
         <v>31</v>
       </c>
       <c r="L64" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M64" t="s">
         <v>51</v>
       </c>
       <c r="N64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P64" t="b">
         <f>TRUE()</f>
@@ -10795,37 +10801,37 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
+        <v>557</v>
+      </c>
+      <c r="B65" t="s">
+        <v>558</v>
+      </c>
+      <c r="C65" t="s">
         <v>559</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" t="s">
         <v>560</v>
       </c>
-      <c r="C65" t="s">
+      <c r="G65" t="s">
         <v>561</v>
       </c>
-      <c r="D65" t="s">
-        <v>288</v>
-      </c>
-      <c r="E65" t="s">
-        <v>76</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
+        <v>558</v>
+      </c>
+      <c r="I65" t="s">
         <v>562</v>
       </c>
-      <c r="G65" t="s">
-        <v>563</v>
-      </c>
-      <c r="H65" t="s">
-        <v>560</v>
-      </c>
-      <c r="I65" t="s">
-        <v>564</v>
-      </c>
       <c r="J65" t="s">
         <v>31</v>
       </c>
       <c r="N65" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P65" t="b">
         <f>TRUE()</f>
@@ -10851,37 +10857,37 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>563</v>
+      </c>
+      <c r="B66" t="s">
+        <v>564</v>
+      </c>
+      <c r="C66" t="s">
         <v>565</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
+        <v>286</v>
+      </c>
+      <c r="E66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s">
         <v>566</v>
       </c>
-      <c r="C66" t="s">
+      <c r="G66" t="s">
+        <v>354</v>
+      </c>
+      <c r="H66" t="s">
+        <v>564</v>
+      </c>
+      <c r="I66" t="s">
         <v>567</v>
       </c>
-      <c r="D66" t="s">
-        <v>288</v>
-      </c>
-      <c r="E66" t="s">
-        <v>76</v>
-      </c>
-      <c r="F66" t="s">
-        <v>568</v>
-      </c>
-      <c r="G66" t="s">
-        <v>356</v>
-      </c>
-      <c r="H66" t="s">
-        <v>566</v>
-      </c>
-      <c r="I66" t="s">
-        <v>569</v>
-      </c>
       <c r="J66" t="s">
         <v>31</v>
       </c>
       <c r="N66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P66" t="b">
         <f>TRUE()</f>
@@ -10910,28 +10916,28 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C67" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D67" t="s">
         <v>43</v>
       </c>
       <c r="E67" t="s">
+        <v>570</v>
+      </c>
+      <c r="F67" t="s">
+        <v>571</v>
+      </c>
+      <c r="G67" t="s">
         <v>572</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67" t="s">
+        <v>568</v>
+      </c>
+      <c r="I67" t="s">
         <v>573</v>
-      </c>
-      <c r="G67" t="s">
-        <v>574</v>
-      </c>
-      <c r="H67" t="s">
-        <v>570</v>
-      </c>
-      <c r="I67" t="s">
-        <v>575</v>
       </c>
       <c r="J67" t="s">
         <v>31</v>
@@ -10960,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X67">
         <v>952</v>
@@ -10971,31 +10977,31 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
+        <v>575</v>
+      </c>
+      <c r="B68" t="s">
+        <v>576</v>
+      </c>
+      <c r="C68" t="s">
         <v>577</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" t="s">
         <v>578</v>
       </c>
-      <c r="C68" t="s">
+      <c r="G68" t="s">
+        <v>578</v>
+      </c>
+      <c r="H68" t="s">
+        <v>576</v>
+      </c>
+      <c r="I68" t="s">
         <v>579</v>
-      </c>
-      <c r="D68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" t="s">
-        <v>76</v>
-      </c>
-      <c r="F68" t="s">
-        <v>580</v>
-      </c>
-      <c r="G68" t="s">
-        <v>580</v>
-      </c>
-      <c r="H68" t="s">
-        <v>578</v>
-      </c>
-      <c r="I68" t="s">
-        <v>581</v>
       </c>
       <c r="J68" t="s">
         <v>31</v>
@@ -11004,7 +11010,7 @@
         <v>51</v>
       </c>
       <c r="N68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P68" t="b">
         <f>TRUE()</f>
@@ -11036,31 +11042,31 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
+        <v>580</v>
+      </c>
+      <c r="B69" t="s">
+        <v>581</v>
+      </c>
+      <c r="C69" t="s">
         <v>582</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
+        <v>274</v>
+      </c>
+      <c r="E69" t="s">
         <v>583</v>
       </c>
-      <c r="C69" t="s">
+      <c r="F69" t="s">
         <v>584</v>
       </c>
-      <c r="D69" t="s">
-        <v>276</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="G69" t="s">
         <v>585</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
+        <v>581</v>
+      </c>
+      <c r="I69" t="s">
         <v>586</v>
-      </c>
-      <c r="G69" t="s">
-        <v>587</v>
-      </c>
-      <c r="H69" t="s">
-        <v>583</v>
-      </c>
-      <c r="I69" t="s">
-        <v>588</v>
       </c>
       <c r="J69" t="s">
         <v>31</v>
@@ -11069,7 +11075,7 @@
         <v>51</v>
       </c>
       <c r="N69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P69" t="b">
         <f>TRUE()</f>
@@ -11101,43 +11107,43 @@
     </row>
     <row r="70" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="H70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P70" s="3" t="b">
         <f>TRUE()</f>
@@ -11160,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="X70" s="3">
         <v>144</v>
@@ -11175,31 +11181,31 @@
     </row>
     <row r="71" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="H71" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>31</v>
@@ -11208,7 +11214,7 @@
         <v>51</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P71" s="3" t="b">
         <f>TRUE()</f>
@@ -11240,31 +11246,31 @@
     </row>
     <row r="72" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="E72" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="H72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>31</v>
@@ -11273,7 +11279,7 @@
         <v>51</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P72" s="3" t="b">
         <f>TRUE()</f>
@@ -11305,43 +11311,43 @@
     </row>
     <row r="73" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="H73" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>608</v>
-      </c>
       <c r="J73" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P73" s="3" t="b">
         <f>TRUE()</f>
@@ -11364,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="X73" s="3">
         <v>120</v>
@@ -11379,31 +11385,31 @@
     </row>
     <row r="74" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="H74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>612</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>31</v>
@@ -11412,7 +11418,7 @@
         <v>51</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P74" s="3" t="b">
         <f>TRUE()</f>
@@ -11444,37 +11450,37 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
+        <v>611</v>
+      </c>
+      <c r="B75" t="s">
+        <v>612</v>
+      </c>
+      <c r="C75" t="s">
         <v>613</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
+        <v>286</v>
+      </c>
+      <c r="E75" t="s">
+        <v>497</v>
+      </c>
+      <c r="F75" t="s">
         <v>614</v>
       </c>
-      <c r="C75" t="s">
+      <c r="G75" t="s">
         <v>615</v>
       </c>
-      <c r="D75" t="s">
-        <v>288</v>
-      </c>
-      <c r="E75" t="s">
-        <v>499</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
+        <v>612</v>
+      </c>
+      <c r="I75" t="s">
         <v>616</v>
       </c>
-      <c r="G75" t="s">
-        <v>617</v>
-      </c>
-      <c r="H75" t="s">
-        <v>614</v>
-      </c>
-      <c r="I75" t="s">
-        <v>618</v>
-      </c>
       <c r="J75" t="s">
         <v>31</v>
       </c>
       <c r="N75" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P75" t="b">
         <f>TRUE()</f>
@@ -11506,25 +11512,25 @@
         <v>50</v>
       </c>
       <c r="C76" t="s">
+        <v>617</v>
+      </c>
+      <c r="D76" t="s">
+        <v>618</v>
+      </c>
+      <c r="E76" t="s">
+        <v>320</v>
+      </c>
+      <c r="F76" t="s">
         <v>619</v>
       </c>
-      <c r="D76" t="s">
+      <c r="G76" t="s">
         <v>620</v>
-      </c>
-      <c r="E76" t="s">
-        <v>322</v>
-      </c>
-      <c r="F76" t="s">
-        <v>621</v>
-      </c>
-      <c r="G76" t="s">
-        <v>622</v>
       </c>
       <c r="H76" t="s">
         <v>50</v>
       </c>
       <c r="I76" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J76" t="s">
         <v>31</v>
@@ -11533,7 +11539,7 @@
         <v>51</v>
       </c>
       <c r="N76" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="P76" t="b">
         <f>TRUE()</f>
@@ -11571,25 +11577,25 @@
         <v>52</v>
       </c>
       <c r="C77" t="s">
+        <v>622</v>
+      </c>
+      <c r="D77" t="s">
+        <v>623</v>
+      </c>
+      <c r="E77" t="s">
+        <v>320</v>
+      </c>
+      <c r="F77" t="s">
         <v>624</v>
       </c>
-      <c r="D77" t="s">
+      <c r="G77" t="s">
         <v>625</v>
-      </c>
-      <c r="E77" t="s">
-        <v>322</v>
-      </c>
-      <c r="F77" t="s">
-        <v>626</v>
-      </c>
-      <c r="G77" t="s">
-        <v>627</v>
       </c>
       <c r="H77" t="s">
         <v>52</v>
       </c>
       <c r="I77" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J77" t="s">
         <v>31</v>
@@ -11598,7 +11604,7 @@
         <v>51</v>
       </c>
       <c r="N77" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P77" t="b">
         <f>TRUE()</f>
@@ -11636,31 +11642,31 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
+        <v>627</v>
+      </c>
+      <c r="D78" t="s">
+        <v>628</v>
+      </c>
+      <c r="E78" t="s">
+        <v>320</v>
+      </c>
+      <c r="F78" t="s">
         <v>629</v>
       </c>
-      <c r="D78" t="s">
+      <c r="G78" t="s">
         <v>630</v>
-      </c>
-      <c r="E78" t="s">
-        <v>322</v>
-      </c>
-      <c r="F78" t="s">
-        <v>631</v>
-      </c>
-      <c r="G78" t="s">
-        <v>632</v>
       </c>
       <c r="H78" t="s">
         <v>54</v>
       </c>
       <c r="I78" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J78" t="s">
         <v>31</v>
       </c>
       <c r="N78" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P78" t="b">
         <f>TRUE()</f>
@@ -11689,34 +11695,34 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
+        <v>632</v>
+      </c>
+      <c r="D79" t="s">
+        <v>628</v>
+      </c>
+      <c r="E79" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" t="s">
+        <v>633</v>
+      </c>
+      <c r="G79" t="s">
         <v>634</v>
       </c>
-      <c r="D79" t="s">
-        <v>630</v>
-      </c>
-      <c r="E79" t="s">
-        <v>322</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
+        <v>56</v>
+      </c>
+      <c r="I79" t="s">
         <v>635</v>
       </c>
-      <c r="G79" t="s">
-        <v>636</v>
-      </c>
-      <c r="H79" t="s">
-        <v>57</v>
-      </c>
-      <c r="I79" t="s">
-        <v>637</v>
-      </c>
       <c r="J79" t="s">
         <v>31</v>
       </c>
       <c r="N79" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P79" t="b">
         <f>TRUE()</f>
@@ -11742,31 +11748,31 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
+        <v>636</v>
+      </c>
+      <c r="C80" t="s">
+        <v>637</v>
+      </c>
+      <c r="D80" t="s">
         <v>638</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
+        <v>595</v>
+      </c>
+      <c r="F80" t="s">
         <v>639</v>
       </c>
-      <c r="D80" t="s">
+      <c r="G80" t="s">
         <v>640</v>
       </c>
-      <c r="E80" t="s">
-        <v>597</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
+        <v>636</v>
+      </c>
+      <c r="I80" t="s">
         <v>641</v>
-      </c>
-      <c r="G80" t="s">
-        <v>642</v>
-      </c>
-      <c r="H80" t="s">
-        <v>638</v>
-      </c>
-      <c r="I80" t="s">
-        <v>643</v>
       </c>
       <c r="J80" t="s">
         <v>31</v>
@@ -11775,7 +11781,7 @@
         <v>51</v>
       </c>
       <c r="N80" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P80" t="b">
         <f>TRUE()</f>
@@ -11807,43 +11813,43 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
+        <v>642</v>
+      </c>
+      <c r="D81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>643</v>
+      </c>
+      <c r="G81" t="s">
         <v>644</v>
       </c>
-      <c r="D81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E81" t="s">
-        <v>81</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
+        <v>155</v>
+      </c>
+      <c r="I81" t="s">
         <v>645</v>
       </c>
-      <c r="G81" t="s">
+      <c r="J81" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" t="s">
         <v>646</v>
-      </c>
-      <c r="H81" t="s">
-        <v>157</v>
-      </c>
-      <c r="I81" t="s">
-        <v>647</v>
-      </c>
-      <c r="J81" t="s">
-        <v>31</v>
-      </c>
-      <c r="L81" t="s">
-        <v>648</v>
       </c>
       <c r="M81" t="s">
         <v>51</v>
       </c>
       <c r="N81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P81" t="b">
         <f>TRUE()</f>
@@ -11875,43 +11881,43 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
+        <v>647</v>
+      </c>
+      <c r="C82" t="s">
+        <v>648</v>
+      </c>
+      <c r="D82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" t="s">
         <v>649</v>
       </c>
-      <c r="C82" t="s">
+      <c r="G82" t="s">
         <v>650</v>
       </c>
-      <c r="D82" t="s">
-        <v>163</v>
-      </c>
-      <c r="E82" t="s">
-        <v>70</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="H82" t="s">
+        <v>647</v>
+      </c>
+      <c r="I82" t="s">
         <v>651</v>
       </c>
-      <c r="G82" t="s">
-        <v>652</v>
-      </c>
-      <c r="H82" t="s">
-        <v>649</v>
-      </c>
-      <c r="I82" t="s">
-        <v>653</v>
-      </c>
       <c r="J82" t="s">
         <v>31</v>
       </c>
       <c r="L82" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M82" t="s">
         <v>51</v>
       </c>
       <c r="N82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P82" t="b">
         <f>TRUE()</f>
@@ -11943,37 +11949,37 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
+        <v>652</v>
+      </c>
+      <c r="B83" t="s">
+        <v>653</v>
+      </c>
+      <c r="C83" t="s">
         <v>654</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
+        <v>286</v>
+      </c>
+      <c r="E83" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" t="s">
         <v>655</v>
       </c>
-      <c r="C83" t="s">
+      <c r="G83" t="s">
         <v>656</v>
       </c>
-      <c r="D83" t="s">
-        <v>288</v>
-      </c>
-      <c r="E83" t="s">
-        <v>76</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
+        <v>653</v>
+      </c>
+      <c r="I83" t="s">
         <v>657</v>
       </c>
-      <c r="G83" t="s">
-        <v>658</v>
-      </c>
-      <c r="H83" t="s">
-        <v>655</v>
-      </c>
-      <c r="I83" t="s">
-        <v>659</v>
-      </c>
       <c r="J83" t="s">
         <v>31</v>
       </c>
       <c r="N83" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P83" t="b">
         <f>TRUE()</f>
@@ -11999,43 +12005,43 @@
     </row>
     <row r="84" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="H84" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>664</v>
-      </c>
       <c r="J84" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P84" s="4" t="b">
         <f>TRUE()</f>
@@ -12067,31 +12073,31 @@
     </row>
     <row r="85" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="G85" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F85" s="4" t="s">
+      <c r="H85" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>669</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>31</v>
@@ -12100,7 +12106,7 @@
         <v>51</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P85" s="4" t="b">
         <f>TRUE()</f>
@@ -12132,31 +12138,31 @@
     </row>
     <row r="86" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F86" s="4" t="s">
+      <c r="H86" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>31</v>
@@ -12165,7 +12171,7 @@
         <v>51</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P86" s="4" t="b">
         <f>TRUE()</f>
@@ -12197,43 +12203,43 @@
     </row>
     <row r="87" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F87" s="4" t="s">
+      <c r="H87" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="J87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L87" s="4" t="s">
-        <v>679</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P87" s="4" t="b">
         <f>TRUE()</f>
@@ -12265,43 +12271,43 @@
     </row>
     <row r="88" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="E88" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F88" s="4" t="s">
+      <c r="H88" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>683</v>
-      </c>
       <c r="J88" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P88" s="4" t="b">
         <f>TRUE()</f>
@@ -12333,43 +12339,43 @@
     </row>
     <row r="89" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F89" s="4" t="s">
+      <c r="H89" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>688</v>
-      </c>
       <c r="J89" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P89" s="4" t="b">
         <f>TRUE()</f>
@@ -12407,25 +12413,25 @@
         <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D90" t="s">
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F90" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G90" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
       </c>
       <c r="I90" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J90" t="s">
         <v>31</v>
@@ -12460,37 +12466,37 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
+        <v>691</v>
+      </c>
+      <c r="C91" t="s">
+        <v>692</v>
+      </c>
+      <c r="D91" t="s">
         <v>693</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>694</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>695</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>696</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
+        <v>691</v>
+      </c>
+      <c r="I91" t="s">
         <v>697</v>
       </c>
-      <c r="G91" t="s">
+      <c r="J91" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" t="s">
         <v>698</v>
       </c>
-      <c r="H91" t="s">
+      <c r="N91" t="s">
         <v>693</v>
-      </c>
-      <c r="I91" t="s">
-        <v>699</v>
-      </c>
-      <c r="J91" t="s">
-        <v>31</v>
-      </c>
-      <c r="L91" t="s">
-        <v>700</v>
-      </c>
-      <c r="N91" t="s">
-        <v>695</v>
       </c>
       <c r="P91" t="b">
         <f>TRUE()</f>
@@ -12519,34 +12525,34 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
+        <v>699</v>
+      </c>
+      <c r="C92" t="s">
+        <v>700</v>
+      </c>
+      <c r="D92" t="s">
         <v>701</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
+        <v>701</v>
+      </c>
+      <c r="F92" t="s">
         <v>702</v>
       </c>
-      <c r="D92" t="s">
+      <c r="G92" t="s">
         <v>703</v>
       </c>
-      <c r="E92" t="s">
-        <v>703</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
+        <v>699</v>
+      </c>
+      <c r="I92" t="s">
         <v>704</v>
       </c>
-      <c r="G92" t="s">
-        <v>705</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="J92" t="s">
+        <v>31</v>
+      </c>
+      <c r="O92" t="s">
         <v>701</v>
-      </c>
-      <c r="I92" t="s">
-        <v>706</v>
-      </c>
-      <c r="J92" t="s">
-        <v>31</v>
-      </c>
-      <c r="O92" t="s">
-        <v>703</v>
       </c>
       <c r="P92" t="b">
         <f>TRUE()</f>
@@ -12565,37 +12571,37 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
+        <v>705</v>
+      </c>
+      <c r="C93" t="s">
+        <v>706</v>
+      </c>
+      <c r="D93" t="s">
+        <v>701</v>
+      </c>
+      <c r="E93" t="s">
+        <v>701</v>
+      </c>
+      <c r="F93" t="s">
         <v>707</v>
       </c>
-      <c r="C93" t="s">
+      <c r="G93" t="s">
         <v>708</v>
       </c>
-      <c r="D93" t="s">
-        <v>703</v>
-      </c>
-      <c r="E93" t="s">
-        <v>703</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="H93" t="s">
+        <v>705</v>
+      </c>
+      <c r="I93" t="s">
         <v>709</v>
       </c>
-      <c r="G93" t="s">
+      <c r="J93" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" t="s">
         <v>710</v>
       </c>
-      <c r="H93" t="s">
-        <v>707</v>
-      </c>
-      <c r="I93" t="s">
-        <v>711</v>
-      </c>
-      <c r="J93" t="s">
-        <v>31</v>
-      </c>
-      <c r="L93" t="s">
-        <v>712</v>
-      </c>
       <c r="O93" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="P93" t="b">
         <f>TRUE()</f>
@@ -12611,37 +12617,37 @@
     </row>
     <row r="94" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="D94" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="F94" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94" s="5" t="s">
+      <c r="G94" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="H94" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="I94" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>719</v>
-      </c>
       <c r="J94" s="5" t="s">
         <v>31</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P94" s="5" t="b">
         <f>TRUE()</f>
@@ -12667,37 +12673,37 @@
     </row>
     <row r="95" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F95" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="I95" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="G95" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>724</v>
-      </c>
       <c r="J95" s="5" t="s">
         <v>31</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P95" s="5" t="b">
         <f>TRUE()</f>
@@ -12723,31 +12729,31 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" t="s">
+        <v>723</v>
+      </c>
+      <c r="D96" t="s">
         <v>61</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96" t="s">
+        <v>724</v>
+      </c>
+      <c r="G96" t="s">
+        <v>724</v>
+      </c>
+      <c r="H96" t="s">
+        <v>59</v>
+      </c>
+      <c r="I96" t="s">
         <v>725</v>
-      </c>
-      <c r="D96" t="s">
-        <v>63</v>
-      </c>
-      <c r="E96" t="s">
-        <v>64</v>
-      </c>
-      <c r="F96" t="s">
-        <v>726</v>
-      </c>
-      <c r="G96" t="s">
-        <v>726</v>
-      </c>
-      <c r="H96" t="s">
-        <v>61</v>
-      </c>
-      <c r="I96" t="s">
-        <v>727</v>
       </c>
       <c r="J96" t="s">
         <v>31</v>
@@ -12756,7 +12762,7 @@
         <v>51</v>
       </c>
       <c r="N96" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P96" t="b">
         <f>TRUE()</f>
@@ -12788,31 +12794,31 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" t="s">
+        <v>726</v>
+      </c>
+      <c r="D97" t="s">
         <v>67</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
+        <v>68</v>
+      </c>
+      <c r="F97" t="s">
+        <v>727</v>
+      </c>
+      <c r="G97" t="s">
         <v>728</v>
       </c>
-      <c r="D97" t="s">
-        <v>69</v>
-      </c>
-      <c r="E97" t="s">
-        <v>70</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97" t="s">
         <v>729</v>
-      </c>
-      <c r="G97" t="s">
-        <v>730</v>
-      </c>
-      <c r="H97" t="s">
-        <v>67</v>
-      </c>
-      <c r="I97" t="s">
-        <v>731</v>
       </c>
       <c r="J97" t="s">
         <v>31</v>
@@ -12821,7 +12827,7 @@
         <v>51</v>
       </c>
       <c r="N97" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P97" t="b">
         <f>TRUE()</f>
@@ -12853,31 +12859,31 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
+        <v>730</v>
+      </c>
+      <c r="C98" t="s">
+        <v>731</v>
+      </c>
+      <c r="D98" t="s">
         <v>732</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E98" t="s">
+        <v>68</v>
+      </c>
+      <c r="F98" t="s">
         <v>733</v>
       </c>
-      <c r="D98" t="s">
+      <c r="G98" t="s">
         <v>734</v>
       </c>
-      <c r="E98" t="s">
-        <v>70</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="H98" t="s">
+        <v>730</v>
+      </c>
+      <c r="I98" t="s">
         <v>735</v>
-      </c>
-      <c r="G98" t="s">
-        <v>736</v>
-      </c>
-      <c r="H98" t="s">
-        <v>732</v>
-      </c>
-      <c r="I98" t="s">
-        <v>737</v>
       </c>
       <c r="J98" t="s">
         <v>31</v>
@@ -12886,7 +12892,7 @@
         <v>51</v>
       </c>
       <c r="N98" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="P98" t="b">
         <f>TRUE()</f>
@@ -12918,40 +12924,40 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
+        <v>736</v>
+      </c>
+      <c r="B99" t="s">
+        <v>737</v>
+      </c>
+      <c r="C99" t="s">
         <v>738</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
         <v>739</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>740</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>741</v>
       </c>
-      <c r="E99" t="s">
+      <c r="G99" t="s">
         <v>742</v>
       </c>
-      <c r="F99" t="s">
+      <c r="H99" t="s">
+        <v>737</v>
+      </c>
+      <c r="I99" t="s">
         <v>743</v>
       </c>
-      <c r="G99" t="s">
-        <v>744</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="J99" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" t="s">
+        <v>324</v>
+      </c>
+      <c r="N99" t="s">
         <v>739</v>
-      </c>
-      <c r="I99" t="s">
-        <v>745</v>
-      </c>
-      <c r="J99" t="s">
-        <v>31</v>
-      </c>
-      <c r="L99" t="s">
-        <v>326</v>
-      </c>
-      <c r="N99" t="s">
-        <v>741</v>
       </c>
       <c r="P99" t="b">
         <f>TRUE()</f>
@@ -12971,40 +12977,40 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B100" t="s">
+        <v>744</v>
+      </c>
+      <c r="C100" t="s">
+        <v>745</v>
+      </c>
+      <c r="D100" t="s">
+        <v>739</v>
+      </c>
+      <c r="E100" t="s">
         <v>746</v>
       </c>
-      <c r="C100" t="s">
+      <c r="F100" t="s">
         <v>747</v>
       </c>
-      <c r="D100" t="s">
-        <v>741</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="G100" t="s">
         <v>748</v>
       </c>
-      <c r="F100" t="s">
+      <c r="H100" t="s">
+        <v>744</v>
+      </c>
+      <c r="I100" t="s">
         <v>749</v>
       </c>
-      <c r="G100" t="s">
-        <v>750</v>
-      </c>
-      <c r="H100" t="s">
-        <v>746</v>
-      </c>
-      <c r="I100" t="s">
-        <v>751</v>
-      </c>
       <c r="J100" t="s">
         <v>31</v>
       </c>
       <c r="L100" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N100" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="P100" t="b">
         <f>TRUE()</f>
@@ -13024,40 +13030,40 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B101" t="s">
+        <v>750</v>
+      </c>
+      <c r="C101" t="s">
+        <v>751</v>
+      </c>
+      <c r="D101" t="s">
         <v>752</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
+        <v>752</v>
+      </c>
+      <c r="F101" t="s">
         <v>753</v>
       </c>
-      <c r="D101" t="s">
+      <c r="G101" t="s">
         <v>754</v>
       </c>
-      <c r="E101" t="s">
-        <v>754</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="H101" t="s">
+        <v>750</v>
+      </c>
+      <c r="I101" t="s">
         <v>755</v>
       </c>
-      <c r="G101" t="s">
-        <v>756</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="J101" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" t="s">
+        <v>324</v>
+      </c>
+      <c r="N101" t="s">
         <v>752</v>
-      </c>
-      <c r="I101" t="s">
-        <v>757</v>
-      </c>
-      <c r="J101" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101" t="s">
-        <v>326</v>
-      </c>
-      <c r="N101" t="s">
-        <v>754</v>
       </c>
       <c r="P101" t="b">
         <f>TRUE()</f>
@@ -13077,40 +13083,40 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
+        <v>756</v>
+      </c>
+      <c r="C102" t="s">
+        <v>757</v>
+      </c>
+      <c r="D102" t="s">
+        <v>320</v>
+      </c>
+      <c r="E102" t="s">
+        <v>320</v>
+      </c>
+      <c r="F102" t="s">
         <v>758</v>
       </c>
-      <c r="C102" t="s">
+      <c r="G102" t="s">
         <v>759</v>
       </c>
-      <c r="D102" t="s">
-        <v>322</v>
-      </c>
-      <c r="E102" t="s">
-        <v>322</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="H102" t="s">
+        <v>756</v>
+      </c>
+      <c r="I102" t="s">
         <v>760</v>
       </c>
-      <c r="G102" t="s">
-        <v>761</v>
-      </c>
-      <c r="H102" t="s">
-        <v>758</v>
-      </c>
-      <c r="I102" t="s">
-        <v>762</v>
-      </c>
       <c r="J102" t="s">
         <v>31</v>
       </c>
       <c r="L102" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M102" t="s">
         <v>51</v>
       </c>
       <c r="N102" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P102" t="b">
         <f>TRUE()</f>
@@ -13142,34 +13148,34 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
+        <v>761</v>
+      </c>
+      <c r="C103" t="s">
+        <v>762</v>
+      </c>
+      <c r="D103" t="s">
+        <v>286</v>
+      </c>
+      <c r="E103" t="s">
+        <v>74</v>
+      </c>
+      <c r="F103" t="s">
         <v>763</v>
       </c>
-      <c r="C103" t="s">
+      <c r="G103" t="s">
         <v>764</v>
       </c>
-      <c r="D103" t="s">
-        <v>288</v>
-      </c>
-      <c r="E103" t="s">
-        <v>76</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="H103" t="s">
+        <v>761</v>
+      </c>
+      <c r="I103" t="s">
         <v>765</v>
       </c>
-      <c r="G103" t="s">
-        <v>766</v>
-      </c>
-      <c r="H103" t="s">
-        <v>763</v>
-      </c>
-      <c r="I103" t="s">
-        <v>767</v>
-      </c>
       <c r="J103" t="s">
         <v>31</v>
       </c>
       <c r="N103" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P103" t="b">
         <f>TRUE()</f>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFD867E-4050-4D09-A67E-028F8363844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE899670-3236-4EA1-B5CB-4E1EC3FAC18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="867">
   <si>
     <t>targets</t>
   </si>
@@ -2500,9 +2500,6 @@
   </si>
   <si>
     <t>~/github/pat/comunas/layers/species_diversity_3mn_pat2021.csv</t>
-  </si>
-  <si>
-    <t>ssp_trend</t>
   </si>
   <si>
     <t>spp_trend_pat2021.csv</t>
@@ -3137,8 +3134,8 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3489,10 +3486,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -3536,10 +3533,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -5116,10 +5113,10 @@
         <v>177</v>
       </c>
       <c r="B36" t="s">
+        <v>849</v>
+      </c>
+      <c r="C36" t="s">
         <v>850</v>
-      </c>
-      <c r="C36" t="s">
-        <v>851</v>
       </c>
       <c r="D36" t="s">
         <v>178</v>
@@ -5128,7 +5125,7 @@
         <v>79</v>
       </c>
       <c r="I36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
@@ -5598,7 +5595,7 @@
         <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I46" t="s">
         <v>767</v>
@@ -6006,19 +6003,19 @@
         <v>711</v>
       </c>
       <c r="B55" t="s">
+        <v>718</v>
+      </c>
+      <c r="C55" t="s">
         <v>820</v>
-      </c>
-      <c r="C55" t="s">
-        <v>821</v>
       </c>
       <c r="D55" t="s">
         <v>68</v>
       </c>
       <c r="E55" t="s">
+        <v>821</v>
+      </c>
+      <c r="I55" t="s">
         <v>822</v>
-      </c>
-      <c r="I55" t="s">
-        <v>823</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
@@ -6028,6 +6025,12 @@
       </c>
       <c r="P55" t="s">
         <v>35</v>
+      </c>
+      <c r="Q55">
+        <v>2021</v>
+      </c>
+      <c r="R55">
+        <v>2021</v>
       </c>
       <c r="S55">
         <v>-0.5</v>
@@ -6050,10 +6053,10 @@
         <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C56" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D56" t="s">
         <v>143</v>
@@ -6062,7 +6065,7 @@
         <v>74</v>
       </c>
       <c r="I56" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
@@ -6094,10 +6097,10 @@
         <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C57" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D57" t="s">
         <v>143</v>
@@ -6106,7 +6109,7 @@
         <v>74</v>
       </c>
       <c r="I57" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J57" t="s">
         <v>31</v>
@@ -6138,10 +6141,10 @@
         <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C58" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D58" t="s">
         <v>143</v>
@@ -6150,7 +6153,7 @@
         <v>74</v>
       </c>
       <c r="I58" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J58" t="s">
         <v>31</v>
@@ -6182,10 +6185,10 @@
         <v>809</v>
       </c>
       <c r="B59" t="s">
+        <v>831</v>
+      </c>
+      <c r="C59" t="s">
         <v>832</v>
-      </c>
-      <c r="C59" t="s">
-        <v>833</v>
       </c>
       <c r="D59" t="s">
         <v>274</v>
@@ -6194,7 +6197,7 @@
         <v>74</v>
       </c>
       <c r="I59" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J59" t="s">
         <v>31</v>
@@ -6226,10 +6229,10 @@
         <v>809</v>
       </c>
       <c r="B60" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C60" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D60" t="s">
         <v>274</v>
@@ -6238,7 +6241,7 @@
         <v>74</v>
       </c>
       <c r="I60" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J60" t="s">
         <v>31</v>
@@ -6270,10 +6273,10 @@
         <v>809</v>
       </c>
       <c r="B61" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C61" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D61" t="s">
         <v>274</v>
@@ -6282,7 +6285,7 @@
         <v>74</v>
       </c>
       <c r="I61" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J61" t="s">
         <v>31</v>
@@ -6314,10 +6317,10 @@
         <v>809</v>
       </c>
       <c r="B62" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C62" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D62" t="s">
         <v>274</v>
@@ -6326,7 +6329,7 @@
         <v>74</v>
       </c>
       <c r="I62" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J62" t="s">
         <v>31</v>
@@ -6358,10 +6361,10 @@
         <v>809</v>
       </c>
       <c r="B63" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C63" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D63" t="s">
         <v>274</v>
@@ -6370,7 +6373,7 @@
         <v>74</v>
       </c>
       <c r="I63" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J63" t="s">
         <v>31</v>
@@ -6402,10 +6405,10 @@
         <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C64" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D64" t="s">
         <v>143</v>
@@ -6414,7 +6417,7 @@
         <v>74</v>
       </c>
       <c r="I64" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J64" t="s">
         <v>31</v>
@@ -6446,10 +6449,10 @@
         <v>317</v>
       </c>
       <c r="B65" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C65" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D65" t="s">
         <v>320</v>
@@ -6458,7 +6461,7 @@
         <v>30</v>
       </c>
       <c r="I65" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J65" t="s">
         <v>31</v>
@@ -6499,10 +6502,10 @@
         <v>317</v>
       </c>
       <c r="B66" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C66" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D66" t="s">
         <v>359</v>
@@ -6511,7 +6514,7 @@
         <v>74</v>
       </c>
       <c r="I66" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J66" t="s">
         <v>31</v>
@@ -6552,19 +6555,19 @@
         <v>317</v>
       </c>
       <c r="B67" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C67" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D67" t="s">
         <v>129</v>
       </c>
       <c r="E67" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I67" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J67" t="s">
         <v>31</v>

--- a/comunas/layers.xlsx
+++ b/comunas/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\comunas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE899670-3236-4EA1-B5CB-4E1EC3FAC18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DF1E10-221B-4C2A-A884-3EDDC885D821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="all" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">layers!$A$1:$Z$73</definedName>
     <definedName name="DatosExternos_1" localSheetId="1">all!$A$1:$Z$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="885">
   <si>
     <t>targets</t>
   </si>
@@ -2493,12 +2494,6 @@
     <t>cc_investigation_pat2021.csv</t>
   </si>
   <si>
-    <t>species_diversity_3mn</t>
-  </si>
-  <si>
-    <t>species_diversity_3mn_pat2021.csv</t>
-  </si>
-  <si>
     <t>~/github/pat/comunas/layers/species_diversity_3mn_pat2021.csv</t>
   </si>
   <si>
@@ -2580,15 +2575,6 @@
     <t>~/github/pat/comunas/layers/fishing_reg_pat2021.csv</t>
   </si>
   <si>
-    <t>fp_illegal_pat2021.csv</t>
-  </si>
-  <si>
-    <t>fp_illegal</t>
-  </si>
-  <si>
-    <t>~/github/pat/comunas/layers/fp_illegal_pat2021.csv</t>
-  </si>
-  <si>
     <t>cs_kelp_forest</t>
   </si>
   <si>
@@ -2641,6 +2627,75 @@
   </si>
   <si>
     <t>rgn_area_offshore3mn</t>
+  </si>
+  <si>
+    <t>le_sector_weight_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/le_sector_weight_pat2021.csv</t>
+  </si>
+  <si>
+    <t>element_wts_cp_km2_x_protection_pat2021.csv</t>
+  </si>
+  <si>
+    <t>element_wts_hab_pres_abs_pat2021.csv</t>
+  </si>
+  <si>
+    <t>element_wts_lsp_km2_x_protection_pat2021.csv</t>
+  </si>
+  <si>
+    <t>element_wts_lsp_km2_x_protection</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/element_wts_cp_km2_x_protection_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/element_wts_hab_pres_abs_pat2021.csv</t>
+  </si>
+  <si>
+    <t>fp_ilegal</t>
+  </si>
+  <si>
+    <t>fp_ilegal_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/fp_ilegal_pat2021.csv</t>
+  </si>
+  <si>
+    <t>hd_infa</t>
+  </si>
+  <si>
+    <t>hd_infa_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/np_product_weight_pat2021.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/hd_infa_pat2021.csv</t>
+  </si>
+  <si>
+    <t>np_product_weight_pat2021.csv</t>
+  </si>
+  <si>
+    <t>np_product_weight</t>
+  </si>
+  <si>
+    <t>weigth</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>species_diversity_3nm_pat2021.csv</t>
+  </si>
+  <si>
+    <t>region_list</t>
+  </si>
+  <si>
+    <t>region_list.csv</t>
+  </si>
+  <si>
+    <t>~/github/pat/comunas/layers/region_list.csv</t>
   </si>
 </sst>
 </file>
@@ -3131,11 +3186,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U73" sqref="U73:U74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3486,10 +3541,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C7" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -3533,10 +3588,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C8" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -5113,10 +5168,10 @@
         <v>177</v>
       </c>
       <c r="B36" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C36" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D36" t="s">
         <v>178</v>
@@ -5125,7 +5180,7 @@
         <v>79</v>
       </c>
       <c r="I36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
@@ -5192,6 +5247,12 @@
       <c r="P37" t="s">
         <v>35</v>
       </c>
+      <c r="Q37">
+        <v>2021</v>
+      </c>
+      <c r="R37">
+        <v>2021</v>
+      </c>
       <c r="S37">
         <v>0.17589450000000001</v>
       </c>
@@ -5239,6 +5300,12 @@
       <c r="P38" t="s">
         <v>35</v>
       </c>
+      <c r="Q38">
+        <v>2021</v>
+      </c>
+      <c r="R38">
+        <v>2021</v>
+      </c>
       <c r="S38" s="1">
         <v>8.8345419999999998E-5</v>
       </c>
@@ -5289,6 +5356,12 @@
       <c r="P39" t="s">
         <v>35</v>
       </c>
+      <c r="Q39">
+        <v>2021</v>
+      </c>
+      <c r="R39">
+        <v>2021</v>
+      </c>
       <c r="S39">
         <v>3.6289950000000001E-2</v>
       </c>
@@ -5327,11 +5400,20 @@
       <c r="J40" t="s">
         <v>31</v>
       </c>
+      <c r="M40" t="s">
+        <v>51</v>
+      </c>
       <c r="N40" t="s">
         <v>143</v>
       </c>
       <c r="P40" t="s">
         <v>35</v>
+      </c>
+      <c r="Q40">
+        <v>2021</v>
+      </c>
+      <c r="R40">
+        <v>2021</v>
       </c>
       <c r="S40">
         <v>5.7569120000000001E-2</v>
@@ -5371,11 +5453,20 @@
       <c r="J41" t="s">
         <v>31</v>
       </c>
+      <c r="M41" t="s">
+        <v>51</v>
+      </c>
       <c r="N41" t="s">
         <v>143</v>
       </c>
       <c r="P41" t="s">
         <v>35</v>
+      </c>
+      <c r="Q41">
+        <v>2021</v>
+      </c>
+      <c r="R41">
+        <v>2021</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -5415,11 +5506,20 @@
       <c r="J42" t="s">
         <v>31</v>
       </c>
+      <c r="M42" t="s">
+        <v>51</v>
+      </c>
       <c r="N42" t="s">
         <v>143</v>
       </c>
       <c r="P42" t="s">
         <v>35</v>
+      </c>
+      <c r="Q42">
+        <v>2021</v>
+      </c>
+      <c r="R42">
+        <v>2021</v>
       </c>
       <c r="S42">
         <v>4.8026190000000002E-3</v>
@@ -5459,11 +5559,20 @@
       <c r="J43" t="s">
         <v>31</v>
       </c>
+      <c r="M43" t="s">
+        <v>51</v>
+      </c>
       <c r="N43" t="s">
         <v>143</v>
       </c>
       <c r="P43" t="s">
         <v>35</v>
+      </c>
+      <c r="Q43">
+        <v>2021</v>
+      </c>
+      <c r="R43">
+        <v>2021</v>
       </c>
       <c r="S43">
         <v>1.061578E-4</v>
@@ -5503,11 +5612,20 @@
       <c r="J44" t="s">
         <v>31</v>
       </c>
+      <c r="M44" t="s">
+        <v>51</v>
+      </c>
       <c r="N44" t="s">
         <v>143</v>
       </c>
       <c r="P44" t="s">
         <v>35</v>
+      </c>
+      <c r="Q44">
+        <v>2021</v>
+      </c>
+      <c r="R44">
+        <v>2021</v>
       </c>
       <c r="S44">
         <v>8.9222469999999998E-2</v>
@@ -5595,7 +5713,7 @@
         <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I46" t="s">
         <v>767</v>
@@ -5756,11 +5874,20 @@
       <c r="J49" t="s">
         <v>31</v>
       </c>
+      <c r="M49" t="s">
+        <v>51</v>
+      </c>
       <c r="N49" t="s">
         <v>274</v>
       </c>
       <c r="P49" t="s">
         <v>35</v>
+      </c>
+      <c r="Q49">
+        <v>2021</v>
+      </c>
+      <c r="R49">
+        <v>2021</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -5800,12 +5927,21 @@
       <c r="J50" t="s">
         <v>31</v>
       </c>
+      <c r="M50" t="s">
+        <v>51</v>
+      </c>
       <c r="N50" t="s">
         <v>274</v>
       </c>
       <c r="P50" t="s">
         <v>35</v>
       </c>
+      <c r="Q50">
+        <v>2021</v>
+      </c>
+      <c r="R50">
+        <v>2021</v>
+      </c>
       <c r="S50">
         <v>0.21998529999999999</v>
       </c>
@@ -5816,7 +5952,7 @@
         <v>36</v>
       </c>
       <c r="Y50">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="Z50" t="s">
         <v>35</v>
@@ -5844,11 +5980,20 @@
       <c r="J51" t="s">
         <v>31</v>
       </c>
+      <c r="M51" t="s">
+        <v>51</v>
+      </c>
       <c r="N51" t="s">
         <v>274</v>
       </c>
       <c r="P51" t="s">
         <v>35</v>
+      </c>
+      <c r="Q51">
+        <v>2021</v>
+      </c>
+      <c r="R51">
+        <v>2021</v>
       </c>
       <c r="S51">
         <v>0.1036097</v>
@@ -5888,11 +6033,20 @@
       <c r="J52" t="s">
         <v>31</v>
       </c>
+      <c r="M52" t="s">
+        <v>51</v>
+      </c>
       <c r="N52" t="s">
         <v>274</v>
       </c>
       <c r="P52" t="s">
         <v>35</v>
+      </c>
+      <c r="Q52">
+        <v>2021</v>
+      </c>
+      <c r="R52">
+        <v>2021</v>
       </c>
       <c r="S52">
         <v>4.6296749999999998E-2</v>
@@ -5927,16 +6081,25 @@
         <v>74</v>
       </c>
       <c r="I53" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J53" t="s">
         <v>31</v>
+      </c>
+      <c r="M53" t="s">
+        <v>51</v>
       </c>
       <c r="N53" t="s">
         <v>274</v>
       </c>
       <c r="P53" t="s">
         <v>35</v>
+      </c>
+      <c r="Q53">
+        <v>2021</v>
+      </c>
+      <c r="R53">
+        <v>2021</v>
       </c>
       <c r="S53">
         <v>0.20610790000000001</v>
@@ -5959,10 +6122,10 @@
         <v>809</v>
       </c>
       <c r="B54" t="s">
-        <v>817</v>
+        <v>312</v>
       </c>
       <c r="C54" t="s">
-        <v>818</v>
+        <v>881</v>
       </c>
       <c r="D54" t="s">
         <v>274</v>
@@ -5976,11 +6139,20 @@
       <c r="J54" t="s">
         <v>31</v>
       </c>
+      <c r="M54" t="s">
+        <v>51</v>
+      </c>
       <c r="N54" t="s">
         <v>274</v>
       </c>
       <c r="P54" t="s">
         <v>35</v>
+      </c>
+      <c r="Q54">
+        <v>2021</v>
+      </c>
+      <c r="R54">
+        <v>2021</v>
       </c>
       <c r="S54">
         <v>5.4210730000000002E-3</v>
@@ -6006,16 +6178,16 @@
         <v>718</v>
       </c>
       <c r="C55" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D55" t="s">
         <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I55" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
@@ -6053,10 +6225,10 @@
         <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C56" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D56" t="s">
         <v>143</v>
@@ -6065,16 +6237,25 @@
         <v>74</v>
       </c>
       <c r="I56" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
+      </c>
+      <c r="M56" t="s">
+        <v>51</v>
       </c>
       <c r="N56" t="s">
         <v>143</v>
       </c>
       <c r="P56" t="s">
         <v>35</v>
+      </c>
+      <c r="Q56">
+        <v>2021</v>
+      </c>
+      <c r="R56">
+        <v>2021</v>
       </c>
       <c r="S56">
         <v>6.9577079999999999E-2</v>
@@ -6097,10 +6278,10 @@
         <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C57" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D57" t="s">
         <v>143</v>
@@ -6109,16 +6290,25 @@
         <v>74</v>
       </c>
       <c r="I57" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J57" t="s">
         <v>31</v>
+      </c>
+      <c r="M57" t="s">
+        <v>51</v>
       </c>
       <c r="N57" t="s">
         <v>143</v>
       </c>
       <c r="P57" t="s">
         <v>35</v>
+      </c>
+      <c r="Q57">
+        <v>2021</v>
+      </c>
+      <c r="R57">
+        <v>2021</v>
       </c>
       <c r="S57">
         <v>1.4701920000000001E-4</v>
@@ -6141,10 +6331,10 @@
         <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C58" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D58" t="s">
         <v>143</v>
@@ -6153,16 +6343,25 @@
         <v>74</v>
       </c>
       <c r="I58" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J58" t="s">
         <v>31</v>
+      </c>
+      <c r="M58" t="s">
+        <v>51</v>
       </c>
       <c r="N58" t="s">
         <v>143</v>
       </c>
       <c r="P58" t="s">
         <v>35</v>
+      </c>
+      <c r="Q58">
+        <v>2021</v>
+      </c>
+      <c r="R58">
+        <v>2021</v>
       </c>
       <c r="S58">
         <v>1.11E-5</v>
@@ -6185,10 +6384,10 @@
         <v>809</v>
       </c>
       <c r="B59" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C59" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D59" t="s">
         <v>274</v>
@@ -6197,16 +6396,25 @@
         <v>74</v>
       </c>
       <c r="I59" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J59" t="s">
         <v>31</v>
+      </c>
+      <c r="M59" t="s">
+        <v>51</v>
       </c>
       <c r="N59" t="s">
         <v>274</v>
       </c>
       <c r="P59" t="s">
         <v>35</v>
+      </c>
+      <c r="Q59">
+        <v>2021</v>
+      </c>
+      <c r="R59">
+        <v>2021</v>
       </c>
       <c r="S59">
         <v>8.5572310000000002E-3</v>
@@ -6229,10 +6437,10 @@
         <v>809</v>
       </c>
       <c r="B60" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C60" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D60" t="s">
         <v>274</v>
@@ -6241,16 +6449,25 @@
         <v>74</v>
       </c>
       <c r="I60" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J60" t="s">
         <v>31</v>
+      </c>
+      <c r="M60" t="s">
+        <v>51</v>
       </c>
       <c r="N60" t="s">
         <v>274</v>
       </c>
       <c r="P60" t="s">
         <v>35</v>
+      </c>
+      <c r="Q60">
+        <v>2021</v>
+      </c>
+      <c r="R60">
+        <v>2021</v>
       </c>
       <c r="S60">
         <v>5.1863040000000001E-3</v>
@@ -6273,10 +6490,10 @@
         <v>809</v>
       </c>
       <c r="B61" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C61" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D61" t="s">
         <v>274</v>
@@ -6285,16 +6502,25 @@
         <v>74</v>
       </c>
       <c r="I61" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J61" t="s">
         <v>31</v>
+      </c>
+      <c r="M61" t="s">
+        <v>51</v>
       </c>
       <c r="N61" t="s">
         <v>274</v>
       </c>
       <c r="P61" t="s">
         <v>35</v>
+      </c>
+      <c r="Q61">
+        <v>2021</v>
+      </c>
+      <c r="R61">
+        <v>2021</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -6317,10 +6543,10 @@
         <v>809</v>
       </c>
       <c r="B62" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C62" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D62" t="s">
         <v>274</v>
@@ -6329,16 +6555,25 @@
         <v>74</v>
       </c>
       <c r="I62" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J62" t="s">
         <v>31</v>
+      </c>
+      <c r="M62" t="s">
+        <v>51</v>
       </c>
       <c r="N62" t="s">
         <v>274</v>
       </c>
       <c r="P62" t="s">
         <v>35</v>
+      </c>
+      <c r="Q62">
+        <v>2021</v>
+      </c>
+      <c r="R62">
+        <v>2021</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -6361,10 +6596,10 @@
         <v>809</v>
       </c>
       <c r="B63" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C63" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D63" t="s">
         <v>274</v>
@@ -6373,16 +6608,25 @@
         <v>74</v>
       </c>
       <c r="I63" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J63" t="s">
         <v>31</v>
+      </c>
+      <c r="M63" t="s">
+        <v>51</v>
       </c>
       <c r="N63" t="s">
         <v>274</v>
       </c>
       <c r="P63" t="s">
         <v>35</v>
+      </c>
+      <c r="Q63">
+        <v>2021</v>
+      </c>
+      <c r="R63">
+        <v>2021</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -6405,10 +6649,10 @@
         <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="C64" t="s">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="D64" t="s">
         <v>143</v>
@@ -6417,16 +6661,25 @@
         <v>74</v>
       </c>
       <c r="I64" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="J64" t="s">
         <v>31</v>
+      </c>
+      <c r="M64" t="s">
+        <v>51</v>
       </c>
       <c r="N64" t="s">
         <v>143</v>
       </c>
       <c r="P64" t="s">
         <v>35</v>
+      </c>
+      <c r="Q64">
+        <v>2021</v>
+      </c>
+      <c r="R64">
+        <v>2021</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -6449,10 +6702,10 @@
         <v>317</v>
       </c>
       <c r="B65" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C65" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D65" t="s">
         <v>320</v>
@@ -6461,7 +6714,7 @@
         <v>30</v>
       </c>
       <c r="I65" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="J65" t="s">
         <v>31</v>
@@ -6502,10 +6755,10 @@
         <v>317</v>
       </c>
       <c r="B66" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C66" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D66" t="s">
         <v>359</v>
@@ -6514,7 +6767,7 @@
         <v>74</v>
       </c>
       <c r="I66" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="J66" t="s">
         <v>31</v>
@@ -6555,19 +6808,19 @@
         <v>317</v>
       </c>
       <c r="B67" t="s">
+        <v>847</v>
+      </c>
+      <c r="C67" t="s">
         <v>852</v>
-      </c>
-      <c r="C67" t="s">
-        <v>857</v>
       </c>
       <c r="D67" t="s">
         <v>129</v>
       </c>
       <c r="E67" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="I67" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="J67" t="s">
         <v>31</v>
@@ -6603,7 +6856,325 @@
         <v>36</v>
       </c>
     </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>501</v>
+      </c>
+      <c r="B68" t="s">
+        <v>502</v>
+      </c>
+      <c r="C68" t="s">
+        <v>862</v>
+      </c>
+      <c r="D68" t="s">
+        <v>504</v>
+      </c>
+      <c r="E68" t="s">
+        <v>178</v>
+      </c>
+      <c r="I68" t="s">
+        <v>863</v>
+      </c>
+      <c r="J68" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" t="s">
+        <v>99</v>
+      </c>
+      <c r="N68" t="s">
+        <v>178</v>
+      </c>
+      <c r="P68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y68">
+        <v>36</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>504</v>
+      </c>
+      <c r="B69" t="s">
+        <v>737</v>
+      </c>
+      <c r="C69" t="s">
+        <v>864</v>
+      </c>
+      <c r="D69" t="s">
+        <v>739</v>
+      </c>
+      <c r="I69" t="s">
+        <v>868</v>
+      </c>
+      <c r="J69" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" t="s">
+        <v>324</v>
+      </c>
+      <c r="N69" t="s">
+        <v>739</v>
+      </c>
+      <c r="P69" t="s">
+        <v>35</v>
+      </c>
+      <c r="S69">
+        <v>0.05</v>
+      </c>
+      <c r="T69">
+        <v>1631883069</v>
+      </c>
+      <c r="U69" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y69">
+        <v>36</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>504</v>
+      </c>
+      <c r="B70" t="s">
+        <v>750</v>
+      </c>
+      <c r="C70" t="s">
+        <v>865</v>
+      </c>
+      <c r="D70" t="s">
+        <v>752</v>
+      </c>
+      <c r="I70" t="s">
+        <v>869</v>
+      </c>
+      <c r="J70" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" t="s">
+        <v>324</v>
+      </c>
+      <c r="N70" t="s">
+        <v>752</v>
+      </c>
+      <c r="P70" t="s">
+        <v>35</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y70">
+        <v>36</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>504</v>
+      </c>
+      <c r="B71" t="s">
+        <v>867</v>
+      </c>
+      <c r="C71" t="s">
+        <v>866</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s">
+        <v>868</v>
+      </c>
+      <c r="J71" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" t="s">
+        <v>324</v>
+      </c>
+      <c r="N71" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" t="s">
+        <v>35</v>
+      </c>
+      <c r="S71">
+        <v>8.4</v>
+      </c>
+      <c r="T71">
+        <v>44510.1</v>
+      </c>
+      <c r="U71" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y71">
+        <v>36</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" t="s">
+        <v>873</v>
+      </c>
+      <c r="C72" t="s">
+        <v>874</v>
+      </c>
+      <c r="D72" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s">
+        <v>876</v>
+      </c>
+      <c r="J72" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" t="s">
+        <v>51</v>
+      </c>
+      <c r="N72" t="s">
+        <v>143</v>
+      </c>
+      <c r="P72" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q72">
+        <v>2021</v>
+      </c>
+      <c r="R72">
+        <v>2021</v>
+      </c>
+      <c r="S72">
+        <v>1.4701920000000001E-4</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y72">
+        <v>36</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>504</v>
+      </c>
+      <c r="B73" t="s">
+        <v>878</v>
+      </c>
+      <c r="C73" t="s">
+        <v>877</v>
+      </c>
+      <c r="D73" t="s">
+        <v>879</v>
+      </c>
+      <c r="E73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s">
+        <v>875</v>
+      </c>
+      <c r="J73" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" t="s">
+        <v>880</v>
+      </c>
+      <c r="M73" t="s">
+        <v>51</v>
+      </c>
+      <c r="N73" t="s">
+        <v>879</v>
+      </c>
+      <c r="P73" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q73">
+        <v>2021</v>
+      </c>
+      <c r="R73">
+        <v>2021</v>
+      </c>
+      <c r="S73">
+        <v>0.77720482000000002</v>
+      </c>
+      <c r="T73">
+        <v>8.5862110000000005E-2</v>
+      </c>
+      <c r="U73" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y73">
+        <v>36</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>882</v>
+      </c>
+      <c r="C74" t="s">
+        <v>883</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s">
+        <v>884</v>
+      </c>
+      <c r="J74" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" t="s">
+        <v>35</v>
+      </c>
+      <c r="U74" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:Z73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
